--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -11,9 +11,10 @@
     <sheet name="Cinema" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="242">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -430,9 +431,6 @@
   </si>
   <si>
     <t xml:space="preserve">RD38010022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR</t>
   </si>
   <si>
     <t xml:space="preserve">Coolers</t>
@@ -963,51 +961,51 @@
   <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="83.2307692307692"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="83.9797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="253.655870445344"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="91.8016194331984"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="256.012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.2348178137652"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
@@ -3317,17 +3315,17 @@
         <v>126</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>41</v>
@@ -3366,7 +3364,7 @@
         <v>310</v>
       </c>
       <c r="AL30" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM30" s="8"/>
     </row>
@@ -3378,17 +3376,17 @@
         <v>126</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>41</v>
@@ -3441,22 +3439,22 @@
         <v>126</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -3467,7 +3465,7 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -3481,10 +3479,10 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD32" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="AD32" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="AE32" s="10" t="n">
         <v>0.08</v>
@@ -3492,7 +3490,7 @@
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8" t="n">
@@ -3502,7 +3500,7 @@
         <v>26</v>
       </c>
       <c r="AL32" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM32" s="8" t="n">
         <v>311</v>
@@ -3516,22 +3514,22 @@
         <v>126</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="n">
@@ -3540,23 +3538,23 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
@@ -3564,7 +3562,7 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD33" s="8" t="s">
         <v>58</v>
@@ -3573,7 +3571,7 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8" t="n">
@@ -3595,22 +3593,22 @@
         <v>126</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="n">
@@ -3619,23 +3617,23 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N34" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
@@ -3643,7 +3641,7 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD34" s="8" t="s">
         <v>58</v>
@@ -3672,17 +3670,17 @@
         <v>126</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>41</v>
@@ -3721,7 +3719,7 @@
         <v>312</v>
       </c>
       <c r="AL35" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM35" s="8" t="n">
         <v>310</v>
@@ -3735,22 +3733,22 @@
         <v>126</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="n">
@@ -3760,13 +3758,13 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
@@ -3776,14 +3774,14 @@
         <v>56</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD36" s="8" t="s">
         <v>58</v>
@@ -3794,10 +3792,10 @@
       <c r="AF36" s="8"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AI36" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ36" s="8" t="n">
         <v>2</v>
@@ -3818,22 +3816,22 @@
         <v>126</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="n">
@@ -3842,23 +3840,23 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N37" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
@@ -3866,10 +3864,10 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD37" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="AD37" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="AE37" s="10" t="n">
         <v>0.04</v>
@@ -3877,10 +3875,10 @@
       <c r="AF37" s="8"/>
       <c r="AG37" s="8"/>
       <c r="AH37" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI37" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ37" s="8" t="n">
         <v>2</v>
@@ -3901,22 +3899,22 @@
         <v>126</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F38" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -3927,23 +3925,23 @@
         <v>15</v>
       </c>
       <c r="M38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N38" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
@@ -3951,7 +3949,7 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD38" s="8" t="s">
         <v>58</v>
@@ -3962,10 +3960,10 @@
       <c r="AF38" s="8"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI38" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ38" s="8" t="n">
         <v>2</v>
@@ -3986,17 +3984,17 @@
         <v>126</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>41</v>
@@ -4035,7 +4033,7 @@
         <v>400</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM39" s="8"/>
     </row>
@@ -4047,19 +4045,19 @@
         <v>126</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>53</v>
@@ -4071,10 +4069,10 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N40" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -4082,24 +4080,24 @@
         <v>54</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="X40" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="X40" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD40" s="8" t="s">
         <v>58</v>
@@ -4130,22 +4128,22 @@
         <v>126</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="n">
@@ -4158,7 +4156,7 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -4166,17 +4164,17 @@
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD41" s="8" t="s">
         <v>58</v>
@@ -4195,7 +4193,7 @@
         <v>34</v>
       </c>
       <c r="AL41" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM41" s="8" t="n">
         <v>400</v>
@@ -4209,19 +4207,19 @@
         <v>126</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>53</v>
@@ -4233,10 +4231,10 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="N42" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
@@ -4251,17 +4249,17 @@
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD42" s="8" t="s">
         <v>58</v>
@@ -4290,22 +4288,22 @@
         <v>126</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F43" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="n">
@@ -4314,13 +4312,13 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N43" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="O43" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8" t="s">
@@ -4334,17 +4332,17 @@
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD43" s="8" t="s">
         <v>58</v>
@@ -4353,7 +4351,7 @@
       <c r="AF43" s="8"/>
       <c r="AG43" s="8"/>
       <c r="AH43" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8" t="n">
@@ -4375,22 +4373,22 @@
         <v>126</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="H44" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="n">
@@ -4403,7 +4401,7 @@
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -4411,10 +4409,10 @@
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X44" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
@@ -4452,22 +4450,22 @@
         <v>126</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="n">
@@ -4480,7 +4478,7 @@
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -4488,17 +4486,17 @@
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
       <c r="W45" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X45" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD45" s="8" t="s">
         <v>58</v>
@@ -4515,7 +4513,7 @@
         <v>769</v>
       </c>
       <c r="AL45" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AM45" s="8" t="n">
         <v>680</v>
@@ -4529,19 +4527,19 @@
         <v>126</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>53</v>
@@ -4553,35 +4551,35 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N46" s="9"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>54</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X46" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD46" s="8" t="s">
         <v>58</v>
@@ -4610,22 +4608,22 @@
         <v>126</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="H47" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="n">
@@ -4634,13 +4632,13 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N47" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="N47" s="9" t="s">
+      <c r="O47" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8" t="s">
@@ -4654,17 +4652,17 @@
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X47" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
       <c r="AC47" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD47" s="8" t="s">
         <v>58</v>
@@ -4673,7 +4671,7 @@
       <c r="AF47" s="8"/>
       <c r="AG47" s="8"/>
       <c r="AH47" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8" t="n">
@@ -4695,25 +4693,25 @@
         <v>126</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="F48" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="G48" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -4724,7 +4722,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
@@ -4748,7 +4746,7 @@
         <v>37</v>
       </c>
       <c r="AL48" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM48" s="8"/>
     </row>
@@ -4760,38 +4758,38 @@
         <v>126</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E49" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="G49" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="I49" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -4827,38 +4825,38 @@
         <v>126</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F50" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="H50" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I50" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
@@ -4894,40 +4892,40 @@
         <v>126</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="G51" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H51" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I51" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="N51" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -4963,40 +4961,40 @@
         <v>126</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>231</v>
-      </c>
       <c r="H52" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
@@ -5020,7 +5018,7 @@
         <v>42</v>
       </c>
       <c r="AL52" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM52" s="8"/>
     </row>
@@ -5032,45 +5030,45 @@
         <v>126</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="G53" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>237</v>
-      </c>
       <c r="I53" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
@@ -5099,23 +5097,23 @@
         <v>126</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="H54" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -5126,7 +5124,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
@@ -5153,7 +5151,7 @@
       <c r="AM54" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1"/>
+  <autoFilter ref="A1:AM54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -12,9 +12,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="242">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -960,52 +961,52 @@
   </sheetPr>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="N40" activeCellId="0" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="91.587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="83.9797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="92.336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="84.7327935222672"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="91.8016194331984"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="256.012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="37.4858299595142"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="37.4858299595142"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.7692307692308"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
@@ -4553,7 +4554,9 @@
       <c r="M46" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="N46" s="9"/>
+      <c r="N46" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8" t="s">
         <v>205</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -5,17 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -254,16 +254,16 @@
     <t xml:space="preserve">Фанта Груша - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 0.25L/Schweppes Tonic - 0.25L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 0.25л/Швеппс Биттер Лемон - 0.25л</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schweppes Bitter Lemon - 0.25L, Schweppes Tonic - 0.25L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822341, 40822549</t>
+    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L/Schweppes - Pomegranate - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 0.33л/Швеппс Гранат - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L, Schweppes - Pomegranate - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000064110, 5449000030856</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 2</t>
@@ -838,12 +838,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -889,7 +895,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -938,6 +944,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -947,6 +969,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -959,54 +1041,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM54"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="N40" activeCellId="0" sqref="N40"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="92.336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="84.7327935222672"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="37.4858299595142"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="37.4858299595142"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="93.1943319838057"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.4817813765182"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="69.412955465587"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
@@ -1190,6 +1272,991 @@
         <v>44</v>
       </c>
       <c r="AM2" s="8"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
@@ -1257,6 +2324,991 @@
       <c r="AM3" s="8" t="n">
         <v>300</v>
       </c>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0"/>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0"/>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0"/>
+      <c r="BB3" s="0"/>
+      <c r="BC3" s="0"/>
+      <c r="BD3" s="0"/>
+      <c r="BE3" s="0"/>
+      <c r="BF3" s="0"/>
+      <c r="BG3" s="0"/>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0"/>
+      <c r="BL3" s="0"/>
+      <c r="BM3" s="0"/>
+      <c r="BN3" s="0"/>
+      <c r="BO3" s="0"/>
+      <c r="BP3" s="0"/>
+      <c r="BQ3" s="0"/>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
+      <c r="BU3" s="0"/>
+      <c r="BV3" s="0"/>
+      <c r="BW3" s="0"/>
+      <c r="BX3" s="0"/>
+      <c r="BY3" s="0"/>
+      <c r="BZ3" s="0"/>
+      <c r="CA3" s="0"/>
+      <c r="CB3" s="0"/>
+      <c r="CC3" s="0"/>
+      <c r="CD3" s="0"/>
+      <c r="CE3" s="0"/>
+      <c r="CF3" s="0"/>
+      <c r="CG3" s="0"/>
+      <c r="CH3" s="0"/>
+      <c r="CI3" s="0"/>
+      <c r="CJ3" s="0"/>
+      <c r="CK3" s="0"/>
+      <c r="CL3" s="0"/>
+      <c r="CM3" s="0"/>
+      <c r="CN3" s="0"/>
+      <c r="CO3" s="0"/>
+      <c r="CP3" s="0"/>
+      <c r="CQ3" s="0"/>
+      <c r="CR3" s="0"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="0"/>
+      <c r="CU3" s="0"/>
+      <c r="CV3" s="0"/>
+      <c r="CW3" s="0"/>
+      <c r="CX3" s="0"/>
+      <c r="CY3" s="0"/>
+      <c r="CZ3" s="0"/>
+      <c r="DA3" s="0"/>
+      <c r="DB3" s="0"/>
+      <c r="DC3" s="0"/>
+      <c r="DD3" s="0"/>
+      <c r="DE3" s="0"/>
+      <c r="DF3" s="0"/>
+      <c r="DG3" s="0"/>
+      <c r="DH3" s="0"/>
+      <c r="DI3" s="0"/>
+      <c r="DJ3" s="0"/>
+      <c r="DK3" s="0"/>
+      <c r="DL3" s="0"/>
+      <c r="DM3" s="0"/>
+      <c r="DN3" s="0"/>
+      <c r="DO3" s="0"/>
+      <c r="DP3" s="0"/>
+      <c r="DQ3" s="0"/>
+      <c r="DR3" s="0"/>
+      <c r="DS3" s="0"/>
+      <c r="DT3" s="0"/>
+      <c r="DU3" s="0"/>
+      <c r="DV3" s="0"/>
+      <c r="DW3" s="0"/>
+      <c r="DX3" s="0"/>
+      <c r="DY3" s="0"/>
+      <c r="DZ3" s="0"/>
+      <c r="EA3" s="0"/>
+      <c r="EB3" s="0"/>
+      <c r="EC3" s="0"/>
+      <c r="ED3" s="0"/>
+      <c r="EE3" s="0"/>
+      <c r="EF3" s="0"/>
+      <c r="EG3" s="0"/>
+      <c r="EH3" s="0"/>
+      <c r="EI3" s="0"/>
+      <c r="EJ3" s="0"/>
+      <c r="EK3" s="0"/>
+      <c r="EL3" s="0"/>
+      <c r="EM3" s="0"/>
+      <c r="EN3" s="0"/>
+      <c r="EO3" s="0"/>
+      <c r="EP3" s="0"/>
+      <c r="EQ3" s="0"/>
+      <c r="ER3" s="0"/>
+      <c r="ES3" s="0"/>
+      <c r="ET3" s="0"/>
+      <c r="EU3" s="0"/>
+      <c r="EV3" s="0"/>
+      <c r="EW3" s="0"/>
+      <c r="EX3" s="0"/>
+      <c r="EY3" s="0"/>
+      <c r="EZ3" s="0"/>
+      <c r="FA3" s="0"/>
+      <c r="FB3" s="0"/>
+      <c r="FC3" s="0"/>
+      <c r="FD3" s="0"/>
+      <c r="FE3" s="0"/>
+      <c r="FF3" s="0"/>
+      <c r="FG3" s="0"/>
+      <c r="FH3" s="0"/>
+      <c r="FI3" s="0"/>
+      <c r="FJ3" s="0"/>
+      <c r="FK3" s="0"/>
+      <c r="FL3" s="0"/>
+      <c r="FM3" s="0"/>
+      <c r="FN3" s="0"/>
+      <c r="FO3" s="0"/>
+      <c r="FP3" s="0"/>
+      <c r="FQ3" s="0"/>
+      <c r="FR3" s="0"/>
+      <c r="FS3" s="0"/>
+      <c r="FT3" s="0"/>
+      <c r="FU3" s="0"/>
+      <c r="FV3" s="0"/>
+      <c r="FW3" s="0"/>
+      <c r="FX3" s="0"/>
+      <c r="FY3" s="0"/>
+      <c r="FZ3" s="0"/>
+      <c r="GA3" s="0"/>
+      <c r="GB3" s="0"/>
+      <c r="GC3" s="0"/>
+      <c r="GD3" s="0"/>
+      <c r="GE3" s="0"/>
+      <c r="GF3" s="0"/>
+      <c r="GG3" s="0"/>
+      <c r="GH3" s="0"/>
+      <c r="GI3" s="0"/>
+      <c r="GJ3" s="0"/>
+      <c r="GK3" s="0"/>
+      <c r="GL3" s="0"/>
+      <c r="GM3" s="0"/>
+      <c r="GN3" s="0"/>
+      <c r="GO3" s="0"/>
+      <c r="GP3" s="0"/>
+      <c r="GQ3" s="0"/>
+      <c r="GR3" s="0"/>
+      <c r="GS3" s="0"/>
+      <c r="GT3" s="0"/>
+      <c r="GU3" s="0"/>
+      <c r="GV3" s="0"/>
+      <c r="GW3" s="0"/>
+      <c r="GX3" s="0"/>
+      <c r="GY3" s="0"/>
+      <c r="GZ3" s="0"/>
+      <c r="HA3" s="0"/>
+      <c r="HB3" s="0"/>
+      <c r="HC3" s="0"/>
+      <c r="HD3" s="0"/>
+      <c r="HE3" s="0"/>
+      <c r="HF3" s="0"/>
+      <c r="HG3" s="0"/>
+      <c r="HH3" s="0"/>
+      <c r="HI3" s="0"/>
+      <c r="HJ3" s="0"/>
+      <c r="HK3" s="0"/>
+      <c r="HL3" s="0"/>
+      <c r="HM3" s="0"/>
+      <c r="HN3" s="0"/>
+      <c r="HO3" s="0"/>
+      <c r="HP3" s="0"/>
+      <c r="HQ3" s="0"/>
+      <c r="HR3" s="0"/>
+      <c r="HS3" s="0"/>
+      <c r="HT3" s="0"/>
+      <c r="HU3" s="0"/>
+      <c r="HV3" s="0"/>
+      <c r="HW3" s="0"/>
+      <c r="HX3" s="0"/>
+      <c r="HY3" s="0"/>
+      <c r="HZ3" s="0"/>
+      <c r="IA3" s="0"/>
+      <c r="IB3" s="0"/>
+      <c r="IC3" s="0"/>
+      <c r="ID3" s="0"/>
+      <c r="IE3" s="0"/>
+      <c r="IF3" s="0"/>
+      <c r="IG3" s="0"/>
+      <c r="IH3" s="0"/>
+      <c r="II3" s="0"/>
+      <c r="IJ3" s="0"/>
+      <c r="IK3" s="0"/>
+      <c r="IL3" s="0"/>
+      <c r="IM3" s="0"/>
+      <c r="IN3" s="0"/>
+      <c r="IO3" s="0"/>
+      <c r="IP3" s="0"/>
+      <c r="IQ3" s="0"/>
+      <c r="IR3" s="0"/>
+      <c r="IS3" s="0"/>
+      <c r="IT3" s="0"/>
+      <c r="IU3" s="0"/>
+      <c r="IV3" s="0"/>
+      <c r="IW3" s="0"/>
+      <c r="IX3" s="0"/>
+      <c r="IY3" s="0"/>
+      <c r="IZ3" s="0"/>
+      <c r="JA3" s="0"/>
+      <c r="JB3" s="0"/>
+      <c r="JC3" s="0"/>
+      <c r="JD3" s="0"/>
+      <c r="JE3" s="0"/>
+      <c r="JF3" s="0"/>
+      <c r="JG3" s="0"/>
+      <c r="JH3" s="0"/>
+      <c r="JI3" s="0"/>
+      <c r="JJ3" s="0"/>
+      <c r="JK3" s="0"/>
+      <c r="JL3" s="0"/>
+      <c r="JM3" s="0"/>
+      <c r="JN3" s="0"/>
+      <c r="JO3" s="0"/>
+      <c r="JP3" s="0"/>
+      <c r="JQ3" s="0"/>
+      <c r="JR3" s="0"/>
+      <c r="JS3" s="0"/>
+      <c r="JT3" s="0"/>
+      <c r="JU3" s="0"/>
+      <c r="JV3" s="0"/>
+      <c r="JW3" s="0"/>
+      <c r="JX3" s="0"/>
+      <c r="JY3" s="0"/>
+      <c r="JZ3" s="0"/>
+      <c r="KA3" s="0"/>
+      <c r="KB3" s="0"/>
+      <c r="KC3" s="0"/>
+      <c r="KD3" s="0"/>
+      <c r="KE3" s="0"/>
+      <c r="KF3" s="0"/>
+      <c r="KG3" s="0"/>
+      <c r="KH3" s="0"/>
+      <c r="KI3" s="0"/>
+      <c r="KJ3" s="0"/>
+      <c r="KK3" s="0"/>
+      <c r="KL3" s="0"/>
+      <c r="KM3" s="0"/>
+      <c r="KN3" s="0"/>
+      <c r="KO3" s="0"/>
+      <c r="KP3" s="0"/>
+      <c r="KQ3" s="0"/>
+      <c r="KR3" s="0"/>
+      <c r="KS3" s="0"/>
+      <c r="KT3" s="0"/>
+      <c r="KU3" s="0"/>
+      <c r="KV3" s="0"/>
+      <c r="KW3" s="0"/>
+      <c r="KX3" s="0"/>
+      <c r="KY3" s="0"/>
+      <c r="KZ3" s="0"/>
+      <c r="LA3" s="0"/>
+      <c r="LB3" s="0"/>
+      <c r="LC3" s="0"/>
+      <c r="LD3" s="0"/>
+      <c r="LE3" s="0"/>
+      <c r="LF3" s="0"/>
+      <c r="LG3" s="0"/>
+      <c r="LH3" s="0"/>
+      <c r="LI3" s="0"/>
+      <c r="LJ3" s="0"/>
+      <c r="LK3" s="0"/>
+      <c r="LL3" s="0"/>
+      <c r="LM3" s="0"/>
+      <c r="LN3" s="0"/>
+      <c r="LO3" s="0"/>
+      <c r="LP3" s="0"/>
+      <c r="LQ3" s="0"/>
+      <c r="LR3" s="0"/>
+      <c r="LS3" s="0"/>
+      <c r="LT3" s="0"/>
+      <c r="LU3" s="0"/>
+      <c r="LV3" s="0"/>
+      <c r="LW3" s="0"/>
+      <c r="LX3" s="0"/>
+      <c r="LY3" s="0"/>
+      <c r="LZ3" s="0"/>
+      <c r="MA3" s="0"/>
+      <c r="MB3" s="0"/>
+      <c r="MC3" s="0"/>
+      <c r="MD3" s="0"/>
+      <c r="ME3" s="0"/>
+      <c r="MF3" s="0"/>
+      <c r="MG3" s="0"/>
+      <c r="MH3" s="0"/>
+      <c r="MI3" s="0"/>
+      <c r="MJ3" s="0"/>
+      <c r="MK3" s="0"/>
+      <c r="ML3" s="0"/>
+      <c r="MM3" s="0"/>
+      <c r="MN3" s="0"/>
+      <c r="MO3" s="0"/>
+      <c r="MP3" s="0"/>
+      <c r="MQ3" s="0"/>
+      <c r="MR3" s="0"/>
+      <c r="MS3" s="0"/>
+      <c r="MT3" s="0"/>
+      <c r="MU3" s="0"/>
+      <c r="MV3" s="0"/>
+      <c r="MW3" s="0"/>
+      <c r="MX3" s="0"/>
+      <c r="MY3" s="0"/>
+      <c r="MZ3" s="0"/>
+      <c r="NA3" s="0"/>
+      <c r="NB3" s="0"/>
+      <c r="NC3" s="0"/>
+      <c r="ND3" s="0"/>
+      <c r="NE3" s="0"/>
+      <c r="NF3" s="0"/>
+      <c r="NG3" s="0"/>
+      <c r="NH3" s="0"/>
+      <c r="NI3" s="0"/>
+      <c r="NJ3" s="0"/>
+      <c r="NK3" s="0"/>
+      <c r="NL3" s="0"/>
+      <c r="NM3" s="0"/>
+      <c r="NN3" s="0"/>
+      <c r="NO3" s="0"/>
+      <c r="NP3" s="0"/>
+      <c r="NQ3" s="0"/>
+      <c r="NR3" s="0"/>
+      <c r="NS3" s="0"/>
+      <c r="NT3" s="0"/>
+      <c r="NU3" s="0"/>
+      <c r="NV3" s="0"/>
+      <c r="NW3" s="0"/>
+      <c r="NX3" s="0"/>
+      <c r="NY3" s="0"/>
+      <c r="NZ3" s="0"/>
+      <c r="OA3" s="0"/>
+      <c r="OB3" s="0"/>
+      <c r="OC3" s="0"/>
+      <c r="OD3" s="0"/>
+      <c r="OE3" s="0"/>
+      <c r="OF3" s="0"/>
+      <c r="OG3" s="0"/>
+      <c r="OH3" s="0"/>
+      <c r="OI3" s="0"/>
+      <c r="OJ3" s="0"/>
+      <c r="OK3" s="0"/>
+      <c r="OL3" s="0"/>
+      <c r="OM3" s="0"/>
+      <c r="ON3" s="0"/>
+      <c r="OO3" s="0"/>
+      <c r="OP3" s="0"/>
+      <c r="OQ3" s="0"/>
+      <c r="OR3" s="0"/>
+      <c r="OS3" s="0"/>
+      <c r="OT3" s="0"/>
+      <c r="OU3" s="0"/>
+      <c r="OV3" s="0"/>
+      <c r="OW3" s="0"/>
+      <c r="OX3" s="0"/>
+      <c r="OY3" s="0"/>
+      <c r="OZ3" s="0"/>
+      <c r="PA3" s="0"/>
+      <c r="PB3" s="0"/>
+      <c r="PC3" s="0"/>
+      <c r="PD3" s="0"/>
+      <c r="PE3" s="0"/>
+      <c r="PF3" s="0"/>
+      <c r="PG3" s="0"/>
+      <c r="PH3" s="0"/>
+      <c r="PI3" s="0"/>
+      <c r="PJ3" s="0"/>
+      <c r="PK3" s="0"/>
+      <c r="PL3" s="0"/>
+      <c r="PM3" s="0"/>
+      <c r="PN3" s="0"/>
+      <c r="PO3" s="0"/>
+      <c r="PP3" s="0"/>
+      <c r="PQ3" s="0"/>
+      <c r="PR3" s="0"/>
+      <c r="PS3" s="0"/>
+      <c r="PT3" s="0"/>
+      <c r="PU3" s="0"/>
+      <c r="PV3" s="0"/>
+      <c r="PW3" s="0"/>
+      <c r="PX3" s="0"/>
+      <c r="PY3" s="0"/>
+      <c r="PZ3" s="0"/>
+      <c r="QA3" s="0"/>
+      <c r="QB3" s="0"/>
+      <c r="QC3" s="0"/>
+      <c r="QD3" s="0"/>
+      <c r="QE3" s="0"/>
+      <c r="QF3" s="0"/>
+      <c r="QG3" s="0"/>
+      <c r="QH3" s="0"/>
+      <c r="QI3" s="0"/>
+      <c r="QJ3" s="0"/>
+      <c r="QK3" s="0"/>
+      <c r="QL3" s="0"/>
+      <c r="QM3" s="0"/>
+      <c r="QN3" s="0"/>
+      <c r="QO3" s="0"/>
+      <c r="QP3" s="0"/>
+      <c r="QQ3" s="0"/>
+      <c r="QR3" s="0"/>
+      <c r="QS3" s="0"/>
+      <c r="QT3" s="0"/>
+      <c r="QU3" s="0"/>
+      <c r="QV3" s="0"/>
+      <c r="QW3" s="0"/>
+      <c r="QX3" s="0"/>
+      <c r="QY3" s="0"/>
+      <c r="QZ3" s="0"/>
+      <c r="RA3" s="0"/>
+      <c r="RB3" s="0"/>
+      <c r="RC3" s="0"/>
+      <c r="RD3" s="0"/>
+      <c r="RE3" s="0"/>
+      <c r="RF3" s="0"/>
+      <c r="RG3" s="0"/>
+      <c r="RH3" s="0"/>
+      <c r="RI3" s="0"/>
+      <c r="RJ3" s="0"/>
+      <c r="RK3" s="0"/>
+      <c r="RL3" s="0"/>
+      <c r="RM3" s="0"/>
+      <c r="RN3" s="0"/>
+      <c r="RO3" s="0"/>
+      <c r="RP3" s="0"/>
+      <c r="RQ3" s="0"/>
+      <c r="RR3" s="0"/>
+      <c r="RS3" s="0"/>
+      <c r="RT3" s="0"/>
+      <c r="RU3" s="0"/>
+      <c r="RV3" s="0"/>
+      <c r="RW3" s="0"/>
+      <c r="RX3" s="0"/>
+      <c r="RY3" s="0"/>
+      <c r="RZ3" s="0"/>
+      <c r="SA3" s="0"/>
+      <c r="SB3" s="0"/>
+      <c r="SC3" s="0"/>
+      <c r="SD3" s="0"/>
+      <c r="SE3" s="0"/>
+      <c r="SF3" s="0"/>
+      <c r="SG3" s="0"/>
+      <c r="SH3" s="0"/>
+      <c r="SI3" s="0"/>
+      <c r="SJ3" s="0"/>
+      <c r="SK3" s="0"/>
+      <c r="SL3" s="0"/>
+      <c r="SM3" s="0"/>
+      <c r="SN3" s="0"/>
+      <c r="SO3" s="0"/>
+      <c r="SP3" s="0"/>
+      <c r="SQ3" s="0"/>
+      <c r="SR3" s="0"/>
+      <c r="SS3" s="0"/>
+      <c r="ST3" s="0"/>
+      <c r="SU3" s="0"/>
+      <c r="SV3" s="0"/>
+      <c r="SW3" s="0"/>
+      <c r="SX3" s="0"/>
+      <c r="SY3" s="0"/>
+      <c r="SZ3" s="0"/>
+      <c r="TA3" s="0"/>
+      <c r="TB3" s="0"/>
+      <c r="TC3" s="0"/>
+      <c r="TD3" s="0"/>
+      <c r="TE3" s="0"/>
+      <c r="TF3" s="0"/>
+      <c r="TG3" s="0"/>
+      <c r="TH3" s="0"/>
+      <c r="TI3" s="0"/>
+      <c r="TJ3" s="0"/>
+      <c r="TK3" s="0"/>
+      <c r="TL3" s="0"/>
+      <c r="TM3" s="0"/>
+      <c r="TN3" s="0"/>
+      <c r="TO3" s="0"/>
+      <c r="TP3" s="0"/>
+      <c r="TQ3" s="0"/>
+      <c r="TR3" s="0"/>
+      <c r="TS3" s="0"/>
+      <c r="TT3" s="0"/>
+      <c r="TU3" s="0"/>
+      <c r="TV3" s="0"/>
+      <c r="TW3" s="0"/>
+      <c r="TX3" s="0"/>
+      <c r="TY3" s="0"/>
+      <c r="TZ3" s="0"/>
+      <c r="UA3" s="0"/>
+      <c r="UB3" s="0"/>
+      <c r="UC3" s="0"/>
+      <c r="UD3" s="0"/>
+      <c r="UE3" s="0"/>
+      <c r="UF3" s="0"/>
+      <c r="UG3" s="0"/>
+      <c r="UH3" s="0"/>
+      <c r="UI3" s="0"/>
+      <c r="UJ3" s="0"/>
+      <c r="UK3" s="0"/>
+      <c r="UL3" s="0"/>
+      <c r="UM3" s="0"/>
+      <c r="UN3" s="0"/>
+      <c r="UO3" s="0"/>
+      <c r="UP3" s="0"/>
+      <c r="UQ3" s="0"/>
+      <c r="UR3" s="0"/>
+      <c r="US3" s="0"/>
+      <c r="UT3" s="0"/>
+      <c r="UU3" s="0"/>
+      <c r="UV3" s="0"/>
+      <c r="UW3" s="0"/>
+      <c r="UX3" s="0"/>
+      <c r="UY3" s="0"/>
+      <c r="UZ3" s="0"/>
+      <c r="VA3" s="0"/>
+      <c r="VB3" s="0"/>
+      <c r="VC3" s="0"/>
+      <c r="VD3" s="0"/>
+      <c r="VE3" s="0"/>
+      <c r="VF3" s="0"/>
+      <c r="VG3" s="0"/>
+      <c r="VH3" s="0"/>
+      <c r="VI3" s="0"/>
+      <c r="VJ3" s="0"/>
+      <c r="VK3" s="0"/>
+      <c r="VL3" s="0"/>
+      <c r="VM3" s="0"/>
+      <c r="VN3" s="0"/>
+      <c r="VO3" s="0"/>
+      <c r="VP3" s="0"/>
+      <c r="VQ3" s="0"/>
+      <c r="VR3" s="0"/>
+      <c r="VS3" s="0"/>
+      <c r="VT3" s="0"/>
+      <c r="VU3" s="0"/>
+      <c r="VV3" s="0"/>
+      <c r="VW3" s="0"/>
+      <c r="VX3" s="0"/>
+      <c r="VY3" s="0"/>
+      <c r="VZ3" s="0"/>
+      <c r="WA3" s="0"/>
+      <c r="WB3" s="0"/>
+      <c r="WC3" s="0"/>
+      <c r="WD3" s="0"/>
+      <c r="WE3" s="0"/>
+      <c r="WF3" s="0"/>
+      <c r="WG3" s="0"/>
+      <c r="WH3" s="0"/>
+      <c r="WI3" s="0"/>
+      <c r="WJ3" s="0"/>
+      <c r="WK3" s="0"/>
+      <c r="WL3" s="0"/>
+      <c r="WM3" s="0"/>
+      <c r="WN3" s="0"/>
+      <c r="WO3" s="0"/>
+      <c r="WP3" s="0"/>
+      <c r="WQ3" s="0"/>
+      <c r="WR3" s="0"/>
+      <c r="WS3" s="0"/>
+      <c r="WT3" s="0"/>
+      <c r="WU3" s="0"/>
+      <c r="WV3" s="0"/>
+      <c r="WW3" s="0"/>
+      <c r="WX3" s="0"/>
+      <c r="WY3" s="0"/>
+      <c r="WZ3" s="0"/>
+      <c r="XA3" s="0"/>
+      <c r="XB3" s="0"/>
+      <c r="XC3" s="0"/>
+      <c r="XD3" s="0"/>
+      <c r="XE3" s="0"/>
+      <c r="XF3" s="0"/>
+      <c r="XG3" s="0"/>
+      <c r="XH3" s="0"/>
+      <c r="XI3" s="0"/>
+      <c r="XJ3" s="0"/>
+      <c r="XK3" s="0"/>
+      <c r="XL3" s="0"/>
+      <c r="XM3" s="0"/>
+      <c r="XN3" s="0"/>
+      <c r="XO3" s="0"/>
+      <c r="XP3" s="0"/>
+      <c r="XQ3" s="0"/>
+      <c r="XR3" s="0"/>
+      <c r="XS3" s="0"/>
+      <c r="XT3" s="0"/>
+      <c r="XU3" s="0"/>
+      <c r="XV3" s="0"/>
+      <c r="XW3" s="0"/>
+      <c r="XX3" s="0"/>
+      <c r="XY3" s="0"/>
+      <c r="XZ3" s="0"/>
+      <c r="YA3" s="0"/>
+      <c r="YB3" s="0"/>
+      <c r="YC3" s="0"/>
+      <c r="YD3" s="0"/>
+      <c r="YE3" s="0"/>
+      <c r="YF3" s="0"/>
+      <c r="YG3" s="0"/>
+      <c r="YH3" s="0"/>
+      <c r="YI3" s="0"/>
+      <c r="YJ3" s="0"/>
+      <c r="YK3" s="0"/>
+      <c r="YL3" s="0"/>
+      <c r="YM3" s="0"/>
+      <c r="YN3" s="0"/>
+      <c r="YO3" s="0"/>
+      <c r="YP3" s="0"/>
+      <c r="YQ3" s="0"/>
+      <c r="YR3" s="0"/>
+      <c r="YS3" s="0"/>
+      <c r="YT3" s="0"/>
+      <c r="YU3" s="0"/>
+      <c r="YV3" s="0"/>
+      <c r="YW3" s="0"/>
+      <c r="YX3" s="0"/>
+      <c r="YY3" s="0"/>
+      <c r="YZ3" s="0"/>
+      <c r="ZA3" s="0"/>
+      <c r="ZB3" s="0"/>
+      <c r="ZC3" s="0"/>
+      <c r="ZD3" s="0"/>
+      <c r="ZE3" s="0"/>
+      <c r="ZF3" s="0"/>
+      <c r="ZG3" s="0"/>
+      <c r="ZH3" s="0"/>
+      <c r="ZI3" s="0"/>
+      <c r="ZJ3" s="0"/>
+      <c r="ZK3" s="0"/>
+      <c r="ZL3" s="0"/>
+      <c r="ZM3" s="0"/>
+      <c r="ZN3" s="0"/>
+      <c r="ZO3" s="0"/>
+      <c r="ZP3" s="0"/>
+      <c r="ZQ3" s="0"/>
+      <c r="ZR3" s="0"/>
+      <c r="ZS3" s="0"/>
+      <c r="ZT3" s="0"/>
+      <c r="ZU3" s="0"/>
+      <c r="ZV3" s="0"/>
+      <c r="ZW3" s="0"/>
+      <c r="ZX3" s="0"/>
+      <c r="ZY3" s="0"/>
+      <c r="ZZ3" s="0"/>
+      <c r="AAA3" s="0"/>
+      <c r="AAB3" s="0"/>
+      <c r="AAC3" s="0"/>
+      <c r="AAD3" s="0"/>
+      <c r="AAE3" s="0"/>
+      <c r="AAF3" s="0"/>
+      <c r="AAG3" s="0"/>
+      <c r="AAH3" s="0"/>
+      <c r="AAI3" s="0"/>
+      <c r="AAJ3" s="0"/>
+      <c r="AAK3" s="0"/>
+      <c r="AAL3" s="0"/>
+      <c r="AAM3" s="0"/>
+      <c r="AAN3" s="0"/>
+      <c r="AAO3" s="0"/>
+      <c r="AAP3" s="0"/>
+      <c r="AAQ3" s="0"/>
+      <c r="AAR3" s="0"/>
+      <c r="AAS3" s="0"/>
+      <c r="AAT3" s="0"/>
+      <c r="AAU3" s="0"/>
+      <c r="AAV3" s="0"/>
+      <c r="AAW3" s="0"/>
+      <c r="AAX3" s="0"/>
+      <c r="AAY3" s="0"/>
+      <c r="AAZ3" s="0"/>
+      <c r="ABA3" s="0"/>
+      <c r="ABB3" s="0"/>
+      <c r="ABC3" s="0"/>
+      <c r="ABD3" s="0"/>
+      <c r="ABE3" s="0"/>
+      <c r="ABF3" s="0"/>
+      <c r="ABG3" s="0"/>
+      <c r="ABH3" s="0"/>
+      <c r="ABI3" s="0"/>
+      <c r="ABJ3" s="0"/>
+      <c r="ABK3" s="0"/>
+      <c r="ABL3" s="0"/>
+      <c r="ABM3" s="0"/>
+      <c r="ABN3" s="0"/>
+      <c r="ABO3" s="0"/>
+      <c r="ABP3" s="0"/>
+      <c r="ABQ3" s="0"/>
+      <c r="ABR3" s="0"/>
+      <c r="ABS3" s="0"/>
+      <c r="ABT3" s="0"/>
+      <c r="ABU3" s="0"/>
+      <c r="ABV3" s="0"/>
+      <c r="ABW3" s="0"/>
+      <c r="ABX3" s="0"/>
+      <c r="ABY3" s="0"/>
+      <c r="ABZ3" s="0"/>
+      <c r="ACA3" s="0"/>
+      <c r="ACB3" s="0"/>
+      <c r="ACC3" s="0"/>
+      <c r="ACD3" s="0"/>
+      <c r="ACE3" s="0"/>
+      <c r="ACF3" s="0"/>
+      <c r="ACG3" s="0"/>
+      <c r="ACH3" s="0"/>
+      <c r="ACI3" s="0"/>
+      <c r="ACJ3" s="0"/>
+      <c r="ACK3" s="0"/>
+      <c r="ACL3" s="0"/>
+      <c r="ACM3" s="0"/>
+      <c r="ACN3" s="0"/>
+      <c r="ACO3" s="0"/>
+      <c r="ACP3" s="0"/>
+      <c r="ACQ3" s="0"/>
+      <c r="ACR3" s="0"/>
+      <c r="ACS3" s="0"/>
+      <c r="ACT3" s="0"/>
+      <c r="ACU3" s="0"/>
+      <c r="ACV3" s="0"/>
+      <c r="ACW3" s="0"/>
+      <c r="ACX3" s="0"/>
+      <c r="ACY3" s="0"/>
+      <c r="ACZ3" s="0"/>
+      <c r="ADA3" s="0"/>
+      <c r="ADB3" s="0"/>
+      <c r="ADC3" s="0"/>
+      <c r="ADD3" s="0"/>
+      <c r="ADE3" s="0"/>
+      <c r="ADF3" s="0"/>
+      <c r="ADG3" s="0"/>
+      <c r="ADH3" s="0"/>
+      <c r="ADI3" s="0"/>
+      <c r="ADJ3" s="0"/>
+      <c r="ADK3" s="0"/>
+      <c r="ADL3" s="0"/>
+      <c r="ADM3" s="0"/>
+      <c r="ADN3" s="0"/>
+      <c r="ADO3" s="0"/>
+      <c r="ADP3" s="0"/>
+      <c r="ADQ3" s="0"/>
+      <c r="ADR3" s="0"/>
+      <c r="ADS3" s="0"/>
+      <c r="ADT3" s="0"/>
+      <c r="ADU3" s="0"/>
+      <c r="ADV3" s="0"/>
+      <c r="ADW3" s="0"/>
+      <c r="ADX3" s="0"/>
+      <c r="ADY3" s="0"/>
+      <c r="ADZ3" s="0"/>
+      <c r="AEA3" s="0"/>
+      <c r="AEB3" s="0"/>
+      <c r="AEC3" s="0"/>
+      <c r="AED3" s="0"/>
+      <c r="AEE3" s="0"/>
+      <c r="AEF3" s="0"/>
+      <c r="AEG3" s="0"/>
+      <c r="AEH3" s="0"/>
+      <c r="AEI3" s="0"/>
+      <c r="AEJ3" s="0"/>
+      <c r="AEK3" s="0"/>
+      <c r="AEL3" s="0"/>
+      <c r="AEM3" s="0"/>
+      <c r="AEN3" s="0"/>
+      <c r="AEO3" s="0"/>
+      <c r="AEP3" s="0"/>
+      <c r="AEQ3" s="0"/>
+      <c r="AER3" s="0"/>
+      <c r="AES3" s="0"/>
+      <c r="AET3" s="0"/>
+      <c r="AEU3" s="0"/>
+      <c r="AEV3" s="0"/>
+      <c r="AEW3" s="0"/>
+      <c r="AEX3" s="0"/>
+      <c r="AEY3" s="0"/>
+      <c r="AEZ3" s="0"/>
+      <c r="AFA3" s="0"/>
+      <c r="AFB3" s="0"/>
+      <c r="AFC3" s="0"/>
+      <c r="AFD3" s="0"/>
+      <c r="AFE3" s="0"/>
+      <c r="AFF3" s="0"/>
+      <c r="AFG3" s="0"/>
+      <c r="AFH3" s="0"/>
+      <c r="AFI3" s="0"/>
+      <c r="AFJ3" s="0"/>
+      <c r="AFK3" s="0"/>
+      <c r="AFL3" s="0"/>
+      <c r="AFM3" s="0"/>
+      <c r="AFN3" s="0"/>
+      <c r="AFO3" s="0"/>
+      <c r="AFP3" s="0"/>
+      <c r="AFQ3" s="0"/>
+      <c r="AFR3" s="0"/>
+      <c r="AFS3" s="0"/>
+      <c r="AFT3" s="0"/>
+      <c r="AFU3" s="0"/>
+      <c r="AFV3" s="0"/>
+      <c r="AFW3" s="0"/>
+      <c r="AFX3" s="0"/>
+      <c r="AFY3" s="0"/>
+      <c r="AFZ3" s="0"/>
+      <c r="AGA3" s="0"/>
+      <c r="AGB3" s="0"/>
+      <c r="AGC3" s="0"/>
+      <c r="AGD3" s="0"/>
+      <c r="AGE3" s="0"/>
+      <c r="AGF3" s="0"/>
+      <c r="AGG3" s="0"/>
+      <c r="AGH3" s="0"/>
+      <c r="AGI3" s="0"/>
+      <c r="AGJ3" s="0"/>
+      <c r="AGK3" s="0"/>
+      <c r="AGL3" s="0"/>
+      <c r="AGM3" s="0"/>
+      <c r="AGN3" s="0"/>
+      <c r="AGO3" s="0"/>
+      <c r="AGP3" s="0"/>
+      <c r="AGQ3" s="0"/>
+      <c r="AGR3" s="0"/>
+      <c r="AGS3" s="0"/>
+      <c r="AGT3" s="0"/>
+      <c r="AGU3" s="0"/>
+      <c r="AGV3" s="0"/>
+      <c r="AGW3" s="0"/>
+      <c r="AGX3" s="0"/>
+      <c r="AGY3" s="0"/>
+      <c r="AGZ3" s="0"/>
+      <c r="AHA3" s="0"/>
+      <c r="AHB3" s="0"/>
+      <c r="AHC3" s="0"/>
+      <c r="AHD3" s="0"/>
+      <c r="AHE3" s="0"/>
+      <c r="AHF3" s="0"/>
+      <c r="AHG3" s="0"/>
+      <c r="AHH3" s="0"/>
+      <c r="AHI3" s="0"/>
+      <c r="AHJ3" s="0"/>
+      <c r="AHK3" s="0"/>
+      <c r="AHL3" s="0"/>
+      <c r="AHM3" s="0"/>
+      <c r="AHN3" s="0"/>
+      <c r="AHO3" s="0"/>
+      <c r="AHP3" s="0"/>
+      <c r="AHQ3" s="0"/>
+      <c r="AHR3" s="0"/>
+      <c r="AHS3" s="0"/>
+      <c r="AHT3" s="0"/>
+      <c r="AHU3" s="0"/>
+      <c r="AHV3" s="0"/>
+      <c r="AHW3" s="0"/>
+      <c r="AHX3" s="0"/>
+      <c r="AHY3" s="0"/>
+      <c r="AHZ3" s="0"/>
+      <c r="AIA3" s="0"/>
+      <c r="AIB3" s="0"/>
+      <c r="AIC3" s="0"/>
+      <c r="AID3" s="0"/>
+      <c r="AIE3" s="0"/>
+      <c r="AIF3" s="0"/>
+      <c r="AIG3" s="0"/>
+      <c r="AIH3" s="0"/>
+      <c r="AII3" s="0"/>
+      <c r="AIJ3" s="0"/>
+      <c r="AIK3" s="0"/>
+      <c r="AIL3" s="0"/>
+      <c r="AIM3" s="0"/>
+      <c r="AIN3" s="0"/>
+      <c r="AIO3" s="0"/>
+      <c r="AIP3" s="0"/>
+      <c r="AIQ3" s="0"/>
+      <c r="AIR3" s="0"/>
+      <c r="AIS3" s="0"/>
+      <c r="AIT3" s="0"/>
+      <c r="AIU3" s="0"/>
+      <c r="AIV3" s="0"/>
+      <c r="AIW3" s="0"/>
+      <c r="AIX3" s="0"/>
+      <c r="AIY3" s="0"/>
+      <c r="AIZ3" s="0"/>
+      <c r="AJA3" s="0"/>
+      <c r="AJB3" s="0"/>
+      <c r="AJC3" s="0"/>
+      <c r="AJD3" s="0"/>
+      <c r="AJE3" s="0"/>
+      <c r="AJF3" s="0"/>
+      <c r="AJG3" s="0"/>
+      <c r="AJH3" s="0"/>
+      <c r="AJI3" s="0"/>
+      <c r="AJJ3" s="0"/>
+      <c r="AJK3" s="0"/>
+      <c r="AJL3" s="0"/>
+      <c r="AJM3" s="0"/>
+      <c r="AJN3" s="0"/>
+      <c r="AJO3" s="0"/>
+      <c r="AJP3" s="0"/>
+      <c r="AJQ3" s="0"/>
+      <c r="AJR3" s="0"/>
+      <c r="AJS3" s="0"/>
+      <c r="AJT3" s="0"/>
+      <c r="AJU3" s="0"/>
+      <c r="AJV3" s="0"/>
+      <c r="AJW3" s="0"/>
+      <c r="AJX3" s="0"/>
+      <c r="AJY3" s="0"/>
+      <c r="AJZ3" s="0"/>
+      <c r="AKA3" s="0"/>
+      <c r="AKB3" s="0"/>
+      <c r="AKC3" s="0"/>
+      <c r="AKD3" s="0"/>
+      <c r="AKE3" s="0"/>
+      <c r="AKF3" s="0"/>
+      <c r="AKG3" s="0"/>
+      <c r="AKH3" s="0"/>
+      <c r="AKI3" s="0"/>
+      <c r="AKJ3" s="0"/>
+      <c r="AKK3" s="0"/>
+      <c r="AKL3" s="0"/>
+      <c r="AKM3" s="0"/>
+      <c r="AKN3" s="0"/>
+      <c r="AKO3" s="0"/>
+      <c r="AKP3" s="0"/>
+      <c r="AKQ3" s="0"/>
+      <c r="AKR3" s="0"/>
+      <c r="AKS3" s="0"/>
+      <c r="AKT3" s="0"/>
+      <c r="AKU3" s="0"/>
+      <c r="AKV3" s="0"/>
+      <c r="AKW3" s="0"/>
+      <c r="AKX3" s="0"/>
+      <c r="AKY3" s="0"/>
+      <c r="AKZ3" s="0"/>
+      <c r="ALA3" s="0"/>
+      <c r="ALB3" s="0"/>
+      <c r="ALC3" s="0"/>
+      <c r="ALD3" s="0"/>
+      <c r="ALE3" s="0"/>
+      <c r="ALF3" s="0"/>
+      <c r="ALG3" s="0"/>
+      <c r="ALH3" s="0"/>
+      <c r="ALI3" s="0"/>
+      <c r="ALJ3" s="0"/>
+      <c r="ALK3" s="0"/>
+      <c r="ALL3" s="0"/>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
@@ -1338,6 +3390,991 @@
       <c r="AM4" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0"/>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0"/>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0"/>
+      <c r="AY4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
+      <c r="BE4" s="0"/>
+      <c r="BF4" s="0"/>
+      <c r="BG4" s="0"/>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0"/>
+      <c r="BN4" s="0"/>
+      <c r="BO4" s="0"/>
+      <c r="BP4" s="0"/>
+      <c r="BQ4" s="0"/>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
+      <c r="BU4" s="0"/>
+      <c r="BV4" s="0"/>
+      <c r="BW4" s="0"/>
+      <c r="BX4" s="0"/>
+      <c r="BY4" s="0"/>
+      <c r="BZ4" s="0"/>
+      <c r="CA4" s="0"/>
+      <c r="CB4" s="0"/>
+      <c r="CC4" s="0"/>
+      <c r="CD4" s="0"/>
+      <c r="CE4" s="0"/>
+      <c r="CF4" s="0"/>
+      <c r="CG4" s="0"/>
+      <c r="CH4" s="0"/>
+      <c r="CI4" s="0"/>
+      <c r="CJ4" s="0"/>
+      <c r="CK4" s="0"/>
+      <c r="CL4" s="0"/>
+      <c r="CM4" s="0"/>
+      <c r="CN4" s="0"/>
+      <c r="CO4" s="0"/>
+      <c r="CP4" s="0"/>
+      <c r="CQ4" s="0"/>
+      <c r="CR4" s="0"/>
+      <c r="CS4" s="0"/>
+      <c r="CT4" s="0"/>
+      <c r="CU4" s="0"/>
+      <c r="CV4" s="0"/>
+      <c r="CW4" s="0"/>
+      <c r="CX4" s="0"/>
+      <c r="CY4" s="0"/>
+      <c r="CZ4" s="0"/>
+      <c r="DA4" s="0"/>
+      <c r="DB4" s="0"/>
+      <c r="DC4" s="0"/>
+      <c r="DD4" s="0"/>
+      <c r="DE4" s="0"/>
+      <c r="DF4" s="0"/>
+      <c r="DG4" s="0"/>
+      <c r="DH4" s="0"/>
+      <c r="DI4" s="0"/>
+      <c r="DJ4" s="0"/>
+      <c r="DK4" s="0"/>
+      <c r="DL4" s="0"/>
+      <c r="DM4" s="0"/>
+      <c r="DN4" s="0"/>
+      <c r="DO4" s="0"/>
+      <c r="DP4" s="0"/>
+      <c r="DQ4" s="0"/>
+      <c r="DR4" s="0"/>
+      <c r="DS4" s="0"/>
+      <c r="DT4" s="0"/>
+      <c r="DU4" s="0"/>
+      <c r="DV4" s="0"/>
+      <c r="DW4" s="0"/>
+      <c r="DX4" s="0"/>
+      <c r="DY4" s="0"/>
+      <c r="DZ4" s="0"/>
+      <c r="EA4" s="0"/>
+      <c r="EB4" s="0"/>
+      <c r="EC4" s="0"/>
+      <c r="ED4" s="0"/>
+      <c r="EE4" s="0"/>
+      <c r="EF4" s="0"/>
+      <c r="EG4" s="0"/>
+      <c r="EH4" s="0"/>
+      <c r="EI4" s="0"/>
+      <c r="EJ4" s="0"/>
+      <c r="EK4" s="0"/>
+      <c r="EL4" s="0"/>
+      <c r="EM4" s="0"/>
+      <c r="EN4" s="0"/>
+      <c r="EO4" s="0"/>
+      <c r="EP4" s="0"/>
+      <c r="EQ4" s="0"/>
+      <c r="ER4" s="0"/>
+      <c r="ES4" s="0"/>
+      <c r="ET4" s="0"/>
+      <c r="EU4" s="0"/>
+      <c r="EV4" s="0"/>
+      <c r="EW4" s="0"/>
+      <c r="EX4" s="0"/>
+      <c r="EY4" s="0"/>
+      <c r="EZ4" s="0"/>
+      <c r="FA4" s="0"/>
+      <c r="FB4" s="0"/>
+      <c r="FC4" s="0"/>
+      <c r="FD4" s="0"/>
+      <c r="FE4" s="0"/>
+      <c r="FF4" s="0"/>
+      <c r="FG4" s="0"/>
+      <c r="FH4" s="0"/>
+      <c r="FI4" s="0"/>
+      <c r="FJ4" s="0"/>
+      <c r="FK4" s="0"/>
+      <c r="FL4" s="0"/>
+      <c r="FM4" s="0"/>
+      <c r="FN4" s="0"/>
+      <c r="FO4" s="0"/>
+      <c r="FP4" s="0"/>
+      <c r="FQ4" s="0"/>
+      <c r="FR4" s="0"/>
+      <c r="FS4" s="0"/>
+      <c r="FT4" s="0"/>
+      <c r="FU4" s="0"/>
+      <c r="FV4" s="0"/>
+      <c r="FW4" s="0"/>
+      <c r="FX4" s="0"/>
+      <c r="FY4" s="0"/>
+      <c r="FZ4" s="0"/>
+      <c r="GA4" s="0"/>
+      <c r="GB4" s="0"/>
+      <c r="GC4" s="0"/>
+      <c r="GD4" s="0"/>
+      <c r="GE4" s="0"/>
+      <c r="GF4" s="0"/>
+      <c r="GG4" s="0"/>
+      <c r="GH4" s="0"/>
+      <c r="GI4" s="0"/>
+      <c r="GJ4" s="0"/>
+      <c r="GK4" s="0"/>
+      <c r="GL4" s="0"/>
+      <c r="GM4" s="0"/>
+      <c r="GN4" s="0"/>
+      <c r="GO4" s="0"/>
+      <c r="GP4" s="0"/>
+      <c r="GQ4" s="0"/>
+      <c r="GR4" s="0"/>
+      <c r="GS4" s="0"/>
+      <c r="GT4" s="0"/>
+      <c r="GU4" s="0"/>
+      <c r="GV4" s="0"/>
+      <c r="GW4" s="0"/>
+      <c r="GX4" s="0"/>
+      <c r="GY4" s="0"/>
+      <c r="GZ4" s="0"/>
+      <c r="HA4" s="0"/>
+      <c r="HB4" s="0"/>
+      <c r="HC4" s="0"/>
+      <c r="HD4" s="0"/>
+      <c r="HE4" s="0"/>
+      <c r="HF4" s="0"/>
+      <c r="HG4" s="0"/>
+      <c r="HH4" s="0"/>
+      <c r="HI4" s="0"/>
+      <c r="HJ4" s="0"/>
+      <c r="HK4" s="0"/>
+      <c r="HL4" s="0"/>
+      <c r="HM4" s="0"/>
+      <c r="HN4" s="0"/>
+      <c r="HO4" s="0"/>
+      <c r="HP4" s="0"/>
+      <c r="HQ4" s="0"/>
+      <c r="HR4" s="0"/>
+      <c r="HS4" s="0"/>
+      <c r="HT4" s="0"/>
+      <c r="HU4" s="0"/>
+      <c r="HV4" s="0"/>
+      <c r="HW4" s="0"/>
+      <c r="HX4" s="0"/>
+      <c r="HY4" s="0"/>
+      <c r="HZ4" s="0"/>
+      <c r="IA4" s="0"/>
+      <c r="IB4" s="0"/>
+      <c r="IC4" s="0"/>
+      <c r="ID4" s="0"/>
+      <c r="IE4" s="0"/>
+      <c r="IF4" s="0"/>
+      <c r="IG4" s="0"/>
+      <c r="IH4" s="0"/>
+      <c r="II4" s="0"/>
+      <c r="IJ4" s="0"/>
+      <c r="IK4" s="0"/>
+      <c r="IL4" s="0"/>
+      <c r="IM4" s="0"/>
+      <c r="IN4" s="0"/>
+      <c r="IO4" s="0"/>
+      <c r="IP4" s="0"/>
+      <c r="IQ4" s="0"/>
+      <c r="IR4" s="0"/>
+      <c r="IS4" s="0"/>
+      <c r="IT4" s="0"/>
+      <c r="IU4" s="0"/>
+      <c r="IV4" s="0"/>
+      <c r="IW4" s="0"/>
+      <c r="IX4" s="0"/>
+      <c r="IY4" s="0"/>
+      <c r="IZ4" s="0"/>
+      <c r="JA4" s="0"/>
+      <c r="JB4" s="0"/>
+      <c r="JC4" s="0"/>
+      <c r="JD4" s="0"/>
+      <c r="JE4" s="0"/>
+      <c r="JF4" s="0"/>
+      <c r="JG4" s="0"/>
+      <c r="JH4" s="0"/>
+      <c r="JI4" s="0"/>
+      <c r="JJ4" s="0"/>
+      <c r="JK4" s="0"/>
+      <c r="JL4" s="0"/>
+      <c r="JM4" s="0"/>
+      <c r="JN4" s="0"/>
+      <c r="JO4" s="0"/>
+      <c r="JP4" s="0"/>
+      <c r="JQ4" s="0"/>
+      <c r="JR4" s="0"/>
+      <c r="JS4" s="0"/>
+      <c r="JT4" s="0"/>
+      <c r="JU4" s="0"/>
+      <c r="JV4" s="0"/>
+      <c r="JW4" s="0"/>
+      <c r="JX4" s="0"/>
+      <c r="JY4" s="0"/>
+      <c r="JZ4" s="0"/>
+      <c r="KA4" s="0"/>
+      <c r="KB4" s="0"/>
+      <c r="KC4" s="0"/>
+      <c r="KD4" s="0"/>
+      <c r="KE4" s="0"/>
+      <c r="KF4" s="0"/>
+      <c r="KG4" s="0"/>
+      <c r="KH4" s="0"/>
+      <c r="KI4" s="0"/>
+      <c r="KJ4" s="0"/>
+      <c r="KK4" s="0"/>
+      <c r="KL4" s="0"/>
+      <c r="KM4" s="0"/>
+      <c r="KN4" s="0"/>
+      <c r="KO4" s="0"/>
+      <c r="KP4" s="0"/>
+      <c r="KQ4" s="0"/>
+      <c r="KR4" s="0"/>
+      <c r="KS4" s="0"/>
+      <c r="KT4" s="0"/>
+      <c r="KU4" s="0"/>
+      <c r="KV4" s="0"/>
+      <c r="KW4" s="0"/>
+      <c r="KX4" s="0"/>
+      <c r="KY4" s="0"/>
+      <c r="KZ4" s="0"/>
+      <c r="LA4" s="0"/>
+      <c r="LB4" s="0"/>
+      <c r="LC4" s="0"/>
+      <c r="LD4" s="0"/>
+      <c r="LE4" s="0"/>
+      <c r="LF4" s="0"/>
+      <c r="LG4" s="0"/>
+      <c r="LH4" s="0"/>
+      <c r="LI4" s="0"/>
+      <c r="LJ4" s="0"/>
+      <c r="LK4" s="0"/>
+      <c r="LL4" s="0"/>
+      <c r="LM4" s="0"/>
+      <c r="LN4" s="0"/>
+      <c r="LO4" s="0"/>
+      <c r="LP4" s="0"/>
+      <c r="LQ4" s="0"/>
+      <c r="LR4" s="0"/>
+      <c r="LS4" s="0"/>
+      <c r="LT4" s="0"/>
+      <c r="LU4" s="0"/>
+      <c r="LV4" s="0"/>
+      <c r="LW4" s="0"/>
+      <c r="LX4" s="0"/>
+      <c r="LY4" s="0"/>
+      <c r="LZ4" s="0"/>
+      <c r="MA4" s="0"/>
+      <c r="MB4" s="0"/>
+      <c r="MC4" s="0"/>
+      <c r="MD4" s="0"/>
+      <c r="ME4" s="0"/>
+      <c r="MF4" s="0"/>
+      <c r="MG4" s="0"/>
+      <c r="MH4" s="0"/>
+      <c r="MI4" s="0"/>
+      <c r="MJ4" s="0"/>
+      <c r="MK4" s="0"/>
+      <c r="ML4" s="0"/>
+      <c r="MM4" s="0"/>
+      <c r="MN4" s="0"/>
+      <c r="MO4" s="0"/>
+      <c r="MP4" s="0"/>
+      <c r="MQ4" s="0"/>
+      <c r="MR4" s="0"/>
+      <c r="MS4" s="0"/>
+      <c r="MT4" s="0"/>
+      <c r="MU4" s="0"/>
+      <c r="MV4" s="0"/>
+      <c r="MW4" s="0"/>
+      <c r="MX4" s="0"/>
+      <c r="MY4" s="0"/>
+      <c r="MZ4" s="0"/>
+      <c r="NA4" s="0"/>
+      <c r="NB4" s="0"/>
+      <c r="NC4" s="0"/>
+      <c r="ND4" s="0"/>
+      <c r="NE4" s="0"/>
+      <c r="NF4" s="0"/>
+      <c r="NG4" s="0"/>
+      <c r="NH4" s="0"/>
+      <c r="NI4" s="0"/>
+      <c r="NJ4" s="0"/>
+      <c r="NK4" s="0"/>
+      <c r="NL4" s="0"/>
+      <c r="NM4" s="0"/>
+      <c r="NN4" s="0"/>
+      <c r="NO4" s="0"/>
+      <c r="NP4" s="0"/>
+      <c r="NQ4" s="0"/>
+      <c r="NR4" s="0"/>
+      <c r="NS4" s="0"/>
+      <c r="NT4" s="0"/>
+      <c r="NU4" s="0"/>
+      <c r="NV4" s="0"/>
+      <c r="NW4" s="0"/>
+      <c r="NX4" s="0"/>
+      <c r="NY4" s="0"/>
+      <c r="NZ4" s="0"/>
+      <c r="OA4" s="0"/>
+      <c r="OB4" s="0"/>
+      <c r="OC4" s="0"/>
+      <c r="OD4" s="0"/>
+      <c r="OE4" s="0"/>
+      <c r="OF4" s="0"/>
+      <c r="OG4" s="0"/>
+      <c r="OH4" s="0"/>
+      <c r="OI4" s="0"/>
+      <c r="OJ4" s="0"/>
+      <c r="OK4" s="0"/>
+      <c r="OL4" s="0"/>
+      <c r="OM4" s="0"/>
+      <c r="ON4" s="0"/>
+      <c r="OO4" s="0"/>
+      <c r="OP4" s="0"/>
+      <c r="OQ4" s="0"/>
+      <c r="OR4" s="0"/>
+      <c r="OS4" s="0"/>
+      <c r="OT4" s="0"/>
+      <c r="OU4" s="0"/>
+      <c r="OV4" s="0"/>
+      <c r="OW4" s="0"/>
+      <c r="OX4" s="0"/>
+      <c r="OY4" s="0"/>
+      <c r="OZ4" s="0"/>
+      <c r="PA4" s="0"/>
+      <c r="PB4" s="0"/>
+      <c r="PC4" s="0"/>
+      <c r="PD4" s="0"/>
+      <c r="PE4" s="0"/>
+      <c r="PF4" s="0"/>
+      <c r="PG4" s="0"/>
+      <c r="PH4" s="0"/>
+      <c r="PI4" s="0"/>
+      <c r="PJ4" s="0"/>
+      <c r="PK4" s="0"/>
+      <c r="PL4" s="0"/>
+      <c r="PM4" s="0"/>
+      <c r="PN4" s="0"/>
+      <c r="PO4" s="0"/>
+      <c r="PP4" s="0"/>
+      <c r="PQ4" s="0"/>
+      <c r="PR4" s="0"/>
+      <c r="PS4" s="0"/>
+      <c r="PT4" s="0"/>
+      <c r="PU4" s="0"/>
+      <c r="PV4" s="0"/>
+      <c r="PW4" s="0"/>
+      <c r="PX4" s="0"/>
+      <c r="PY4" s="0"/>
+      <c r="PZ4" s="0"/>
+      <c r="QA4" s="0"/>
+      <c r="QB4" s="0"/>
+      <c r="QC4" s="0"/>
+      <c r="QD4" s="0"/>
+      <c r="QE4" s="0"/>
+      <c r="QF4" s="0"/>
+      <c r="QG4" s="0"/>
+      <c r="QH4" s="0"/>
+      <c r="QI4" s="0"/>
+      <c r="QJ4" s="0"/>
+      <c r="QK4" s="0"/>
+      <c r="QL4" s="0"/>
+      <c r="QM4" s="0"/>
+      <c r="QN4" s="0"/>
+      <c r="QO4" s="0"/>
+      <c r="QP4" s="0"/>
+      <c r="QQ4" s="0"/>
+      <c r="QR4" s="0"/>
+      <c r="QS4" s="0"/>
+      <c r="QT4" s="0"/>
+      <c r="QU4" s="0"/>
+      <c r="QV4" s="0"/>
+      <c r="QW4" s="0"/>
+      <c r="QX4" s="0"/>
+      <c r="QY4" s="0"/>
+      <c r="QZ4" s="0"/>
+      <c r="RA4" s="0"/>
+      <c r="RB4" s="0"/>
+      <c r="RC4" s="0"/>
+      <c r="RD4" s="0"/>
+      <c r="RE4" s="0"/>
+      <c r="RF4" s="0"/>
+      <c r="RG4" s="0"/>
+      <c r="RH4" s="0"/>
+      <c r="RI4" s="0"/>
+      <c r="RJ4" s="0"/>
+      <c r="RK4" s="0"/>
+      <c r="RL4" s="0"/>
+      <c r="RM4" s="0"/>
+      <c r="RN4" s="0"/>
+      <c r="RO4" s="0"/>
+      <c r="RP4" s="0"/>
+      <c r="RQ4" s="0"/>
+      <c r="RR4" s="0"/>
+      <c r="RS4" s="0"/>
+      <c r="RT4" s="0"/>
+      <c r="RU4" s="0"/>
+      <c r="RV4" s="0"/>
+      <c r="RW4" s="0"/>
+      <c r="RX4" s="0"/>
+      <c r="RY4" s="0"/>
+      <c r="RZ4" s="0"/>
+      <c r="SA4" s="0"/>
+      <c r="SB4" s="0"/>
+      <c r="SC4" s="0"/>
+      <c r="SD4" s="0"/>
+      <c r="SE4" s="0"/>
+      <c r="SF4" s="0"/>
+      <c r="SG4" s="0"/>
+      <c r="SH4" s="0"/>
+      <c r="SI4" s="0"/>
+      <c r="SJ4" s="0"/>
+      <c r="SK4" s="0"/>
+      <c r="SL4" s="0"/>
+      <c r="SM4" s="0"/>
+      <c r="SN4" s="0"/>
+      <c r="SO4" s="0"/>
+      <c r="SP4" s="0"/>
+      <c r="SQ4" s="0"/>
+      <c r="SR4" s="0"/>
+      <c r="SS4" s="0"/>
+      <c r="ST4" s="0"/>
+      <c r="SU4" s="0"/>
+      <c r="SV4" s="0"/>
+      <c r="SW4" s="0"/>
+      <c r="SX4" s="0"/>
+      <c r="SY4" s="0"/>
+      <c r="SZ4" s="0"/>
+      <c r="TA4" s="0"/>
+      <c r="TB4" s="0"/>
+      <c r="TC4" s="0"/>
+      <c r="TD4" s="0"/>
+      <c r="TE4" s="0"/>
+      <c r="TF4" s="0"/>
+      <c r="TG4" s="0"/>
+      <c r="TH4" s="0"/>
+      <c r="TI4" s="0"/>
+      <c r="TJ4" s="0"/>
+      <c r="TK4" s="0"/>
+      <c r="TL4" s="0"/>
+      <c r="TM4" s="0"/>
+      <c r="TN4" s="0"/>
+      <c r="TO4" s="0"/>
+      <c r="TP4" s="0"/>
+      <c r="TQ4" s="0"/>
+      <c r="TR4" s="0"/>
+      <c r="TS4" s="0"/>
+      <c r="TT4" s="0"/>
+      <c r="TU4" s="0"/>
+      <c r="TV4" s="0"/>
+      <c r="TW4" s="0"/>
+      <c r="TX4" s="0"/>
+      <c r="TY4" s="0"/>
+      <c r="TZ4" s="0"/>
+      <c r="UA4" s="0"/>
+      <c r="UB4" s="0"/>
+      <c r="UC4" s="0"/>
+      <c r="UD4" s="0"/>
+      <c r="UE4" s="0"/>
+      <c r="UF4" s="0"/>
+      <c r="UG4" s="0"/>
+      <c r="UH4" s="0"/>
+      <c r="UI4" s="0"/>
+      <c r="UJ4" s="0"/>
+      <c r="UK4" s="0"/>
+      <c r="UL4" s="0"/>
+      <c r="UM4" s="0"/>
+      <c r="UN4" s="0"/>
+      <c r="UO4" s="0"/>
+      <c r="UP4" s="0"/>
+      <c r="UQ4" s="0"/>
+      <c r="UR4" s="0"/>
+      <c r="US4" s="0"/>
+      <c r="UT4" s="0"/>
+      <c r="UU4" s="0"/>
+      <c r="UV4" s="0"/>
+      <c r="UW4" s="0"/>
+      <c r="UX4" s="0"/>
+      <c r="UY4" s="0"/>
+      <c r="UZ4" s="0"/>
+      <c r="VA4" s="0"/>
+      <c r="VB4" s="0"/>
+      <c r="VC4" s="0"/>
+      <c r="VD4" s="0"/>
+      <c r="VE4" s="0"/>
+      <c r="VF4" s="0"/>
+      <c r="VG4" s="0"/>
+      <c r="VH4" s="0"/>
+      <c r="VI4" s="0"/>
+      <c r="VJ4" s="0"/>
+      <c r="VK4" s="0"/>
+      <c r="VL4" s="0"/>
+      <c r="VM4" s="0"/>
+      <c r="VN4" s="0"/>
+      <c r="VO4" s="0"/>
+      <c r="VP4" s="0"/>
+      <c r="VQ4" s="0"/>
+      <c r="VR4" s="0"/>
+      <c r="VS4" s="0"/>
+      <c r="VT4" s="0"/>
+      <c r="VU4" s="0"/>
+      <c r="VV4" s="0"/>
+      <c r="VW4" s="0"/>
+      <c r="VX4" s="0"/>
+      <c r="VY4" s="0"/>
+      <c r="VZ4" s="0"/>
+      <c r="WA4" s="0"/>
+      <c r="WB4" s="0"/>
+      <c r="WC4" s="0"/>
+      <c r="WD4" s="0"/>
+      <c r="WE4" s="0"/>
+      <c r="WF4" s="0"/>
+      <c r="WG4" s="0"/>
+      <c r="WH4" s="0"/>
+      <c r="WI4" s="0"/>
+      <c r="WJ4" s="0"/>
+      <c r="WK4" s="0"/>
+      <c r="WL4" s="0"/>
+      <c r="WM4" s="0"/>
+      <c r="WN4" s="0"/>
+      <c r="WO4" s="0"/>
+      <c r="WP4" s="0"/>
+      <c r="WQ4" s="0"/>
+      <c r="WR4" s="0"/>
+      <c r="WS4" s="0"/>
+      <c r="WT4" s="0"/>
+      <c r="WU4" s="0"/>
+      <c r="WV4" s="0"/>
+      <c r="WW4" s="0"/>
+      <c r="WX4" s="0"/>
+      <c r="WY4" s="0"/>
+      <c r="WZ4" s="0"/>
+      <c r="XA4" s="0"/>
+      <c r="XB4" s="0"/>
+      <c r="XC4" s="0"/>
+      <c r="XD4" s="0"/>
+      <c r="XE4" s="0"/>
+      <c r="XF4" s="0"/>
+      <c r="XG4" s="0"/>
+      <c r="XH4" s="0"/>
+      <c r="XI4" s="0"/>
+      <c r="XJ4" s="0"/>
+      <c r="XK4" s="0"/>
+      <c r="XL4" s="0"/>
+      <c r="XM4" s="0"/>
+      <c r="XN4" s="0"/>
+      <c r="XO4" s="0"/>
+      <c r="XP4" s="0"/>
+      <c r="XQ4" s="0"/>
+      <c r="XR4" s="0"/>
+      <c r="XS4" s="0"/>
+      <c r="XT4" s="0"/>
+      <c r="XU4" s="0"/>
+      <c r="XV4" s="0"/>
+      <c r="XW4" s="0"/>
+      <c r="XX4" s="0"/>
+      <c r="XY4" s="0"/>
+      <c r="XZ4" s="0"/>
+      <c r="YA4" s="0"/>
+      <c r="YB4" s="0"/>
+      <c r="YC4" s="0"/>
+      <c r="YD4" s="0"/>
+      <c r="YE4" s="0"/>
+      <c r="YF4" s="0"/>
+      <c r="YG4" s="0"/>
+      <c r="YH4" s="0"/>
+      <c r="YI4" s="0"/>
+      <c r="YJ4" s="0"/>
+      <c r="YK4" s="0"/>
+      <c r="YL4" s="0"/>
+      <c r="YM4" s="0"/>
+      <c r="YN4" s="0"/>
+      <c r="YO4" s="0"/>
+      <c r="YP4" s="0"/>
+      <c r="YQ4" s="0"/>
+      <c r="YR4" s="0"/>
+      <c r="YS4" s="0"/>
+      <c r="YT4" s="0"/>
+      <c r="YU4" s="0"/>
+      <c r="YV4" s="0"/>
+      <c r="YW4" s="0"/>
+      <c r="YX4" s="0"/>
+      <c r="YY4" s="0"/>
+      <c r="YZ4" s="0"/>
+      <c r="ZA4" s="0"/>
+      <c r="ZB4" s="0"/>
+      <c r="ZC4" s="0"/>
+      <c r="ZD4" s="0"/>
+      <c r="ZE4" s="0"/>
+      <c r="ZF4" s="0"/>
+      <c r="ZG4" s="0"/>
+      <c r="ZH4" s="0"/>
+      <c r="ZI4" s="0"/>
+      <c r="ZJ4" s="0"/>
+      <c r="ZK4" s="0"/>
+      <c r="ZL4" s="0"/>
+      <c r="ZM4" s="0"/>
+      <c r="ZN4" s="0"/>
+      <c r="ZO4" s="0"/>
+      <c r="ZP4" s="0"/>
+      <c r="ZQ4" s="0"/>
+      <c r="ZR4" s="0"/>
+      <c r="ZS4" s="0"/>
+      <c r="ZT4" s="0"/>
+      <c r="ZU4" s="0"/>
+      <c r="ZV4" s="0"/>
+      <c r="ZW4" s="0"/>
+      <c r="ZX4" s="0"/>
+      <c r="ZY4" s="0"/>
+      <c r="ZZ4" s="0"/>
+      <c r="AAA4" s="0"/>
+      <c r="AAB4" s="0"/>
+      <c r="AAC4" s="0"/>
+      <c r="AAD4" s="0"/>
+      <c r="AAE4" s="0"/>
+      <c r="AAF4" s="0"/>
+      <c r="AAG4" s="0"/>
+      <c r="AAH4" s="0"/>
+      <c r="AAI4" s="0"/>
+      <c r="AAJ4" s="0"/>
+      <c r="AAK4" s="0"/>
+      <c r="AAL4" s="0"/>
+      <c r="AAM4" s="0"/>
+      <c r="AAN4" s="0"/>
+      <c r="AAO4" s="0"/>
+      <c r="AAP4" s="0"/>
+      <c r="AAQ4" s="0"/>
+      <c r="AAR4" s="0"/>
+      <c r="AAS4" s="0"/>
+      <c r="AAT4" s="0"/>
+      <c r="AAU4" s="0"/>
+      <c r="AAV4" s="0"/>
+      <c r="AAW4" s="0"/>
+      <c r="AAX4" s="0"/>
+      <c r="AAY4" s="0"/>
+      <c r="AAZ4" s="0"/>
+      <c r="ABA4" s="0"/>
+      <c r="ABB4" s="0"/>
+      <c r="ABC4" s="0"/>
+      <c r="ABD4" s="0"/>
+      <c r="ABE4" s="0"/>
+      <c r="ABF4" s="0"/>
+      <c r="ABG4" s="0"/>
+      <c r="ABH4" s="0"/>
+      <c r="ABI4" s="0"/>
+      <c r="ABJ4" s="0"/>
+      <c r="ABK4" s="0"/>
+      <c r="ABL4" s="0"/>
+      <c r="ABM4" s="0"/>
+      <c r="ABN4" s="0"/>
+      <c r="ABO4" s="0"/>
+      <c r="ABP4" s="0"/>
+      <c r="ABQ4" s="0"/>
+      <c r="ABR4" s="0"/>
+      <c r="ABS4" s="0"/>
+      <c r="ABT4" s="0"/>
+      <c r="ABU4" s="0"/>
+      <c r="ABV4" s="0"/>
+      <c r="ABW4" s="0"/>
+      <c r="ABX4" s="0"/>
+      <c r="ABY4" s="0"/>
+      <c r="ABZ4" s="0"/>
+      <c r="ACA4" s="0"/>
+      <c r="ACB4" s="0"/>
+      <c r="ACC4" s="0"/>
+      <c r="ACD4" s="0"/>
+      <c r="ACE4" s="0"/>
+      <c r="ACF4" s="0"/>
+      <c r="ACG4" s="0"/>
+      <c r="ACH4" s="0"/>
+      <c r="ACI4" s="0"/>
+      <c r="ACJ4" s="0"/>
+      <c r="ACK4" s="0"/>
+      <c r="ACL4" s="0"/>
+      <c r="ACM4" s="0"/>
+      <c r="ACN4" s="0"/>
+      <c r="ACO4" s="0"/>
+      <c r="ACP4" s="0"/>
+      <c r="ACQ4" s="0"/>
+      <c r="ACR4" s="0"/>
+      <c r="ACS4" s="0"/>
+      <c r="ACT4" s="0"/>
+      <c r="ACU4" s="0"/>
+      <c r="ACV4" s="0"/>
+      <c r="ACW4" s="0"/>
+      <c r="ACX4" s="0"/>
+      <c r="ACY4" s="0"/>
+      <c r="ACZ4" s="0"/>
+      <c r="ADA4" s="0"/>
+      <c r="ADB4" s="0"/>
+      <c r="ADC4" s="0"/>
+      <c r="ADD4" s="0"/>
+      <c r="ADE4" s="0"/>
+      <c r="ADF4" s="0"/>
+      <c r="ADG4" s="0"/>
+      <c r="ADH4" s="0"/>
+      <c r="ADI4" s="0"/>
+      <c r="ADJ4" s="0"/>
+      <c r="ADK4" s="0"/>
+      <c r="ADL4" s="0"/>
+      <c r="ADM4" s="0"/>
+      <c r="ADN4" s="0"/>
+      <c r="ADO4" s="0"/>
+      <c r="ADP4" s="0"/>
+      <c r="ADQ4" s="0"/>
+      <c r="ADR4" s="0"/>
+      <c r="ADS4" s="0"/>
+      <c r="ADT4" s="0"/>
+      <c r="ADU4" s="0"/>
+      <c r="ADV4" s="0"/>
+      <c r="ADW4" s="0"/>
+      <c r="ADX4" s="0"/>
+      <c r="ADY4" s="0"/>
+      <c r="ADZ4" s="0"/>
+      <c r="AEA4" s="0"/>
+      <c r="AEB4" s="0"/>
+      <c r="AEC4" s="0"/>
+      <c r="AED4" s="0"/>
+      <c r="AEE4" s="0"/>
+      <c r="AEF4" s="0"/>
+      <c r="AEG4" s="0"/>
+      <c r="AEH4" s="0"/>
+      <c r="AEI4" s="0"/>
+      <c r="AEJ4" s="0"/>
+      <c r="AEK4" s="0"/>
+      <c r="AEL4" s="0"/>
+      <c r="AEM4" s="0"/>
+      <c r="AEN4" s="0"/>
+      <c r="AEO4" s="0"/>
+      <c r="AEP4" s="0"/>
+      <c r="AEQ4" s="0"/>
+      <c r="AER4" s="0"/>
+      <c r="AES4" s="0"/>
+      <c r="AET4" s="0"/>
+      <c r="AEU4" s="0"/>
+      <c r="AEV4" s="0"/>
+      <c r="AEW4" s="0"/>
+      <c r="AEX4" s="0"/>
+      <c r="AEY4" s="0"/>
+      <c r="AEZ4" s="0"/>
+      <c r="AFA4" s="0"/>
+      <c r="AFB4" s="0"/>
+      <c r="AFC4" s="0"/>
+      <c r="AFD4" s="0"/>
+      <c r="AFE4" s="0"/>
+      <c r="AFF4" s="0"/>
+      <c r="AFG4" s="0"/>
+      <c r="AFH4" s="0"/>
+      <c r="AFI4" s="0"/>
+      <c r="AFJ4" s="0"/>
+      <c r="AFK4" s="0"/>
+      <c r="AFL4" s="0"/>
+      <c r="AFM4" s="0"/>
+      <c r="AFN4" s="0"/>
+      <c r="AFO4" s="0"/>
+      <c r="AFP4" s="0"/>
+      <c r="AFQ4" s="0"/>
+      <c r="AFR4" s="0"/>
+      <c r="AFS4" s="0"/>
+      <c r="AFT4" s="0"/>
+      <c r="AFU4" s="0"/>
+      <c r="AFV4" s="0"/>
+      <c r="AFW4" s="0"/>
+      <c r="AFX4" s="0"/>
+      <c r="AFY4" s="0"/>
+      <c r="AFZ4" s="0"/>
+      <c r="AGA4" s="0"/>
+      <c r="AGB4" s="0"/>
+      <c r="AGC4" s="0"/>
+      <c r="AGD4" s="0"/>
+      <c r="AGE4" s="0"/>
+      <c r="AGF4" s="0"/>
+      <c r="AGG4" s="0"/>
+      <c r="AGH4" s="0"/>
+      <c r="AGI4" s="0"/>
+      <c r="AGJ4" s="0"/>
+      <c r="AGK4" s="0"/>
+      <c r="AGL4" s="0"/>
+      <c r="AGM4" s="0"/>
+      <c r="AGN4" s="0"/>
+      <c r="AGO4" s="0"/>
+      <c r="AGP4" s="0"/>
+      <c r="AGQ4" s="0"/>
+      <c r="AGR4" s="0"/>
+      <c r="AGS4" s="0"/>
+      <c r="AGT4" s="0"/>
+      <c r="AGU4" s="0"/>
+      <c r="AGV4" s="0"/>
+      <c r="AGW4" s="0"/>
+      <c r="AGX4" s="0"/>
+      <c r="AGY4" s="0"/>
+      <c r="AGZ4" s="0"/>
+      <c r="AHA4" s="0"/>
+      <c r="AHB4" s="0"/>
+      <c r="AHC4" s="0"/>
+      <c r="AHD4" s="0"/>
+      <c r="AHE4" s="0"/>
+      <c r="AHF4" s="0"/>
+      <c r="AHG4" s="0"/>
+      <c r="AHH4" s="0"/>
+      <c r="AHI4" s="0"/>
+      <c r="AHJ4" s="0"/>
+      <c r="AHK4" s="0"/>
+      <c r="AHL4" s="0"/>
+      <c r="AHM4" s="0"/>
+      <c r="AHN4" s="0"/>
+      <c r="AHO4" s="0"/>
+      <c r="AHP4" s="0"/>
+      <c r="AHQ4" s="0"/>
+      <c r="AHR4" s="0"/>
+      <c r="AHS4" s="0"/>
+      <c r="AHT4" s="0"/>
+      <c r="AHU4" s="0"/>
+      <c r="AHV4" s="0"/>
+      <c r="AHW4" s="0"/>
+      <c r="AHX4" s="0"/>
+      <c r="AHY4" s="0"/>
+      <c r="AHZ4" s="0"/>
+      <c r="AIA4" s="0"/>
+      <c r="AIB4" s="0"/>
+      <c r="AIC4" s="0"/>
+      <c r="AID4" s="0"/>
+      <c r="AIE4" s="0"/>
+      <c r="AIF4" s="0"/>
+      <c r="AIG4" s="0"/>
+      <c r="AIH4" s="0"/>
+      <c r="AII4" s="0"/>
+      <c r="AIJ4" s="0"/>
+      <c r="AIK4" s="0"/>
+      <c r="AIL4" s="0"/>
+      <c r="AIM4" s="0"/>
+      <c r="AIN4" s="0"/>
+      <c r="AIO4" s="0"/>
+      <c r="AIP4" s="0"/>
+      <c r="AIQ4" s="0"/>
+      <c r="AIR4" s="0"/>
+      <c r="AIS4" s="0"/>
+      <c r="AIT4" s="0"/>
+      <c r="AIU4" s="0"/>
+      <c r="AIV4" s="0"/>
+      <c r="AIW4" s="0"/>
+      <c r="AIX4" s="0"/>
+      <c r="AIY4" s="0"/>
+      <c r="AIZ4" s="0"/>
+      <c r="AJA4" s="0"/>
+      <c r="AJB4" s="0"/>
+      <c r="AJC4" s="0"/>
+      <c r="AJD4" s="0"/>
+      <c r="AJE4" s="0"/>
+      <c r="AJF4" s="0"/>
+      <c r="AJG4" s="0"/>
+      <c r="AJH4" s="0"/>
+      <c r="AJI4" s="0"/>
+      <c r="AJJ4" s="0"/>
+      <c r="AJK4" s="0"/>
+      <c r="AJL4" s="0"/>
+      <c r="AJM4" s="0"/>
+      <c r="AJN4" s="0"/>
+      <c r="AJO4" s="0"/>
+      <c r="AJP4" s="0"/>
+      <c r="AJQ4" s="0"/>
+      <c r="AJR4" s="0"/>
+      <c r="AJS4" s="0"/>
+      <c r="AJT4" s="0"/>
+      <c r="AJU4" s="0"/>
+      <c r="AJV4" s="0"/>
+      <c r="AJW4" s="0"/>
+      <c r="AJX4" s="0"/>
+      <c r="AJY4" s="0"/>
+      <c r="AJZ4" s="0"/>
+      <c r="AKA4" s="0"/>
+      <c r="AKB4" s="0"/>
+      <c r="AKC4" s="0"/>
+      <c r="AKD4" s="0"/>
+      <c r="AKE4" s="0"/>
+      <c r="AKF4" s="0"/>
+      <c r="AKG4" s="0"/>
+      <c r="AKH4" s="0"/>
+      <c r="AKI4" s="0"/>
+      <c r="AKJ4" s="0"/>
+      <c r="AKK4" s="0"/>
+      <c r="AKL4" s="0"/>
+      <c r="AKM4" s="0"/>
+      <c r="AKN4" s="0"/>
+      <c r="AKO4" s="0"/>
+      <c r="AKP4" s="0"/>
+      <c r="AKQ4" s="0"/>
+      <c r="AKR4" s="0"/>
+      <c r="AKS4" s="0"/>
+      <c r="AKT4" s="0"/>
+      <c r="AKU4" s="0"/>
+      <c r="AKV4" s="0"/>
+      <c r="AKW4" s="0"/>
+      <c r="AKX4" s="0"/>
+      <c r="AKY4" s="0"/>
+      <c r="AKZ4" s="0"/>
+      <c r="ALA4" s="0"/>
+      <c r="ALB4" s="0"/>
+      <c r="ALC4" s="0"/>
+      <c r="ALD4" s="0"/>
+      <c r="ALE4" s="0"/>
+      <c r="ALF4" s="0"/>
+      <c r="ALG4" s="0"/>
+      <c r="ALH4" s="0"/>
+      <c r="ALI4" s="0"/>
+      <c r="ALJ4" s="0"/>
+      <c r="ALK4" s="0"/>
+      <c r="ALL4" s="0"/>
+      <c r="ALM4" s="0"/>
+      <c r="ALN4" s="0"/>
+      <c r="ALO4" s="0"/>
+      <c r="ALP4" s="0"/>
+      <c r="ALQ4" s="0"/>
+      <c r="ALR4" s="0"/>
+      <c r="ALS4" s="0"/>
+      <c r="ALT4" s="0"/>
+      <c r="ALU4" s="0"/>
+      <c r="ALV4" s="0"/>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
+      <c r="AMB4" s="0"/>
+      <c r="AMC4" s="0"/>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
@@ -1419,6 +4456,991 @@
       <c r="AM5" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0"/>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0"/>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0"/>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0"/>
+      <c r="BB5" s="0"/>
+      <c r="BC5" s="0"/>
+      <c r="BD5" s="0"/>
+      <c r="BE5" s="0"/>
+      <c r="BF5" s="0"/>
+      <c r="BG5" s="0"/>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0"/>
+      <c r="BN5" s="0"/>
+      <c r="BO5" s="0"/>
+      <c r="BP5" s="0"/>
+      <c r="BQ5" s="0"/>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+      <c r="BU5" s="0"/>
+      <c r="BV5" s="0"/>
+      <c r="BW5" s="0"/>
+      <c r="BX5" s="0"/>
+      <c r="BY5" s="0"/>
+      <c r="BZ5" s="0"/>
+      <c r="CA5" s="0"/>
+      <c r="CB5" s="0"/>
+      <c r="CC5" s="0"/>
+      <c r="CD5" s="0"/>
+      <c r="CE5" s="0"/>
+      <c r="CF5" s="0"/>
+      <c r="CG5" s="0"/>
+      <c r="CH5" s="0"/>
+      <c r="CI5" s="0"/>
+      <c r="CJ5" s="0"/>
+      <c r="CK5" s="0"/>
+      <c r="CL5" s="0"/>
+      <c r="CM5" s="0"/>
+      <c r="CN5" s="0"/>
+      <c r="CO5" s="0"/>
+      <c r="CP5" s="0"/>
+      <c r="CQ5" s="0"/>
+      <c r="CR5" s="0"/>
+      <c r="CS5" s="0"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
+      <c r="CV5" s="0"/>
+      <c r="CW5" s="0"/>
+      <c r="CX5" s="0"/>
+      <c r="CY5" s="0"/>
+      <c r="CZ5" s="0"/>
+      <c r="DA5" s="0"/>
+      <c r="DB5" s="0"/>
+      <c r="DC5" s="0"/>
+      <c r="DD5" s="0"/>
+      <c r="DE5" s="0"/>
+      <c r="DF5" s="0"/>
+      <c r="DG5" s="0"/>
+      <c r="DH5" s="0"/>
+      <c r="DI5" s="0"/>
+      <c r="DJ5" s="0"/>
+      <c r="DK5" s="0"/>
+      <c r="DL5" s="0"/>
+      <c r="DM5" s="0"/>
+      <c r="DN5" s="0"/>
+      <c r="DO5" s="0"/>
+      <c r="DP5" s="0"/>
+      <c r="DQ5" s="0"/>
+      <c r="DR5" s="0"/>
+      <c r="DS5" s="0"/>
+      <c r="DT5" s="0"/>
+      <c r="DU5" s="0"/>
+      <c r="DV5" s="0"/>
+      <c r="DW5" s="0"/>
+      <c r="DX5" s="0"/>
+      <c r="DY5" s="0"/>
+      <c r="DZ5" s="0"/>
+      <c r="EA5" s="0"/>
+      <c r="EB5" s="0"/>
+      <c r="EC5" s="0"/>
+      <c r="ED5" s="0"/>
+      <c r="EE5" s="0"/>
+      <c r="EF5" s="0"/>
+      <c r="EG5" s="0"/>
+      <c r="EH5" s="0"/>
+      <c r="EI5" s="0"/>
+      <c r="EJ5" s="0"/>
+      <c r="EK5" s="0"/>
+      <c r="EL5" s="0"/>
+      <c r="EM5" s="0"/>
+      <c r="EN5" s="0"/>
+      <c r="EO5" s="0"/>
+      <c r="EP5" s="0"/>
+      <c r="EQ5" s="0"/>
+      <c r="ER5" s="0"/>
+      <c r="ES5" s="0"/>
+      <c r="ET5" s="0"/>
+      <c r="EU5" s="0"/>
+      <c r="EV5" s="0"/>
+      <c r="EW5" s="0"/>
+      <c r="EX5" s="0"/>
+      <c r="EY5" s="0"/>
+      <c r="EZ5" s="0"/>
+      <c r="FA5" s="0"/>
+      <c r="FB5" s="0"/>
+      <c r="FC5" s="0"/>
+      <c r="FD5" s="0"/>
+      <c r="FE5" s="0"/>
+      <c r="FF5" s="0"/>
+      <c r="FG5" s="0"/>
+      <c r="FH5" s="0"/>
+      <c r="FI5" s="0"/>
+      <c r="FJ5" s="0"/>
+      <c r="FK5" s="0"/>
+      <c r="FL5" s="0"/>
+      <c r="FM5" s="0"/>
+      <c r="FN5" s="0"/>
+      <c r="FO5" s="0"/>
+      <c r="FP5" s="0"/>
+      <c r="FQ5" s="0"/>
+      <c r="FR5" s="0"/>
+      <c r="FS5" s="0"/>
+      <c r="FT5" s="0"/>
+      <c r="FU5" s="0"/>
+      <c r="FV5" s="0"/>
+      <c r="FW5" s="0"/>
+      <c r="FX5" s="0"/>
+      <c r="FY5" s="0"/>
+      <c r="FZ5" s="0"/>
+      <c r="GA5" s="0"/>
+      <c r="GB5" s="0"/>
+      <c r="GC5" s="0"/>
+      <c r="GD5" s="0"/>
+      <c r="GE5" s="0"/>
+      <c r="GF5" s="0"/>
+      <c r="GG5" s="0"/>
+      <c r="GH5" s="0"/>
+      <c r="GI5" s="0"/>
+      <c r="GJ5" s="0"/>
+      <c r="GK5" s="0"/>
+      <c r="GL5" s="0"/>
+      <c r="GM5" s="0"/>
+      <c r="GN5" s="0"/>
+      <c r="GO5" s="0"/>
+      <c r="GP5" s="0"/>
+      <c r="GQ5" s="0"/>
+      <c r="GR5" s="0"/>
+      <c r="GS5" s="0"/>
+      <c r="GT5" s="0"/>
+      <c r="GU5" s="0"/>
+      <c r="GV5" s="0"/>
+      <c r="GW5" s="0"/>
+      <c r="GX5" s="0"/>
+      <c r="GY5" s="0"/>
+      <c r="GZ5" s="0"/>
+      <c r="HA5" s="0"/>
+      <c r="HB5" s="0"/>
+      <c r="HC5" s="0"/>
+      <c r="HD5" s="0"/>
+      <c r="HE5" s="0"/>
+      <c r="HF5" s="0"/>
+      <c r="HG5" s="0"/>
+      <c r="HH5" s="0"/>
+      <c r="HI5" s="0"/>
+      <c r="HJ5" s="0"/>
+      <c r="HK5" s="0"/>
+      <c r="HL5" s="0"/>
+      <c r="HM5" s="0"/>
+      <c r="HN5" s="0"/>
+      <c r="HO5" s="0"/>
+      <c r="HP5" s="0"/>
+      <c r="HQ5" s="0"/>
+      <c r="HR5" s="0"/>
+      <c r="HS5" s="0"/>
+      <c r="HT5" s="0"/>
+      <c r="HU5" s="0"/>
+      <c r="HV5" s="0"/>
+      <c r="HW5" s="0"/>
+      <c r="HX5" s="0"/>
+      <c r="HY5" s="0"/>
+      <c r="HZ5" s="0"/>
+      <c r="IA5" s="0"/>
+      <c r="IB5" s="0"/>
+      <c r="IC5" s="0"/>
+      <c r="ID5" s="0"/>
+      <c r="IE5" s="0"/>
+      <c r="IF5" s="0"/>
+      <c r="IG5" s="0"/>
+      <c r="IH5" s="0"/>
+      <c r="II5" s="0"/>
+      <c r="IJ5" s="0"/>
+      <c r="IK5" s="0"/>
+      <c r="IL5" s="0"/>
+      <c r="IM5" s="0"/>
+      <c r="IN5" s="0"/>
+      <c r="IO5" s="0"/>
+      <c r="IP5" s="0"/>
+      <c r="IQ5" s="0"/>
+      <c r="IR5" s="0"/>
+      <c r="IS5" s="0"/>
+      <c r="IT5" s="0"/>
+      <c r="IU5" s="0"/>
+      <c r="IV5" s="0"/>
+      <c r="IW5" s="0"/>
+      <c r="IX5" s="0"/>
+      <c r="IY5" s="0"/>
+      <c r="IZ5" s="0"/>
+      <c r="JA5" s="0"/>
+      <c r="JB5" s="0"/>
+      <c r="JC5" s="0"/>
+      <c r="JD5" s="0"/>
+      <c r="JE5" s="0"/>
+      <c r="JF5" s="0"/>
+      <c r="JG5" s="0"/>
+      <c r="JH5" s="0"/>
+      <c r="JI5" s="0"/>
+      <c r="JJ5" s="0"/>
+      <c r="JK5" s="0"/>
+      <c r="JL5" s="0"/>
+      <c r="JM5" s="0"/>
+      <c r="JN5" s="0"/>
+      <c r="JO5" s="0"/>
+      <c r="JP5" s="0"/>
+      <c r="JQ5" s="0"/>
+      <c r="JR5" s="0"/>
+      <c r="JS5" s="0"/>
+      <c r="JT5" s="0"/>
+      <c r="JU5" s="0"/>
+      <c r="JV5" s="0"/>
+      <c r="JW5" s="0"/>
+      <c r="JX5" s="0"/>
+      <c r="JY5" s="0"/>
+      <c r="JZ5" s="0"/>
+      <c r="KA5" s="0"/>
+      <c r="KB5" s="0"/>
+      <c r="KC5" s="0"/>
+      <c r="KD5" s="0"/>
+      <c r="KE5" s="0"/>
+      <c r="KF5" s="0"/>
+      <c r="KG5" s="0"/>
+      <c r="KH5" s="0"/>
+      <c r="KI5" s="0"/>
+      <c r="KJ5" s="0"/>
+      <c r="KK5" s="0"/>
+      <c r="KL5" s="0"/>
+      <c r="KM5" s="0"/>
+      <c r="KN5" s="0"/>
+      <c r="KO5" s="0"/>
+      <c r="KP5" s="0"/>
+      <c r="KQ5" s="0"/>
+      <c r="KR5" s="0"/>
+      <c r="KS5" s="0"/>
+      <c r="KT5" s="0"/>
+      <c r="KU5" s="0"/>
+      <c r="KV5" s="0"/>
+      <c r="KW5" s="0"/>
+      <c r="KX5" s="0"/>
+      <c r="KY5" s="0"/>
+      <c r="KZ5" s="0"/>
+      <c r="LA5" s="0"/>
+      <c r="LB5" s="0"/>
+      <c r="LC5" s="0"/>
+      <c r="LD5" s="0"/>
+      <c r="LE5" s="0"/>
+      <c r="LF5" s="0"/>
+      <c r="LG5" s="0"/>
+      <c r="LH5" s="0"/>
+      <c r="LI5" s="0"/>
+      <c r="LJ5" s="0"/>
+      <c r="LK5" s="0"/>
+      <c r="LL5" s="0"/>
+      <c r="LM5" s="0"/>
+      <c r="LN5" s="0"/>
+      <c r="LO5" s="0"/>
+      <c r="LP5" s="0"/>
+      <c r="LQ5" s="0"/>
+      <c r="LR5" s="0"/>
+      <c r="LS5" s="0"/>
+      <c r="LT5" s="0"/>
+      <c r="LU5" s="0"/>
+      <c r="LV5" s="0"/>
+      <c r="LW5" s="0"/>
+      <c r="LX5" s="0"/>
+      <c r="LY5" s="0"/>
+      <c r="LZ5" s="0"/>
+      <c r="MA5" s="0"/>
+      <c r="MB5" s="0"/>
+      <c r="MC5" s="0"/>
+      <c r="MD5" s="0"/>
+      <c r="ME5" s="0"/>
+      <c r="MF5" s="0"/>
+      <c r="MG5" s="0"/>
+      <c r="MH5" s="0"/>
+      <c r="MI5" s="0"/>
+      <c r="MJ5" s="0"/>
+      <c r="MK5" s="0"/>
+      <c r="ML5" s="0"/>
+      <c r="MM5" s="0"/>
+      <c r="MN5" s="0"/>
+      <c r="MO5" s="0"/>
+      <c r="MP5" s="0"/>
+      <c r="MQ5" s="0"/>
+      <c r="MR5" s="0"/>
+      <c r="MS5" s="0"/>
+      <c r="MT5" s="0"/>
+      <c r="MU5" s="0"/>
+      <c r="MV5" s="0"/>
+      <c r="MW5" s="0"/>
+      <c r="MX5" s="0"/>
+      <c r="MY5" s="0"/>
+      <c r="MZ5" s="0"/>
+      <c r="NA5" s="0"/>
+      <c r="NB5" s="0"/>
+      <c r="NC5" s="0"/>
+      <c r="ND5" s="0"/>
+      <c r="NE5" s="0"/>
+      <c r="NF5" s="0"/>
+      <c r="NG5" s="0"/>
+      <c r="NH5" s="0"/>
+      <c r="NI5" s="0"/>
+      <c r="NJ5" s="0"/>
+      <c r="NK5" s="0"/>
+      <c r="NL5" s="0"/>
+      <c r="NM5" s="0"/>
+      <c r="NN5" s="0"/>
+      <c r="NO5" s="0"/>
+      <c r="NP5" s="0"/>
+      <c r="NQ5" s="0"/>
+      <c r="NR5" s="0"/>
+      <c r="NS5" s="0"/>
+      <c r="NT5" s="0"/>
+      <c r="NU5" s="0"/>
+      <c r="NV5" s="0"/>
+      <c r="NW5" s="0"/>
+      <c r="NX5" s="0"/>
+      <c r="NY5" s="0"/>
+      <c r="NZ5" s="0"/>
+      <c r="OA5" s="0"/>
+      <c r="OB5" s="0"/>
+      <c r="OC5" s="0"/>
+      <c r="OD5" s="0"/>
+      <c r="OE5" s="0"/>
+      <c r="OF5" s="0"/>
+      <c r="OG5" s="0"/>
+      <c r="OH5" s="0"/>
+      <c r="OI5" s="0"/>
+      <c r="OJ5" s="0"/>
+      <c r="OK5" s="0"/>
+      <c r="OL5" s="0"/>
+      <c r="OM5" s="0"/>
+      <c r="ON5" s="0"/>
+      <c r="OO5" s="0"/>
+      <c r="OP5" s="0"/>
+      <c r="OQ5" s="0"/>
+      <c r="OR5" s="0"/>
+      <c r="OS5" s="0"/>
+      <c r="OT5" s="0"/>
+      <c r="OU5" s="0"/>
+      <c r="OV5" s="0"/>
+      <c r="OW5" s="0"/>
+      <c r="OX5" s="0"/>
+      <c r="OY5" s="0"/>
+      <c r="OZ5" s="0"/>
+      <c r="PA5" s="0"/>
+      <c r="PB5" s="0"/>
+      <c r="PC5" s="0"/>
+      <c r="PD5" s="0"/>
+      <c r="PE5" s="0"/>
+      <c r="PF5" s="0"/>
+      <c r="PG5" s="0"/>
+      <c r="PH5" s="0"/>
+      <c r="PI5" s="0"/>
+      <c r="PJ5" s="0"/>
+      <c r="PK5" s="0"/>
+      <c r="PL5" s="0"/>
+      <c r="PM5" s="0"/>
+      <c r="PN5" s="0"/>
+      <c r="PO5" s="0"/>
+      <c r="PP5" s="0"/>
+      <c r="PQ5" s="0"/>
+      <c r="PR5" s="0"/>
+      <c r="PS5" s="0"/>
+      <c r="PT5" s="0"/>
+      <c r="PU5" s="0"/>
+      <c r="PV5" s="0"/>
+      <c r="PW5" s="0"/>
+      <c r="PX5" s="0"/>
+      <c r="PY5" s="0"/>
+      <c r="PZ5" s="0"/>
+      <c r="QA5" s="0"/>
+      <c r="QB5" s="0"/>
+      <c r="QC5" s="0"/>
+      <c r="QD5" s="0"/>
+      <c r="QE5" s="0"/>
+      <c r="QF5" s="0"/>
+      <c r="QG5" s="0"/>
+      <c r="QH5" s="0"/>
+      <c r="QI5" s="0"/>
+      <c r="QJ5" s="0"/>
+      <c r="QK5" s="0"/>
+      <c r="QL5" s="0"/>
+      <c r="QM5" s="0"/>
+      <c r="QN5" s="0"/>
+      <c r="QO5" s="0"/>
+      <c r="QP5" s="0"/>
+      <c r="QQ5" s="0"/>
+      <c r="QR5" s="0"/>
+      <c r="QS5" s="0"/>
+      <c r="QT5" s="0"/>
+      <c r="QU5" s="0"/>
+      <c r="QV5" s="0"/>
+      <c r="QW5" s="0"/>
+      <c r="QX5" s="0"/>
+      <c r="QY5" s="0"/>
+      <c r="QZ5" s="0"/>
+      <c r="RA5" s="0"/>
+      <c r="RB5" s="0"/>
+      <c r="RC5" s="0"/>
+      <c r="RD5" s="0"/>
+      <c r="RE5" s="0"/>
+      <c r="RF5" s="0"/>
+      <c r="RG5" s="0"/>
+      <c r="RH5" s="0"/>
+      <c r="RI5" s="0"/>
+      <c r="RJ5" s="0"/>
+      <c r="RK5" s="0"/>
+      <c r="RL5" s="0"/>
+      <c r="RM5" s="0"/>
+      <c r="RN5" s="0"/>
+      <c r="RO5" s="0"/>
+      <c r="RP5" s="0"/>
+      <c r="RQ5" s="0"/>
+      <c r="RR5" s="0"/>
+      <c r="RS5" s="0"/>
+      <c r="RT5" s="0"/>
+      <c r="RU5" s="0"/>
+      <c r="RV5" s="0"/>
+      <c r="RW5" s="0"/>
+      <c r="RX5" s="0"/>
+      <c r="RY5" s="0"/>
+      <c r="RZ5" s="0"/>
+      <c r="SA5" s="0"/>
+      <c r="SB5" s="0"/>
+      <c r="SC5" s="0"/>
+      <c r="SD5" s="0"/>
+      <c r="SE5" s="0"/>
+      <c r="SF5" s="0"/>
+      <c r="SG5" s="0"/>
+      <c r="SH5" s="0"/>
+      <c r="SI5" s="0"/>
+      <c r="SJ5" s="0"/>
+      <c r="SK5" s="0"/>
+      <c r="SL5" s="0"/>
+      <c r="SM5" s="0"/>
+      <c r="SN5" s="0"/>
+      <c r="SO5" s="0"/>
+      <c r="SP5" s="0"/>
+      <c r="SQ5" s="0"/>
+      <c r="SR5" s="0"/>
+      <c r="SS5" s="0"/>
+      <c r="ST5" s="0"/>
+      <c r="SU5" s="0"/>
+      <c r="SV5" s="0"/>
+      <c r="SW5" s="0"/>
+      <c r="SX5" s="0"/>
+      <c r="SY5" s="0"/>
+      <c r="SZ5" s="0"/>
+      <c r="TA5" s="0"/>
+      <c r="TB5" s="0"/>
+      <c r="TC5" s="0"/>
+      <c r="TD5" s="0"/>
+      <c r="TE5" s="0"/>
+      <c r="TF5" s="0"/>
+      <c r="TG5" s="0"/>
+      <c r="TH5" s="0"/>
+      <c r="TI5" s="0"/>
+      <c r="TJ5" s="0"/>
+      <c r="TK5" s="0"/>
+      <c r="TL5" s="0"/>
+      <c r="TM5" s="0"/>
+      <c r="TN5" s="0"/>
+      <c r="TO5" s="0"/>
+      <c r="TP5" s="0"/>
+      <c r="TQ5" s="0"/>
+      <c r="TR5" s="0"/>
+      <c r="TS5" s="0"/>
+      <c r="TT5" s="0"/>
+      <c r="TU5" s="0"/>
+      <c r="TV5" s="0"/>
+      <c r="TW5" s="0"/>
+      <c r="TX5" s="0"/>
+      <c r="TY5" s="0"/>
+      <c r="TZ5" s="0"/>
+      <c r="UA5" s="0"/>
+      <c r="UB5" s="0"/>
+      <c r="UC5" s="0"/>
+      <c r="UD5" s="0"/>
+      <c r="UE5" s="0"/>
+      <c r="UF5" s="0"/>
+      <c r="UG5" s="0"/>
+      <c r="UH5" s="0"/>
+      <c r="UI5" s="0"/>
+      <c r="UJ5" s="0"/>
+      <c r="UK5" s="0"/>
+      <c r="UL5" s="0"/>
+      <c r="UM5" s="0"/>
+      <c r="UN5" s="0"/>
+      <c r="UO5" s="0"/>
+      <c r="UP5" s="0"/>
+      <c r="UQ5" s="0"/>
+      <c r="UR5" s="0"/>
+      <c r="US5" s="0"/>
+      <c r="UT5" s="0"/>
+      <c r="UU5" s="0"/>
+      <c r="UV5" s="0"/>
+      <c r="UW5" s="0"/>
+      <c r="UX5" s="0"/>
+      <c r="UY5" s="0"/>
+      <c r="UZ5" s="0"/>
+      <c r="VA5" s="0"/>
+      <c r="VB5" s="0"/>
+      <c r="VC5" s="0"/>
+      <c r="VD5" s="0"/>
+      <c r="VE5" s="0"/>
+      <c r="VF5" s="0"/>
+      <c r="VG5" s="0"/>
+      <c r="VH5" s="0"/>
+      <c r="VI5" s="0"/>
+      <c r="VJ5" s="0"/>
+      <c r="VK5" s="0"/>
+      <c r="VL5" s="0"/>
+      <c r="VM5" s="0"/>
+      <c r="VN5" s="0"/>
+      <c r="VO5" s="0"/>
+      <c r="VP5" s="0"/>
+      <c r="VQ5" s="0"/>
+      <c r="VR5" s="0"/>
+      <c r="VS5" s="0"/>
+      <c r="VT5" s="0"/>
+      <c r="VU5" s="0"/>
+      <c r="VV5" s="0"/>
+      <c r="VW5" s="0"/>
+      <c r="VX5" s="0"/>
+      <c r="VY5" s="0"/>
+      <c r="VZ5" s="0"/>
+      <c r="WA5" s="0"/>
+      <c r="WB5" s="0"/>
+      <c r="WC5" s="0"/>
+      <c r="WD5" s="0"/>
+      <c r="WE5" s="0"/>
+      <c r="WF5" s="0"/>
+      <c r="WG5" s="0"/>
+      <c r="WH5" s="0"/>
+      <c r="WI5" s="0"/>
+      <c r="WJ5" s="0"/>
+      <c r="WK5" s="0"/>
+      <c r="WL5" s="0"/>
+      <c r="WM5" s="0"/>
+      <c r="WN5" s="0"/>
+      <c r="WO5" s="0"/>
+      <c r="WP5" s="0"/>
+      <c r="WQ5" s="0"/>
+      <c r="WR5" s="0"/>
+      <c r="WS5" s="0"/>
+      <c r="WT5" s="0"/>
+      <c r="WU5" s="0"/>
+      <c r="WV5" s="0"/>
+      <c r="WW5" s="0"/>
+      <c r="WX5" s="0"/>
+      <c r="WY5" s="0"/>
+      <c r="WZ5" s="0"/>
+      <c r="XA5" s="0"/>
+      <c r="XB5" s="0"/>
+      <c r="XC5" s="0"/>
+      <c r="XD5" s="0"/>
+      <c r="XE5" s="0"/>
+      <c r="XF5" s="0"/>
+      <c r="XG5" s="0"/>
+      <c r="XH5" s="0"/>
+      <c r="XI5" s="0"/>
+      <c r="XJ5" s="0"/>
+      <c r="XK5" s="0"/>
+      <c r="XL5" s="0"/>
+      <c r="XM5" s="0"/>
+      <c r="XN5" s="0"/>
+      <c r="XO5" s="0"/>
+      <c r="XP5" s="0"/>
+      <c r="XQ5" s="0"/>
+      <c r="XR5" s="0"/>
+      <c r="XS5" s="0"/>
+      <c r="XT5" s="0"/>
+      <c r="XU5" s="0"/>
+      <c r="XV5" s="0"/>
+      <c r="XW5" s="0"/>
+      <c r="XX5" s="0"/>
+      <c r="XY5" s="0"/>
+      <c r="XZ5" s="0"/>
+      <c r="YA5" s="0"/>
+      <c r="YB5" s="0"/>
+      <c r="YC5" s="0"/>
+      <c r="YD5" s="0"/>
+      <c r="YE5" s="0"/>
+      <c r="YF5" s="0"/>
+      <c r="YG5" s="0"/>
+      <c r="YH5" s="0"/>
+      <c r="YI5" s="0"/>
+      <c r="YJ5" s="0"/>
+      <c r="YK5" s="0"/>
+      <c r="YL5" s="0"/>
+      <c r="YM5" s="0"/>
+      <c r="YN5" s="0"/>
+      <c r="YO5" s="0"/>
+      <c r="YP5" s="0"/>
+      <c r="YQ5" s="0"/>
+      <c r="YR5" s="0"/>
+      <c r="YS5" s="0"/>
+      <c r="YT5" s="0"/>
+      <c r="YU5" s="0"/>
+      <c r="YV5" s="0"/>
+      <c r="YW5" s="0"/>
+      <c r="YX5" s="0"/>
+      <c r="YY5" s="0"/>
+      <c r="YZ5" s="0"/>
+      <c r="ZA5" s="0"/>
+      <c r="ZB5" s="0"/>
+      <c r="ZC5" s="0"/>
+      <c r="ZD5" s="0"/>
+      <c r="ZE5" s="0"/>
+      <c r="ZF5" s="0"/>
+      <c r="ZG5" s="0"/>
+      <c r="ZH5" s="0"/>
+      <c r="ZI5" s="0"/>
+      <c r="ZJ5" s="0"/>
+      <c r="ZK5" s="0"/>
+      <c r="ZL5" s="0"/>
+      <c r="ZM5" s="0"/>
+      <c r="ZN5" s="0"/>
+      <c r="ZO5" s="0"/>
+      <c r="ZP5" s="0"/>
+      <c r="ZQ5" s="0"/>
+      <c r="ZR5" s="0"/>
+      <c r="ZS5" s="0"/>
+      <c r="ZT5" s="0"/>
+      <c r="ZU5" s="0"/>
+      <c r="ZV5" s="0"/>
+      <c r="ZW5" s="0"/>
+      <c r="ZX5" s="0"/>
+      <c r="ZY5" s="0"/>
+      <c r="ZZ5" s="0"/>
+      <c r="AAA5" s="0"/>
+      <c r="AAB5" s="0"/>
+      <c r="AAC5" s="0"/>
+      <c r="AAD5" s="0"/>
+      <c r="AAE5" s="0"/>
+      <c r="AAF5" s="0"/>
+      <c r="AAG5" s="0"/>
+      <c r="AAH5" s="0"/>
+      <c r="AAI5" s="0"/>
+      <c r="AAJ5" s="0"/>
+      <c r="AAK5" s="0"/>
+      <c r="AAL5" s="0"/>
+      <c r="AAM5" s="0"/>
+      <c r="AAN5" s="0"/>
+      <c r="AAO5" s="0"/>
+      <c r="AAP5" s="0"/>
+      <c r="AAQ5" s="0"/>
+      <c r="AAR5" s="0"/>
+      <c r="AAS5" s="0"/>
+      <c r="AAT5" s="0"/>
+      <c r="AAU5" s="0"/>
+      <c r="AAV5" s="0"/>
+      <c r="AAW5" s="0"/>
+      <c r="AAX5" s="0"/>
+      <c r="AAY5" s="0"/>
+      <c r="AAZ5" s="0"/>
+      <c r="ABA5" s="0"/>
+      <c r="ABB5" s="0"/>
+      <c r="ABC5" s="0"/>
+      <c r="ABD5" s="0"/>
+      <c r="ABE5" s="0"/>
+      <c r="ABF5" s="0"/>
+      <c r="ABG5" s="0"/>
+      <c r="ABH5" s="0"/>
+      <c r="ABI5" s="0"/>
+      <c r="ABJ5" s="0"/>
+      <c r="ABK5" s="0"/>
+      <c r="ABL5" s="0"/>
+      <c r="ABM5" s="0"/>
+      <c r="ABN5" s="0"/>
+      <c r="ABO5" s="0"/>
+      <c r="ABP5" s="0"/>
+      <c r="ABQ5" s="0"/>
+      <c r="ABR5" s="0"/>
+      <c r="ABS5" s="0"/>
+      <c r="ABT5" s="0"/>
+      <c r="ABU5" s="0"/>
+      <c r="ABV5" s="0"/>
+      <c r="ABW5" s="0"/>
+      <c r="ABX5" s="0"/>
+      <c r="ABY5" s="0"/>
+      <c r="ABZ5" s="0"/>
+      <c r="ACA5" s="0"/>
+      <c r="ACB5" s="0"/>
+      <c r="ACC5" s="0"/>
+      <c r="ACD5" s="0"/>
+      <c r="ACE5" s="0"/>
+      <c r="ACF5" s="0"/>
+      <c r="ACG5" s="0"/>
+      <c r="ACH5" s="0"/>
+      <c r="ACI5" s="0"/>
+      <c r="ACJ5" s="0"/>
+      <c r="ACK5" s="0"/>
+      <c r="ACL5" s="0"/>
+      <c r="ACM5" s="0"/>
+      <c r="ACN5" s="0"/>
+      <c r="ACO5" s="0"/>
+      <c r="ACP5" s="0"/>
+      <c r="ACQ5" s="0"/>
+      <c r="ACR5" s="0"/>
+      <c r="ACS5" s="0"/>
+      <c r="ACT5" s="0"/>
+      <c r="ACU5" s="0"/>
+      <c r="ACV5" s="0"/>
+      <c r="ACW5" s="0"/>
+      <c r="ACX5" s="0"/>
+      <c r="ACY5" s="0"/>
+      <c r="ACZ5" s="0"/>
+      <c r="ADA5" s="0"/>
+      <c r="ADB5" s="0"/>
+      <c r="ADC5" s="0"/>
+      <c r="ADD5" s="0"/>
+      <c r="ADE5" s="0"/>
+      <c r="ADF5" s="0"/>
+      <c r="ADG5" s="0"/>
+      <c r="ADH5" s="0"/>
+      <c r="ADI5" s="0"/>
+      <c r="ADJ5" s="0"/>
+      <c r="ADK5" s="0"/>
+      <c r="ADL5" s="0"/>
+      <c r="ADM5" s="0"/>
+      <c r="ADN5" s="0"/>
+      <c r="ADO5" s="0"/>
+      <c r="ADP5" s="0"/>
+      <c r="ADQ5" s="0"/>
+      <c r="ADR5" s="0"/>
+      <c r="ADS5" s="0"/>
+      <c r="ADT5" s="0"/>
+      <c r="ADU5" s="0"/>
+      <c r="ADV5" s="0"/>
+      <c r="ADW5" s="0"/>
+      <c r="ADX5" s="0"/>
+      <c r="ADY5" s="0"/>
+      <c r="ADZ5" s="0"/>
+      <c r="AEA5" s="0"/>
+      <c r="AEB5" s="0"/>
+      <c r="AEC5" s="0"/>
+      <c r="AED5" s="0"/>
+      <c r="AEE5" s="0"/>
+      <c r="AEF5" s="0"/>
+      <c r="AEG5" s="0"/>
+      <c r="AEH5" s="0"/>
+      <c r="AEI5" s="0"/>
+      <c r="AEJ5" s="0"/>
+      <c r="AEK5" s="0"/>
+      <c r="AEL5" s="0"/>
+      <c r="AEM5" s="0"/>
+      <c r="AEN5" s="0"/>
+      <c r="AEO5" s="0"/>
+      <c r="AEP5" s="0"/>
+      <c r="AEQ5" s="0"/>
+      <c r="AER5" s="0"/>
+      <c r="AES5" s="0"/>
+      <c r="AET5" s="0"/>
+      <c r="AEU5" s="0"/>
+      <c r="AEV5" s="0"/>
+      <c r="AEW5" s="0"/>
+      <c r="AEX5" s="0"/>
+      <c r="AEY5" s="0"/>
+      <c r="AEZ5" s="0"/>
+      <c r="AFA5" s="0"/>
+      <c r="AFB5" s="0"/>
+      <c r="AFC5" s="0"/>
+      <c r="AFD5" s="0"/>
+      <c r="AFE5" s="0"/>
+      <c r="AFF5" s="0"/>
+      <c r="AFG5" s="0"/>
+      <c r="AFH5" s="0"/>
+      <c r="AFI5" s="0"/>
+      <c r="AFJ5" s="0"/>
+      <c r="AFK5" s="0"/>
+      <c r="AFL5" s="0"/>
+      <c r="AFM5" s="0"/>
+      <c r="AFN5" s="0"/>
+      <c r="AFO5" s="0"/>
+      <c r="AFP5" s="0"/>
+      <c r="AFQ5" s="0"/>
+      <c r="AFR5" s="0"/>
+      <c r="AFS5" s="0"/>
+      <c r="AFT5" s="0"/>
+      <c r="AFU5" s="0"/>
+      <c r="AFV5" s="0"/>
+      <c r="AFW5" s="0"/>
+      <c r="AFX5" s="0"/>
+      <c r="AFY5" s="0"/>
+      <c r="AFZ5" s="0"/>
+      <c r="AGA5" s="0"/>
+      <c r="AGB5" s="0"/>
+      <c r="AGC5" s="0"/>
+      <c r="AGD5" s="0"/>
+      <c r="AGE5" s="0"/>
+      <c r="AGF5" s="0"/>
+      <c r="AGG5" s="0"/>
+      <c r="AGH5" s="0"/>
+      <c r="AGI5" s="0"/>
+      <c r="AGJ5" s="0"/>
+      <c r="AGK5" s="0"/>
+      <c r="AGL5" s="0"/>
+      <c r="AGM5" s="0"/>
+      <c r="AGN5" s="0"/>
+      <c r="AGO5" s="0"/>
+      <c r="AGP5" s="0"/>
+      <c r="AGQ5" s="0"/>
+      <c r="AGR5" s="0"/>
+      <c r="AGS5" s="0"/>
+      <c r="AGT5" s="0"/>
+      <c r="AGU5" s="0"/>
+      <c r="AGV5" s="0"/>
+      <c r="AGW5" s="0"/>
+      <c r="AGX5" s="0"/>
+      <c r="AGY5" s="0"/>
+      <c r="AGZ5" s="0"/>
+      <c r="AHA5" s="0"/>
+      <c r="AHB5" s="0"/>
+      <c r="AHC5" s="0"/>
+      <c r="AHD5" s="0"/>
+      <c r="AHE5" s="0"/>
+      <c r="AHF5" s="0"/>
+      <c r="AHG5" s="0"/>
+      <c r="AHH5" s="0"/>
+      <c r="AHI5" s="0"/>
+      <c r="AHJ5" s="0"/>
+      <c r="AHK5" s="0"/>
+      <c r="AHL5" s="0"/>
+      <c r="AHM5" s="0"/>
+      <c r="AHN5" s="0"/>
+      <c r="AHO5" s="0"/>
+      <c r="AHP5" s="0"/>
+      <c r="AHQ5" s="0"/>
+      <c r="AHR5" s="0"/>
+      <c r="AHS5" s="0"/>
+      <c r="AHT5" s="0"/>
+      <c r="AHU5" s="0"/>
+      <c r="AHV5" s="0"/>
+      <c r="AHW5" s="0"/>
+      <c r="AHX5" s="0"/>
+      <c r="AHY5" s="0"/>
+      <c r="AHZ5" s="0"/>
+      <c r="AIA5" s="0"/>
+      <c r="AIB5" s="0"/>
+      <c r="AIC5" s="0"/>
+      <c r="AID5" s="0"/>
+      <c r="AIE5" s="0"/>
+      <c r="AIF5" s="0"/>
+      <c r="AIG5" s="0"/>
+      <c r="AIH5" s="0"/>
+      <c r="AII5" s="0"/>
+      <c r="AIJ5" s="0"/>
+      <c r="AIK5" s="0"/>
+      <c r="AIL5" s="0"/>
+      <c r="AIM5" s="0"/>
+      <c r="AIN5" s="0"/>
+      <c r="AIO5" s="0"/>
+      <c r="AIP5" s="0"/>
+      <c r="AIQ5" s="0"/>
+      <c r="AIR5" s="0"/>
+      <c r="AIS5" s="0"/>
+      <c r="AIT5" s="0"/>
+      <c r="AIU5" s="0"/>
+      <c r="AIV5" s="0"/>
+      <c r="AIW5" s="0"/>
+      <c r="AIX5" s="0"/>
+      <c r="AIY5" s="0"/>
+      <c r="AIZ5" s="0"/>
+      <c r="AJA5" s="0"/>
+      <c r="AJB5" s="0"/>
+      <c r="AJC5" s="0"/>
+      <c r="AJD5" s="0"/>
+      <c r="AJE5" s="0"/>
+      <c r="AJF5" s="0"/>
+      <c r="AJG5" s="0"/>
+      <c r="AJH5" s="0"/>
+      <c r="AJI5" s="0"/>
+      <c r="AJJ5" s="0"/>
+      <c r="AJK5" s="0"/>
+      <c r="AJL5" s="0"/>
+      <c r="AJM5" s="0"/>
+      <c r="AJN5" s="0"/>
+      <c r="AJO5" s="0"/>
+      <c r="AJP5" s="0"/>
+      <c r="AJQ5" s="0"/>
+      <c r="AJR5" s="0"/>
+      <c r="AJS5" s="0"/>
+      <c r="AJT5" s="0"/>
+      <c r="AJU5" s="0"/>
+      <c r="AJV5" s="0"/>
+      <c r="AJW5" s="0"/>
+      <c r="AJX5" s="0"/>
+      <c r="AJY5" s="0"/>
+      <c r="AJZ5" s="0"/>
+      <c r="AKA5" s="0"/>
+      <c r="AKB5" s="0"/>
+      <c r="AKC5" s="0"/>
+      <c r="AKD5" s="0"/>
+      <c r="AKE5" s="0"/>
+      <c r="AKF5" s="0"/>
+      <c r="AKG5" s="0"/>
+      <c r="AKH5" s="0"/>
+      <c r="AKI5" s="0"/>
+      <c r="AKJ5" s="0"/>
+      <c r="AKK5" s="0"/>
+      <c r="AKL5" s="0"/>
+      <c r="AKM5" s="0"/>
+      <c r="AKN5" s="0"/>
+      <c r="AKO5" s="0"/>
+      <c r="AKP5" s="0"/>
+      <c r="AKQ5" s="0"/>
+      <c r="AKR5" s="0"/>
+      <c r="AKS5" s="0"/>
+      <c r="AKT5" s="0"/>
+      <c r="AKU5" s="0"/>
+      <c r="AKV5" s="0"/>
+      <c r="AKW5" s="0"/>
+      <c r="AKX5" s="0"/>
+      <c r="AKY5" s="0"/>
+      <c r="AKZ5" s="0"/>
+      <c r="ALA5" s="0"/>
+      <c r="ALB5" s="0"/>
+      <c r="ALC5" s="0"/>
+      <c r="ALD5" s="0"/>
+      <c r="ALE5" s="0"/>
+      <c r="ALF5" s="0"/>
+      <c r="ALG5" s="0"/>
+      <c r="ALH5" s="0"/>
+      <c r="ALI5" s="0"/>
+      <c r="ALJ5" s="0"/>
+      <c r="ALK5" s="0"/>
+      <c r="ALL5" s="0"/>
+      <c r="ALM5" s="0"/>
+      <c r="ALN5" s="0"/>
+      <c r="ALO5" s="0"/>
+      <c r="ALP5" s="0"/>
+      <c r="ALQ5" s="0"/>
+      <c r="ALR5" s="0"/>
+      <c r="ALS5" s="0"/>
+      <c r="ALT5" s="0"/>
+      <c r="ALU5" s="0"/>
+      <c r="ALV5" s="0"/>
+      <c r="ALW5" s="0"/>
+      <c r="ALX5" s="0"/>
+      <c r="ALY5" s="0"/>
+      <c r="ALZ5" s="0"/>
+      <c r="AMA5" s="0"/>
+      <c r="AMB5" s="0"/>
+      <c r="AMC5" s="0"/>
+      <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
@@ -1500,6 +5522,991 @@
       <c r="AM6" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0"/>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0"/>
+      <c r="BC6" s="0"/>
+      <c r="BD6" s="0"/>
+      <c r="BE6" s="0"/>
+      <c r="BF6" s="0"/>
+      <c r="BG6" s="0"/>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0"/>
+      <c r="BL6" s="0"/>
+      <c r="BM6" s="0"/>
+      <c r="BN6" s="0"/>
+      <c r="BO6" s="0"/>
+      <c r="BP6" s="0"/>
+      <c r="BQ6" s="0"/>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
+      <c r="BU6" s="0"/>
+      <c r="BV6" s="0"/>
+      <c r="BW6" s="0"/>
+      <c r="BX6" s="0"/>
+      <c r="BY6" s="0"/>
+      <c r="BZ6" s="0"/>
+      <c r="CA6" s="0"/>
+      <c r="CB6" s="0"/>
+      <c r="CC6" s="0"/>
+      <c r="CD6" s="0"/>
+      <c r="CE6" s="0"/>
+      <c r="CF6" s="0"/>
+      <c r="CG6" s="0"/>
+      <c r="CH6" s="0"/>
+      <c r="CI6" s="0"/>
+      <c r="CJ6" s="0"/>
+      <c r="CK6" s="0"/>
+      <c r="CL6" s="0"/>
+      <c r="CM6" s="0"/>
+      <c r="CN6" s="0"/>
+      <c r="CO6" s="0"/>
+      <c r="CP6" s="0"/>
+      <c r="CQ6" s="0"/>
+      <c r="CR6" s="0"/>
+      <c r="CS6" s="0"/>
+      <c r="CT6" s="0"/>
+      <c r="CU6" s="0"/>
+      <c r="CV6" s="0"/>
+      <c r="CW6" s="0"/>
+      <c r="CX6" s="0"/>
+      <c r="CY6" s="0"/>
+      <c r="CZ6" s="0"/>
+      <c r="DA6" s="0"/>
+      <c r="DB6" s="0"/>
+      <c r="DC6" s="0"/>
+      <c r="DD6" s="0"/>
+      <c r="DE6" s="0"/>
+      <c r="DF6" s="0"/>
+      <c r="DG6" s="0"/>
+      <c r="DH6" s="0"/>
+      <c r="DI6" s="0"/>
+      <c r="DJ6" s="0"/>
+      <c r="DK6" s="0"/>
+      <c r="DL6" s="0"/>
+      <c r="DM6" s="0"/>
+      <c r="DN6" s="0"/>
+      <c r="DO6" s="0"/>
+      <c r="DP6" s="0"/>
+      <c r="DQ6" s="0"/>
+      <c r="DR6" s="0"/>
+      <c r="DS6" s="0"/>
+      <c r="DT6" s="0"/>
+      <c r="DU6" s="0"/>
+      <c r="DV6" s="0"/>
+      <c r="DW6" s="0"/>
+      <c r="DX6" s="0"/>
+      <c r="DY6" s="0"/>
+      <c r="DZ6" s="0"/>
+      <c r="EA6" s="0"/>
+      <c r="EB6" s="0"/>
+      <c r="EC6" s="0"/>
+      <c r="ED6" s="0"/>
+      <c r="EE6" s="0"/>
+      <c r="EF6" s="0"/>
+      <c r="EG6" s="0"/>
+      <c r="EH6" s="0"/>
+      <c r="EI6" s="0"/>
+      <c r="EJ6" s="0"/>
+      <c r="EK6" s="0"/>
+      <c r="EL6" s="0"/>
+      <c r="EM6" s="0"/>
+      <c r="EN6" s="0"/>
+      <c r="EO6" s="0"/>
+      <c r="EP6" s="0"/>
+      <c r="EQ6" s="0"/>
+      <c r="ER6" s="0"/>
+      <c r="ES6" s="0"/>
+      <c r="ET6" s="0"/>
+      <c r="EU6" s="0"/>
+      <c r="EV6" s="0"/>
+      <c r="EW6" s="0"/>
+      <c r="EX6" s="0"/>
+      <c r="EY6" s="0"/>
+      <c r="EZ6" s="0"/>
+      <c r="FA6" s="0"/>
+      <c r="FB6" s="0"/>
+      <c r="FC6" s="0"/>
+      <c r="FD6" s="0"/>
+      <c r="FE6" s="0"/>
+      <c r="FF6" s="0"/>
+      <c r="FG6" s="0"/>
+      <c r="FH6" s="0"/>
+      <c r="FI6" s="0"/>
+      <c r="FJ6" s="0"/>
+      <c r="FK6" s="0"/>
+      <c r="FL6" s="0"/>
+      <c r="FM6" s="0"/>
+      <c r="FN6" s="0"/>
+      <c r="FO6" s="0"/>
+      <c r="FP6" s="0"/>
+      <c r="FQ6" s="0"/>
+      <c r="FR6" s="0"/>
+      <c r="FS6" s="0"/>
+      <c r="FT6" s="0"/>
+      <c r="FU6" s="0"/>
+      <c r="FV6" s="0"/>
+      <c r="FW6" s="0"/>
+      <c r="FX6" s="0"/>
+      <c r="FY6" s="0"/>
+      <c r="FZ6" s="0"/>
+      <c r="GA6" s="0"/>
+      <c r="GB6" s="0"/>
+      <c r="GC6" s="0"/>
+      <c r="GD6" s="0"/>
+      <c r="GE6" s="0"/>
+      <c r="GF6" s="0"/>
+      <c r="GG6" s="0"/>
+      <c r="GH6" s="0"/>
+      <c r="GI6" s="0"/>
+      <c r="GJ6" s="0"/>
+      <c r="GK6" s="0"/>
+      <c r="GL6" s="0"/>
+      <c r="GM6" s="0"/>
+      <c r="GN6" s="0"/>
+      <c r="GO6" s="0"/>
+      <c r="GP6" s="0"/>
+      <c r="GQ6" s="0"/>
+      <c r="GR6" s="0"/>
+      <c r="GS6" s="0"/>
+      <c r="GT6" s="0"/>
+      <c r="GU6" s="0"/>
+      <c r="GV6" s="0"/>
+      <c r="GW6" s="0"/>
+      <c r="GX6" s="0"/>
+      <c r="GY6" s="0"/>
+      <c r="GZ6" s="0"/>
+      <c r="HA6" s="0"/>
+      <c r="HB6" s="0"/>
+      <c r="HC6" s="0"/>
+      <c r="HD6" s="0"/>
+      <c r="HE6" s="0"/>
+      <c r="HF6" s="0"/>
+      <c r="HG6" s="0"/>
+      <c r="HH6" s="0"/>
+      <c r="HI6" s="0"/>
+      <c r="HJ6" s="0"/>
+      <c r="HK6" s="0"/>
+      <c r="HL6" s="0"/>
+      <c r="HM6" s="0"/>
+      <c r="HN6" s="0"/>
+      <c r="HO6" s="0"/>
+      <c r="HP6" s="0"/>
+      <c r="HQ6" s="0"/>
+      <c r="HR6" s="0"/>
+      <c r="HS6" s="0"/>
+      <c r="HT6" s="0"/>
+      <c r="HU6" s="0"/>
+      <c r="HV6" s="0"/>
+      <c r="HW6" s="0"/>
+      <c r="HX6" s="0"/>
+      <c r="HY6" s="0"/>
+      <c r="HZ6" s="0"/>
+      <c r="IA6" s="0"/>
+      <c r="IB6" s="0"/>
+      <c r="IC6" s="0"/>
+      <c r="ID6" s="0"/>
+      <c r="IE6" s="0"/>
+      <c r="IF6" s="0"/>
+      <c r="IG6" s="0"/>
+      <c r="IH6" s="0"/>
+      <c r="II6" s="0"/>
+      <c r="IJ6" s="0"/>
+      <c r="IK6" s="0"/>
+      <c r="IL6" s="0"/>
+      <c r="IM6" s="0"/>
+      <c r="IN6" s="0"/>
+      <c r="IO6" s="0"/>
+      <c r="IP6" s="0"/>
+      <c r="IQ6" s="0"/>
+      <c r="IR6" s="0"/>
+      <c r="IS6" s="0"/>
+      <c r="IT6" s="0"/>
+      <c r="IU6" s="0"/>
+      <c r="IV6" s="0"/>
+      <c r="IW6" s="0"/>
+      <c r="IX6" s="0"/>
+      <c r="IY6" s="0"/>
+      <c r="IZ6" s="0"/>
+      <c r="JA6" s="0"/>
+      <c r="JB6" s="0"/>
+      <c r="JC6" s="0"/>
+      <c r="JD6" s="0"/>
+      <c r="JE6" s="0"/>
+      <c r="JF6" s="0"/>
+      <c r="JG6" s="0"/>
+      <c r="JH6" s="0"/>
+      <c r="JI6" s="0"/>
+      <c r="JJ6" s="0"/>
+      <c r="JK6" s="0"/>
+      <c r="JL6" s="0"/>
+      <c r="JM6" s="0"/>
+      <c r="JN6" s="0"/>
+      <c r="JO6" s="0"/>
+      <c r="JP6" s="0"/>
+      <c r="JQ6" s="0"/>
+      <c r="JR6" s="0"/>
+      <c r="JS6" s="0"/>
+      <c r="JT6" s="0"/>
+      <c r="JU6" s="0"/>
+      <c r="JV6" s="0"/>
+      <c r="JW6" s="0"/>
+      <c r="JX6" s="0"/>
+      <c r="JY6" s="0"/>
+      <c r="JZ6" s="0"/>
+      <c r="KA6" s="0"/>
+      <c r="KB6" s="0"/>
+      <c r="KC6" s="0"/>
+      <c r="KD6" s="0"/>
+      <c r="KE6" s="0"/>
+      <c r="KF6" s="0"/>
+      <c r="KG6" s="0"/>
+      <c r="KH6" s="0"/>
+      <c r="KI6" s="0"/>
+      <c r="KJ6" s="0"/>
+      <c r="KK6" s="0"/>
+      <c r="KL6" s="0"/>
+      <c r="KM6" s="0"/>
+      <c r="KN6" s="0"/>
+      <c r="KO6" s="0"/>
+      <c r="KP6" s="0"/>
+      <c r="KQ6" s="0"/>
+      <c r="KR6" s="0"/>
+      <c r="KS6" s="0"/>
+      <c r="KT6" s="0"/>
+      <c r="KU6" s="0"/>
+      <c r="KV6" s="0"/>
+      <c r="KW6" s="0"/>
+      <c r="KX6" s="0"/>
+      <c r="KY6" s="0"/>
+      <c r="KZ6" s="0"/>
+      <c r="LA6" s="0"/>
+      <c r="LB6" s="0"/>
+      <c r="LC6" s="0"/>
+      <c r="LD6" s="0"/>
+      <c r="LE6" s="0"/>
+      <c r="LF6" s="0"/>
+      <c r="LG6" s="0"/>
+      <c r="LH6" s="0"/>
+      <c r="LI6" s="0"/>
+      <c r="LJ6" s="0"/>
+      <c r="LK6" s="0"/>
+      <c r="LL6" s="0"/>
+      <c r="LM6" s="0"/>
+      <c r="LN6" s="0"/>
+      <c r="LO6" s="0"/>
+      <c r="LP6" s="0"/>
+      <c r="LQ6" s="0"/>
+      <c r="LR6" s="0"/>
+      <c r="LS6" s="0"/>
+      <c r="LT6" s="0"/>
+      <c r="LU6" s="0"/>
+      <c r="LV6" s="0"/>
+      <c r="LW6" s="0"/>
+      <c r="LX6" s="0"/>
+      <c r="LY6" s="0"/>
+      <c r="LZ6" s="0"/>
+      <c r="MA6" s="0"/>
+      <c r="MB6" s="0"/>
+      <c r="MC6" s="0"/>
+      <c r="MD6" s="0"/>
+      <c r="ME6" s="0"/>
+      <c r="MF6" s="0"/>
+      <c r="MG6" s="0"/>
+      <c r="MH6" s="0"/>
+      <c r="MI6" s="0"/>
+      <c r="MJ6" s="0"/>
+      <c r="MK6" s="0"/>
+      <c r="ML6" s="0"/>
+      <c r="MM6" s="0"/>
+      <c r="MN6" s="0"/>
+      <c r="MO6" s="0"/>
+      <c r="MP6" s="0"/>
+      <c r="MQ6" s="0"/>
+      <c r="MR6" s="0"/>
+      <c r="MS6" s="0"/>
+      <c r="MT6" s="0"/>
+      <c r="MU6" s="0"/>
+      <c r="MV6" s="0"/>
+      <c r="MW6" s="0"/>
+      <c r="MX6" s="0"/>
+      <c r="MY6" s="0"/>
+      <c r="MZ6" s="0"/>
+      <c r="NA6" s="0"/>
+      <c r="NB6" s="0"/>
+      <c r="NC6" s="0"/>
+      <c r="ND6" s="0"/>
+      <c r="NE6" s="0"/>
+      <c r="NF6" s="0"/>
+      <c r="NG6" s="0"/>
+      <c r="NH6" s="0"/>
+      <c r="NI6" s="0"/>
+      <c r="NJ6" s="0"/>
+      <c r="NK6" s="0"/>
+      <c r="NL6" s="0"/>
+      <c r="NM6" s="0"/>
+      <c r="NN6" s="0"/>
+      <c r="NO6" s="0"/>
+      <c r="NP6" s="0"/>
+      <c r="NQ6" s="0"/>
+      <c r="NR6" s="0"/>
+      <c r="NS6" s="0"/>
+      <c r="NT6" s="0"/>
+      <c r="NU6" s="0"/>
+      <c r="NV6" s="0"/>
+      <c r="NW6" s="0"/>
+      <c r="NX6" s="0"/>
+      <c r="NY6" s="0"/>
+      <c r="NZ6" s="0"/>
+      <c r="OA6" s="0"/>
+      <c r="OB6" s="0"/>
+      <c r="OC6" s="0"/>
+      <c r="OD6" s="0"/>
+      <c r="OE6" s="0"/>
+      <c r="OF6" s="0"/>
+      <c r="OG6" s="0"/>
+      <c r="OH6" s="0"/>
+      <c r="OI6" s="0"/>
+      <c r="OJ6" s="0"/>
+      <c r="OK6" s="0"/>
+      <c r="OL6" s="0"/>
+      <c r="OM6" s="0"/>
+      <c r="ON6" s="0"/>
+      <c r="OO6" s="0"/>
+      <c r="OP6" s="0"/>
+      <c r="OQ6" s="0"/>
+      <c r="OR6" s="0"/>
+      <c r="OS6" s="0"/>
+      <c r="OT6" s="0"/>
+      <c r="OU6" s="0"/>
+      <c r="OV6" s="0"/>
+      <c r="OW6" s="0"/>
+      <c r="OX6" s="0"/>
+      <c r="OY6" s="0"/>
+      <c r="OZ6" s="0"/>
+      <c r="PA6" s="0"/>
+      <c r="PB6" s="0"/>
+      <c r="PC6" s="0"/>
+      <c r="PD6" s="0"/>
+      <c r="PE6" s="0"/>
+      <c r="PF6" s="0"/>
+      <c r="PG6" s="0"/>
+      <c r="PH6" s="0"/>
+      <c r="PI6" s="0"/>
+      <c r="PJ6" s="0"/>
+      <c r="PK6" s="0"/>
+      <c r="PL6" s="0"/>
+      <c r="PM6" s="0"/>
+      <c r="PN6" s="0"/>
+      <c r="PO6" s="0"/>
+      <c r="PP6" s="0"/>
+      <c r="PQ6" s="0"/>
+      <c r="PR6" s="0"/>
+      <c r="PS6" s="0"/>
+      <c r="PT6" s="0"/>
+      <c r="PU6" s="0"/>
+      <c r="PV6" s="0"/>
+      <c r="PW6" s="0"/>
+      <c r="PX6" s="0"/>
+      <c r="PY6" s="0"/>
+      <c r="PZ6" s="0"/>
+      <c r="QA6" s="0"/>
+      <c r="QB6" s="0"/>
+      <c r="QC6" s="0"/>
+      <c r="QD6" s="0"/>
+      <c r="QE6" s="0"/>
+      <c r="QF6" s="0"/>
+      <c r="QG6" s="0"/>
+      <c r="QH6" s="0"/>
+      <c r="QI6" s="0"/>
+      <c r="QJ6" s="0"/>
+      <c r="QK6" s="0"/>
+      <c r="QL6" s="0"/>
+      <c r="QM6" s="0"/>
+      <c r="QN6" s="0"/>
+      <c r="QO6" s="0"/>
+      <c r="QP6" s="0"/>
+      <c r="QQ6" s="0"/>
+      <c r="QR6" s="0"/>
+      <c r="QS6" s="0"/>
+      <c r="QT6" s="0"/>
+      <c r="QU6" s="0"/>
+      <c r="QV6" s="0"/>
+      <c r="QW6" s="0"/>
+      <c r="QX6" s="0"/>
+      <c r="QY6" s="0"/>
+      <c r="QZ6" s="0"/>
+      <c r="RA6" s="0"/>
+      <c r="RB6" s="0"/>
+      <c r="RC6" s="0"/>
+      <c r="RD6" s="0"/>
+      <c r="RE6" s="0"/>
+      <c r="RF6" s="0"/>
+      <c r="RG6" s="0"/>
+      <c r="RH6" s="0"/>
+      <c r="RI6" s="0"/>
+      <c r="RJ6" s="0"/>
+      <c r="RK6" s="0"/>
+      <c r="RL6" s="0"/>
+      <c r="RM6" s="0"/>
+      <c r="RN6" s="0"/>
+      <c r="RO6" s="0"/>
+      <c r="RP6" s="0"/>
+      <c r="RQ6" s="0"/>
+      <c r="RR6" s="0"/>
+      <c r="RS6" s="0"/>
+      <c r="RT6" s="0"/>
+      <c r="RU6" s="0"/>
+      <c r="RV6" s="0"/>
+      <c r="RW6" s="0"/>
+      <c r="RX6" s="0"/>
+      <c r="RY6" s="0"/>
+      <c r="RZ6" s="0"/>
+      <c r="SA6" s="0"/>
+      <c r="SB6" s="0"/>
+      <c r="SC6" s="0"/>
+      <c r="SD6" s="0"/>
+      <c r="SE6" s="0"/>
+      <c r="SF6" s="0"/>
+      <c r="SG6" s="0"/>
+      <c r="SH6" s="0"/>
+      <c r="SI6" s="0"/>
+      <c r="SJ6" s="0"/>
+      <c r="SK6" s="0"/>
+      <c r="SL6" s="0"/>
+      <c r="SM6" s="0"/>
+      <c r="SN6" s="0"/>
+      <c r="SO6" s="0"/>
+      <c r="SP6" s="0"/>
+      <c r="SQ6" s="0"/>
+      <c r="SR6" s="0"/>
+      <c r="SS6" s="0"/>
+      <c r="ST6" s="0"/>
+      <c r="SU6" s="0"/>
+      <c r="SV6" s="0"/>
+      <c r="SW6" s="0"/>
+      <c r="SX6" s="0"/>
+      <c r="SY6" s="0"/>
+      <c r="SZ6" s="0"/>
+      <c r="TA6" s="0"/>
+      <c r="TB6" s="0"/>
+      <c r="TC6" s="0"/>
+      <c r="TD6" s="0"/>
+      <c r="TE6" s="0"/>
+      <c r="TF6" s="0"/>
+      <c r="TG6" s="0"/>
+      <c r="TH6" s="0"/>
+      <c r="TI6" s="0"/>
+      <c r="TJ6" s="0"/>
+      <c r="TK6" s="0"/>
+      <c r="TL6" s="0"/>
+      <c r="TM6" s="0"/>
+      <c r="TN6" s="0"/>
+      <c r="TO6" s="0"/>
+      <c r="TP6" s="0"/>
+      <c r="TQ6" s="0"/>
+      <c r="TR6" s="0"/>
+      <c r="TS6" s="0"/>
+      <c r="TT6" s="0"/>
+      <c r="TU6" s="0"/>
+      <c r="TV6" s="0"/>
+      <c r="TW6" s="0"/>
+      <c r="TX6" s="0"/>
+      <c r="TY6" s="0"/>
+      <c r="TZ6" s="0"/>
+      <c r="UA6" s="0"/>
+      <c r="UB6" s="0"/>
+      <c r="UC6" s="0"/>
+      <c r="UD6" s="0"/>
+      <c r="UE6" s="0"/>
+      <c r="UF6" s="0"/>
+      <c r="UG6" s="0"/>
+      <c r="UH6" s="0"/>
+      <c r="UI6" s="0"/>
+      <c r="UJ6" s="0"/>
+      <c r="UK6" s="0"/>
+      <c r="UL6" s="0"/>
+      <c r="UM6" s="0"/>
+      <c r="UN6" s="0"/>
+      <c r="UO6" s="0"/>
+      <c r="UP6" s="0"/>
+      <c r="UQ6" s="0"/>
+      <c r="UR6" s="0"/>
+      <c r="US6" s="0"/>
+      <c r="UT6" s="0"/>
+      <c r="UU6" s="0"/>
+      <c r="UV6" s="0"/>
+      <c r="UW6" s="0"/>
+      <c r="UX6" s="0"/>
+      <c r="UY6" s="0"/>
+      <c r="UZ6" s="0"/>
+      <c r="VA6" s="0"/>
+      <c r="VB6" s="0"/>
+      <c r="VC6" s="0"/>
+      <c r="VD6" s="0"/>
+      <c r="VE6" s="0"/>
+      <c r="VF6" s="0"/>
+      <c r="VG6" s="0"/>
+      <c r="VH6" s="0"/>
+      <c r="VI6" s="0"/>
+      <c r="VJ6" s="0"/>
+      <c r="VK6" s="0"/>
+      <c r="VL6" s="0"/>
+      <c r="VM6" s="0"/>
+      <c r="VN6" s="0"/>
+      <c r="VO6" s="0"/>
+      <c r="VP6" s="0"/>
+      <c r="VQ6" s="0"/>
+      <c r="VR6" s="0"/>
+      <c r="VS6" s="0"/>
+      <c r="VT6" s="0"/>
+      <c r="VU6" s="0"/>
+      <c r="VV6" s="0"/>
+      <c r="VW6" s="0"/>
+      <c r="VX6" s="0"/>
+      <c r="VY6" s="0"/>
+      <c r="VZ6" s="0"/>
+      <c r="WA6" s="0"/>
+      <c r="WB6" s="0"/>
+      <c r="WC6" s="0"/>
+      <c r="WD6" s="0"/>
+      <c r="WE6" s="0"/>
+      <c r="WF6" s="0"/>
+      <c r="WG6" s="0"/>
+      <c r="WH6" s="0"/>
+      <c r="WI6" s="0"/>
+      <c r="WJ6" s="0"/>
+      <c r="WK6" s="0"/>
+      <c r="WL6" s="0"/>
+      <c r="WM6" s="0"/>
+      <c r="WN6" s="0"/>
+      <c r="WO6" s="0"/>
+      <c r="WP6" s="0"/>
+      <c r="WQ6" s="0"/>
+      <c r="WR6" s="0"/>
+      <c r="WS6" s="0"/>
+      <c r="WT6" s="0"/>
+      <c r="WU6" s="0"/>
+      <c r="WV6" s="0"/>
+      <c r="WW6" s="0"/>
+      <c r="WX6" s="0"/>
+      <c r="WY6" s="0"/>
+      <c r="WZ6" s="0"/>
+      <c r="XA6" s="0"/>
+      <c r="XB6" s="0"/>
+      <c r="XC6" s="0"/>
+      <c r="XD6" s="0"/>
+      <c r="XE6" s="0"/>
+      <c r="XF6" s="0"/>
+      <c r="XG6" s="0"/>
+      <c r="XH6" s="0"/>
+      <c r="XI6" s="0"/>
+      <c r="XJ6" s="0"/>
+      <c r="XK6" s="0"/>
+      <c r="XL6" s="0"/>
+      <c r="XM6" s="0"/>
+      <c r="XN6" s="0"/>
+      <c r="XO6" s="0"/>
+      <c r="XP6" s="0"/>
+      <c r="XQ6" s="0"/>
+      <c r="XR6" s="0"/>
+      <c r="XS6" s="0"/>
+      <c r="XT6" s="0"/>
+      <c r="XU6" s="0"/>
+      <c r="XV6" s="0"/>
+      <c r="XW6" s="0"/>
+      <c r="XX6" s="0"/>
+      <c r="XY6" s="0"/>
+      <c r="XZ6" s="0"/>
+      <c r="YA6" s="0"/>
+      <c r="YB6" s="0"/>
+      <c r="YC6" s="0"/>
+      <c r="YD6" s="0"/>
+      <c r="YE6" s="0"/>
+      <c r="YF6" s="0"/>
+      <c r="YG6" s="0"/>
+      <c r="YH6" s="0"/>
+      <c r="YI6" s="0"/>
+      <c r="YJ6" s="0"/>
+      <c r="YK6" s="0"/>
+      <c r="YL6" s="0"/>
+      <c r="YM6" s="0"/>
+      <c r="YN6" s="0"/>
+      <c r="YO6" s="0"/>
+      <c r="YP6" s="0"/>
+      <c r="YQ6" s="0"/>
+      <c r="YR6" s="0"/>
+      <c r="YS6" s="0"/>
+      <c r="YT6" s="0"/>
+      <c r="YU6" s="0"/>
+      <c r="YV6" s="0"/>
+      <c r="YW6" s="0"/>
+      <c r="YX6" s="0"/>
+      <c r="YY6" s="0"/>
+      <c r="YZ6" s="0"/>
+      <c r="ZA6" s="0"/>
+      <c r="ZB6" s="0"/>
+      <c r="ZC6" s="0"/>
+      <c r="ZD6" s="0"/>
+      <c r="ZE6" s="0"/>
+      <c r="ZF6" s="0"/>
+      <c r="ZG6" s="0"/>
+      <c r="ZH6" s="0"/>
+      <c r="ZI6" s="0"/>
+      <c r="ZJ6" s="0"/>
+      <c r="ZK6" s="0"/>
+      <c r="ZL6" s="0"/>
+      <c r="ZM6" s="0"/>
+      <c r="ZN6" s="0"/>
+      <c r="ZO6" s="0"/>
+      <c r="ZP6" s="0"/>
+      <c r="ZQ6" s="0"/>
+      <c r="ZR6" s="0"/>
+      <c r="ZS6" s="0"/>
+      <c r="ZT6" s="0"/>
+      <c r="ZU6" s="0"/>
+      <c r="ZV6" s="0"/>
+      <c r="ZW6" s="0"/>
+      <c r="ZX6" s="0"/>
+      <c r="ZY6" s="0"/>
+      <c r="ZZ6" s="0"/>
+      <c r="AAA6" s="0"/>
+      <c r="AAB6" s="0"/>
+      <c r="AAC6" s="0"/>
+      <c r="AAD6" s="0"/>
+      <c r="AAE6" s="0"/>
+      <c r="AAF6" s="0"/>
+      <c r="AAG6" s="0"/>
+      <c r="AAH6" s="0"/>
+      <c r="AAI6" s="0"/>
+      <c r="AAJ6" s="0"/>
+      <c r="AAK6" s="0"/>
+      <c r="AAL6" s="0"/>
+      <c r="AAM6" s="0"/>
+      <c r="AAN6" s="0"/>
+      <c r="AAO6" s="0"/>
+      <c r="AAP6" s="0"/>
+      <c r="AAQ6" s="0"/>
+      <c r="AAR6" s="0"/>
+      <c r="AAS6" s="0"/>
+      <c r="AAT6" s="0"/>
+      <c r="AAU6" s="0"/>
+      <c r="AAV6" s="0"/>
+      <c r="AAW6" s="0"/>
+      <c r="AAX6" s="0"/>
+      <c r="AAY6" s="0"/>
+      <c r="AAZ6" s="0"/>
+      <c r="ABA6" s="0"/>
+      <c r="ABB6" s="0"/>
+      <c r="ABC6" s="0"/>
+      <c r="ABD6" s="0"/>
+      <c r="ABE6" s="0"/>
+      <c r="ABF6" s="0"/>
+      <c r="ABG6" s="0"/>
+      <c r="ABH6" s="0"/>
+      <c r="ABI6" s="0"/>
+      <c r="ABJ6" s="0"/>
+      <c r="ABK6" s="0"/>
+      <c r="ABL6" s="0"/>
+      <c r="ABM6" s="0"/>
+      <c r="ABN6" s="0"/>
+      <c r="ABO6" s="0"/>
+      <c r="ABP6" s="0"/>
+      <c r="ABQ6" s="0"/>
+      <c r="ABR6" s="0"/>
+      <c r="ABS6" s="0"/>
+      <c r="ABT6" s="0"/>
+      <c r="ABU6" s="0"/>
+      <c r="ABV6" s="0"/>
+      <c r="ABW6" s="0"/>
+      <c r="ABX6" s="0"/>
+      <c r="ABY6" s="0"/>
+      <c r="ABZ6" s="0"/>
+      <c r="ACA6" s="0"/>
+      <c r="ACB6" s="0"/>
+      <c r="ACC6" s="0"/>
+      <c r="ACD6" s="0"/>
+      <c r="ACE6" s="0"/>
+      <c r="ACF6" s="0"/>
+      <c r="ACG6" s="0"/>
+      <c r="ACH6" s="0"/>
+      <c r="ACI6" s="0"/>
+      <c r="ACJ6" s="0"/>
+      <c r="ACK6" s="0"/>
+      <c r="ACL6" s="0"/>
+      <c r="ACM6" s="0"/>
+      <c r="ACN6" s="0"/>
+      <c r="ACO6" s="0"/>
+      <c r="ACP6" s="0"/>
+      <c r="ACQ6" s="0"/>
+      <c r="ACR6" s="0"/>
+      <c r="ACS6" s="0"/>
+      <c r="ACT6" s="0"/>
+      <c r="ACU6" s="0"/>
+      <c r="ACV6" s="0"/>
+      <c r="ACW6" s="0"/>
+      <c r="ACX6" s="0"/>
+      <c r="ACY6" s="0"/>
+      <c r="ACZ6" s="0"/>
+      <c r="ADA6" s="0"/>
+      <c r="ADB6" s="0"/>
+      <c r="ADC6" s="0"/>
+      <c r="ADD6" s="0"/>
+      <c r="ADE6" s="0"/>
+      <c r="ADF6" s="0"/>
+      <c r="ADG6" s="0"/>
+      <c r="ADH6" s="0"/>
+      <c r="ADI6" s="0"/>
+      <c r="ADJ6" s="0"/>
+      <c r="ADK6" s="0"/>
+      <c r="ADL6" s="0"/>
+      <c r="ADM6" s="0"/>
+      <c r="ADN6" s="0"/>
+      <c r="ADO6" s="0"/>
+      <c r="ADP6" s="0"/>
+      <c r="ADQ6" s="0"/>
+      <c r="ADR6" s="0"/>
+      <c r="ADS6" s="0"/>
+      <c r="ADT6" s="0"/>
+      <c r="ADU6" s="0"/>
+      <c r="ADV6" s="0"/>
+      <c r="ADW6" s="0"/>
+      <c r="ADX6" s="0"/>
+      <c r="ADY6" s="0"/>
+      <c r="ADZ6" s="0"/>
+      <c r="AEA6" s="0"/>
+      <c r="AEB6" s="0"/>
+      <c r="AEC6" s="0"/>
+      <c r="AED6" s="0"/>
+      <c r="AEE6" s="0"/>
+      <c r="AEF6" s="0"/>
+      <c r="AEG6" s="0"/>
+      <c r="AEH6" s="0"/>
+      <c r="AEI6" s="0"/>
+      <c r="AEJ6" s="0"/>
+      <c r="AEK6" s="0"/>
+      <c r="AEL6" s="0"/>
+      <c r="AEM6" s="0"/>
+      <c r="AEN6" s="0"/>
+      <c r="AEO6" s="0"/>
+      <c r="AEP6" s="0"/>
+      <c r="AEQ6" s="0"/>
+      <c r="AER6" s="0"/>
+      <c r="AES6" s="0"/>
+      <c r="AET6" s="0"/>
+      <c r="AEU6" s="0"/>
+      <c r="AEV6" s="0"/>
+      <c r="AEW6" s="0"/>
+      <c r="AEX6" s="0"/>
+      <c r="AEY6" s="0"/>
+      <c r="AEZ6" s="0"/>
+      <c r="AFA6" s="0"/>
+      <c r="AFB6" s="0"/>
+      <c r="AFC6" s="0"/>
+      <c r="AFD6" s="0"/>
+      <c r="AFE6" s="0"/>
+      <c r="AFF6" s="0"/>
+      <c r="AFG6" s="0"/>
+      <c r="AFH6" s="0"/>
+      <c r="AFI6" s="0"/>
+      <c r="AFJ6" s="0"/>
+      <c r="AFK6" s="0"/>
+      <c r="AFL6" s="0"/>
+      <c r="AFM6" s="0"/>
+      <c r="AFN6" s="0"/>
+      <c r="AFO6" s="0"/>
+      <c r="AFP6" s="0"/>
+      <c r="AFQ6" s="0"/>
+      <c r="AFR6" s="0"/>
+      <c r="AFS6" s="0"/>
+      <c r="AFT6" s="0"/>
+      <c r="AFU6" s="0"/>
+      <c r="AFV6" s="0"/>
+      <c r="AFW6" s="0"/>
+      <c r="AFX6" s="0"/>
+      <c r="AFY6" s="0"/>
+      <c r="AFZ6" s="0"/>
+      <c r="AGA6" s="0"/>
+      <c r="AGB6" s="0"/>
+      <c r="AGC6" s="0"/>
+      <c r="AGD6" s="0"/>
+      <c r="AGE6" s="0"/>
+      <c r="AGF6" s="0"/>
+      <c r="AGG6" s="0"/>
+      <c r="AGH6" s="0"/>
+      <c r="AGI6" s="0"/>
+      <c r="AGJ6" s="0"/>
+      <c r="AGK6" s="0"/>
+      <c r="AGL6" s="0"/>
+      <c r="AGM6" s="0"/>
+      <c r="AGN6" s="0"/>
+      <c r="AGO6" s="0"/>
+      <c r="AGP6" s="0"/>
+      <c r="AGQ6" s="0"/>
+      <c r="AGR6" s="0"/>
+      <c r="AGS6" s="0"/>
+      <c r="AGT6" s="0"/>
+      <c r="AGU6" s="0"/>
+      <c r="AGV6" s="0"/>
+      <c r="AGW6" s="0"/>
+      <c r="AGX6" s="0"/>
+      <c r="AGY6" s="0"/>
+      <c r="AGZ6" s="0"/>
+      <c r="AHA6" s="0"/>
+      <c r="AHB6" s="0"/>
+      <c r="AHC6" s="0"/>
+      <c r="AHD6" s="0"/>
+      <c r="AHE6" s="0"/>
+      <c r="AHF6" s="0"/>
+      <c r="AHG6" s="0"/>
+      <c r="AHH6" s="0"/>
+      <c r="AHI6" s="0"/>
+      <c r="AHJ6" s="0"/>
+      <c r="AHK6" s="0"/>
+      <c r="AHL6" s="0"/>
+      <c r="AHM6" s="0"/>
+      <c r="AHN6" s="0"/>
+      <c r="AHO6" s="0"/>
+      <c r="AHP6" s="0"/>
+      <c r="AHQ6" s="0"/>
+      <c r="AHR6" s="0"/>
+      <c r="AHS6" s="0"/>
+      <c r="AHT6" s="0"/>
+      <c r="AHU6" s="0"/>
+      <c r="AHV6" s="0"/>
+      <c r="AHW6" s="0"/>
+      <c r="AHX6" s="0"/>
+      <c r="AHY6" s="0"/>
+      <c r="AHZ6" s="0"/>
+      <c r="AIA6" s="0"/>
+      <c r="AIB6" s="0"/>
+      <c r="AIC6" s="0"/>
+      <c r="AID6" s="0"/>
+      <c r="AIE6" s="0"/>
+      <c r="AIF6" s="0"/>
+      <c r="AIG6" s="0"/>
+      <c r="AIH6" s="0"/>
+      <c r="AII6" s="0"/>
+      <c r="AIJ6" s="0"/>
+      <c r="AIK6" s="0"/>
+      <c r="AIL6" s="0"/>
+      <c r="AIM6" s="0"/>
+      <c r="AIN6" s="0"/>
+      <c r="AIO6" s="0"/>
+      <c r="AIP6" s="0"/>
+      <c r="AIQ6" s="0"/>
+      <c r="AIR6" s="0"/>
+      <c r="AIS6" s="0"/>
+      <c r="AIT6" s="0"/>
+      <c r="AIU6" s="0"/>
+      <c r="AIV6" s="0"/>
+      <c r="AIW6" s="0"/>
+      <c r="AIX6" s="0"/>
+      <c r="AIY6" s="0"/>
+      <c r="AIZ6" s="0"/>
+      <c r="AJA6" s="0"/>
+      <c r="AJB6" s="0"/>
+      <c r="AJC6" s="0"/>
+      <c r="AJD6" s="0"/>
+      <c r="AJE6" s="0"/>
+      <c r="AJF6" s="0"/>
+      <c r="AJG6" s="0"/>
+      <c r="AJH6" s="0"/>
+      <c r="AJI6" s="0"/>
+      <c r="AJJ6" s="0"/>
+      <c r="AJK6" s="0"/>
+      <c r="AJL6" s="0"/>
+      <c r="AJM6" s="0"/>
+      <c r="AJN6" s="0"/>
+      <c r="AJO6" s="0"/>
+      <c r="AJP6" s="0"/>
+      <c r="AJQ6" s="0"/>
+      <c r="AJR6" s="0"/>
+      <c r="AJS6" s="0"/>
+      <c r="AJT6" s="0"/>
+      <c r="AJU6" s="0"/>
+      <c r="AJV6" s="0"/>
+      <c r="AJW6" s="0"/>
+      <c r="AJX6" s="0"/>
+      <c r="AJY6" s="0"/>
+      <c r="AJZ6" s="0"/>
+      <c r="AKA6" s="0"/>
+      <c r="AKB6" s="0"/>
+      <c r="AKC6" s="0"/>
+      <c r="AKD6" s="0"/>
+      <c r="AKE6" s="0"/>
+      <c r="AKF6" s="0"/>
+      <c r="AKG6" s="0"/>
+      <c r="AKH6" s="0"/>
+      <c r="AKI6" s="0"/>
+      <c r="AKJ6" s="0"/>
+      <c r="AKK6" s="0"/>
+      <c r="AKL6" s="0"/>
+      <c r="AKM6" s="0"/>
+      <c r="AKN6" s="0"/>
+      <c r="AKO6" s="0"/>
+      <c r="AKP6" s="0"/>
+      <c r="AKQ6" s="0"/>
+      <c r="AKR6" s="0"/>
+      <c r="AKS6" s="0"/>
+      <c r="AKT6" s="0"/>
+      <c r="AKU6" s="0"/>
+      <c r="AKV6" s="0"/>
+      <c r="AKW6" s="0"/>
+      <c r="AKX6" s="0"/>
+      <c r="AKY6" s="0"/>
+      <c r="AKZ6" s="0"/>
+      <c r="ALA6" s="0"/>
+      <c r="ALB6" s="0"/>
+      <c r="ALC6" s="0"/>
+      <c r="ALD6" s="0"/>
+      <c r="ALE6" s="0"/>
+      <c r="ALF6" s="0"/>
+      <c r="ALG6" s="0"/>
+      <c r="ALH6" s="0"/>
+      <c r="ALI6" s="0"/>
+      <c r="ALJ6" s="0"/>
+      <c r="ALK6" s="0"/>
+      <c r="ALL6" s="0"/>
+      <c r="ALM6" s="0"/>
+      <c r="ALN6" s="0"/>
+      <c r="ALO6" s="0"/>
+      <c r="ALP6" s="0"/>
+      <c r="ALQ6" s="0"/>
+      <c r="ALR6" s="0"/>
+      <c r="ALS6" s="0"/>
+      <c r="ALT6" s="0"/>
+      <c r="ALU6" s="0"/>
+      <c r="ALV6" s="0"/>
+      <c r="ALW6" s="0"/>
+      <c r="ALX6" s="0"/>
+      <c r="ALY6" s="0"/>
+      <c r="ALZ6" s="0"/>
+      <c r="AMA6" s="0"/>
+      <c r="AMB6" s="0"/>
+      <c r="AMC6" s="0"/>
+      <c r="AMD6" s="0"/>
+      <c r="AME6" s="0"/>
+      <c r="AMF6" s="0"/>
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
@@ -1581,6 +6588,991 @@
       <c r="AM7" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="CR7" s="0"/>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="0"/>
+      <c r="CU7" s="0"/>
+      <c r="CV7" s="0"/>
+      <c r="CW7" s="0"/>
+      <c r="CX7" s="0"/>
+      <c r="CY7" s="0"/>
+      <c r="CZ7" s="0"/>
+      <c r="DA7" s="0"/>
+      <c r="DB7" s="0"/>
+      <c r="DC7" s="0"/>
+      <c r="DD7" s="0"/>
+      <c r="DE7" s="0"/>
+      <c r="DF7" s="0"/>
+      <c r="DG7" s="0"/>
+      <c r="DH7" s="0"/>
+      <c r="DI7" s="0"/>
+      <c r="DJ7" s="0"/>
+      <c r="DK7" s="0"/>
+      <c r="DL7" s="0"/>
+      <c r="DM7" s="0"/>
+      <c r="DN7" s="0"/>
+      <c r="DO7" s="0"/>
+      <c r="DP7" s="0"/>
+      <c r="DQ7" s="0"/>
+      <c r="DR7" s="0"/>
+      <c r="DS7" s="0"/>
+      <c r="DT7" s="0"/>
+      <c r="DU7" s="0"/>
+      <c r="DV7" s="0"/>
+      <c r="DW7" s="0"/>
+      <c r="DX7" s="0"/>
+      <c r="DY7" s="0"/>
+      <c r="DZ7" s="0"/>
+      <c r="EA7" s="0"/>
+      <c r="EB7" s="0"/>
+      <c r="EC7" s="0"/>
+      <c r="ED7" s="0"/>
+      <c r="EE7" s="0"/>
+      <c r="EF7" s="0"/>
+      <c r="EG7" s="0"/>
+      <c r="EH7" s="0"/>
+      <c r="EI7" s="0"/>
+      <c r="EJ7" s="0"/>
+      <c r="EK7" s="0"/>
+      <c r="EL7" s="0"/>
+      <c r="EM7" s="0"/>
+      <c r="EN7" s="0"/>
+      <c r="EO7" s="0"/>
+      <c r="EP7" s="0"/>
+      <c r="EQ7" s="0"/>
+      <c r="ER7" s="0"/>
+      <c r="ES7" s="0"/>
+      <c r="ET7" s="0"/>
+      <c r="EU7" s="0"/>
+      <c r="EV7" s="0"/>
+      <c r="EW7" s="0"/>
+      <c r="EX7" s="0"/>
+      <c r="EY7" s="0"/>
+      <c r="EZ7" s="0"/>
+      <c r="FA7" s="0"/>
+      <c r="FB7" s="0"/>
+      <c r="FC7" s="0"/>
+      <c r="FD7" s="0"/>
+      <c r="FE7" s="0"/>
+      <c r="FF7" s="0"/>
+      <c r="FG7" s="0"/>
+      <c r="FH7" s="0"/>
+      <c r="FI7" s="0"/>
+      <c r="FJ7" s="0"/>
+      <c r="FK7" s="0"/>
+      <c r="FL7" s="0"/>
+      <c r="FM7" s="0"/>
+      <c r="FN7" s="0"/>
+      <c r="FO7" s="0"/>
+      <c r="FP7" s="0"/>
+      <c r="FQ7" s="0"/>
+      <c r="FR7" s="0"/>
+      <c r="FS7" s="0"/>
+      <c r="FT7" s="0"/>
+      <c r="FU7" s="0"/>
+      <c r="FV7" s="0"/>
+      <c r="FW7" s="0"/>
+      <c r="FX7" s="0"/>
+      <c r="FY7" s="0"/>
+      <c r="FZ7" s="0"/>
+      <c r="GA7" s="0"/>
+      <c r="GB7" s="0"/>
+      <c r="GC7" s="0"/>
+      <c r="GD7" s="0"/>
+      <c r="GE7" s="0"/>
+      <c r="GF7" s="0"/>
+      <c r="GG7" s="0"/>
+      <c r="GH7" s="0"/>
+      <c r="GI7" s="0"/>
+      <c r="GJ7" s="0"/>
+      <c r="GK7" s="0"/>
+      <c r="GL7" s="0"/>
+      <c r="GM7" s="0"/>
+      <c r="GN7" s="0"/>
+      <c r="GO7" s="0"/>
+      <c r="GP7" s="0"/>
+      <c r="GQ7" s="0"/>
+      <c r="GR7" s="0"/>
+      <c r="GS7" s="0"/>
+      <c r="GT7" s="0"/>
+      <c r="GU7" s="0"/>
+      <c r="GV7" s="0"/>
+      <c r="GW7" s="0"/>
+      <c r="GX7" s="0"/>
+      <c r="GY7" s="0"/>
+      <c r="GZ7" s="0"/>
+      <c r="HA7" s="0"/>
+      <c r="HB7" s="0"/>
+      <c r="HC7" s="0"/>
+      <c r="HD7" s="0"/>
+      <c r="HE7" s="0"/>
+      <c r="HF7" s="0"/>
+      <c r="HG7" s="0"/>
+      <c r="HH7" s="0"/>
+      <c r="HI7" s="0"/>
+      <c r="HJ7" s="0"/>
+      <c r="HK7" s="0"/>
+      <c r="HL7" s="0"/>
+      <c r="HM7" s="0"/>
+      <c r="HN7" s="0"/>
+      <c r="HO7" s="0"/>
+      <c r="HP7" s="0"/>
+      <c r="HQ7" s="0"/>
+      <c r="HR7" s="0"/>
+      <c r="HS7" s="0"/>
+      <c r="HT7" s="0"/>
+      <c r="HU7" s="0"/>
+      <c r="HV7" s="0"/>
+      <c r="HW7" s="0"/>
+      <c r="HX7" s="0"/>
+      <c r="HY7" s="0"/>
+      <c r="HZ7" s="0"/>
+      <c r="IA7" s="0"/>
+      <c r="IB7" s="0"/>
+      <c r="IC7" s="0"/>
+      <c r="ID7" s="0"/>
+      <c r="IE7" s="0"/>
+      <c r="IF7" s="0"/>
+      <c r="IG7" s="0"/>
+      <c r="IH7" s="0"/>
+      <c r="II7" s="0"/>
+      <c r="IJ7" s="0"/>
+      <c r="IK7" s="0"/>
+      <c r="IL7" s="0"/>
+      <c r="IM7" s="0"/>
+      <c r="IN7" s="0"/>
+      <c r="IO7" s="0"/>
+      <c r="IP7" s="0"/>
+      <c r="IQ7" s="0"/>
+      <c r="IR7" s="0"/>
+      <c r="IS7" s="0"/>
+      <c r="IT7" s="0"/>
+      <c r="IU7" s="0"/>
+      <c r="IV7" s="0"/>
+      <c r="IW7" s="0"/>
+      <c r="IX7" s="0"/>
+      <c r="IY7" s="0"/>
+      <c r="IZ7" s="0"/>
+      <c r="JA7" s="0"/>
+      <c r="JB7" s="0"/>
+      <c r="JC7" s="0"/>
+      <c r="JD7" s="0"/>
+      <c r="JE7" s="0"/>
+      <c r="JF7" s="0"/>
+      <c r="JG7" s="0"/>
+      <c r="JH7" s="0"/>
+      <c r="JI7" s="0"/>
+      <c r="JJ7" s="0"/>
+      <c r="JK7" s="0"/>
+      <c r="JL7" s="0"/>
+      <c r="JM7" s="0"/>
+      <c r="JN7" s="0"/>
+      <c r="JO7" s="0"/>
+      <c r="JP7" s="0"/>
+      <c r="JQ7" s="0"/>
+      <c r="JR7" s="0"/>
+      <c r="JS7" s="0"/>
+      <c r="JT7" s="0"/>
+      <c r="JU7" s="0"/>
+      <c r="JV7" s="0"/>
+      <c r="JW7" s="0"/>
+      <c r="JX7" s="0"/>
+      <c r="JY7" s="0"/>
+      <c r="JZ7" s="0"/>
+      <c r="KA7" s="0"/>
+      <c r="KB7" s="0"/>
+      <c r="KC7" s="0"/>
+      <c r="KD7" s="0"/>
+      <c r="KE7" s="0"/>
+      <c r="KF7" s="0"/>
+      <c r="KG7" s="0"/>
+      <c r="KH7" s="0"/>
+      <c r="KI7" s="0"/>
+      <c r="KJ7" s="0"/>
+      <c r="KK7" s="0"/>
+      <c r="KL7" s="0"/>
+      <c r="KM7" s="0"/>
+      <c r="KN7" s="0"/>
+      <c r="KO7" s="0"/>
+      <c r="KP7" s="0"/>
+      <c r="KQ7" s="0"/>
+      <c r="KR7" s="0"/>
+      <c r="KS7" s="0"/>
+      <c r="KT7" s="0"/>
+      <c r="KU7" s="0"/>
+      <c r="KV7" s="0"/>
+      <c r="KW7" s="0"/>
+      <c r="KX7" s="0"/>
+      <c r="KY7" s="0"/>
+      <c r="KZ7" s="0"/>
+      <c r="LA7" s="0"/>
+      <c r="LB7" s="0"/>
+      <c r="LC7" s="0"/>
+      <c r="LD7" s="0"/>
+      <c r="LE7" s="0"/>
+      <c r="LF7" s="0"/>
+      <c r="LG7" s="0"/>
+      <c r="LH7" s="0"/>
+      <c r="LI7" s="0"/>
+      <c r="LJ7" s="0"/>
+      <c r="LK7" s="0"/>
+      <c r="LL7" s="0"/>
+      <c r="LM7" s="0"/>
+      <c r="LN7" s="0"/>
+      <c r="LO7" s="0"/>
+      <c r="LP7" s="0"/>
+      <c r="LQ7" s="0"/>
+      <c r="LR7" s="0"/>
+      <c r="LS7" s="0"/>
+      <c r="LT7" s="0"/>
+      <c r="LU7" s="0"/>
+      <c r="LV7" s="0"/>
+      <c r="LW7" s="0"/>
+      <c r="LX7" s="0"/>
+      <c r="LY7" s="0"/>
+      <c r="LZ7" s="0"/>
+      <c r="MA7" s="0"/>
+      <c r="MB7" s="0"/>
+      <c r="MC7" s="0"/>
+      <c r="MD7" s="0"/>
+      <c r="ME7" s="0"/>
+      <c r="MF7" s="0"/>
+      <c r="MG7" s="0"/>
+      <c r="MH7" s="0"/>
+      <c r="MI7" s="0"/>
+      <c r="MJ7" s="0"/>
+      <c r="MK7" s="0"/>
+      <c r="ML7" s="0"/>
+      <c r="MM7" s="0"/>
+      <c r="MN7" s="0"/>
+      <c r="MO7" s="0"/>
+      <c r="MP7" s="0"/>
+      <c r="MQ7" s="0"/>
+      <c r="MR7" s="0"/>
+      <c r="MS7" s="0"/>
+      <c r="MT7" s="0"/>
+      <c r="MU7" s="0"/>
+      <c r="MV7" s="0"/>
+      <c r="MW7" s="0"/>
+      <c r="MX7" s="0"/>
+      <c r="MY7" s="0"/>
+      <c r="MZ7" s="0"/>
+      <c r="NA7" s="0"/>
+      <c r="NB7" s="0"/>
+      <c r="NC7" s="0"/>
+      <c r="ND7" s="0"/>
+      <c r="NE7" s="0"/>
+      <c r="NF7" s="0"/>
+      <c r="NG7" s="0"/>
+      <c r="NH7" s="0"/>
+      <c r="NI7" s="0"/>
+      <c r="NJ7" s="0"/>
+      <c r="NK7" s="0"/>
+      <c r="NL7" s="0"/>
+      <c r="NM7" s="0"/>
+      <c r="NN7" s="0"/>
+      <c r="NO7" s="0"/>
+      <c r="NP7" s="0"/>
+      <c r="NQ7" s="0"/>
+      <c r="NR7" s="0"/>
+      <c r="NS7" s="0"/>
+      <c r="NT7" s="0"/>
+      <c r="NU7" s="0"/>
+      <c r="NV7" s="0"/>
+      <c r="NW7" s="0"/>
+      <c r="NX7" s="0"/>
+      <c r="NY7" s="0"/>
+      <c r="NZ7" s="0"/>
+      <c r="OA7" s="0"/>
+      <c r="OB7" s="0"/>
+      <c r="OC7" s="0"/>
+      <c r="OD7" s="0"/>
+      <c r="OE7" s="0"/>
+      <c r="OF7" s="0"/>
+      <c r="OG7" s="0"/>
+      <c r="OH7" s="0"/>
+      <c r="OI7" s="0"/>
+      <c r="OJ7" s="0"/>
+      <c r="OK7" s="0"/>
+      <c r="OL7" s="0"/>
+      <c r="OM7" s="0"/>
+      <c r="ON7" s="0"/>
+      <c r="OO7" s="0"/>
+      <c r="OP7" s="0"/>
+      <c r="OQ7" s="0"/>
+      <c r="OR7" s="0"/>
+      <c r="OS7" s="0"/>
+      <c r="OT7" s="0"/>
+      <c r="OU7" s="0"/>
+      <c r="OV7" s="0"/>
+      <c r="OW7" s="0"/>
+      <c r="OX7" s="0"/>
+      <c r="OY7" s="0"/>
+      <c r="OZ7" s="0"/>
+      <c r="PA7" s="0"/>
+      <c r="PB7" s="0"/>
+      <c r="PC7" s="0"/>
+      <c r="PD7" s="0"/>
+      <c r="PE7" s="0"/>
+      <c r="PF7" s="0"/>
+      <c r="PG7" s="0"/>
+      <c r="PH7" s="0"/>
+      <c r="PI7" s="0"/>
+      <c r="PJ7" s="0"/>
+      <c r="PK7" s="0"/>
+      <c r="PL7" s="0"/>
+      <c r="PM7" s="0"/>
+      <c r="PN7" s="0"/>
+      <c r="PO7" s="0"/>
+      <c r="PP7" s="0"/>
+      <c r="PQ7" s="0"/>
+      <c r="PR7" s="0"/>
+      <c r="PS7" s="0"/>
+      <c r="PT7" s="0"/>
+      <c r="PU7" s="0"/>
+      <c r="PV7" s="0"/>
+      <c r="PW7" s="0"/>
+      <c r="PX7" s="0"/>
+      <c r="PY7" s="0"/>
+      <c r="PZ7" s="0"/>
+      <c r="QA7" s="0"/>
+      <c r="QB7" s="0"/>
+      <c r="QC7" s="0"/>
+      <c r="QD7" s="0"/>
+      <c r="QE7" s="0"/>
+      <c r="QF7" s="0"/>
+      <c r="QG7" s="0"/>
+      <c r="QH7" s="0"/>
+      <c r="QI7" s="0"/>
+      <c r="QJ7" s="0"/>
+      <c r="QK7" s="0"/>
+      <c r="QL7" s="0"/>
+      <c r="QM7" s="0"/>
+      <c r="QN7" s="0"/>
+      <c r="QO7" s="0"/>
+      <c r="QP7" s="0"/>
+      <c r="QQ7" s="0"/>
+      <c r="QR7" s="0"/>
+      <c r="QS7" s="0"/>
+      <c r="QT7" s="0"/>
+      <c r="QU7" s="0"/>
+      <c r="QV7" s="0"/>
+      <c r="QW7" s="0"/>
+      <c r="QX7" s="0"/>
+      <c r="QY7" s="0"/>
+      <c r="QZ7" s="0"/>
+      <c r="RA7" s="0"/>
+      <c r="RB7" s="0"/>
+      <c r="RC7" s="0"/>
+      <c r="RD7" s="0"/>
+      <c r="RE7" s="0"/>
+      <c r="RF7" s="0"/>
+      <c r="RG7" s="0"/>
+      <c r="RH7" s="0"/>
+      <c r="RI7" s="0"/>
+      <c r="RJ7" s="0"/>
+      <c r="RK7" s="0"/>
+      <c r="RL7" s="0"/>
+      <c r="RM7" s="0"/>
+      <c r="RN7" s="0"/>
+      <c r="RO7" s="0"/>
+      <c r="RP7" s="0"/>
+      <c r="RQ7" s="0"/>
+      <c r="RR7" s="0"/>
+      <c r="RS7" s="0"/>
+      <c r="RT7" s="0"/>
+      <c r="RU7" s="0"/>
+      <c r="RV7" s="0"/>
+      <c r="RW7" s="0"/>
+      <c r="RX7" s="0"/>
+      <c r="RY7" s="0"/>
+      <c r="RZ7" s="0"/>
+      <c r="SA7" s="0"/>
+      <c r="SB7" s="0"/>
+      <c r="SC7" s="0"/>
+      <c r="SD7" s="0"/>
+      <c r="SE7" s="0"/>
+      <c r="SF7" s="0"/>
+      <c r="SG7" s="0"/>
+      <c r="SH7" s="0"/>
+      <c r="SI7" s="0"/>
+      <c r="SJ7" s="0"/>
+      <c r="SK7" s="0"/>
+      <c r="SL7" s="0"/>
+      <c r="SM7" s="0"/>
+      <c r="SN7" s="0"/>
+      <c r="SO7" s="0"/>
+      <c r="SP7" s="0"/>
+      <c r="SQ7" s="0"/>
+      <c r="SR7" s="0"/>
+      <c r="SS7" s="0"/>
+      <c r="ST7" s="0"/>
+      <c r="SU7" s="0"/>
+      <c r="SV7" s="0"/>
+      <c r="SW7" s="0"/>
+      <c r="SX7" s="0"/>
+      <c r="SY7" s="0"/>
+      <c r="SZ7" s="0"/>
+      <c r="TA7" s="0"/>
+      <c r="TB7" s="0"/>
+      <c r="TC7" s="0"/>
+      <c r="TD7" s="0"/>
+      <c r="TE7" s="0"/>
+      <c r="TF7" s="0"/>
+      <c r="TG7" s="0"/>
+      <c r="TH7" s="0"/>
+      <c r="TI7" s="0"/>
+      <c r="TJ7" s="0"/>
+      <c r="TK7" s="0"/>
+      <c r="TL7" s="0"/>
+      <c r="TM7" s="0"/>
+      <c r="TN7" s="0"/>
+      <c r="TO7" s="0"/>
+      <c r="TP7" s="0"/>
+      <c r="TQ7" s="0"/>
+      <c r="TR7" s="0"/>
+      <c r="TS7" s="0"/>
+      <c r="TT7" s="0"/>
+      <c r="TU7" s="0"/>
+      <c r="TV7" s="0"/>
+      <c r="TW7" s="0"/>
+      <c r="TX7" s="0"/>
+      <c r="TY7" s="0"/>
+      <c r="TZ7" s="0"/>
+      <c r="UA7" s="0"/>
+      <c r="UB7" s="0"/>
+      <c r="UC7" s="0"/>
+      <c r="UD7" s="0"/>
+      <c r="UE7" s="0"/>
+      <c r="UF7" s="0"/>
+      <c r="UG7" s="0"/>
+      <c r="UH7" s="0"/>
+      <c r="UI7" s="0"/>
+      <c r="UJ7" s="0"/>
+      <c r="UK7" s="0"/>
+      <c r="UL7" s="0"/>
+      <c r="UM7" s="0"/>
+      <c r="UN7" s="0"/>
+      <c r="UO7" s="0"/>
+      <c r="UP7" s="0"/>
+      <c r="UQ7" s="0"/>
+      <c r="UR7" s="0"/>
+      <c r="US7" s="0"/>
+      <c r="UT7" s="0"/>
+      <c r="UU7" s="0"/>
+      <c r="UV7" s="0"/>
+      <c r="UW7" s="0"/>
+      <c r="UX7" s="0"/>
+      <c r="UY7" s="0"/>
+      <c r="UZ7" s="0"/>
+      <c r="VA7" s="0"/>
+      <c r="VB7" s="0"/>
+      <c r="VC7" s="0"/>
+      <c r="VD7" s="0"/>
+      <c r="VE7" s="0"/>
+      <c r="VF7" s="0"/>
+      <c r="VG7" s="0"/>
+      <c r="VH7" s="0"/>
+      <c r="VI7" s="0"/>
+      <c r="VJ7" s="0"/>
+      <c r="VK7" s="0"/>
+      <c r="VL7" s="0"/>
+      <c r="VM7" s="0"/>
+      <c r="VN7" s="0"/>
+      <c r="VO7" s="0"/>
+      <c r="VP7" s="0"/>
+      <c r="VQ7" s="0"/>
+      <c r="VR7" s="0"/>
+      <c r="VS7" s="0"/>
+      <c r="VT7" s="0"/>
+      <c r="VU7" s="0"/>
+      <c r="VV7" s="0"/>
+      <c r="VW7" s="0"/>
+      <c r="VX7" s="0"/>
+      <c r="VY7" s="0"/>
+      <c r="VZ7" s="0"/>
+      <c r="WA7" s="0"/>
+      <c r="WB7" s="0"/>
+      <c r="WC7" s="0"/>
+      <c r="WD7" s="0"/>
+      <c r="WE7" s="0"/>
+      <c r="WF7" s="0"/>
+      <c r="WG7" s="0"/>
+      <c r="WH7" s="0"/>
+      <c r="WI7" s="0"/>
+      <c r="WJ7" s="0"/>
+      <c r="WK7" s="0"/>
+      <c r="WL7" s="0"/>
+      <c r="WM7" s="0"/>
+      <c r="WN7" s="0"/>
+      <c r="WO7" s="0"/>
+      <c r="WP7" s="0"/>
+      <c r="WQ7" s="0"/>
+      <c r="WR7" s="0"/>
+      <c r="WS7" s="0"/>
+      <c r="WT7" s="0"/>
+      <c r="WU7" s="0"/>
+      <c r="WV7" s="0"/>
+      <c r="WW7" s="0"/>
+      <c r="WX7" s="0"/>
+      <c r="WY7" s="0"/>
+      <c r="WZ7" s="0"/>
+      <c r="XA7" s="0"/>
+      <c r="XB7" s="0"/>
+      <c r="XC7" s="0"/>
+      <c r="XD7" s="0"/>
+      <c r="XE7" s="0"/>
+      <c r="XF7" s="0"/>
+      <c r="XG7" s="0"/>
+      <c r="XH7" s="0"/>
+      <c r="XI7" s="0"/>
+      <c r="XJ7" s="0"/>
+      <c r="XK7" s="0"/>
+      <c r="XL7" s="0"/>
+      <c r="XM7" s="0"/>
+      <c r="XN7" s="0"/>
+      <c r="XO7" s="0"/>
+      <c r="XP7" s="0"/>
+      <c r="XQ7" s="0"/>
+      <c r="XR7" s="0"/>
+      <c r="XS7" s="0"/>
+      <c r="XT7" s="0"/>
+      <c r="XU7" s="0"/>
+      <c r="XV7" s="0"/>
+      <c r="XW7" s="0"/>
+      <c r="XX7" s="0"/>
+      <c r="XY7" s="0"/>
+      <c r="XZ7" s="0"/>
+      <c r="YA7" s="0"/>
+      <c r="YB7" s="0"/>
+      <c r="YC7" s="0"/>
+      <c r="YD7" s="0"/>
+      <c r="YE7" s="0"/>
+      <c r="YF7" s="0"/>
+      <c r="YG7" s="0"/>
+      <c r="YH7" s="0"/>
+      <c r="YI7" s="0"/>
+      <c r="YJ7" s="0"/>
+      <c r="YK7" s="0"/>
+      <c r="YL7" s="0"/>
+      <c r="YM7" s="0"/>
+      <c r="YN7" s="0"/>
+      <c r="YO7" s="0"/>
+      <c r="YP7" s="0"/>
+      <c r="YQ7" s="0"/>
+      <c r="YR7" s="0"/>
+      <c r="YS7" s="0"/>
+      <c r="YT7" s="0"/>
+      <c r="YU7" s="0"/>
+      <c r="YV7" s="0"/>
+      <c r="YW7" s="0"/>
+      <c r="YX7" s="0"/>
+      <c r="YY7" s="0"/>
+      <c r="YZ7" s="0"/>
+      <c r="ZA7" s="0"/>
+      <c r="ZB7" s="0"/>
+      <c r="ZC7" s="0"/>
+      <c r="ZD7" s="0"/>
+      <c r="ZE7" s="0"/>
+      <c r="ZF7" s="0"/>
+      <c r="ZG7" s="0"/>
+      <c r="ZH7" s="0"/>
+      <c r="ZI7" s="0"/>
+      <c r="ZJ7" s="0"/>
+      <c r="ZK7" s="0"/>
+      <c r="ZL7" s="0"/>
+      <c r="ZM7" s="0"/>
+      <c r="ZN7" s="0"/>
+      <c r="ZO7" s="0"/>
+      <c r="ZP7" s="0"/>
+      <c r="ZQ7" s="0"/>
+      <c r="ZR7" s="0"/>
+      <c r="ZS7" s="0"/>
+      <c r="ZT7" s="0"/>
+      <c r="ZU7" s="0"/>
+      <c r="ZV7" s="0"/>
+      <c r="ZW7" s="0"/>
+      <c r="ZX7" s="0"/>
+      <c r="ZY7" s="0"/>
+      <c r="ZZ7" s="0"/>
+      <c r="AAA7" s="0"/>
+      <c r="AAB7" s="0"/>
+      <c r="AAC7" s="0"/>
+      <c r="AAD7" s="0"/>
+      <c r="AAE7" s="0"/>
+      <c r="AAF7" s="0"/>
+      <c r="AAG7" s="0"/>
+      <c r="AAH7" s="0"/>
+      <c r="AAI7" s="0"/>
+      <c r="AAJ7" s="0"/>
+      <c r="AAK7" s="0"/>
+      <c r="AAL7" s="0"/>
+      <c r="AAM7" s="0"/>
+      <c r="AAN7" s="0"/>
+      <c r="AAO7" s="0"/>
+      <c r="AAP7" s="0"/>
+      <c r="AAQ7" s="0"/>
+      <c r="AAR7" s="0"/>
+      <c r="AAS7" s="0"/>
+      <c r="AAT7" s="0"/>
+      <c r="AAU7" s="0"/>
+      <c r="AAV7" s="0"/>
+      <c r="AAW7" s="0"/>
+      <c r="AAX7" s="0"/>
+      <c r="AAY7" s="0"/>
+      <c r="AAZ7" s="0"/>
+      <c r="ABA7" s="0"/>
+      <c r="ABB7" s="0"/>
+      <c r="ABC7" s="0"/>
+      <c r="ABD7" s="0"/>
+      <c r="ABE7" s="0"/>
+      <c r="ABF7" s="0"/>
+      <c r="ABG7" s="0"/>
+      <c r="ABH7" s="0"/>
+      <c r="ABI7" s="0"/>
+      <c r="ABJ7" s="0"/>
+      <c r="ABK7" s="0"/>
+      <c r="ABL7" s="0"/>
+      <c r="ABM7" s="0"/>
+      <c r="ABN7" s="0"/>
+      <c r="ABO7" s="0"/>
+      <c r="ABP7" s="0"/>
+      <c r="ABQ7" s="0"/>
+      <c r="ABR7" s="0"/>
+      <c r="ABS7" s="0"/>
+      <c r="ABT7" s="0"/>
+      <c r="ABU7" s="0"/>
+      <c r="ABV7" s="0"/>
+      <c r="ABW7" s="0"/>
+      <c r="ABX7" s="0"/>
+      <c r="ABY7" s="0"/>
+      <c r="ABZ7" s="0"/>
+      <c r="ACA7" s="0"/>
+      <c r="ACB7" s="0"/>
+      <c r="ACC7" s="0"/>
+      <c r="ACD7" s="0"/>
+      <c r="ACE7" s="0"/>
+      <c r="ACF7" s="0"/>
+      <c r="ACG7" s="0"/>
+      <c r="ACH7" s="0"/>
+      <c r="ACI7" s="0"/>
+      <c r="ACJ7" s="0"/>
+      <c r="ACK7" s="0"/>
+      <c r="ACL7" s="0"/>
+      <c r="ACM7" s="0"/>
+      <c r="ACN7" s="0"/>
+      <c r="ACO7" s="0"/>
+      <c r="ACP7" s="0"/>
+      <c r="ACQ7" s="0"/>
+      <c r="ACR7" s="0"/>
+      <c r="ACS7" s="0"/>
+      <c r="ACT7" s="0"/>
+      <c r="ACU7" s="0"/>
+      <c r="ACV7" s="0"/>
+      <c r="ACW7" s="0"/>
+      <c r="ACX7" s="0"/>
+      <c r="ACY7" s="0"/>
+      <c r="ACZ7" s="0"/>
+      <c r="ADA7" s="0"/>
+      <c r="ADB7" s="0"/>
+      <c r="ADC7" s="0"/>
+      <c r="ADD7" s="0"/>
+      <c r="ADE7" s="0"/>
+      <c r="ADF7" s="0"/>
+      <c r="ADG7" s="0"/>
+      <c r="ADH7" s="0"/>
+      <c r="ADI7" s="0"/>
+      <c r="ADJ7" s="0"/>
+      <c r="ADK7" s="0"/>
+      <c r="ADL7" s="0"/>
+      <c r="ADM7" s="0"/>
+      <c r="ADN7" s="0"/>
+      <c r="ADO7" s="0"/>
+      <c r="ADP7" s="0"/>
+      <c r="ADQ7" s="0"/>
+      <c r="ADR7" s="0"/>
+      <c r="ADS7" s="0"/>
+      <c r="ADT7" s="0"/>
+      <c r="ADU7" s="0"/>
+      <c r="ADV7" s="0"/>
+      <c r="ADW7" s="0"/>
+      <c r="ADX7" s="0"/>
+      <c r="ADY7" s="0"/>
+      <c r="ADZ7" s="0"/>
+      <c r="AEA7" s="0"/>
+      <c r="AEB7" s="0"/>
+      <c r="AEC7" s="0"/>
+      <c r="AED7" s="0"/>
+      <c r="AEE7" s="0"/>
+      <c r="AEF7" s="0"/>
+      <c r="AEG7" s="0"/>
+      <c r="AEH7" s="0"/>
+      <c r="AEI7" s="0"/>
+      <c r="AEJ7" s="0"/>
+      <c r="AEK7" s="0"/>
+      <c r="AEL7" s="0"/>
+      <c r="AEM7" s="0"/>
+      <c r="AEN7" s="0"/>
+      <c r="AEO7" s="0"/>
+      <c r="AEP7" s="0"/>
+      <c r="AEQ7" s="0"/>
+      <c r="AER7" s="0"/>
+      <c r="AES7" s="0"/>
+      <c r="AET7" s="0"/>
+      <c r="AEU7" s="0"/>
+      <c r="AEV7" s="0"/>
+      <c r="AEW7" s="0"/>
+      <c r="AEX7" s="0"/>
+      <c r="AEY7" s="0"/>
+      <c r="AEZ7" s="0"/>
+      <c r="AFA7" s="0"/>
+      <c r="AFB7" s="0"/>
+      <c r="AFC7" s="0"/>
+      <c r="AFD7" s="0"/>
+      <c r="AFE7" s="0"/>
+      <c r="AFF7" s="0"/>
+      <c r="AFG7" s="0"/>
+      <c r="AFH7" s="0"/>
+      <c r="AFI7" s="0"/>
+      <c r="AFJ7" s="0"/>
+      <c r="AFK7" s="0"/>
+      <c r="AFL7" s="0"/>
+      <c r="AFM7" s="0"/>
+      <c r="AFN7" s="0"/>
+      <c r="AFO7" s="0"/>
+      <c r="AFP7" s="0"/>
+      <c r="AFQ7" s="0"/>
+      <c r="AFR7" s="0"/>
+      <c r="AFS7" s="0"/>
+      <c r="AFT7" s="0"/>
+      <c r="AFU7" s="0"/>
+      <c r="AFV7" s="0"/>
+      <c r="AFW7" s="0"/>
+      <c r="AFX7" s="0"/>
+      <c r="AFY7" s="0"/>
+      <c r="AFZ7" s="0"/>
+      <c r="AGA7" s="0"/>
+      <c r="AGB7" s="0"/>
+      <c r="AGC7" s="0"/>
+      <c r="AGD7" s="0"/>
+      <c r="AGE7" s="0"/>
+      <c r="AGF7" s="0"/>
+      <c r="AGG7" s="0"/>
+      <c r="AGH7" s="0"/>
+      <c r="AGI7" s="0"/>
+      <c r="AGJ7" s="0"/>
+      <c r="AGK7" s="0"/>
+      <c r="AGL7" s="0"/>
+      <c r="AGM7" s="0"/>
+      <c r="AGN7" s="0"/>
+      <c r="AGO7" s="0"/>
+      <c r="AGP7" s="0"/>
+      <c r="AGQ7" s="0"/>
+      <c r="AGR7" s="0"/>
+      <c r="AGS7" s="0"/>
+      <c r="AGT7" s="0"/>
+      <c r="AGU7" s="0"/>
+      <c r="AGV7" s="0"/>
+      <c r="AGW7" s="0"/>
+      <c r="AGX7" s="0"/>
+      <c r="AGY7" s="0"/>
+      <c r="AGZ7" s="0"/>
+      <c r="AHA7" s="0"/>
+      <c r="AHB7" s="0"/>
+      <c r="AHC7" s="0"/>
+      <c r="AHD7" s="0"/>
+      <c r="AHE7" s="0"/>
+      <c r="AHF7" s="0"/>
+      <c r="AHG7" s="0"/>
+      <c r="AHH7" s="0"/>
+      <c r="AHI7" s="0"/>
+      <c r="AHJ7" s="0"/>
+      <c r="AHK7" s="0"/>
+      <c r="AHL7" s="0"/>
+      <c r="AHM7" s="0"/>
+      <c r="AHN7" s="0"/>
+      <c r="AHO7" s="0"/>
+      <c r="AHP7" s="0"/>
+      <c r="AHQ7" s="0"/>
+      <c r="AHR7" s="0"/>
+      <c r="AHS7" s="0"/>
+      <c r="AHT7" s="0"/>
+      <c r="AHU7" s="0"/>
+      <c r="AHV7" s="0"/>
+      <c r="AHW7" s="0"/>
+      <c r="AHX7" s="0"/>
+      <c r="AHY7" s="0"/>
+      <c r="AHZ7" s="0"/>
+      <c r="AIA7" s="0"/>
+      <c r="AIB7" s="0"/>
+      <c r="AIC7" s="0"/>
+      <c r="AID7" s="0"/>
+      <c r="AIE7" s="0"/>
+      <c r="AIF7" s="0"/>
+      <c r="AIG7" s="0"/>
+      <c r="AIH7" s="0"/>
+      <c r="AII7" s="0"/>
+      <c r="AIJ7" s="0"/>
+      <c r="AIK7" s="0"/>
+      <c r="AIL7" s="0"/>
+      <c r="AIM7" s="0"/>
+      <c r="AIN7" s="0"/>
+      <c r="AIO7" s="0"/>
+      <c r="AIP7" s="0"/>
+      <c r="AIQ7" s="0"/>
+      <c r="AIR7" s="0"/>
+      <c r="AIS7" s="0"/>
+      <c r="AIT7" s="0"/>
+      <c r="AIU7" s="0"/>
+      <c r="AIV7" s="0"/>
+      <c r="AIW7" s="0"/>
+      <c r="AIX7" s="0"/>
+      <c r="AIY7" s="0"/>
+      <c r="AIZ7" s="0"/>
+      <c r="AJA7" s="0"/>
+      <c r="AJB7" s="0"/>
+      <c r="AJC7" s="0"/>
+      <c r="AJD7" s="0"/>
+      <c r="AJE7" s="0"/>
+      <c r="AJF7" s="0"/>
+      <c r="AJG7" s="0"/>
+      <c r="AJH7" s="0"/>
+      <c r="AJI7" s="0"/>
+      <c r="AJJ7" s="0"/>
+      <c r="AJK7" s="0"/>
+      <c r="AJL7" s="0"/>
+      <c r="AJM7" s="0"/>
+      <c r="AJN7" s="0"/>
+      <c r="AJO7" s="0"/>
+      <c r="AJP7" s="0"/>
+      <c r="AJQ7" s="0"/>
+      <c r="AJR7" s="0"/>
+      <c r="AJS7" s="0"/>
+      <c r="AJT7" s="0"/>
+      <c r="AJU7" s="0"/>
+      <c r="AJV7" s="0"/>
+      <c r="AJW7" s="0"/>
+      <c r="AJX7" s="0"/>
+      <c r="AJY7" s="0"/>
+      <c r="AJZ7" s="0"/>
+      <c r="AKA7" s="0"/>
+      <c r="AKB7" s="0"/>
+      <c r="AKC7" s="0"/>
+      <c r="AKD7" s="0"/>
+      <c r="AKE7" s="0"/>
+      <c r="AKF7" s="0"/>
+      <c r="AKG7" s="0"/>
+      <c r="AKH7" s="0"/>
+      <c r="AKI7" s="0"/>
+      <c r="AKJ7" s="0"/>
+      <c r="AKK7" s="0"/>
+      <c r="AKL7" s="0"/>
+      <c r="AKM7" s="0"/>
+      <c r="AKN7" s="0"/>
+      <c r="AKO7" s="0"/>
+      <c r="AKP7" s="0"/>
+      <c r="AKQ7" s="0"/>
+      <c r="AKR7" s="0"/>
+      <c r="AKS7" s="0"/>
+      <c r="AKT7" s="0"/>
+      <c r="AKU7" s="0"/>
+      <c r="AKV7" s="0"/>
+      <c r="AKW7" s="0"/>
+      <c r="AKX7" s="0"/>
+      <c r="AKY7" s="0"/>
+      <c r="AKZ7" s="0"/>
+      <c r="ALA7" s="0"/>
+      <c r="ALB7" s="0"/>
+      <c r="ALC7" s="0"/>
+      <c r="ALD7" s="0"/>
+      <c r="ALE7" s="0"/>
+      <c r="ALF7" s="0"/>
+      <c r="ALG7" s="0"/>
+      <c r="ALH7" s="0"/>
+      <c r="ALI7" s="0"/>
+      <c r="ALJ7" s="0"/>
+      <c r="ALK7" s="0"/>
+      <c r="ALL7" s="0"/>
+      <c r="ALM7" s="0"/>
+      <c r="ALN7" s="0"/>
+      <c r="ALO7" s="0"/>
+      <c r="ALP7" s="0"/>
+      <c r="ALQ7" s="0"/>
+      <c r="ALR7" s="0"/>
+      <c r="ALS7" s="0"/>
+      <c r="ALT7" s="0"/>
+      <c r="ALU7" s="0"/>
+      <c r="ALV7" s="0"/>
+      <c r="ALW7" s="0"/>
+      <c r="ALX7" s="0"/>
+      <c r="ALY7" s="0"/>
+      <c r="ALZ7" s="0"/>
+      <c r="AMA7" s="0"/>
+      <c r="AMB7" s="0"/>
+      <c r="AMC7" s="0"/>
+      <c r="AMD7" s="0"/>
+      <c r="AME7" s="0"/>
+      <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
@@ -1662,6 +7654,991 @@
       <c r="AM8" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
+      <c r="AP8" s="0"/>
+      <c r="AQ8" s="0"/>
+      <c r="AR8" s="0"/>
+      <c r="AS8" s="0"/>
+      <c r="AT8" s="0"/>
+      <c r="AU8" s="0"/>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+      <c r="BH8" s="0"/>
+      <c r="BI8" s="0"/>
+      <c r="BJ8" s="0"/>
+      <c r="BK8" s="0"/>
+      <c r="BL8" s="0"/>
+      <c r="BM8" s="0"/>
+      <c r="BN8" s="0"/>
+      <c r="BO8" s="0"/>
+      <c r="BP8" s="0"/>
+      <c r="BQ8" s="0"/>
+      <c r="BR8" s="0"/>
+      <c r="BS8" s="0"/>
+      <c r="BT8" s="0"/>
+      <c r="BU8" s="0"/>
+      <c r="BV8" s="0"/>
+      <c r="BW8" s="0"/>
+      <c r="BX8" s="0"/>
+      <c r="BY8" s="0"/>
+      <c r="BZ8" s="0"/>
+      <c r="CA8" s="0"/>
+      <c r="CB8" s="0"/>
+      <c r="CC8" s="0"/>
+      <c r="CD8" s="0"/>
+      <c r="CE8" s="0"/>
+      <c r="CF8" s="0"/>
+      <c r="CG8" s="0"/>
+      <c r="CH8" s="0"/>
+      <c r="CI8" s="0"/>
+      <c r="CJ8" s="0"/>
+      <c r="CK8" s="0"/>
+      <c r="CL8" s="0"/>
+      <c r="CM8" s="0"/>
+      <c r="CN8" s="0"/>
+      <c r="CO8" s="0"/>
+      <c r="CP8" s="0"/>
+      <c r="CQ8" s="0"/>
+      <c r="CR8" s="0"/>
+      <c r="CS8" s="0"/>
+      <c r="CT8" s="0"/>
+      <c r="CU8" s="0"/>
+      <c r="CV8" s="0"/>
+      <c r="CW8" s="0"/>
+      <c r="CX8" s="0"/>
+      <c r="CY8" s="0"/>
+      <c r="CZ8" s="0"/>
+      <c r="DA8" s="0"/>
+      <c r="DB8" s="0"/>
+      <c r="DC8" s="0"/>
+      <c r="DD8" s="0"/>
+      <c r="DE8" s="0"/>
+      <c r="DF8" s="0"/>
+      <c r="DG8" s="0"/>
+      <c r="DH8" s="0"/>
+      <c r="DI8" s="0"/>
+      <c r="DJ8" s="0"/>
+      <c r="DK8" s="0"/>
+      <c r="DL8" s="0"/>
+      <c r="DM8" s="0"/>
+      <c r="DN8" s="0"/>
+      <c r="DO8" s="0"/>
+      <c r="DP8" s="0"/>
+      <c r="DQ8" s="0"/>
+      <c r="DR8" s="0"/>
+      <c r="DS8" s="0"/>
+      <c r="DT8" s="0"/>
+      <c r="DU8" s="0"/>
+      <c r="DV8" s="0"/>
+      <c r="DW8" s="0"/>
+      <c r="DX8" s="0"/>
+      <c r="DY8" s="0"/>
+      <c r="DZ8" s="0"/>
+      <c r="EA8" s="0"/>
+      <c r="EB8" s="0"/>
+      <c r="EC8" s="0"/>
+      <c r="ED8" s="0"/>
+      <c r="EE8" s="0"/>
+      <c r="EF8" s="0"/>
+      <c r="EG8" s="0"/>
+      <c r="EH8" s="0"/>
+      <c r="EI8" s="0"/>
+      <c r="EJ8" s="0"/>
+      <c r="EK8" s="0"/>
+      <c r="EL8" s="0"/>
+      <c r="EM8" s="0"/>
+      <c r="EN8" s="0"/>
+      <c r="EO8" s="0"/>
+      <c r="EP8" s="0"/>
+      <c r="EQ8" s="0"/>
+      <c r="ER8" s="0"/>
+      <c r="ES8" s="0"/>
+      <c r="ET8" s="0"/>
+      <c r="EU8" s="0"/>
+      <c r="EV8" s="0"/>
+      <c r="EW8" s="0"/>
+      <c r="EX8" s="0"/>
+      <c r="EY8" s="0"/>
+      <c r="EZ8" s="0"/>
+      <c r="FA8" s="0"/>
+      <c r="FB8" s="0"/>
+      <c r="FC8" s="0"/>
+      <c r="FD8" s="0"/>
+      <c r="FE8" s="0"/>
+      <c r="FF8" s="0"/>
+      <c r="FG8" s="0"/>
+      <c r="FH8" s="0"/>
+      <c r="FI8" s="0"/>
+      <c r="FJ8" s="0"/>
+      <c r="FK8" s="0"/>
+      <c r="FL8" s="0"/>
+      <c r="FM8" s="0"/>
+      <c r="FN8" s="0"/>
+      <c r="FO8" s="0"/>
+      <c r="FP8" s="0"/>
+      <c r="FQ8" s="0"/>
+      <c r="FR8" s="0"/>
+      <c r="FS8" s="0"/>
+      <c r="FT8" s="0"/>
+      <c r="FU8" s="0"/>
+      <c r="FV8" s="0"/>
+      <c r="FW8" s="0"/>
+      <c r="FX8" s="0"/>
+      <c r="FY8" s="0"/>
+      <c r="FZ8" s="0"/>
+      <c r="GA8" s="0"/>
+      <c r="GB8" s="0"/>
+      <c r="GC8" s="0"/>
+      <c r="GD8" s="0"/>
+      <c r="GE8" s="0"/>
+      <c r="GF8" s="0"/>
+      <c r="GG8" s="0"/>
+      <c r="GH8" s="0"/>
+      <c r="GI8" s="0"/>
+      <c r="GJ8" s="0"/>
+      <c r="GK8" s="0"/>
+      <c r="GL8" s="0"/>
+      <c r="GM8" s="0"/>
+      <c r="GN8" s="0"/>
+      <c r="GO8" s="0"/>
+      <c r="GP8" s="0"/>
+      <c r="GQ8" s="0"/>
+      <c r="GR8" s="0"/>
+      <c r="GS8" s="0"/>
+      <c r="GT8" s="0"/>
+      <c r="GU8" s="0"/>
+      <c r="GV8" s="0"/>
+      <c r="GW8" s="0"/>
+      <c r="GX8" s="0"/>
+      <c r="GY8" s="0"/>
+      <c r="GZ8" s="0"/>
+      <c r="HA8" s="0"/>
+      <c r="HB8" s="0"/>
+      <c r="HC8" s="0"/>
+      <c r="HD8" s="0"/>
+      <c r="HE8" s="0"/>
+      <c r="HF8" s="0"/>
+      <c r="HG8" s="0"/>
+      <c r="HH8" s="0"/>
+      <c r="HI8" s="0"/>
+      <c r="HJ8" s="0"/>
+      <c r="HK8" s="0"/>
+      <c r="HL8" s="0"/>
+      <c r="HM8" s="0"/>
+      <c r="HN8" s="0"/>
+      <c r="HO8" s="0"/>
+      <c r="HP8" s="0"/>
+      <c r="HQ8" s="0"/>
+      <c r="HR8" s="0"/>
+      <c r="HS8" s="0"/>
+      <c r="HT8" s="0"/>
+      <c r="HU8" s="0"/>
+      <c r="HV8" s="0"/>
+      <c r="HW8" s="0"/>
+      <c r="HX8" s="0"/>
+      <c r="HY8" s="0"/>
+      <c r="HZ8" s="0"/>
+      <c r="IA8" s="0"/>
+      <c r="IB8" s="0"/>
+      <c r="IC8" s="0"/>
+      <c r="ID8" s="0"/>
+      <c r="IE8" s="0"/>
+      <c r="IF8" s="0"/>
+      <c r="IG8" s="0"/>
+      <c r="IH8" s="0"/>
+      <c r="II8" s="0"/>
+      <c r="IJ8" s="0"/>
+      <c r="IK8" s="0"/>
+      <c r="IL8" s="0"/>
+      <c r="IM8" s="0"/>
+      <c r="IN8" s="0"/>
+      <c r="IO8" s="0"/>
+      <c r="IP8" s="0"/>
+      <c r="IQ8" s="0"/>
+      <c r="IR8" s="0"/>
+      <c r="IS8" s="0"/>
+      <c r="IT8" s="0"/>
+      <c r="IU8" s="0"/>
+      <c r="IV8" s="0"/>
+      <c r="IW8" s="0"/>
+      <c r="IX8" s="0"/>
+      <c r="IY8" s="0"/>
+      <c r="IZ8" s="0"/>
+      <c r="JA8" s="0"/>
+      <c r="JB8" s="0"/>
+      <c r="JC8" s="0"/>
+      <c r="JD8" s="0"/>
+      <c r="JE8" s="0"/>
+      <c r="JF8" s="0"/>
+      <c r="JG8" s="0"/>
+      <c r="JH8" s="0"/>
+      <c r="JI8" s="0"/>
+      <c r="JJ8" s="0"/>
+      <c r="JK8" s="0"/>
+      <c r="JL8" s="0"/>
+      <c r="JM8" s="0"/>
+      <c r="JN8" s="0"/>
+      <c r="JO8" s="0"/>
+      <c r="JP8" s="0"/>
+      <c r="JQ8" s="0"/>
+      <c r="JR8" s="0"/>
+      <c r="JS8" s="0"/>
+      <c r="JT8" s="0"/>
+      <c r="JU8" s="0"/>
+      <c r="JV8" s="0"/>
+      <c r="JW8" s="0"/>
+      <c r="JX8" s="0"/>
+      <c r="JY8" s="0"/>
+      <c r="JZ8" s="0"/>
+      <c r="KA8" s="0"/>
+      <c r="KB8" s="0"/>
+      <c r="KC8" s="0"/>
+      <c r="KD8" s="0"/>
+      <c r="KE8" s="0"/>
+      <c r="KF8" s="0"/>
+      <c r="KG8" s="0"/>
+      <c r="KH8" s="0"/>
+      <c r="KI8" s="0"/>
+      <c r="KJ8" s="0"/>
+      <c r="KK8" s="0"/>
+      <c r="KL8" s="0"/>
+      <c r="KM8" s="0"/>
+      <c r="KN8" s="0"/>
+      <c r="KO8" s="0"/>
+      <c r="KP8" s="0"/>
+      <c r="KQ8" s="0"/>
+      <c r="KR8" s="0"/>
+      <c r="KS8" s="0"/>
+      <c r="KT8" s="0"/>
+      <c r="KU8" s="0"/>
+      <c r="KV8" s="0"/>
+      <c r="KW8" s="0"/>
+      <c r="KX8" s="0"/>
+      <c r="KY8" s="0"/>
+      <c r="KZ8" s="0"/>
+      <c r="LA8" s="0"/>
+      <c r="LB8" s="0"/>
+      <c r="LC8" s="0"/>
+      <c r="LD8" s="0"/>
+      <c r="LE8" s="0"/>
+      <c r="LF8" s="0"/>
+      <c r="LG8" s="0"/>
+      <c r="LH8" s="0"/>
+      <c r="LI8" s="0"/>
+      <c r="LJ8" s="0"/>
+      <c r="LK8" s="0"/>
+      <c r="LL8" s="0"/>
+      <c r="LM8" s="0"/>
+      <c r="LN8" s="0"/>
+      <c r="LO8" s="0"/>
+      <c r="LP8" s="0"/>
+      <c r="LQ8" s="0"/>
+      <c r="LR8" s="0"/>
+      <c r="LS8" s="0"/>
+      <c r="LT8" s="0"/>
+      <c r="LU8" s="0"/>
+      <c r="LV8" s="0"/>
+      <c r="LW8" s="0"/>
+      <c r="LX8" s="0"/>
+      <c r="LY8" s="0"/>
+      <c r="LZ8" s="0"/>
+      <c r="MA8" s="0"/>
+      <c r="MB8" s="0"/>
+      <c r="MC8" s="0"/>
+      <c r="MD8" s="0"/>
+      <c r="ME8" s="0"/>
+      <c r="MF8" s="0"/>
+      <c r="MG8" s="0"/>
+      <c r="MH8" s="0"/>
+      <c r="MI8" s="0"/>
+      <c r="MJ8" s="0"/>
+      <c r="MK8" s="0"/>
+      <c r="ML8" s="0"/>
+      <c r="MM8" s="0"/>
+      <c r="MN8" s="0"/>
+      <c r="MO8" s="0"/>
+      <c r="MP8" s="0"/>
+      <c r="MQ8" s="0"/>
+      <c r="MR8" s="0"/>
+      <c r="MS8" s="0"/>
+      <c r="MT8" s="0"/>
+      <c r="MU8" s="0"/>
+      <c r="MV8" s="0"/>
+      <c r="MW8" s="0"/>
+      <c r="MX8" s="0"/>
+      <c r="MY8" s="0"/>
+      <c r="MZ8" s="0"/>
+      <c r="NA8" s="0"/>
+      <c r="NB8" s="0"/>
+      <c r="NC8" s="0"/>
+      <c r="ND8" s="0"/>
+      <c r="NE8" s="0"/>
+      <c r="NF8" s="0"/>
+      <c r="NG8" s="0"/>
+      <c r="NH8" s="0"/>
+      <c r="NI8" s="0"/>
+      <c r="NJ8" s="0"/>
+      <c r="NK8" s="0"/>
+      <c r="NL8" s="0"/>
+      <c r="NM8" s="0"/>
+      <c r="NN8" s="0"/>
+      <c r="NO8" s="0"/>
+      <c r="NP8" s="0"/>
+      <c r="NQ8" s="0"/>
+      <c r="NR8" s="0"/>
+      <c r="NS8" s="0"/>
+      <c r="NT8" s="0"/>
+      <c r="NU8" s="0"/>
+      <c r="NV8" s="0"/>
+      <c r="NW8" s="0"/>
+      <c r="NX8" s="0"/>
+      <c r="NY8" s="0"/>
+      <c r="NZ8" s="0"/>
+      <c r="OA8" s="0"/>
+      <c r="OB8" s="0"/>
+      <c r="OC8" s="0"/>
+      <c r="OD8" s="0"/>
+      <c r="OE8" s="0"/>
+      <c r="OF8" s="0"/>
+      <c r="OG8" s="0"/>
+      <c r="OH8" s="0"/>
+      <c r="OI8" s="0"/>
+      <c r="OJ8" s="0"/>
+      <c r="OK8" s="0"/>
+      <c r="OL8" s="0"/>
+      <c r="OM8" s="0"/>
+      <c r="ON8" s="0"/>
+      <c r="OO8" s="0"/>
+      <c r="OP8" s="0"/>
+      <c r="OQ8" s="0"/>
+      <c r="OR8" s="0"/>
+      <c r="OS8" s="0"/>
+      <c r="OT8" s="0"/>
+      <c r="OU8" s="0"/>
+      <c r="OV8" s="0"/>
+      <c r="OW8" s="0"/>
+      <c r="OX8" s="0"/>
+      <c r="OY8" s="0"/>
+      <c r="OZ8" s="0"/>
+      <c r="PA8" s="0"/>
+      <c r="PB8" s="0"/>
+      <c r="PC8" s="0"/>
+      <c r="PD8" s="0"/>
+      <c r="PE8" s="0"/>
+      <c r="PF8" s="0"/>
+      <c r="PG8" s="0"/>
+      <c r="PH8" s="0"/>
+      <c r="PI8" s="0"/>
+      <c r="PJ8" s="0"/>
+      <c r="PK8" s="0"/>
+      <c r="PL8" s="0"/>
+      <c r="PM8" s="0"/>
+      <c r="PN8" s="0"/>
+      <c r="PO8" s="0"/>
+      <c r="PP8" s="0"/>
+      <c r="PQ8" s="0"/>
+      <c r="PR8" s="0"/>
+      <c r="PS8" s="0"/>
+      <c r="PT8" s="0"/>
+      <c r="PU8" s="0"/>
+      <c r="PV8" s="0"/>
+      <c r="PW8" s="0"/>
+      <c r="PX8" s="0"/>
+      <c r="PY8" s="0"/>
+      <c r="PZ8" s="0"/>
+      <c r="QA8" s="0"/>
+      <c r="QB8" s="0"/>
+      <c r="QC8" s="0"/>
+      <c r="QD8" s="0"/>
+      <c r="QE8" s="0"/>
+      <c r="QF8" s="0"/>
+      <c r="QG8" s="0"/>
+      <c r="QH8" s="0"/>
+      <c r="QI8" s="0"/>
+      <c r="QJ8" s="0"/>
+      <c r="QK8" s="0"/>
+      <c r="QL8" s="0"/>
+      <c r="QM8" s="0"/>
+      <c r="QN8" s="0"/>
+      <c r="QO8" s="0"/>
+      <c r="QP8" s="0"/>
+      <c r="QQ8" s="0"/>
+      <c r="QR8" s="0"/>
+      <c r="QS8" s="0"/>
+      <c r="QT8" s="0"/>
+      <c r="QU8" s="0"/>
+      <c r="QV8" s="0"/>
+      <c r="QW8" s="0"/>
+      <c r="QX8" s="0"/>
+      <c r="QY8" s="0"/>
+      <c r="QZ8" s="0"/>
+      <c r="RA8" s="0"/>
+      <c r="RB8" s="0"/>
+      <c r="RC8" s="0"/>
+      <c r="RD8" s="0"/>
+      <c r="RE8" s="0"/>
+      <c r="RF8" s="0"/>
+      <c r="RG8" s="0"/>
+      <c r="RH8" s="0"/>
+      <c r="RI8" s="0"/>
+      <c r="RJ8" s="0"/>
+      <c r="RK8" s="0"/>
+      <c r="RL8" s="0"/>
+      <c r="RM8" s="0"/>
+      <c r="RN8" s="0"/>
+      <c r="RO8" s="0"/>
+      <c r="RP8" s="0"/>
+      <c r="RQ8" s="0"/>
+      <c r="RR8" s="0"/>
+      <c r="RS8" s="0"/>
+      <c r="RT8" s="0"/>
+      <c r="RU8" s="0"/>
+      <c r="RV8" s="0"/>
+      <c r="RW8" s="0"/>
+      <c r="RX8" s="0"/>
+      <c r="RY8" s="0"/>
+      <c r="RZ8" s="0"/>
+      <c r="SA8" s="0"/>
+      <c r="SB8" s="0"/>
+      <c r="SC8" s="0"/>
+      <c r="SD8" s="0"/>
+      <c r="SE8" s="0"/>
+      <c r="SF8" s="0"/>
+      <c r="SG8" s="0"/>
+      <c r="SH8" s="0"/>
+      <c r="SI8" s="0"/>
+      <c r="SJ8" s="0"/>
+      <c r="SK8" s="0"/>
+      <c r="SL8" s="0"/>
+      <c r="SM8" s="0"/>
+      <c r="SN8" s="0"/>
+      <c r="SO8" s="0"/>
+      <c r="SP8" s="0"/>
+      <c r="SQ8" s="0"/>
+      <c r="SR8" s="0"/>
+      <c r="SS8" s="0"/>
+      <c r="ST8" s="0"/>
+      <c r="SU8" s="0"/>
+      <c r="SV8" s="0"/>
+      <c r="SW8" s="0"/>
+      <c r="SX8" s="0"/>
+      <c r="SY8" s="0"/>
+      <c r="SZ8" s="0"/>
+      <c r="TA8" s="0"/>
+      <c r="TB8" s="0"/>
+      <c r="TC8" s="0"/>
+      <c r="TD8" s="0"/>
+      <c r="TE8" s="0"/>
+      <c r="TF8" s="0"/>
+      <c r="TG8" s="0"/>
+      <c r="TH8" s="0"/>
+      <c r="TI8" s="0"/>
+      <c r="TJ8" s="0"/>
+      <c r="TK8" s="0"/>
+      <c r="TL8" s="0"/>
+      <c r="TM8" s="0"/>
+      <c r="TN8" s="0"/>
+      <c r="TO8" s="0"/>
+      <c r="TP8" s="0"/>
+      <c r="TQ8" s="0"/>
+      <c r="TR8" s="0"/>
+      <c r="TS8" s="0"/>
+      <c r="TT8" s="0"/>
+      <c r="TU8" s="0"/>
+      <c r="TV8" s="0"/>
+      <c r="TW8" s="0"/>
+      <c r="TX8" s="0"/>
+      <c r="TY8" s="0"/>
+      <c r="TZ8" s="0"/>
+      <c r="UA8" s="0"/>
+      <c r="UB8" s="0"/>
+      <c r="UC8" s="0"/>
+      <c r="UD8" s="0"/>
+      <c r="UE8" s="0"/>
+      <c r="UF8" s="0"/>
+      <c r="UG8" s="0"/>
+      <c r="UH8" s="0"/>
+      <c r="UI8" s="0"/>
+      <c r="UJ8" s="0"/>
+      <c r="UK8" s="0"/>
+      <c r="UL8" s="0"/>
+      <c r="UM8" s="0"/>
+      <c r="UN8" s="0"/>
+      <c r="UO8" s="0"/>
+      <c r="UP8" s="0"/>
+      <c r="UQ8" s="0"/>
+      <c r="UR8" s="0"/>
+      <c r="US8" s="0"/>
+      <c r="UT8" s="0"/>
+      <c r="UU8" s="0"/>
+      <c r="UV8" s="0"/>
+      <c r="UW8" s="0"/>
+      <c r="UX8" s="0"/>
+      <c r="UY8" s="0"/>
+      <c r="UZ8" s="0"/>
+      <c r="VA8" s="0"/>
+      <c r="VB8" s="0"/>
+      <c r="VC8" s="0"/>
+      <c r="VD8" s="0"/>
+      <c r="VE8" s="0"/>
+      <c r="VF8" s="0"/>
+      <c r="VG8" s="0"/>
+      <c r="VH8" s="0"/>
+      <c r="VI8" s="0"/>
+      <c r="VJ8" s="0"/>
+      <c r="VK8" s="0"/>
+      <c r="VL8" s="0"/>
+      <c r="VM8" s="0"/>
+      <c r="VN8" s="0"/>
+      <c r="VO8" s="0"/>
+      <c r="VP8" s="0"/>
+      <c r="VQ8" s="0"/>
+      <c r="VR8" s="0"/>
+      <c r="VS8" s="0"/>
+      <c r="VT8" s="0"/>
+      <c r="VU8" s="0"/>
+      <c r="VV8" s="0"/>
+      <c r="VW8" s="0"/>
+      <c r="VX8" s="0"/>
+      <c r="VY8" s="0"/>
+      <c r="VZ8" s="0"/>
+      <c r="WA8" s="0"/>
+      <c r="WB8" s="0"/>
+      <c r="WC8" s="0"/>
+      <c r="WD8" s="0"/>
+      <c r="WE8" s="0"/>
+      <c r="WF8" s="0"/>
+      <c r="WG8" s="0"/>
+      <c r="WH8" s="0"/>
+      <c r="WI8" s="0"/>
+      <c r="WJ8" s="0"/>
+      <c r="WK8" s="0"/>
+      <c r="WL8" s="0"/>
+      <c r="WM8" s="0"/>
+      <c r="WN8" s="0"/>
+      <c r="WO8" s="0"/>
+      <c r="WP8" s="0"/>
+      <c r="WQ8" s="0"/>
+      <c r="WR8" s="0"/>
+      <c r="WS8" s="0"/>
+      <c r="WT8" s="0"/>
+      <c r="WU8" s="0"/>
+      <c r="WV8" s="0"/>
+      <c r="WW8" s="0"/>
+      <c r="WX8" s="0"/>
+      <c r="WY8" s="0"/>
+      <c r="WZ8" s="0"/>
+      <c r="XA8" s="0"/>
+      <c r="XB8" s="0"/>
+      <c r="XC8" s="0"/>
+      <c r="XD8" s="0"/>
+      <c r="XE8" s="0"/>
+      <c r="XF8" s="0"/>
+      <c r="XG8" s="0"/>
+      <c r="XH8" s="0"/>
+      <c r="XI8" s="0"/>
+      <c r="XJ8" s="0"/>
+      <c r="XK8" s="0"/>
+      <c r="XL8" s="0"/>
+      <c r="XM8" s="0"/>
+      <c r="XN8" s="0"/>
+      <c r="XO8" s="0"/>
+      <c r="XP8" s="0"/>
+      <c r="XQ8" s="0"/>
+      <c r="XR8" s="0"/>
+      <c r="XS8" s="0"/>
+      <c r="XT8" s="0"/>
+      <c r="XU8" s="0"/>
+      <c r="XV8" s="0"/>
+      <c r="XW8" s="0"/>
+      <c r="XX8" s="0"/>
+      <c r="XY8" s="0"/>
+      <c r="XZ8" s="0"/>
+      <c r="YA8" s="0"/>
+      <c r="YB8" s="0"/>
+      <c r="YC8" s="0"/>
+      <c r="YD8" s="0"/>
+      <c r="YE8" s="0"/>
+      <c r="YF8" s="0"/>
+      <c r="YG8" s="0"/>
+      <c r="YH8" s="0"/>
+      <c r="YI8" s="0"/>
+      <c r="YJ8" s="0"/>
+      <c r="YK8" s="0"/>
+      <c r="YL8" s="0"/>
+      <c r="YM8" s="0"/>
+      <c r="YN8" s="0"/>
+      <c r="YO8" s="0"/>
+      <c r="YP8" s="0"/>
+      <c r="YQ8" s="0"/>
+      <c r="YR8" s="0"/>
+      <c r="YS8" s="0"/>
+      <c r="YT8" s="0"/>
+      <c r="YU8" s="0"/>
+      <c r="YV8" s="0"/>
+      <c r="YW8" s="0"/>
+      <c r="YX8" s="0"/>
+      <c r="YY8" s="0"/>
+      <c r="YZ8" s="0"/>
+      <c r="ZA8" s="0"/>
+      <c r="ZB8" s="0"/>
+      <c r="ZC8" s="0"/>
+      <c r="ZD8" s="0"/>
+      <c r="ZE8" s="0"/>
+      <c r="ZF8" s="0"/>
+      <c r="ZG8" s="0"/>
+      <c r="ZH8" s="0"/>
+      <c r="ZI8" s="0"/>
+      <c r="ZJ8" s="0"/>
+      <c r="ZK8" s="0"/>
+      <c r="ZL8" s="0"/>
+      <c r="ZM8" s="0"/>
+      <c r="ZN8" s="0"/>
+      <c r="ZO8" s="0"/>
+      <c r="ZP8" s="0"/>
+      <c r="ZQ8" s="0"/>
+      <c r="ZR8" s="0"/>
+      <c r="ZS8" s="0"/>
+      <c r="ZT8" s="0"/>
+      <c r="ZU8" s="0"/>
+      <c r="ZV8" s="0"/>
+      <c r="ZW8" s="0"/>
+      <c r="ZX8" s="0"/>
+      <c r="ZY8" s="0"/>
+      <c r="ZZ8" s="0"/>
+      <c r="AAA8" s="0"/>
+      <c r="AAB8" s="0"/>
+      <c r="AAC8" s="0"/>
+      <c r="AAD8" s="0"/>
+      <c r="AAE8" s="0"/>
+      <c r="AAF8" s="0"/>
+      <c r="AAG8" s="0"/>
+      <c r="AAH8" s="0"/>
+      <c r="AAI8" s="0"/>
+      <c r="AAJ8" s="0"/>
+      <c r="AAK8" s="0"/>
+      <c r="AAL8" s="0"/>
+      <c r="AAM8" s="0"/>
+      <c r="AAN8" s="0"/>
+      <c r="AAO8" s="0"/>
+      <c r="AAP8" s="0"/>
+      <c r="AAQ8" s="0"/>
+      <c r="AAR8" s="0"/>
+      <c r="AAS8" s="0"/>
+      <c r="AAT8" s="0"/>
+      <c r="AAU8" s="0"/>
+      <c r="AAV8" s="0"/>
+      <c r="AAW8" s="0"/>
+      <c r="AAX8" s="0"/>
+      <c r="AAY8" s="0"/>
+      <c r="AAZ8" s="0"/>
+      <c r="ABA8" s="0"/>
+      <c r="ABB8" s="0"/>
+      <c r="ABC8" s="0"/>
+      <c r="ABD8" s="0"/>
+      <c r="ABE8" s="0"/>
+      <c r="ABF8" s="0"/>
+      <c r="ABG8" s="0"/>
+      <c r="ABH8" s="0"/>
+      <c r="ABI8" s="0"/>
+      <c r="ABJ8" s="0"/>
+      <c r="ABK8" s="0"/>
+      <c r="ABL8" s="0"/>
+      <c r="ABM8" s="0"/>
+      <c r="ABN8" s="0"/>
+      <c r="ABO8" s="0"/>
+      <c r="ABP8" s="0"/>
+      <c r="ABQ8" s="0"/>
+      <c r="ABR8" s="0"/>
+      <c r="ABS8" s="0"/>
+      <c r="ABT8" s="0"/>
+      <c r="ABU8" s="0"/>
+      <c r="ABV8" s="0"/>
+      <c r="ABW8" s="0"/>
+      <c r="ABX8" s="0"/>
+      <c r="ABY8" s="0"/>
+      <c r="ABZ8" s="0"/>
+      <c r="ACA8" s="0"/>
+      <c r="ACB8" s="0"/>
+      <c r="ACC8" s="0"/>
+      <c r="ACD8" s="0"/>
+      <c r="ACE8" s="0"/>
+      <c r="ACF8" s="0"/>
+      <c r="ACG8" s="0"/>
+      <c r="ACH8" s="0"/>
+      <c r="ACI8" s="0"/>
+      <c r="ACJ8" s="0"/>
+      <c r="ACK8" s="0"/>
+      <c r="ACL8" s="0"/>
+      <c r="ACM8" s="0"/>
+      <c r="ACN8" s="0"/>
+      <c r="ACO8" s="0"/>
+      <c r="ACP8" s="0"/>
+      <c r="ACQ8" s="0"/>
+      <c r="ACR8" s="0"/>
+      <c r="ACS8" s="0"/>
+      <c r="ACT8" s="0"/>
+      <c r="ACU8" s="0"/>
+      <c r="ACV8" s="0"/>
+      <c r="ACW8" s="0"/>
+      <c r="ACX8" s="0"/>
+      <c r="ACY8" s="0"/>
+      <c r="ACZ8" s="0"/>
+      <c r="ADA8" s="0"/>
+      <c r="ADB8" s="0"/>
+      <c r="ADC8" s="0"/>
+      <c r="ADD8" s="0"/>
+      <c r="ADE8" s="0"/>
+      <c r="ADF8" s="0"/>
+      <c r="ADG8" s="0"/>
+      <c r="ADH8" s="0"/>
+      <c r="ADI8" s="0"/>
+      <c r="ADJ8" s="0"/>
+      <c r="ADK8" s="0"/>
+      <c r="ADL8" s="0"/>
+      <c r="ADM8" s="0"/>
+      <c r="ADN8" s="0"/>
+      <c r="ADO8" s="0"/>
+      <c r="ADP8" s="0"/>
+      <c r="ADQ8" s="0"/>
+      <c r="ADR8" s="0"/>
+      <c r="ADS8" s="0"/>
+      <c r="ADT8" s="0"/>
+      <c r="ADU8" s="0"/>
+      <c r="ADV8" s="0"/>
+      <c r="ADW8" s="0"/>
+      <c r="ADX8" s="0"/>
+      <c r="ADY8" s="0"/>
+      <c r="ADZ8" s="0"/>
+      <c r="AEA8" s="0"/>
+      <c r="AEB8" s="0"/>
+      <c r="AEC8" s="0"/>
+      <c r="AED8" s="0"/>
+      <c r="AEE8" s="0"/>
+      <c r="AEF8" s="0"/>
+      <c r="AEG8" s="0"/>
+      <c r="AEH8" s="0"/>
+      <c r="AEI8" s="0"/>
+      <c r="AEJ8" s="0"/>
+      <c r="AEK8" s="0"/>
+      <c r="AEL8" s="0"/>
+      <c r="AEM8" s="0"/>
+      <c r="AEN8" s="0"/>
+      <c r="AEO8" s="0"/>
+      <c r="AEP8" s="0"/>
+      <c r="AEQ8" s="0"/>
+      <c r="AER8" s="0"/>
+      <c r="AES8" s="0"/>
+      <c r="AET8" s="0"/>
+      <c r="AEU8" s="0"/>
+      <c r="AEV8" s="0"/>
+      <c r="AEW8" s="0"/>
+      <c r="AEX8" s="0"/>
+      <c r="AEY8" s="0"/>
+      <c r="AEZ8" s="0"/>
+      <c r="AFA8" s="0"/>
+      <c r="AFB8" s="0"/>
+      <c r="AFC8" s="0"/>
+      <c r="AFD8" s="0"/>
+      <c r="AFE8" s="0"/>
+      <c r="AFF8" s="0"/>
+      <c r="AFG8" s="0"/>
+      <c r="AFH8" s="0"/>
+      <c r="AFI8" s="0"/>
+      <c r="AFJ8" s="0"/>
+      <c r="AFK8" s="0"/>
+      <c r="AFL8" s="0"/>
+      <c r="AFM8" s="0"/>
+      <c r="AFN8" s="0"/>
+      <c r="AFO8" s="0"/>
+      <c r="AFP8" s="0"/>
+      <c r="AFQ8" s="0"/>
+      <c r="AFR8" s="0"/>
+      <c r="AFS8" s="0"/>
+      <c r="AFT8" s="0"/>
+      <c r="AFU8" s="0"/>
+      <c r="AFV8" s="0"/>
+      <c r="AFW8" s="0"/>
+      <c r="AFX8" s="0"/>
+      <c r="AFY8" s="0"/>
+      <c r="AFZ8" s="0"/>
+      <c r="AGA8" s="0"/>
+      <c r="AGB8" s="0"/>
+      <c r="AGC8" s="0"/>
+      <c r="AGD8" s="0"/>
+      <c r="AGE8" s="0"/>
+      <c r="AGF8" s="0"/>
+      <c r="AGG8" s="0"/>
+      <c r="AGH8" s="0"/>
+      <c r="AGI8" s="0"/>
+      <c r="AGJ8" s="0"/>
+      <c r="AGK8" s="0"/>
+      <c r="AGL8" s="0"/>
+      <c r="AGM8" s="0"/>
+      <c r="AGN8" s="0"/>
+      <c r="AGO8" s="0"/>
+      <c r="AGP8" s="0"/>
+      <c r="AGQ8" s="0"/>
+      <c r="AGR8" s="0"/>
+      <c r="AGS8" s="0"/>
+      <c r="AGT8" s="0"/>
+      <c r="AGU8" s="0"/>
+      <c r="AGV8" s="0"/>
+      <c r="AGW8" s="0"/>
+      <c r="AGX8" s="0"/>
+      <c r="AGY8" s="0"/>
+      <c r="AGZ8" s="0"/>
+      <c r="AHA8" s="0"/>
+      <c r="AHB8" s="0"/>
+      <c r="AHC8" s="0"/>
+      <c r="AHD8" s="0"/>
+      <c r="AHE8" s="0"/>
+      <c r="AHF8" s="0"/>
+      <c r="AHG8" s="0"/>
+      <c r="AHH8" s="0"/>
+      <c r="AHI8" s="0"/>
+      <c r="AHJ8" s="0"/>
+      <c r="AHK8" s="0"/>
+      <c r="AHL8" s="0"/>
+      <c r="AHM8" s="0"/>
+      <c r="AHN8" s="0"/>
+      <c r="AHO8" s="0"/>
+      <c r="AHP8" s="0"/>
+      <c r="AHQ8" s="0"/>
+      <c r="AHR8" s="0"/>
+      <c r="AHS8" s="0"/>
+      <c r="AHT8" s="0"/>
+      <c r="AHU8" s="0"/>
+      <c r="AHV8" s="0"/>
+      <c r="AHW8" s="0"/>
+      <c r="AHX8" s="0"/>
+      <c r="AHY8" s="0"/>
+      <c r="AHZ8" s="0"/>
+      <c r="AIA8" s="0"/>
+      <c r="AIB8" s="0"/>
+      <c r="AIC8" s="0"/>
+      <c r="AID8" s="0"/>
+      <c r="AIE8" s="0"/>
+      <c r="AIF8" s="0"/>
+      <c r="AIG8" s="0"/>
+      <c r="AIH8" s="0"/>
+      <c r="AII8" s="0"/>
+      <c r="AIJ8" s="0"/>
+      <c r="AIK8" s="0"/>
+      <c r="AIL8" s="0"/>
+      <c r="AIM8" s="0"/>
+      <c r="AIN8" s="0"/>
+      <c r="AIO8" s="0"/>
+      <c r="AIP8" s="0"/>
+      <c r="AIQ8" s="0"/>
+      <c r="AIR8" s="0"/>
+      <c r="AIS8" s="0"/>
+      <c r="AIT8" s="0"/>
+      <c r="AIU8" s="0"/>
+      <c r="AIV8" s="0"/>
+      <c r="AIW8" s="0"/>
+      <c r="AIX8" s="0"/>
+      <c r="AIY8" s="0"/>
+      <c r="AIZ8" s="0"/>
+      <c r="AJA8" s="0"/>
+      <c r="AJB8" s="0"/>
+      <c r="AJC8" s="0"/>
+      <c r="AJD8" s="0"/>
+      <c r="AJE8" s="0"/>
+      <c r="AJF8" s="0"/>
+      <c r="AJG8" s="0"/>
+      <c r="AJH8" s="0"/>
+      <c r="AJI8" s="0"/>
+      <c r="AJJ8" s="0"/>
+      <c r="AJK8" s="0"/>
+      <c r="AJL8" s="0"/>
+      <c r="AJM8" s="0"/>
+      <c r="AJN8" s="0"/>
+      <c r="AJO8" s="0"/>
+      <c r="AJP8" s="0"/>
+      <c r="AJQ8" s="0"/>
+      <c r="AJR8" s="0"/>
+      <c r="AJS8" s="0"/>
+      <c r="AJT8" s="0"/>
+      <c r="AJU8" s="0"/>
+      <c r="AJV8" s="0"/>
+      <c r="AJW8" s="0"/>
+      <c r="AJX8" s="0"/>
+      <c r="AJY8" s="0"/>
+      <c r="AJZ8" s="0"/>
+      <c r="AKA8" s="0"/>
+      <c r="AKB8" s="0"/>
+      <c r="AKC8" s="0"/>
+      <c r="AKD8" s="0"/>
+      <c r="AKE8" s="0"/>
+      <c r="AKF8" s="0"/>
+      <c r="AKG8" s="0"/>
+      <c r="AKH8" s="0"/>
+      <c r="AKI8" s="0"/>
+      <c r="AKJ8" s="0"/>
+      <c r="AKK8" s="0"/>
+      <c r="AKL8" s="0"/>
+      <c r="AKM8" s="0"/>
+      <c r="AKN8" s="0"/>
+      <c r="AKO8" s="0"/>
+      <c r="AKP8" s="0"/>
+      <c r="AKQ8" s="0"/>
+      <c r="AKR8" s="0"/>
+      <c r="AKS8" s="0"/>
+      <c r="AKT8" s="0"/>
+      <c r="AKU8" s="0"/>
+      <c r="AKV8" s="0"/>
+      <c r="AKW8" s="0"/>
+      <c r="AKX8" s="0"/>
+      <c r="AKY8" s="0"/>
+      <c r="AKZ8" s="0"/>
+      <c r="ALA8" s="0"/>
+      <c r="ALB8" s="0"/>
+      <c r="ALC8" s="0"/>
+      <c r="ALD8" s="0"/>
+      <c r="ALE8" s="0"/>
+      <c r="ALF8" s="0"/>
+      <c r="ALG8" s="0"/>
+      <c r="ALH8" s="0"/>
+      <c r="ALI8" s="0"/>
+      <c r="ALJ8" s="0"/>
+      <c r="ALK8" s="0"/>
+      <c r="ALL8" s="0"/>
+      <c r="ALM8" s="0"/>
+      <c r="ALN8" s="0"/>
+      <c r="ALO8" s="0"/>
+      <c r="ALP8" s="0"/>
+      <c r="ALQ8" s="0"/>
+      <c r="ALR8" s="0"/>
+      <c r="ALS8" s="0"/>
+      <c r="ALT8" s="0"/>
+      <c r="ALU8" s="0"/>
+      <c r="ALV8" s="0"/>
+      <c r="ALW8" s="0"/>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="0"/>
+      <c r="AMA8" s="0"/>
+      <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
@@ -1743,6 +8720,991 @@
       <c r="AM9" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="AN9" s="0"/>
+      <c r="AO9" s="0"/>
+      <c r="AP9" s="0"/>
+      <c r="AQ9" s="0"/>
+      <c r="AR9" s="0"/>
+      <c r="AS9" s="0"/>
+      <c r="AT9" s="0"/>
+      <c r="AU9" s="0"/>
+      <c r="AV9" s="0"/>
+      <c r="AW9" s="0"/>
+      <c r="AX9" s="0"/>
+      <c r="AY9" s="0"/>
+      <c r="AZ9" s="0"/>
+      <c r="BA9" s="0"/>
+      <c r="BB9" s="0"/>
+      <c r="BC9" s="0"/>
+      <c r="BD9" s="0"/>
+      <c r="BE9" s="0"/>
+      <c r="BF9" s="0"/>
+      <c r="BG9" s="0"/>
+      <c r="BH9" s="0"/>
+      <c r="BI9" s="0"/>
+      <c r="BJ9" s="0"/>
+      <c r="BK9" s="0"/>
+      <c r="BL9" s="0"/>
+      <c r="BM9" s="0"/>
+      <c r="BN9" s="0"/>
+      <c r="BO9" s="0"/>
+      <c r="BP9" s="0"/>
+      <c r="BQ9" s="0"/>
+      <c r="BR9" s="0"/>
+      <c r="BS9" s="0"/>
+      <c r="BT9" s="0"/>
+      <c r="BU9" s="0"/>
+      <c r="BV9" s="0"/>
+      <c r="BW9" s="0"/>
+      <c r="BX9" s="0"/>
+      <c r="BY9" s="0"/>
+      <c r="BZ9" s="0"/>
+      <c r="CA9" s="0"/>
+      <c r="CB9" s="0"/>
+      <c r="CC9" s="0"/>
+      <c r="CD9" s="0"/>
+      <c r="CE9" s="0"/>
+      <c r="CF9" s="0"/>
+      <c r="CG9" s="0"/>
+      <c r="CH9" s="0"/>
+      <c r="CI9" s="0"/>
+      <c r="CJ9" s="0"/>
+      <c r="CK9" s="0"/>
+      <c r="CL9" s="0"/>
+      <c r="CM9" s="0"/>
+      <c r="CN9" s="0"/>
+      <c r="CO9" s="0"/>
+      <c r="CP9" s="0"/>
+      <c r="CQ9" s="0"/>
+      <c r="CR9" s="0"/>
+      <c r="CS9" s="0"/>
+      <c r="CT9" s="0"/>
+      <c r="CU9" s="0"/>
+      <c r="CV9" s="0"/>
+      <c r="CW9" s="0"/>
+      <c r="CX9" s="0"/>
+      <c r="CY9" s="0"/>
+      <c r="CZ9" s="0"/>
+      <c r="DA9" s="0"/>
+      <c r="DB9" s="0"/>
+      <c r="DC9" s="0"/>
+      <c r="DD9" s="0"/>
+      <c r="DE9" s="0"/>
+      <c r="DF9" s="0"/>
+      <c r="DG9" s="0"/>
+      <c r="DH9" s="0"/>
+      <c r="DI9" s="0"/>
+      <c r="DJ9" s="0"/>
+      <c r="DK9" s="0"/>
+      <c r="DL9" s="0"/>
+      <c r="DM9" s="0"/>
+      <c r="DN9" s="0"/>
+      <c r="DO9" s="0"/>
+      <c r="DP9" s="0"/>
+      <c r="DQ9" s="0"/>
+      <c r="DR9" s="0"/>
+      <c r="DS9" s="0"/>
+      <c r="DT9" s="0"/>
+      <c r="DU9" s="0"/>
+      <c r="DV9" s="0"/>
+      <c r="DW9" s="0"/>
+      <c r="DX9" s="0"/>
+      <c r="DY9" s="0"/>
+      <c r="DZ9" s="0"/>
+      <c r="EA9" s="0"/>
+      <c r="EB9" s="0"/>
+      <c r="EC9" s="0"/>
+      <c r="ED9" s="0"/>
+      <c r="EE9" s="0"/>
+      <c r="EF9" s="0"/>
+      <c r="EG9" s="0"/>
+      <c r="EH9" s="0"/>
+      <c r="EI9" s="0"/>
+      <c r="EJ9" s="0"/>
+      <c r="EK9" s="0"/>
+      <c r="EL9" s="0"/>
+      <c r="EM9" s="0"/>
+      <c r="EN9" s="0"/>
+      <c r="EO9" s="0"/>
+      <c r="EP9" s="0"/>
+      <c r="EQ9" s="0"/>
+      <c r="ER9" s="0"/>
+      <c r="ES9" s="0"/>
+      <c r="ET9" s="0"/>
+      <c r="EU9" s="0"/>
+      <c r="EV9" s="0"/>
+      <c r="EW9" s="0"/>
+      <c r="EX9" s="0"/>
+      <c r="EY9" s="0"/>
+      <c r="EZ9" s="0"/>
+      <c r="FA9" s="0"/>
+      <c r="FB9" s="0"/>
+      <c r="FC9" s="0"/>
+      <c r="FD9" s="0"/>
+      <c r="FE9" s="0"/>
+      <c r="FF9" s="0"/>
+      <c r="FG9" s="0"/>
+      <c r="FH9" s="0"/>
+      <c r="FI9" s="0"/>
+      <c r="FJ9" s="0"/>
+      <c r="FK9" s="0"/>
+      <c r="FL9" s="0"/>
+      <c r="FM9" s="0"/>
+      <c r="FN9" s="0"/>
+      <c r="FO9" s="0"/>
+      <c r="FP9" s="0"/>
+      <c r="FQ9" s="0"/>
+      <c r="FR9" s="0"/>
+      <c r="FS9" s="0"/>
+      <c r="FT9" s="0"/>
+      <c r="FU9" s="0"/>
+      <c r="FV9" s="0"/>
+      <c r="FW9" s="0"/>
+      <c r="FX9" s="0"/>
+      <c r="FY9" s="0"/>
+      <c r="FZ9" s="0"/>
+      <c r="GA9" s="0"/>
+      <c r="GB9" s="0"/>
+      <c r="GC9" s="0"/>
+      <c r="GD9" s="0"/>
+      <c r="GE9" s="0"/>
+      <c r="GF9" s="0"/>
+      <c r="GG9" s="0"/>
+      <c r="GH9" s="0"/>
+      <c r="GI9" s="0"/>
+      <c r="GJ9" s="0"/>
+      <c r="GK9" s="0"/>
+      <c r="GL9" s="0"/>
+      <c r="GM9" s="0"/>
+      <c r="GN9" s="0"/>
+      <c r="GO9" s="0"/>
+      <c r="GP9" s="0"/>
+      <c r="GQ9" s="0"/>
+      <c r="GR9" s="0"/>
+      <c r="GS9" s="0"/>
+      <c r="GT9" s="0"/>
+      <c r="GU9" s="0"/>
+      <c r="GV9" s="0"/>
+      <c r="GW9" s="0"/>
+      <c r="GX9" s="0"/>
+      <c r="GY9" s="0"/>
+      <c r="GZ9" s="0"/>
+      <c r="HA9" s="0"/>
+      <c r="HB9" s="0"/>
+      <c r="HC9" s="0"/>
+      <c r="HD9" s="0"/>
+      <c r="HE9" s="0"/>
+      <c r="HF9" s="0"/>
+      <c r="HG9" s="0"/>
+      <c r="HH9" s="0"/>
+      <c r="HI9" s="0"/>
+      <c r="HJ9" s="0"/>
+      <c r="HK9" s="0"/>
+      <c r="HL9" s="0"/>
+      <c r="HM9" s="0"/>
+      <c r="HN9" s="0"/>
+      <c r="HO9" s="0"/>
+      <c r="HP9" s="0"/>
+      <c r="HQ9" s="0"/>
+      <c r="HR9" s="0"/>
+      <c r="HS9" s="0"/>
+      <c r="HT9" s="0"/>
+      <c r="HU9" s="0"/>
+      <c r="HV9" s="0"/>
+      <c r="HW9" s="0"/>
+      <c r="HX9" s="0"/>
+      <c r="HY9" s="0"/>
+      <c r="HZ9" s="0"/>
+      <c r="IA9" s="0"/>
+      <c r="IB9" s="0"/>
+      <c r="IC9" s="0"/>
+      <c r="ID9" s="0"/>
+      <c r="IE9" s="0"/>
+      <c r="IF9" s="0"/>
+      <c r="IG9" s="0"/>
+      <c r="IH9" s="0"/>
+      <c r="II9" s="0"/>
+      <c r="IJ9" s="0"/>
+      <c r="IK9" s="0"/>
+      <c r="IL9" s="0"/>
+      <c r="IM9" s="0"/>
+      <c r="IN9" s="0"/>
+      <c r="IO9" s="0"/>
+      <c r="IP9" s="0"/>
+      <c r="IQ9" s="0"/>
+      <c r="IR9" s="0"/>
+      <c r="IS9" s="0"/>
+      <c r="IT9" s="0"/>
+      <c r="IU9" s="0"/>
+      <c r="IV9" s="0"/>
+      <c r="IW9" s="0"/>
+      <c r="IX9" s="0"/>
+      <c r="IY9" s="0"/>
+      <c r="IZ9" s="0"/>
+      <c r="JA9" s="0"/>
+      <c r="JB9" s="0"/>
+      <c r="JC9" s="0"/>
+      <c r="JD9" s="0"/>
+      <c r="JE9" s="0"/>
+      <c r="JF9" s="0"/>
+      <c r="JG9" s="0"/>
+      <c r="JH9" s="0"/>
+      <c r="JI9" s="0"/>
+      <c r="JJ9" s="0"/>
+      <c r="JK9" s="0"/>
+      <c r="JL9" s="0"/>
+      <c r="JM9" s="0"/>
+      <c r="JN9" s="0"/>
+      <c r="JO9" s="0"/>
+      <c r="JP9" s="0"/>
+      <c r="JQ9" s="0"/>
+      <c r="JR9" s="0"/>
+      <c r="JS9" s="0"/>
+      <c r="JT9" s="0"/>
+      <c r="JU9" s="0"/>
+      <c r="JV9" s="0"/>
+      <c r="JW9" s="0"/>
+      <c r="JX9" s="0"/>
+      <c r="JY9" s="0"/>
+      <c r="JZ9" s="0"/>
+      <c r="KA9" s="0"/>
+      <c r="KB9" s="0"/>
+      <c r="KC9" s="0"/>
+      <c r="KD9" s="0"/>
+      <c r="KE9" s="0"/>
+      <c r="KF9" s="0"/>
+      <c r="KG9" s="0"/>
+      <c r="KH9" s="0"/>
+      <c r="KI9" s="0"/>
+      <c r="KJ9" s="0"/>
+      <c r="KK9" s="0"/>
+      <c r="KL9" s="0"/>
+      <c r="KM9" s="0"/>
+      <c r="KN9" s="0"/>
+      <c r="KO9" s="0"/>
+      <c r="KP9" s="0"/>
+      <c r="KQ9" s="0"/>
+      <c r="KR9" s="0"/>
+      <c r="KS9" s="0"/>
+      <c r="KT9" s="0"/>
+      <c r="KU9" s="0"/>
+      <c r="KV9" s="0"/>
+      <c r="KW9" s="0"/>
+      <c r="KX9" s="0"/>
+      <c r="KY9" s="0"/>
+      <c r="KZ9" s="0"/>
+      <c r="LA9" s="0"/>
+      <c r="LB9" s="0"/>
+      <c r="LC9" s="0"/>
+      <c r="LD9" s="0"/>
+      <c r="LE9" s="0"/>
+      <c r="LF9" s="0"/>
+      <c r="LG9" s="0"/>
+      <c r="LH9" s="0"/>
+      <c r="LI9" s="0"/>
+      <c r="LJ9" s="0"/>
+      <c r="LK9" s="0"/>
+      <c r="LL9" s="0"/>
+      <c r="LM9" s="0"/>
+      <c r="LN9" s="0"/>
+      <c r="LO9" s="0"/>
+      <c r="LP9" s="0"/>
+      <c r="LQ9" s="0"/>
+      <c r="LR9" s="0"/>
+      <c r="LS9" s="0"/>
+      <c r="LT9" s="0"/>
+      <c r="LU9" s="0"/>
+      <c r="LV9" s="0"/>
+      <c r="LW9" s="0"/>
+      <c r="LX9" s="0"/>
+      <c r="LY9" s="0"/>
+      <c r="LZ9" s="0"/>
+      <c r="MA9" s="0"/>
+      <c r="MB9" s="0"/>
+      <c r="MC9" s="0"/>
+      <c r="MD9" s="0"/>
+      <c r="ME9" s="0"/>
+      <c r="MF9" s="0"/>
+      <c r="MG9" s="0"/>
+      <c r="MH9" s="0"/>
+      <c r="MI9" s="0"/>
+      <c r="MJ9" s="0"/>
+      <c r="MK9" s="0"/>
+      <c r="ML9" s="0"/>
+      <c r="MM9" s="0"/>
+      <c r="MN9" s="0"/>
+      <c r="MO9" s="0"/>
+      <c r="MP9" s="0"/>
+      <c r="MQ9" s="0"/>
+      <c r="MR9" s="0"/>
+      <c r="MS9" s="0"/>
+      <c r="MT9" s="0"/>
+      <c r="MU9" s="0"/>
+      <c r="MV9" s="0"/>
+      <c r="MW9" s="0"/>
+      <c r="MX9" s="0"/>
+      <c r="MY9" s="0"/>
+      <c r="MZ9" s="0"/>
+      <c r="NA9" s="0"/>
+      <c r="NB9" s="0"/>
+      <c r="NC9" s="0"/>
+      <c r="ND9" s="0"/>
+      <c r="NE9" s="0"/>
+      <c r="NF9" s="0"/>
+      <c r="NG9" s="0"/>
+      <c r="NH9" s="0"/>
+      <c r="NI9" s="0"/>
+      <c r="NJ9" s="0"/>
+      <c r="NK9" s="0"/>
+      <c r="NL9" s="0"/>
+      <c r="NM9" s="0"/>
+      <c r="NN9" s="0"/>
+      <c r="NO9" s="0"/>
+      <c r="NP9" s="0"/>
+      <c r="NQ9" s="0"/>
+      <c r="NR9" s="0"/>
+      <c r="NS9" s="0"/>
+      <c r="NT9" s="0"/>
+      <c r="NU9" s="0"/>
+      <c r="NV9" s="0"/>
+      <c r="NW9" s="0"/>
+      <c r="NX9" s="0"/>
+      <c r="NY9" s="0"/>
+      <c r="NZ9" s="0"/>
+      <c r="OA9" s="0"/>
+      <c r="OB9" s="0"/>
+      <c r="OC9" s="0"/>
+      <c r="OD9" s="0"/>
+      <c r="OE9" s="0"/>
+      <c r="OF9" s="0"/>
+      <c r="OG9" s="0"/>
+      <c r="OH9" s="0"/>
+      <c r="OI9" s="0"/>
+      <c r="OJ9" s="0"/>
+      <c r="OK9" s="0"/>
+      <c r="OL9" s="0"/>
+      <c r="OM9" s="0"/>
+      <c r="ON9" s="0"/>
+      <c r="OO9" s="0"/>
+      <c r="OP9" s="0"/>
+      <c r="OQ9" s="0"/>
+      <c r="OR9" s="0"/>
+      <c r="OS9" s="0"/>
+      <c r="OT9" s="0"/>
+      <c r="OU9" s="0"/>
+      <c r="OV9" s="0"/>
+      <c r="OW9" s="0"/>
+      <c r="OX9" s="0"/>
+      <c r="OY9" s="0"/>
+      <c r="OZ9" s="0"/>
+      <c r="PA9" s="0"/>
+      <c r="PB9" s="0"/>
+      <c r="PC9" s="0"/>
+      <c r="PD9" s="0"/>
+      <c r="PE9" s="0"/>
+      <c r="PF9" s="0"/>
+      <c r="PG9" s="0"/>
+      <c r="PH9" s="0"/>
+      <c r="PI9" s="0"/>
+      <c r="PJ9" s="0"/>
+      <c r="PK9" s="0"/>
+      <c r="PL9" s="0"/>
+      <c r="PM9" s="0"/>
+      <c r="PN9" s="0"/>
+      <c r="PO9" s="0"/>
+      <c r="PP9" s="0"/>
+      <c r="PQ9" s="0"/>
+      <c r="PR9" s="0"/>
+      <c r="PS9" s="0"/>
+      <c r="PT9" s="0"/>
+      <c r="PU9" s="0"/>
+      <c r="PV9" s="0"/>
+      <c r="PW9" s="0"/>
+      <c r="PX9" s="0"/>
+      <c r="PY9" s="0"/>
+      <c r="PZ9" s="0"/>
+      <c r="QA9" s="0"/>
+      <c r="QB9" s="0"/>
+      <c r="QC9" s="0"/>
+      <c r="QD9" s="0"/>
+      <c r="QE9" s="0"/>
+      <c r="QF9" s="0"/>
+      <c r="QG9" s="0"/>
+      <c r="QH9" s="0"/>
+      <c r="QI9" s="0"/>
+      <c r="QJ9" s="0"/>
+      <c r="QK9" s="0"/>
+      <c r="QL9" s="0"/>
+      <c r="QM9" s="0"/>
+      <c r="QN9" s="0"/>
+      <c r="QO9" s="0"/>
+      <c r="QP9" s="0"/>
+      <c r="QQ9" s="0"/>
+      <c r="QR9" s="0"/>
+      <c r="QS9" s="0"/>
+      <c r="QT9" s="0"/>
+      <c r="QU9" s="0"/>
+      <c r="QV9" s="0"/>
+      <c r="QW9" s="0"/>
+      <c r="QX9" s="0"/>
+      <c r="QY9" s="0"/>
+      <c r="QZ9" s="0"/>
+      <c r="RA9" s="0"/>
+      <c r="RB9" s="0"/>
+      <c r="RC9" s="0"/>
+      <c r="RD9" s="0"/>
+      <c r="RE9" s="0"/>
+      <c r="RF9" s="0"/>
+      <c r="RG9" s="0"/>
+      <c r="RH9" s="0"/>
+      <c r="RI9" s="0"/>
+      <c r="RJ9" s="0"/>
+      <c r="RK9" s="0"/>
+      <c r="RL9" s="0"/>
+      <c r="RM9" s="0"/>
+      <c r="RN9" s="0"/>
+      <c r="RO9" s="0"/>
+      <c r="RP9" s="0"/>
+      <c r="RQ9" s="0"/>
+      <c r="RR9" s="0"/>
+      <c r="RS9" s="0"/>
+      <c r="RT9" s="0"/>
+      <c r="RU9" s="0"/>
+      <c r="RV9" s="0"/>
+      <c r="RW9" s="0"/>
+      <c r="RX9" s="0"/>
+      <c r="RY9" s="0"/>
+      <c r="RZ9" s="0"/>
+      <c r="SA9" s="0"/>
+      <c r="SB9" s="0"/>
+      <c r="SC9" s="0"/>
+      <c r="SD9" s="0"/>
+      <c r="SE9" s="0"/>
+      <c r="SF9" s="0"/>
+      <c r="SG9" s="0"/>
+      <c r="SH9" s="0"/>
+      <c r="SI9" s="0"/>
+      <c r="SJ9" s="0"/>
+      <c r="SK9" s="0"/>
+      <c r="SL9" s="0"/>
+      <c r="SM9" s="0"/>
+      <c r="SN9" s="0"/>
+      <c r="SO9" s="0"/>
+      <c r="SP9" s="0"/>
+      <c r="SQ9" s="0"/>
+      <c r="SR9" s="0"/>
+      <c r="SS9" s="0"/>
+      <c r="ST9" s="0"/>
+      <c r="SU9" s="0"/>
+      <c r="SV9" s="0"/>
+      <c r="SW9" s="0"/>
+      <c r="SX9" s="0"/>
+      <c r="SY9" s="0"/>
+      <c r="SZ9" s="0"/>
+      <c r="TA9" s="0"/>
+      <c r="TB9" s="0"/>
+      <c r="TC9" s="0"/>
+      <c r="TD9" s="0"/>
+      <c r="TE9" s="0"/>
+      <c r="TF9" s="0"/>
+      <c r="TG9" s="0"/>
+      <c r="TH9" s="0"/>
+      <c r="TI9" s="0"/>
+      <c r="TJ9" s="0"/>
+      <c r="TK9" s="0"/>
+      <c r="TL9" s="0"/>
+      <c r="TM9" s="0"/>
+      <c r="TN9" s="0"/>
+      <c r="TO9" s="0"/>
+      <c r="TP9" s="0"/>
+      <c r="TQ9" s="0"/>
+      <c r="TR9" s="0"/>
+      <c r="TS9" s="0"/>
+      <c r="TT9" s="0"/>
+      <c r="TU9" s="0"/>
+      <c r="TV9" s="0"/>
+      <c r="TW9" s="0"/>
+      <c r="TX9" s="0"/>
+      <c r="TY9" s="0"/>
+      <c r="TZ9" s="0"/>
+      <c r="UA9" s="0"/>
+      <c r="UB9" s="0"/>
+      <c r="UC9" s="0"/>
+      <c r="UD9" s="0"/>
+      <c r="UE9" s="0"/>
+      <c r="UF9" s="0"/>
+      <c r="UG9" s="0"/>
+      <c r="UH9" s="0"/>
+      <c r="UI9" s="0"/>
+      <c r="UJ9" s="0"/>
+      <c r="UK9" s="0"/>
+      <c r="UL9" s="0"/>
+      <c r="UM9" s="0"/>
+      <c r="UN9" s="0"/>
+      <c r="UO9" s="0"/>
+      <c r="UP9" s="0"/>
+      <c r="UQ9" s="0"/>
+      <c r="UR9" s="0"/>
+      <c r="US9" s="0"/>
+      <c r="UT9" s="0"/>
+      <c r="UU9" s="0"/>
+      <c r="UV9" s="0"/>
+      <c r="UW9" s="0"/>
+      <c r="UX9" s="0"/>
+      <c r="UY9" s="0"/>
+      <c r="UZ9" s="0"/>
+      <c r="VA9" s="0"/>
+      <c r="VB9" s="0"/>
+      <c r="VC9" s="0"/>
+      <c r="VD9" s="0"/>
+      <c r="VE9" s="0"/>
+      <c r="VF9" s="0"/>
+      <c r="VG9" s="0"/>
+      <c r="VH9" s="0"/>
+      <c r="VI9" s="0"/>
+      <c r="VJ9" s="0"/>
+      <c r="VK9" s="0"/>
+      <c r="VL9" s="0"/>
+      <c r="VM9" s="0"/>
+      <c r="VN9" s="0"/>
+      <c r="VO9" s="0"/>
+      <c r="VP9" s="0"/>
+      <c r="VQ9" s="0"/>
+      <c r="VR9" s="0"/>
+      <c r="VS9" s="0"/>
+      <c r="VT9" s="0"/>
+      <c r="VU9" s="0"/>
+      <c r="VV9" s="0"/>
+      <c r="VW9" s="0"/>
+      <c r="VX9" s="0"/>
+      <c r="VY9" s="0"/>
+      <c r="VZ9" s="0"/>
+      <c r="WA9" s="0"/>
+      <c r="WB9" s="0"/>
+      <c r="WC9" s="0"/>
+      <c r="WD9" s="0"/>
+      <c r="WE9" s="0"/>
+      <c r="WF9" s="0"/>
+      <c r="WG9" s="0"/>
+      <c r="WH9" s="0"/>
+      <c r="WI9" s="0"/>
+      <c r="WJ9" s="0"/>
+      <c r="WK9" s="0"/>
+      <c r="WL9" s="0"/>
+      <c r="WM9" s="0"/>
+      <c r="WN9" s="0"/>
+      <c r="WO9" s="0"/>
+      <c r="WP9" s="0"/>
+      <c r="WQ9" s="0"/>
+      <c r="WR9" s="0"/>
+      <c r="WS9" s="0"/>
+      <c r="WT9" s="0"/>
+      <c r="WU9" s="0"/>
+      <c r="WV9" s="0"/>
+      <c r="WW9" s="0"/>
+      <c r="WX9" s="0"/>
+      <c r="WY9" s="0"/>
+      <c r="WZ9" s="0"/>
+      <c r="XA9" s="0"/>
+      <c r="XB9" s="0"/>
+      <c r="XC9" s="0"/>
+      <c r="XD9" s="0"/>
+      <c r="XE9" s="0"/>
+      <c r="XF9" s="0"/>
+      <c r="XG9" s="0"/>
+      <c r="XH9" s="0"/>
+      <c r="XI9" s="0"/>
+      <c r="XJ9" s="0"/>
+      <c r="XK9" s="0"/>
+      <c r="XL9" s="0"/>
+      <c r="XM9" s="0"/>
+      <c r="XN9" s="0"/>
+      <c r="XO9" s="0"/>
+      <c r="XP9" s="0"/>
+      <c r="XQ9" s="0"/>
+      <c r="XR9" s="0"/>
+      <c r="XS9" s="0"/>
+      <c r="XT9" s="0"/>
+      <c r="XU9" s="0"/>
+      <c r="XV9" s="0"/>
+      <c r="XW9" s="0"/>
+      <c r="XX9" s="0"/>
+      <c r="XY9" s="0"/>
+      <c r="XZ9" s="0"/>
+      <c r="YA9" s="0"/>
+      <c r="YB9" s="0"/>
+      <c r="YC9" s="0"/>
+      <c r="YD9" s="0"/>
+      <c r="YE9" s="0"/>
+      <c r="YF9" s="0"/>
+      <c r="YG9" s="0"/>
+      <c r="YH9" s="0"/>
+      <c r="YI9" s="0"/>
+      <c r="YJ9" s="0"/>
+      <c r="YK9" s="0"/>
+      <c r="YL9" s="0"/>
+      <c r="YM9" s="0"/>
+      <c r="YN9" s="0"/>
+      <c r="YO9" s="0"/>
+      <c r="YP9" s="0"/>
+      <c r="YQ9" s="0"/>
+      <c r="YR9" s="0"/>
+      <c r="YS9" s="0"/>
+      <c r="YT9" s="0"/>
+      <c r="YU9" s="0"/>
+      <c r="YV9" s="0"/>
+      <c r="YW9" s="0"/>
+      <c r="YX9" s="0"/>
+      <c r="YY9" s="0"/>
+      <c r="YZ9" s="0"/>
+      <c r="ZA9" s="0"/>
+      <c r="ZB9" s="0"/>
+      <c r="ZC9" s="0"/>
+      <c r="ZD9" s="0"/>
+      <c r="ZE9" s="0"/>
+      <c r="ZF9" s="0"/>
+      <c r="ZG9" s="0"/>
+      <c r="ZH9" s="0"/>
+      <c r="ZI9" s="0"/>
+      <c r="ZJ9" s="0"/>
+      <c r="ZK9" s="0"/>
+      <c r="ZL9" s="0"/>
+      <c r="ZM9" s="0"/>
+      <c r="ZN9" s="0"/>
+      <c r="ZO9" s="0"/>
+      <c r="ZP9" s="0"/>
+      <c r="ZQ9" s="0"/>
+      <c r="ZR9" s="0"/>
+      <c r="ZS9" s="0"/>
+      <c r="ZT9" s="0"/>
+      <c r="ZU9" s="0"/>
+      <c r="ZV9" s="0"/>
+      <c r="ZW9" s="0"/>
+      <c r="ZX9" s="0"/>
+      <c r="ZY9" s="0"/>
+      <c r="ZZ9" s="0"/>
+      <c r="AAA9" s="0"/>
+      <c r="AAB9" s="0"/>
+      <c r="AAC9" s="0"/>
+      <c r="AAD9" s="0"/>
+      <c r="AAE9" s="0"/>
+      <c r="AAF9" s="0"/>
+      <c r="AAG9" s="0"/>
+      <c r="AAH9" s="0"/>
+      <c r="AAI9" s="0"/>
+      <c r="AAJ9" s="0"/>
+      <c r="AAK9" s="0"/>
+      <c r="AAL9" s="0"/>
+      <c r="AAM9" s="0"/>
+      <c r="AAN9" s="0"/>
+      <c r="AAO9" s="0"/>
+      <c r="AAP9" s="0"/>
+      <c r="AAQ9" s="0"/>
+      <c r="AAR9" s="0"/>
+      <c r="AAS9" s="0"/>
+      <c r="AAT9" s="0"/>
+      <c r="AAU9" s="0"/>
+      <c r="AAV9" s="0"/>
+      <c r="AAW9" s="0"/>
+      <c r="AAX9" s="0"/>
+      <c r="AAY9" s="0"/>
+      <c r="AAZ9" s="0"/>
+      <c r="ABA9" s="0"/>
+      <c r="ABB9" s="0"/>
+      <c r="ABC9" s="0"/>
+      <c r="ABD9" s="0"/>
+      <c r="ABE9" s="0"/>
+      <c r="ABF9" s="0"/>
+      <c r="ABG9" s="0"/>
+      <c r="ABH9" s="0"/>
+      <c r="ABI9" s="0"/>
+      <c r="ABJ9" s="0"/>
+      <c r="ABK9" s="0"/>
+      <c r="ABL9" s="0"/>
+      <c r="ABM9" s="0"/>
+      <c r="ABN9" s="0"/>
+      <c r="ABO9" s="0"/>
+      <c r="ABP9" s="0"/>
+      <c r="ABQ9" s="0"/>
+      <c r="ABR9" s="0"/>
+      <c r="ABS9" s="0"/>
+      <c r="ABT9" s="0"/>
+      <c r="ABU9" s="0"/>
+      <c r="ABV9" s="0"/>
+      <c r="ABW9" s="0"/>
+      <c r="ABX9" s="0"/>
+      <c r="ABY9" s="0"/>
+      <c r="ABZ9" s="0"/>
+      <c r="ACA9" s="0"/>
+      <c r="ACB9" s="0"/>
+      <c r="ACC9" s="0"/>
+      <c r="ACD9" s="0"/>
+      <c r="ACE9" s="0"/>
+      <c r="ACF9" s="0"/>
+      <c r="ACG9" s="0"/>
+      <c r="ACH9" s="0"/>
+      <c r="ACI9" s="0"/>
+      <c r="ACJ9" s="0"/>
+      <c r="ACK9" s="0"/>
+      <c r="ACL9" s="0"/>
+      <c r="ACM9" s="0"/>
+      <c r="ACN9" s="0"/>
+      <c r="ACO9" s="0"/>
+      <c r="ACP9" s="0"/>
+      <c r="ACQ9" s="0"/>
+      <c r="ACR9" s="0"/>
+      <c r="ACS9" s="0"/>
+      <c r="ACT9" s="0"/>
+      <c r="ACU9" s="0"/>
+      <c r="ACV9" s="0"/>
+      <c r="ACW9" s="0"/>
+      <c r="ACX9" s="0"/>
+      <c r="ACY9" s="0"/>
+      <c r="ACZ9" s="0"/>
+      <c r="ADA9" s="0"/>
+      <c r="ADB9" s="0"/>
+      <c r="ADC9" s="0"/>
+      <c r="ADD9" s="0"/>
+      <c r="ADE9" s="0"/>
+      <c r="ADF9" s="0"/>
+      <c r="ADG9" s="0"/>
+      <c r="ADH9" s="0"/>
+      <c r="ADI9" s="0"/>
+      <c r="ADJ9" s="0"/>
+      <c r="ADK9" s="0"/>
+      <c r="ADL9" s="0"/>
+      <c r="ADM9" s="0"/>
+      <c r="ADN9" s="0"/>
+      <c r="ADO9" s="0"/>
+      <c r="ADP9" s="0"/>
+      <c r="ADQ9" s="0"/>
+      <c r="ADR9" s="0"/>
+      <c r="ADS9" s="0"/>
+      <c r="ADT9" s="0"/>
+      <c r="ADU9" s="0"/>
+      <c r="ADV9" s="0"/>
+      <c r="ADW9" s="0"/>
+      <c r="ADX9" s="0"/>
+      <c r="ADY9" s="0"/>
+      <c r="ADZ9" s="0"/>
+      <c r="AEA9" s="0"/>
+      <c r="AEB9" s="0"/>
+      <c r="AEC9" s="0"/>
+      <c r="AED9" s="0"/>
+      <c r="AEE9" s="0"/>
+      <c r="AEF9" s="0"/>
+      <c r="AEG9" s="0"/>
+      <c r="AEH9" s="0"/>
+      <c r="AEI9" s="0"/>
+      <c r="AEJ9" s="0"/>
+      <c r="AEK9" s="0"/>
+      <c r="AEL9" s="0"/>
+      <c r="AEM9" s="0"/>
+      <c r="AEN9" s="0"/>
+      <c r="AEO9" s="0"/>
+      <c r="AEP9" s="0"/>
+      <c r="AEQ9" s="0"/>
+      <c r="AER9" s="0"/>
+      <c r="AES9" s="0"/>
+      <c r="AET9" s="0"/>
+      <c r="AEU9" s="0"/>
+      <c r="AEV9" s="0"/>
+      <c r="AEW9" s="0"/>
+      <c r="AEX9" s="0"/>
+      <c r="AEY9" s="0"/>
+      <c r="AEZ9" s="0"/>
+      <c r="AFA9" s="0"/>
+      <c r="AFB9" s="0"/>
+      <c r="AFC9" s="0"/>
+      <c r="AFD9" s="0"/>
+      <c r="AFE9" s="0"/>
+      <c r="AFF9" s="0"/>
+      <c r="AFG9" s="0"/>
+      <c r="AFH9" s="0"/>
+      <c r="AFI9" s="0"/>
+      <c r="AFJ9" s="0"/>
+      <c r="AFK9" s="0"/>
+      <c r="AFL9" s="0"/>
+      <c r="AFM9" s="0"/>
+      <c r="AFN9" s="0"/>
+      <c r="AFO9" s="0"/>
+      <c r="AFP9" s="0"/>
+      <c r="AFQ9" s="0"/>
+      <c r="AFR9" s="0"/>
+      <c r="AFS9" s="0"/>
+      <c r="AFT9" s="0"/>
+      <c r="AFU9" s="0"/>
+      <c r="AFV9" s="0"/>
+      <c r="AFW9" s="0"/>
+      <c r="AFX9" s="0"/>
+      <c r="AFY9" s="0"/>
+      <c r="AFZ9" s="0"/>
+      <c r="AGA9" s="0"/>
+      <c r="AGB9" s="0"/>
+      <c r="AGC9" s="0"/>
+      <c r="AGD9" s="0"/>
+      <c r="AGE9" s="0"/>
+      <c r="AGF9" s="0"/>
+      <c r="AGG9" s="0"/>
+      <c r="AGH9" s="0"/>
+      <c r="AGI9" s="0"/>
+      <c r="AGJ9" s="0"/>
+      <c r="AGK9" s="0"/>
+      <c r="AGL9" s="0"/>
+      <c r="AGM9" s="0"/>
+      <c r="AGN9" s="0"/>
+      <c r="AGO9" s="0"/>
+      <c r="AGP9" s="0"/>
+      <c r="AGQ9" s="0"/>
+      <c r="AGR9" s="0"/>
+      <c r="AGS9" s="0"/>
+      <c r="AGT9" s="0"/>
+      <c r="AGU9" s="0"/>
+      <c r="AGV9" s="0"/>
+      <c r="AGW9" s="0"/>
+      <c r="AGX9" s="0"/>
+      <c r="AGY9" s="0"/>
+      <c r="AGZ9" s="0"/>
+      <c r="AHA9" s="0"/>
+      <c r="AHB9" s="0"/>
+      <c r="AHC9" s="0"/>
+      <c r="AHD9" s="0"/>
+      <c r="AHE9" s="0"/>
+      <c r="AHF9" s="0"/>
+      <c r="AHG9" s="0"/>
+      <c r="AHH9" s="0"/>
+      <c r="AHI9" s="0"/>
+      <c r="AHJ9" s="0"/>
+      <c r="AHK9" s="0"/>
+      <c r="AHL9" s="0"/>
+      <c r="AHM9" s="0"/>
+      <c r="AHN9" s="0"/>
+      <c r="AHO9" s="0"/>
+      <c r="AHP9" s="0"/>
+      <c r="AHQ9" s="0"/>
+      <c r="AHR9" s="0"/>
+      <c r="AHS9" s="0"/>
+      <c r="AHT9" s="0"/>
+      <c r="AHU9" s="0"/>
+      <c r="AHV9" s="0"/>
+      <c r="AHW9" s="0"/>
+      <c r="AHX9" s="0"/>
+      <c r="AHY9" s="0"/>
+      <c r="AHZ9" s="0"/>
+      <c r="AIA9" s="0"/>
+      <c r="AIB9" s="0"/>
+      <c r="AIC9" s="0"/>
+      <c r="AID9" s="0"/>
+      <c r="AIE9" s="0"/>
+      <c r="AIF9" s="0"/>
+      <c r="AIG9" s="0"/>
+      <c r="AIH9" s="0"/>
+      <c r="AII9" s="0"/>
+      <c r="AIJ9" s="0"/>
+      <c r="AIK9" s="0"/>
+      <c r="AIL9" s="0"/>
+      <c r="AIM9" s="0"/>
+      <c r="AIN9" s="0"/>
+      <c r="AIO9" s="0"/>
+      <c r="AIP9" s="0"/>
+      <c r="AIQ9" s="0"/>
+      <c r="AIR9" s="0"/>
+      <c r="AIS9" s="0"/>
+      <c r="AIT9" s="0"/>
+      <c r="AIU9" s="0"/>
+      <c r="AIV9" s="0"/>
+      <c r="AIW9" s="0"/>
+      <c r="AIX9" s="0"/>
+      <c r="AIY9" s="0"/>
+      <c r="AIZ9" s="0"/>
+      <c r="AJA9" s="0"/>
+      <c r="AJB9" s="0"/>
+      <c r="AJC9" s="0"/>
+      <c r="AJD9" s="0"/>
+      <c r="AJE9" s="0"/>
+      <c r="AJF9" s="0"/>
+      <c r="AJG9" s="0"/>
+      <c r="AJH9" s="0"/>
+      <c r="AJI9" s="0"/>
+      <c r="AJJ9" s="0"/>
+      <c r="AJK9" s="0"/>
+      <c r="AJL9" s="0"/>
+      <c r="AJM9" s="0"/>
+      <c r="AJN9" s="0"/>
+      <c r="AJO9" s="0"/>
+      <c r="AJP9" s="0"/>
+      <c r="AJQ9" s="0"/>
+      <c r="AJR9" s="0"/>
+      <c r="AJS9" s="0"/>
+      <c r="AJT9" s="0"/>
+      <c r="AJU9" s="0"/>
+      <c r="AJV9" s="0"/>
+      <c r="AJW9" s="0"/>
+      <c r="AJX9" s="0"/>
+      <c r="AJY9" s="0"/>
+      <c r="AJZ9" s="0"/>
+      <c r="AKA9" s="0"/>
+      <c r="AKB9" s="0"/>
+      <c r="AKC9" s="0"/>
+      <c r="AKD9" s="0"/>
+      <c r="AKE9" s="0"/>
+      <c r="AKF9" s="0"/>
+      <c r="AKG9" s="0"/>
+      <c r="AKH9" s="0"/>
+      <c r="AKI9" s="0"/>
+      <c r="AKJ9" s="0"/>
+      <c r="AKK9" s="0"/>
+      <c r="AKL9" s="0"/>
+      <c r="AKM9" s="0"/>
+      <c r="AKN9" s="0"/>
+      <c r="AKO9" s="0"/>
+      <c r="AKP9" s="0"/>
+      <c r="AKQ9" s="0"/>
+      <c r="AKR9" s="0"/>
+      <c r="AKS9" s="0"/>
+      <c r="AKT9" s="0"/>
+      <c r="AKU9" s="0"/>
+      <c r="AKV9" s="0"/>
+      <c r="AKW9" s="0"/>
+      <c r="AKX9" s="0"/>
+      <c r="AKY9" s="0"/>
+      <c r="AKZ9" s="0"/>
+      <c r="ALA9" s="0"/>
+      <c r="ALB9" s="0"/>
+      <c r="ALC9" s="0"/>
+      <c r="ALD9" s="0"/>
+      <c r="ALE9" s="0"/>
+      <c r="ALF9" s="0"/>
+      <c r="ALG9" s="0"/>
+      <c r="ALH9" s="0"/>
+      <c r="ALI9" s="0"/>
+      <c r="ALJ9" s="0"/>
+      <c r="ALK9" s="0"/>
+      <c r="ALL9" s="0"/>
+      <c r="ALM9" s="0"/>
+      <c r="ALN9" s="0"/>
+      <c r="ALO9" s="0"/>
+      <c r="ALP9" s="0"/>
+      <c r="ALQ9" s="0"/>
+      <c r="ALR9" s="0"/>
+      <c r="ALS9" s="0"/>
+      <c r="ALT9" s="0"/>
+      <c r="ALU9" s="0"/>
+      <c r="ALV9" s="0"/>
+      <c r="ALW9" s="0"/>
+      <c r="ALX9" s="0"/>
+      <c r="ALY9" s="0"/>
+      <c r="ALZ9" s="0"/>
+      <c r="AMA9" s="0"/>
+      <c r="AMB9" s="0"/>
+      <c r="AMC9" s="0"/>
+      <c r="AMD9" s="0"/>
+      <c r="AME9" s="0"/>
+      <c r="AMF9" s="0"/>
+      <c r="AMG9" s="0"/>
+      <c r="AMH9" s="0"/>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
@@ -1824,85 +9786,1070 @@
       <c r="AM10" s="8" t="n">
         <v>1</v>
       </c>
+      <c r="AN10" s="0"/>
+      <c r="AO10" s="0"/>
+      <c r="AP10" s="0"/>
+      <c r="AQ10" s="0"/>
+      <c r="AR10" s="0"/>
+      <c r="AS10" s="0"/>
+      <c r="AT10" s="0"/>
+      <c r="AU10" s="0"/>
+      <c r="AV10" s="0"/>
+      <c r="AW10" s="0"/>
+      <c r="AX10" s="0"/>
+      <c r="AY10" s="0"/>
+      <c r="AZ10" s="0"/>
+      <c r="BA10" s="0"/>
+      <c r="BB10" s="0"/>
+      <c r="BC10" s="0"/>
+      <c r="BD10" s="0"/>
+      <c r="BE10" s="0"/>
+      <c r="BF10" s="0"/>
+      <c r="BG10" s="0"/>
+      <c r="BH10" s="0"/>
+      <c r="BI10" s="0"/>
+      <c r="BJ10" s="0"/>
+      <c r="BK10" s="0"/>
+      <c r="BL10" s="0"/>
+      <c r="BM10" s="0"/>
+      <c r="BN10" s="0"/>
+      <c r="BO10" s="0"/>
+      <c r="BP10" s="0"/>
+      <c r="BQ10" s="0"/>
+      <c r="BR10" s="0"/>
+      <c r="BS10" s="0"/>
+      <c r="BT10" s="0"/>
+      <c r="BU10" s="0"/>
+      <c r="BV10" s="0"/>
+      <c r="BW10" s="0"/>
+      <c r="BX10" s="0"/>
+      <c r="BY10" s="0"/>
+      <c r="BZ10" s="0"/>
+      <c r="CA10" s="0"/>
+      <c r="CB10" s="0"/>
+      <c r="CC10" s="0"/>
+      <c r="CD10" s="0"/>
+      <c r="CE10" s="0"/>
+      <c r="CF10" s="0"/>
+      <c r="CG10" s="0"/>
+      <c r="CH10" s="0"/>
+      <c r="CI10" s="0"/>
+      <c r="CJ10" s="0"/>
+      <c r="CK10" s="0"/>
+      <c r="CL10" s="0"/>
+      <c r="CM10" s="0"/>
+      <c r="CN10" s="0"/>
+      <c r="CO10" s="0"/>
+      <c r="CP10" s="0"/>
+      <c r="CQ10" s="0"/>
+      <c r="CR10" s="0"/>
+      <c r="CS10" s="0"/>
+      <c r="CT10" s="0"/>
+      <c r="CU10" s="0"/>
+      <c r="CV10" s="0"/>
+      <c r="CW10" s="0"/>
+      <c r="CX10" s="0"/>
+      <c r="CY10" s="0"/>
+      <c r="CZ10" s="0"/>
+      <c r="DA10" s="0"/>
+      <c r="DB10" s="0"/>
+      <c r="DC10" s="0"/>
+      <c r="DD10" s="0"/>
+      <c r="DE10" s="0"/>
+      <c r="DF10" s="0"/>
+      <c r="DG10" s="0"/>
+      <c r="DH10" s="0"/>
+      <c r="DI10" s="0"/>
+      <c r="DJ10" s="0"/>
+      <c r="DK10" s="0"/>
+      <c r="DL10" s="0"/>
+      <c r="DM10" s="0"/>
+      <c r="DN10" s="0"/>
+      <c r="DO10" s="0"/>
+      <c r="DP10" s="0"/>
+      <c r="DQ10" s="0"/>
+      <c r="DR10" s="0"/>
+      <c r="DS10" s="0"/>
+      <c r="DT10" s="0"/>
+      <c r="DU10" s="0"/>
+      <c r="DV10" s="0"/>
+      <c r="DW10" s="0"/>
+      <c r="DX10" s="0"/>
+      <c r="DY10" s="0"/>
+      <c r="DZ10" s="0"/>
+      <c r="EA10" s="0"/>
+      <c r="EB10" s="0"/>
+      <c r="EC10" s="0"/>
+      <c r="ED10" s="0"/>
+      <c r="EE10" s="0"/>
+      <c r="EF10" s="0"/>
+      <c r="EG10" s="0"/>
+      <c r="EH10" s="0"/>
+      <c r="EI10" s="0"/>
+      <c r="EJ10" s="0"/>
+      <c r="EK10" s="0"/>
+      <c r="EL10" s="0"/>
+      <c r="EM10" s="0"/>
+      <c r="EN10" s="0"/>
+      <c r="EO10" s="0"/>
+      <c r="EP10" s="0"/>
+      <c r="EQ10" s="0"/>
+      <c r="ER10" s="0"/>
+      <c r="ES10" s="0"/>
+      <c r="ET10" s="0"/>
+      <c r="EU10" s="0"/>
+      <c r="EV10" s="0"/>
+      <c r="EW10" s="0"/>
+      <c r="EX10" s="0"/>
+      <c r="EY10" s="0"/>
+      <c r="EZ10" s="0"/>
+      <c r="FA10" s="0"/>
+      <c r="FB10" s="0"/>
+      <c r="FC10" s="0"/>
+      <c r="FD10" s="0"/>
+      <c r="FE10" s="0"/>
+      <c r="FF10" s="0"/>
+      <c r="FG10" s="0"/>
+      <c r="FH10" s="0"/>
+      <c r="FI10" s="0"/>
+      <c r="FJ10" s="0"/>
+      <c r="FK10" s="0"/>
+      <c r="FL10" s="0"/>
+      <c r="FM10" s="0"/>
+      <c r="FN10" s="0"/>
+      <c r="FO10" s="0"/>
+      <c r="FP10" s="0"/>
+      <c r="FQ10" s="0"/>
+      <c r="FR10" s="0"/>
+      <c r="FS10" s="0"/>
+      <c r="FT10" s="0"/>
+      <c r="FU10" s="0"/>
+      <c r="FV10" s="0"/>
+      <c r="FW10" s="0"/>
+      <c r="FX10" s="0"/>
+      <c r="FY10" s="0"/>
+      <c r="FZ10" s="0"/>
+      <c r="GA10" s="0"/>
+      <c r="GB10" s="0"/>
+      <c r="GC10" s="0"/>
+      <c r="GD10" s="0"/>
+      <c r="GE10" s="0"/>
+      <c r="GF10" s="0"/>
+      <c r="GG10" s="0"/>
+      <c r="GH10" s="0"/>
+      <c r="GI10" s="0"/>
+      <c r="GJ10" s="0"/>
+      <c r="GK10" s="0"/>
+      <c r="GL10" s="0"/>
+      <c r="GM10" s="0"/>
+      <c r="GN10" s="0"/>
+      <c r="GO10" s="0"/>
+      <c r="GP10" s="0"/>
+      <c r="GQ10" s="0"/>
+      <c r="GR10" s="0"/>
+      <c r="GS10" s="0"/>
+      <c r="GT10" s="0"/>
+      <c r="GU10" s="0"/>
+      <c r="GV10" s="0"/>
+      <c r="GW10" s="0"/>
+      <c r="GX10" s="0"/>
+      <c r="GY10" s="0"/>
+      <c r="GZ10" s="0"/>
+      <c r="HA10" s="0"/>
+      <c r="HB10" s="0"/>
+      <c r="HC10" s="0"/>
+      <c r="HD10" s="0"/>
+      <c r="HE10" s="0"/>
+      <c r="HF10" s="0"/>
+      <c r="HG10" s="0"/>
+      <c r="HH10" s="0"/>
+      <c r="HI10" s="0"/>
+      <c r="HJ10" s="0"/>
+      <c r="HK10" s="0"/>
+      <c r="HL10" s="0"/>
+      <c r="HM10" s="0"/>
+      <c r="HN10" s="0"/>
+      <c r="HO10" s="0"/>
+      <c r="HP10" s="0"/>
+      <c r="HQ10" s="0"/>
+      <c r="HR10" s="0"/>
+      <c r="HS10" s="0"/>
+      <c r="HT10" s="0"/>
+      <c r="HU10" s="0"/>
+      <c r="HV10" s="0"/>
+      <c r="HW10" s="0"/>
+      <c r="HX10" s="0"/>
+      <c r="HY10" s="0"/>
+      <c r="HZ10" s="0"/>
+      <c r="IA10" s="0"/>
+      <c r="IB10" s="0"/>
+      <c r="IC10" s="0"/>
+      <c r="ID10" s="0"/>
+      <c r="IE10" s="0"/>
+      <c r="IF10" s="0"/>
+      <c r="IG10" s="0"/>
+      <c r="IH10" s="0"/>
+      <c r="II10" s="0"/>
+      <c r="IJ10" s="0"/>
+      <c r="IK10" s="0"/>
+      <c r="IL10" s="0"/>
+      <c r="IM10" s="0"/>
+      <c r="IN10" s="0"/>
+      <c r="IO10" s="0"/>
+      <c r="IP10" s="0"/>
+      <c r="IQ10" s="0"/>
+      <c r="IR10" s="0"/>
+      <c r="IS10" s="0"/>
+      <c r="IT10" s="0"/>
+      <c r="IU10" s="0"/>
+      <c r="IV10" s="0"/>
+      <c r="IW10" s="0"/>
+      <c r="IX10" s="0"/>
+      <c r="IY10" s="0"/>
+      <c r="IZ10" s="0"/>
+      <c r="JA10" s="0"/>
+      <c r="JB10" s="0"/>
+      <c r="JC10" s="0"/>
+      <c r="JD10" s="0"/>
+      <c r="JE10" s="0"/>
+      <c r="JF10" s="0"/>
+      <c r="JG10" s="0"/>
+      <c r="JH10" s="0"/>
+      <c r="JI10" s="0"/>
+      <c r="JJ10" s="0"/>
+      <c r="JK10" s="0"/>
+      <c r="JL10" s="0"/>
+      <c r="JM10" s="0"/>
+      <c r="JN10" s="0"/>
+      <c r="JO10" s="0"/>
+      <c r="JP10" s="0"/>
+      <c r="JQ10" s="0"/>
+      <c r="JR10" s="0"/>
+      <c r="JS10" s="0"/>
+      <c r="JT10" s="0"/>
+      <c r="JU10" s="0"/>
+      <c r="JV10" s="0"/>
+      <c r="JW10" s="0"/>
+      <c r="JX10" s="0"/>
+      <c r="JY10" s="0"/>
+      <c r="JZ10" s="0"/>
+      <c r="KA10" s="0"/>
+      <c r="KB10" s="0"/>
+      <c r="KC10" s="0"/>
+      <c r="KD10" s="0"/>
+      <c r="KE10" s="0"/>
+      <c r="KF10" s="0"/>
+      <c r="KG10" s="0"/>
+      <c r="KH10" s="0"/>
+      <c r="KI10" s="0"/>
+      <c r="KJ10" s="0"/>
+      <c r="KK10" s="0"/>
+      <c r="KL10" s="0"/>
+      <c r="KM10" s="0"/>
+      <c r="KN10" s="0"/>
+      <c r="KO10" s="0"/>
+      <c r="KP10" s="0"/>
+      <c r="KQ10" s="0"/>
+      <c r="KR10" s="0"/>
+      <c r="KS10" s="0"/>
+      <c r="KT10" s="0"/>
+      <c r="KU10" s="0"/>
+      <c r="KV10" s="0"/>
+      <c r="KW10" s="0"/>
+      <c r="KX10" s="0"/>
+      <c r="KY10" s="0"/>
+      <c r="KZ10" s="0"/>
+      <c r="LA10" s="0"/>
+      <c r="LB10" s="0"/>
+      <c r="LC10" s="0"/>
+      <c r="LD10" s="0"/>
+      <c r="LE10" s="0"/>
+      <c r="LF10" s="0"/>
+      <c r="LG10" s="0"/>
+      <c r="LH10" s="0"/>
+      <c r="LI10" s="0"/>
+      <c r="LJ10" s="0"/>
+      <c r="LK10" s="0"/>
+      <c r="LL10" s="0"/>
+      <c r="LM10" s="0"/>
+      <c r="LN10" s="0"/>
+      <c r="LO10" s="0"/>
+      <c r="LP10" s="0"/>
+      <c r="LQ10" s="0"/>
+      <c r="LR10" s="0"/>
+      <c r="LS10" s="0"/>
+      <c r="LT10" s="0"/>
+      <c r="LU10" s="0"/>
+      <c r="LV10" s="0"/>
+      <c r="LW10" s="0"/>
+      <c r="LX10" s="0"/>
+      <c r="LY10" s="0"/>
+      <c r="LZ10" s="0"/>
+      <c r="MA10" s="0"/>
+      <c r="MB10" s="0"/>
+      <c r="MC10" s="0"/>
+      <c r="MD10" s="0"/>
+      <c r="ME10" s="0"/>
+      <c r="MF10" s="0"/>
+      <c r="MG10" s="0"/>
+      <c r="MH10" s="0"/>
+      <c r="MI10" s="0"/>
+      <c r="MJ10" s="0"/>
+      <c r="MK10" s="0"/>
+      <c r="ML10" s="0"/>
+      <c r="MM10" s="0"/>
+      <c r="MN10" s="0"/>
+      <c r="MO10" s="0"/>
+      <c r="MP10" s="0"/>
+      <c r="MQ10" s="0"/>
+      <c r="MR10" s="0"/>
+      <c r="MS10" s="0"/>
+      <c r="MT10" s="0"/>
+      <c r="MU10" s="0"/>
+      <c r="MV10" s="0"/>
+      <c r="MW10" s="0"/>
+      <c r="MX10" s="0"/>
+      <c r="MY10" s="0"/>
+      <c r="MZ10" s="0"/>
+      <c r="NA10" s="0"/>
+      <c r="NB10" s="0"/>
+      <c r="NC10" s="0"/>
+      <c r="ND10" s="0"/>
+      <c r="NE10" s="0"/>
+      <c r="NF10" s="0"/>
+      <c r="NG10" s="0"/>
+      <c r="NH10" s="0"/>
+      <c r="NI10" s="0"/>
+      <c r="NJ10" s="0"/>
+      <c r="NK10" s="0"/>
+      <c r="NL10" s="0"/>
+      <c r="NM10" s="0"/>
+      <c r="NN10" s="0"/>
+      <c r="NO10" s="0"/>
+      <c r="NP10" s="0"/>
+      <c r="NQ10" s="0"/>
+      <c r="NR10" s="0"/>
+      <c r="NS10" s="0"/>
+      <c r="NT10" s="0"/>
+      <c r="NU10" s="0"/>
+      <c r="NV10" s="0"/>
+      <c r="NW10" s="0"/>
+      <c r="NX10" s="0"/>
+      <c r="NY10" s="0"/>
+      <c r="NZ10" s="0"/>
+      <c r="OA10" s="0"/>
+      <c r="OB10" s="0"/>
+      <c r="OC10" s="0"/>
+      <c r="OD10" s="0"/>
+      <c r="OE10" s="0"/>
+      <c r="OF10" s="0"/>
+      <c r="OG10" s="0"/>
+      <c r="OH10" s="0"/>
+      <c r="OI10" s="0"/>
+      <c r="OJ10" s="0"/>
+      <c r="OK10" s="0"/>
+      <c r="OL10" s="0"/>
+      <c r="OM10" s="0"/>
+      <c r="ON10" s="0"/>
+      <c r="OO10" s="0"/>
+      <c r="OP10" s="0"/>
+      <c r="OQ10" s="0"/>
+      <c r="OR10" s="0"/>
+      <c r="OS10" s="0"/>
+      <c r="OT10" s="0"/>
+      <c r="OU10" s="0"/>
+      <c r="OV10" s="0"/>
+      <c r="OW10" s="0"/>
+      <c r="OX10" s="0"/>
+      <c r="OY10" s="0"/>
+      <c r="OZ10" s="0"/>
+      <c r="PA10" s="0"/>
+      <c r="PB10" s="0"/>
+      <c r="PC10" s="0"/>
+      <c r="PD10" s="0"/>
+      <c r="PE10" s="0"/>
+      <c r="PF10" s="0"/>
+      <c r="PG10" s="0"/>
+      <c r="PH10" s="0"/>
+      <c r="PI10" s="0"/>
+      <c r="PJ10" s="0"/>
+      <c r="PK10" s="0"/>
+      <c r="PL10" s="0"/>
+      <c r="PM10" s="0"/>
+      <c r="PN10" s="0"/>
+      <c r="PO10" s="0"/>
+      <c r="PP10" s="0"/>
+      <c r="PQ10" s="0"/>
+      <c r="PR10" s="0"/>
+      <c r="PS10" s="0"/>
+      <c r="PT10" s="0"/>
+      <c r="PU10" s="0"/>
+      <c r="PV10" s="0"/>
+      <c r="PW10" s="0"/>
+      <c r="PX10" s="0"/>
+      <c r="PY10" s="0"/>
+      <c r="PZ10" s="0"/>
+      <c r="QA10" s="0"/>
+      <c r="QB10" s="0"/>
+      <c r="QC10" s="0"/>
+      <c r="QD10" s="0"/>
+      <c r="QE10" s="0"/>
+      <c r="QF10" s="0"/>
+      <c r="QG10" s="0"/>
+      <c r="QH10" s="0"/>
+      <c r="QI10" s="0"/>
+      <c r="QJ10" s="0"/>
+      <c r="QK10" s="0"/>
+      <c r="QL10" s="0"/>
+      <c r="QM10" s="0"/>
+      <c r="QN10" s="0"/>
+      <c r="QO10" s="0"/>
+      <c r="QP10" s="0"/>
+      <c r="QQ10" s="0"/>
+      <c r="QR10" s="0"/>
+      <c r="QS10" s="0"/>
+      <c r="QT10" s="0"/>
+      <c r="QU10" s="0"/>
+      <c r="QV10" s="0"/>
+      <c r="QW10" s="0"/>
+      <c r="QX10" s="0"/>
+      <c r="QY10" s="0"/>
+      <c r="QZ10" s="0"/>
+      <c r="RA10" s="0"/>
+      <c r="RB10" s="0"/>
+      <c r="RC10" s="0"/>
+      <c r="RD10" s="0"/>
+      <c r="RE10" s="0"/>
+      <c r="RF10" s="0"/>
+      <c r="RG10" s="0"/>
+      <c r="RH10" s="0"/>
+      <c r="RI10" s="0"/>
+      <c r="RJ10" s="0"/>
+      <c r="RK10" s="0"/>
+      <c r="RL10" s="0"/>
+      <c r="RM10" s="0"/>
+      <c r="RN10" s="0"/>
+      <c r="RO10" s="0"/>
+      <c r="RP10" s="0"/>
+      <c r="RQ10" s="0"/>
+      <c r="RR10" s="0"/>
+      <c r="RS10" s="0"/>
+      <c r="RT10" s="0"/>
+      <c r="RU10" s="0"/>
+      <c r="RV10" s="0"/>
+      <c r="RW10" s="0"/>
+      <c r="RX10" s="0"/>
+      <c r="RY10" s="0"/>
+      <c r="RZ10" s="0"/>
+      <c r="SA10" s="0"/>
+      <c r="SB10" s="0"/>
+      <c r="SC10" s="0"/>
+      <c r="SD10" s="0"/>
+      <c r="SE10" s="0"/>
+      <c r="SF10" s="0"/>
+      <c r="SG10" s="0"/>
+      <c r="SH10" s="0"/>
+      <c r="SI10" s="0"/>
+      <c r="SJ10" s="0"/>
+      <c r="SK10" s="0"/>
+      <c r="SL10" s="0"/>
+      <c r="SM10" s="0"/>
+      <c r="SN10" s="0"/>
+      <c r="SO10" s="0"/>
+      <c r="SP10" s="0"/>
+      <c r="SQ10" s="0"/>
+      <c r="SR10" s="0"/>
+      <c r="SS10" s="0"/>
+      <c r="ST10" s="0"/>
+      <c r="SU10" s="0"/>
+      <c r="SV10" s="0"/>
+      <c r="SW10" s="0"/>
+      <c r="SX10" s="0"/>
+      <c r="SY10" s="0"/>
+      <c r="SZ10" s="0"/>
+      <c r="TA10" s="0"/>
+      <c r="TB10" s="0"/>
+      <c r="TC10" s="0"/>
+      <c r="TD10" s="0"/>
+      <c r="TE10" s="0"/>
+      <c r="TF10" s="0"/>
+      <c r="TG10" s="0"/>
+      <c r="TH10" s="0"/>
+      <c r="TI10" s="0"/>
+      <c r="TJ10" s="0"/>
+      <c r="TK10" s="0"/>
+      <c r="TL10" s="0"/>
+      <c r="TM10" s="0"/>
+      <c r="TN10" s="0"/>
+      <c r="TO10" s="0"/>
+      <c r="TP10" s="0"/>
+      <c r="TQ10" s="0"/>
+      <c r="TR10" s="0"/>
+      <c r="TS10" s="0"/>
+      <c r="TT10" s="0"/>
+      <c r="TU10" s="0"/>
+      <c r="TV10" s="0"/>
+      <c r="TW10" s="0"/>
+      <c r="TX10" s="0"/>
+      <c r="TY10" s="0"/>
+      <c r="TZ10" s="0"/>
+      <c r="UA10" s="0"/>
+      <c r="UB10" s="0"/>
+      <c r="UC10" s="0"/>
+      <c r="UD10" s="0"/>
+      <c r="UE10" s="0"/>
+      <c r="UF10" s="0"/>
+      <c r="UG10" s="0"/>
+      <c r="UH10" s="0"/>
+      <c r="UI10" s="0"/>
+      <c r="UJ10" s="0"/>
+      <c r="UK10" s="0"/>
+      <c r="UL10" s="0"/>
+      <c r="UM10" s="0"/>
+      <c r="UN10" s="0"/>
+      <c r="UO10" s="0"/>
+      <c r="UP10" s="0"/>
+      <c r="UQ10" s="0"/>
+      <c r="UR10" s="0"/>
+      <c r="US10" s="0"/>
+      <c r="UT10" s="0"/>
+      <c r="UU10" s="0"/>
+      <c r="UV10" s="0"/>
+      <c r="UW10" s="0"/>
+      <c r="UX10" s="0"/>
+      <c r="UY10" s="0"/>
+      <c r="UZ10" s="0"/>
+      <c r="VA10" s="0"/>
+      <c r="VB10" s="0"/>
+      <c r="VC10" s="0"/>
+      <c r="VD10" s="0"/>
+      <c r="VE10" s="0"/>
+      <c r="VF10" s="0"/>
+      <c r="VG10" s="0"/>
+      <c r="VH10" s="0"/>
+      <c r="VI10" s="0"/>
+      <c r="VJ10" s="0"/>
+      <c r="VK10" s="0"/>
+      <c r="VL10" s="0"/>
+      <c r="VM10" s="0"/>
+      <c r="VN10" s="0"/>
+      <c r="VO10" s="0"/>
+      <c r="VP10" s="0"/>
+      <c r="VQ10" s="0"/>
+      <c r="VR10" s="0"/>
+      <c r="VS10" s="0"/>
+      <c r="VT10" s="0"/>
+      <c r="VU10" s="0"/>
+      <c r="VV10" s="0"/>
+      <c r="VW10" s="0"/>
+      <c r="VX10" s="0"/>
+      <c r="VY10" s="0"/>
+      <c r="VZ10" s="0"/>
+      <c r="WA10" s="0"/>
+      <c r="WB10" s="0"/>
+      <c r="WC10" s="0"/>
+      <c r="WD10" s="0"/>
+      <c r="WE10" s="0"/>
+      <c r="WF10" s="0"/>
+      <c r="WG10" s="0"/>
+      <c r="WH10" s="0"/>
+      <c r="WI10" s="0"/>
+      <c r="WJ10" s="0"/>
+      <c r="WK10" s="0"/>
+      <c r="WL10" s="0"/>
+      <c r="WM10" s="0"/>
+      <c r="WN10" s="0"/>
+      <c r="WO10" s="0"/>
+      <c r="WP10" s="0"/>
+      <c r="WQ10" s="0"/>
+      <c r="WR10" s="0"/>
+      <c r="WS10" s="0"/>
+      <c r="WT10" s="0"/>
+      <c r="WU10" s="0"/>
+      <c r="WV10" s="0"/>
+      <c r="WW10" s="0"/>
+      <c r="WX10" s="0"/>
+      <c r="WY10" s="0"/>
+      <c r="WZ10" s="0"/>
+      <c r="XA10" s="0"/>
+      <c r="XB10" s="0"/>
+      <c r="XC10" s="0"/>
+      <c r="XD10" s="0"/>
+      <c r="XE10" s="0"/>
+      <c r="XF10" s="0"/>
+      <c r="XG10" s="0"/>
+      <c r="XH10" s="0"/>
+      <c r="XI10" s="0"/>
+      <c r="XJ10" s="0"/>
+      <c r="XK10" s="0"/>
+      <c r="XL10" s="0"/>
+      <c r="XM10" s="0"/>
+      <c r="XN10" s="0"/>
+      <c r="XO10" s="0"/>
+      <c r="XP10" s="0"/>
+      <c r="XQ10" s="0"/>
+      <c r="XR10" s="0"/>
+      <c r="XS10" s="0"/>
+      <c r="XT10" s="0"/>
+      <c r="XU10" s="0"/>
+      <c r="XV10" s="0"/>
+      <c r="XW10" s="0"/>
+      <c r="XX10" s="0"/>
+      <c r="XY10" s="0"/>
+      <c r="XZ10" s="0"/>
+      <c r="YA10" s="0"/>
+      <c r="YB10" s="0"/>
+      <c r="YC10" s="0"/>
+      <c r="YD10" s="0"/>
+      <c r="YE10" s="0"/>
+      <c r="YF10" s="0"/>
+      <c r="YG10" s="0"/>
+      <c r="YH10" s="0"/>
+      <c r="YI10" s="0"/>
+      <c r="YJ10" s="0"/>
+      <c r="YK10" s="0"/>
+      <c r="YL10" s="0"/>
+      <c r="YM10" s="0"/>
+      <c r="YN10" s="0"/>
+      <c r="YO10" s="0"/>
+      <c r="YP10" s="0"/>
+      <c r="YQ10" s="0"/>
+      <c r="YR10" s="0"/>
+      <c r="YS10" s="0"/>
+      <c r="YT10" s="0"/>
+      <c r="YU10" s="0"/>
+      <c r="YV10" s="0"/>
+      <c r="YW10" s="0"/>
+      <c r="YX10" s="0"/>
+      <c r="YY10" s="0"/>
+      <c r="YZ10" s="0"/>
+      <c r="ZA10" s="0"/>
+      <c r="ZB10" s="0"/>
+      <c r="ZC10" s="0"/>
+      <c r="ZD10" s="0"/>
+      <c r="ZE10" s="0"/>
+      <c r="ZF10" s="0"/>
+      <c r="ZG10" s="0"/>
+      <c r="ZH10" s="0"/>
+      <c r="ZI10" s="0"/>
+      <c r="ZJ10" s="0"/>
+      <c r="ZK10" s="0"/>
+      <c r="ZL10" s="0"/>
+      <c r="ZM10" s="0"/>
+      <c r="ZN10" s="0"/>
+      <c r="ZO10" s="0"/>
+      <c r="ZP10" s="0"/>
+      <c r="ZQ10" s="0"/>
+      <c r="ZR10" s="0"/>
+      <c r="ZS10" s="0"/>
+      <c r="ZT10" s="0"/>
+      <c r="ZU10" s="0"/>
+      <c r="ZV10" s="0"/>
+      <c r="ZW10" s="0"/>
+      <c r="ZX10" s="0"/>
+      <c r="ZY10" s="0"/>
+      <c r="ZZ10" s="0"/>
+      <c r="AAA10" s="0"/>
+      <c r="AAB10" s="0"/>
+      <c r="AAC10" s="0"/>
+      <c r="AAD10" s="0"/>
+      <c r="AAE10" s="0"/>
+      <c r="AAF10" s="0"/>
+      <c r="AAG10" s="0"/>
+      <c r="AAH10" s="0"/>
+      <c r="AAI10" s="0"/>
+      <c r="AAJ10" s="0"/>
+      <c r="AAK10" s="0"/>
+      <c r="AAL10" s="0"/>
+      <c r="AAM10" s="0"/>
+      <c r="AAN10" s="0"/>
+      <c r="AAO10" s="0"/>
+      <c r="AAP10" s="0"/>
+      <c r="AAQ10" s="0"/>
+      <c r="AAR10" s="0"/>
+      <c r="AAS10" s="0"/>
+      <c r="AAT10" s="0"/>
+      <c r="AAU10" s="0"/>
+      <c r="AAV10" s="0"/>
+      <c r="AAW10" s="0"/>
+      <c r="AAX10" s="0"/>
+      <c r="AAY10" s="0"/>
+      <c r="AAZ10" s="0"/>
+      <c r="ABA10" s="0"/>
+      <c r="ABB10" s="0"/>
+      <c r="ABC10" s="0"/>
+      <c r="ABD10" s="0"/>
+      <c r="ABE10" s="0"/>
+      <c r="ABF10" s="0"/>
+      <c r="ABG10" s="0"/>
+      <c r="ABH10" s="0"/>
+      <c r="ABI10" s="0"/>
+      <c r="ABJ10" s="0"/>
+      <c r="ABK10" s="0"/>
+      <c r="ABL10" s="0"/>
+      <c r="ABM10" s="0"/>
+      <c r="ABN10" s="0"/>
+      <c r="ABO10" s="0"/>
+      <c r="ABP10" s="0"/>
+      <c r="ABQ10" s="0"/>
+      <c r="ABR10" s="0"/>
+      <c r="ABS10" s="0"/>
+      <c r="ABT10" s="0"/>
+      <c r="ABU10" s="0"/>
+      <c r="ABV10" s="0"/>
+      <c r="ABW10" s="0"/>
+      <c r="ABX10" s="0"/>
+      <c r="ABY10" s="0"/>
+      <c r="ABZ10" s="0"/>
+      <c r="ACA10" s="0"/>
+      <c r="ACB10" s="0"/>
+      <c r="ACC10" s="0"/>
+      <c r="ACD10" s="0"/>
+      <c r="ACE10" s="0"/>
+      <c r="ACF10" s="0"/>
+      <c r="ACG10" s="0"/>
+      <c r="ACH10" s="0"/>
+      <c r="ACI10" s="0"/>
+      <c r="ACJ10" s="0"/>
+      <c r="ACK10" s="0"/>
+      <c r="ACL10" s="0"/>
+      <c r="ACM10" s="0"/>
+      <c r="ACN10" s="0"/>
+      <c r="ACO10" s="0"/>
+      <c r="ACP10" s="0"/>
+      <c r="ACQ10" s="0"/>
+      <c r="ACR10" s="0"/>
+      <c r="ACS10" s="0"/>
+      <c r="ACT10" s="0"/>
+      <c r="ACU10" s="0"/>
+      <c r="ACV10" s="0"/>
+      <c r="ACW10" s="0"/>
+      <c r="ACX10" s="0"/>
+      <c r="ACY10" s="0"/>
+      <c r="ACZ10" s="0"/>
+      <c r="ADA10" s="0"/>
+      <c r="ADB10" s="0"/>
+      <c r="ADC10" s="0"/>
+      <c r="ADD10" s="0"/>
+      <c r="ADE10" s="0"/>
+      <c r="ADF10" s="0"/>
+      <c r="ADG10" s="0"/>
+      <c r="ADH10" s="0"/>
+      <c r="ADI10" s="0"/>
+      <c r="ADJ10" s="0"/>
+      <c r="ADK10" s="0"/>
+      <c r="ADL10" s="0"/>
+      <c r="ADM10" s="0"/>
+      <c r="ADN10" s="0"/>
+      <c r="ADO10" s="0"/>
+      <c r="ADP10" s="0"/>
+      <c r="ADQ10" s="0"/>
+      <c r="ADR10" s="0"/>
+      <c r="ADS10" s="0"/>
+      <c r="ADT10" s="0"/>
+      <c r="ADU10" s="0"/>
+      <c r="ADV10" s="0"/>
+      <c r="ADW10" s="0"/>
+      <c r="ADX10" s="0"/>
+      <c r="ADY10" s="0"/>
+      <c r="ADZ10" s="0"/>
+      <c r="AEA10" s="0"/>
+      <c r="AEB10" s="0"/>
+      <c r="AEC10" s="0"/>
+      <c r="AED10" s="0"/>
+      <c r="AEE10" s="0"/>
+      <c r="AEF10" s="0"/>
+      <c r="AEG10" s="0"/>
+      <c r="AEH10" s="0"/>
+      <c r="AEI10" s="0"/>
+      <c r="AEJ10" s="0"/>
+      <c r="AEK10" s="0"/>
+      <c r="AEL10" s="0"/>
+      <c r="AEM10" s="0"/>
+      <c r="AEN10" s="0"/>
+      <c r="AEO10" s="0"/>
+      <c r="AEP10" s="0"/>
+      <c r="AEQ10" s="0"/>
+      <c r="AER10" s="0"/>
+      <c r="AES10" s="0"/>
+      <c r="AET10" s="0"/>
+      <c r="AEU10" s="0"/>
+      <c r="AEV10" s="0"/>
+      <c r="AEW10" s="0"/>
+      <c r="AEX10" s="0"/>
+      <c r="AEY10" s="0"/>
+      <c r="AEZ10" s="0"/>
+      <c r="AFA10" s="0"/>
+      <c r="AFB10" s="0"/>
+      <c r="AFC10" s="0"/>
+      <c r="AFD10" s="0"/>
+      <c r="AFE10" s="0"/>
+      <c r="AFF10" s="0"/>
+      <c r="AFG10" s="0"/>
+      <c r="AFH10" s="0"/>
+      <c r="AFI10" s="0"/>
+      <c r="AFJ10" s="0"/>
+      <c r="AFK10" s="0"/>
+      <c r="AFL10" s="0"/>
+      <c r="AFM10" s="0"/>
+      <c r="AFN10" s="0"/>
+      <c r="AFO10" s="0"/>
+      <c r="AFP10" s="0"/>
+      <c r="AFQ10" s="0"/>
+      <c r="AFR10" s="0"/>
+      <c r="AFS10" s="0"/>
+      <c r="AFT10" s="0"/>
+      <c r="AFU10" s="0"/>
+      <c r="AFV10" s="0"/>
+      <c r="AFW10" s="0"/>
+      <c r="AFX10" s="0"/>
+      <c r="AFY10" s="0"/>
+      <c r="AFZ10" s="0"/>
+      <c r="AGA10" s="0"/>
+      <c r="AGB10" s="0"/>
+      <c r="AGC10" s="0"/>
+      <c r="AGD10" s="0"/>
+      <c r="AGE10" s="0"/>
+      <c r="AGF10" s="0"/>
+      <c r="AGG10" s="0"/>
+      <c r="AGH10" s="0"/>
+      <c r="AGI10" s="0"/>
+      <c r="AGJ10" s="0"/>
+      <c r="AGK10" s="0"/>
+      <c r="AGL10" s="0"/>
+      <c r="AGM10" s="0"/>
+      <c r="AGN10" s="0"/>
+      <c r="AGO10" s="0"/>
+      <c r="AGP10" s="0"/>
+      <c r="AGQ10" s="0"/>
+      <c r="AGR10" s="0"/>
+      <c r="AGS10" s="0"/>
+      <c r="AGT10" s="0"/>
+      <c r="AGU10" s="0"/>
+      <c r="AGV10" s="0"/>
+      <c r="AGW10" s="0"/>
+      <c r="AGX10" s="0"/>
+      <c r="AGY10" s="0"/>
+      <c r="AGZ10" s="0"/>
+      <c r="AHA10" s="0"/>
+      <c r="AHB10" s="0"/>
+      <c r="AHC10" s="0"/>
+      <c r="AHD10" s="0"/>
+      <c r="AHE10" s="0"/>
+      <c r="AHF10" s="0"/>
+      <c r="AHG10" s="0"/>
+      <c r="AHH10" s="0"/>
+      <c r="AHI10" s="0"/>
+      <c r="AHJ10" s="0"/>
+      <c r="AHK10" s="0"/>
+      <c r="AHL10" s="0"/>
+      <c r="AHM10" s="0"/>
+      <c r="AHN10" s="0"/>
+      <c r="AHO10" s="0"/>
+      <c r="AHP10" s="0"/>
+      <c r="AHQ10" s="0"/>
+      <c r="AHR10" s="0"/>
+      <c r="AHS10" s="0"/>
+      <c r="AHT10" s="0"/>
+      <c r="AHU10" s="0"/>
+      <c r="AHV10" s="0"/>
+      <c r="AHW10" s="0"/>
+      <c r="AHX10" s="0"/>
+      <c r="AHY10" s="0"/>
+      <c r="AHZ10" s="0"/>
+      <c r="AIA10" s="0"/>
+      <c r="AIB10" s="0"/>
+      <c r="AIC10" s="0"/>
+      <c r="AID10" s="0"/>
+      <c r="AIE10" s="0"/>
+      <c r="AIF10" s="0"/>
+      <c r="AIG10" s="0"/>
+      <c r="AIH10" s="0"/>
+      <c r="AII10" s="0"/>
+      <c r="AIJ10" s="0"/>
+      <c r="AIK10" s="0"/>
+      <c r="AIL10" s="0"/>
+      <c r="AIM10" s="0"/>
+      <c r="AIN10" s="0"/>
+      <c r="AIO10" s="0"/>
+      <c r="AIP10" s="0"/>
+      <c r="AIQ10" s="0"/>
+      <c r="AIR10" s="0"/>
+      <c r="AIS10" s="0"/>
+      <c r="AIT10" s="0"/>
+      <c r="AIU10" s="0"/>
+      <c r="AIV10" s="0"/>
+      <c r="AIW10" s="0"/>
+      <c r="AIX10" s="0"/>
+      <c r="AIY10" s="0"/>
+      <c r="AIZ10" s="0"/>
+      <c r="AJA10" s="0"/>
+      <c r="AJB10" s="0"/>
+      <c r="AJC10" s="0"/>
+      <c r="AJD10" s="0"/>
+      <c r="AJE10" s="0"/>
+      <c r="AJF10" s="0"/>
+      <c r="AJG10" s="0"/>
+      <c r="AJH10" s="0"/>
+      <c r="AJI10" s="0"/>
+      <c r="AJJ10" s="0"/>
+      <c r="AJK10" s="0"/>
+      <c r="AJL10" s="0"/>
+      <c r="AJM10" s="0"/>
+      <c r="AJN10" s="0"/>
+      <c r="AJO10" s="0"/>
+      <c r="AJP10" s="0"/>
+      <c r="AJQ10" s="0"/>
+      <c r="AJR10" s="0"/>
+      <c r="AJS10" s="0"/>
+      <c r="AJT10" s="0"/>
+      <c r="AJU10" s="0"/>
+      <c r="AJV10" s="0"/>
+      <c r="AJW10" s="0"/>
+      <c r="AJX10" s="0"/>
+      <c r="AJY10" s="0"/>
+      <c r="AJZ10" s="0"/>
+      <c r="AKA10" s="0"/>
+      <c r="AKB10" s="0"/>
+      <c r="AKC10" s="0"/>
+      <c r="AKD10" s="0"/>
+      <c r="AKE10" s="0"/>
+      <c r="AKF10" s="0"/>
+      <c r="AKG10" s="0"/>
+      <c r="AKH10" s="0"/>
+      <c r="AKI10" s="0"/>
+      <c r="AKJ10" s="0"/>
+      <c r="AKK10" s="0"/>
+      <c r="AKL10" s="0"/>
+      <c r="AKM10" s="0"/>
+      <c r="AKN10" s="0"/>
+      <c r="AKO10" s="0"/>
+      <c r="AKP10" s="0"/>
+      <c r="AKQ10" s="0"/>
+      <c r="AKR10" s="0"/>
+      <c r="AKS10" s="0"/>
+      <c r="AKT10" s="0"/>
+      <c r="AKU10" s="0"/>
+      <c r="AKV10" s="0"/>
+      <c r="AKW10" s="0"/>
+      <c r="AKX10" s="0"/>
+      <c r="AKY10" s="0"/>
+      <c r="AKZ10" s="0"/>
+      <c r="ALA10" s="0"/>
+      <c r="ALB10" s="0"/>
+      <c r="ALC10" s="0"/>
+      <c r="ALD10" s="0"/>
+      <c r="ALE10" s="0"/>
+      <c r="ALF10" s="0"/>
+      <c r="ALG10" s="0"/>
+      <c r="ALH10" s="0"/>
+      <c r="ALI10" s="0"/>
+      <c r="ALJ10" s="0"/>
+      <c r="ALK10" s="0"/>
+      <c r="ALL10" s="0"/>
+      <c r="ALM10" s="0"/>
+      <c r="ALN10" s="0"/>
+      <c r="ALO10" s="0"/>
+      <c r="ALP10" s="0"/>
+      <c r="ALQ10" s="0"/>
+      <c r="ALR10" s="0"/>
+      <c r="ALS10" s="0"/>
+      <c r="ALT10" s="0"/>
+      <c r="ALU10" s="0"/>
+      <c r="ALV10" s="0"/>
+      <c r="ALW10" s="0"/>
+      <c r="ALX10" s="0"/>
+      <c r="ALY10" s="0"/>
+      <c r="ALZ10" s="0"/>
+      <c r="AMA10" s="0"/>
+      <c r="AMB10" s="0"/>
+      <c r="AMC10" s="0"/>
+      <c r="AMD10" s="0"/>
+      <c r="AME10" s="0"/>
+      <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
+      <c r="AMH10" s="0"/>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" s="15" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="n">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8" t="s">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8" t="s">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8" t="s">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8" t="s">
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8" t="s">
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="10" t="n">
+      <c r="AE11" s="14" t="n">
         <v>0.007293</v>
       </c>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8" t="n">
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="AK11" s="8" t="n">
+      <c r="AK11" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="8" t="n">
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5153,11 +14100,12 @@
       <c r="AL54" s="9"/>
       <c r="AM54" s="8"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AM54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -622,10 +622,10 @@
     <t xml:space="preserve">Комбо : Кока-Кола </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114</t>
+    <t xml:space="preserve">Coke + Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
   </si>
   <si>
     <t xml:space="preserve">Combo: Food</t>
@@ -847,8 +847,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -895,7 +895,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -944,20 +944,28 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1013,8 +1021,8 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1041,54 +1049,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="93.1943319838057"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="85.4817813765182"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="94.0485829959514"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="38.0283400809717"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="69.9473684210526"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="70.4858299595142"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
@@ -13178,10 +13185,10 @@
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="N42" s="17" t="s">
         <v>188</v>
       </c>
       <c r="O42" s="8"/>
@@ -14100,7 +14107,6 @@
       <c r="AL54" s="9"/>
       <c r="AM54" s="8"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AM54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Cinema!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AM$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -895,7 +896,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -944,20 +945,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1051,51 +1040,50 @@
   </sheetPr>
   <dimension ref="1:54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="94.0485829959514"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="86.2307692307692"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="94.8016194331984"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="86.9797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="70.4858299595142"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="3" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="71.0202429149798"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
@@ -10779,84 +10767,84 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="15" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="n">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12" t="s">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12" t="s">
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12" t="s">
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12" t="s">
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="14" t="n">
+      <c r="AE11" s="10" t="n">
         <v>0.007293</v>
       </c>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12" t="n">
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="12" t="n">
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13185,10 +13173,10 @@
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="16" t="s">
+      <c r="M42" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="N42" s="17" t="s">
+      <c r="N42" s="14" t="s">
         <v>188</v>
       </c>
       <c r="O42" s="8"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -601,7 +602,7 @@
     <t xml:space="preserve">Комбо</t>
   </si>
   <si>
-    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
   </si>
   <si>
     <t xml:space="preserve">AND</t>
@@ -1025,53 +1026,53 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="83.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.0890688259109"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="84.5182186234818"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="259.441295546559"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="85.2672064777328"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="261.797570850202"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.8866396761134"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -14,7 +14,6 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -602,7 +601,7 @@
     <t xml:space="preserve">Комбо</t>
   </si>
   <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
   </si>
   <si>
     <t xml:space="preserve">AND</t>
@@ -1026,53 +1025,53 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
+      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.0890688259109"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="80.3400809716599"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="83.3400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="85.2672064777328"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="261.797570850202"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="84.5182186234818"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="259.441295546559"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.6720647773279"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="62.7732793522267"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -601,7 +602,7 @@
     <t xml:space="preserve">Комбо</t>
   </si>
   <si>
-    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
   </si>
   <si>
     <t xml:space="preserve">AND</t>
@@ -1027,51 +1028,51 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="83.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.0890688259109"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="84.5182186234818"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="259.441295546559"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="85.2672064777328"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="261.797570850202"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.8866396761134"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AN$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -353,7 +354,7 @@
     <t xml:space="preserve">5449000233615, 5449000189332, 5449000235770</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Availability</t>
+    <t xml:space="preserve">Juice (JNSD) Availability</t>
   </si>
   <si>
     <t xml:space="preserve">Представленность Сока</t>
@@ -839,12 +840,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -896,7 +903,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -934,6 +941,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1025,53 +1036,53 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="83.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.0890688259109"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="84.5182186234818"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="259.441295546559"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="85.2672064777328"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="261.797570850202"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.8866396761134"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2776,7 +2787,7 @@
         <v>75</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="9" t="s">
         <v>103</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -4248,7 +4259,7 @@
       <c r="H41" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="10" t="s">
         <v>181</v>
       </c>
       <c r="J41" s="4"/>
@@ -4337,7 +4348,7 @@
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="10" t="s">
+      <c r="N42" s="11" t="s">
         <v>187</v>
       </c>
       <c r="O42" s="8" t="s">
@@ -4410,7 +4421,7 @@
       <c r="H43" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="10" t="s">
         <v>53</v>
       </c>
       <c r="J43" s="4"/>
@@ -4496,7 +4507,7 @@
       <c r="H44" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="10" t="s">
         <v>181</v>
       </c>
       <c r="J44" s="4"/>
@@ -4648,7 +4659,7 @@
       <c r="F46" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -4669,7 +4680,7 @@
       <c r="O46" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="P46" s="9" t="s">
+      <c r="P46" s="10" t="s">
         <v>193</v>
       </c>
       <c r="Q46" s="4" t="s">
@@ -4736,13 +4747,13 @@
       <c r="F47" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="10" t="s">
         <v>208</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="10" t="s">
         <v>53</v>
       </c>
       <c r="J47" s="4"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF5388-57EF-4DC2-9174-42CFAC8CD97A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C62B2-435A-450A-8A89-0E2B2AF51908}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="9024" tabRatio="620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="244">
   <si>
     <t>Sorting</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -798,10 +795,16 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Cash Zone, SS_Cash Zone</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone, SS_Menu Board, SS_Cash Zone</t>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
+  </si>
+  <si>
+    <t>Cash Zone, SS_Cash Zone - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1287,9 +1290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y41" sqref="Y41:Y47"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="Q1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y42" sqref="Y42:Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,7 +1311,7 @@
     <col min="12" max="12" width="13.5546875" style="4"/>
     <col min="13" max="13" width="14" style="4"/>
     <col min="14" max="14" width="85.21875" style="4"/>
-    <col min="15" max="15" width="261.77734375" style="4"/>
+    <col min="15" max="15" width="71.33203125" style="4" customWidth="1"/>
     <col min="16" max="16" width="20" style="4"/>
     <col min="17" max="17" width="11.33203125" style="4"/>
     <col min="18" max="18" width="19.33203125" style="4"/>
@@ -1643,14 +1646,14 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF4" s="7">
         <v>4.0169999999999997E-2</v>
@@ -1688,10 +1691,10 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>53</v>
@@ -1703,7 +1706,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" s="6">
         <v>5449000131836</v>
@@ -1725,14 +1728,14 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF5" s="7">
         <v>4.0169000000000003E-2</v>
@@ -1770,10 +1773,10 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>53</v>
@@ -1785,7 +1788,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O6" s="6">
         <v>40822938</v>
@@ -1807,14 +1810,14 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF6" s="7">
         <v>4.0146000000000001E-2</v>
@@ -1852,10 +1855,10 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>53</v>
@@ -1867,7 +1870,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="6">
         <v>54491069</v>
@@ -1889,14 +1892,14 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF7" s="7">
         <v>4.0146000000000001E-2</v>
@@ -1934,10 +1937,10 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>53</v>
@@ -1949,7 +1952,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O8" s="6">
         <v>42099697</v>
@@ -1971,14 +1974,14 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" s="7">
         <v>2.1691999999999999E-2</v>
@@ -2016,10 +2019,10 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>53</v>
@@ -2031,7 +2034,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O9" s="6">
         <v>5449000214744</v>
@@ -2053,14 +2056,14 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF9" s="7">
         <v>2.1691999999999999E-2</v>
@@ -2098,10 +2101,10 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>53</v>
@@ -2113,7 +2116,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O10" s="6">
         <v>5449000172228</v>
@@ -2135,14 +2138,14 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF10" s="7">
         <v>2.1691999999999999E-2</v>
@@ -2180,10 +2183,10 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>53</v>
@@ -2195,10 +2198,10 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -2217,14 +2220,14 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF11" s="7">
         <v>7.293E-3</v>
@@ -2258,14 +2261,14 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>48</v>
@@ -2306,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="AM12" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN12" s="5">
         <v>300</v>
@@ -2326,14 +2329,14 @@
         <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>53</v>
@@ -2345,7 +2348,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O13" s="6">
         <v>5449000034335</v>
@@ -2367,14 +2370,14 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF13" s="7">
         <v>2.0908E-2</v>
@@ -2408,14 +2411,14 @@
         <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>53</v>
@@ -2427,7 +2430,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O14" s="6">
         <v>90494406</v>
@@ -2449,14 +2452,14 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF14" s="7">
         <v>1.1924000000000001E-2</v>
@@ -2490,14 +2493,14 @@
         <v>41</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>48</v>
@@ -2558,14 +2561,14 @@
         <v>41</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>53</v>
@@ -2577,10 +2580,10 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -2599,14 +2602,14 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF16" s="7">
         <v>1.1924000000000001E-2</v>
@@ -2640,14 +2643,14 @@
         <v>41</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>48</v>
@@ -2688,7 +2691,7 @@
         <v>15</v>
       </c>
       <c r="AM17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AN17" s="5">
         <v>300</v>
@@ -2708,14 +2711,14 @@
         <v>41</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>53</v>
@@ -2727,10 +2730,10 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -2749,14 +2752,14 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF18" s="7">
         <v>2.0892000000000001E-2</v>
@@ -2790,14 +2793,14 @@
         <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>53</v>
@@ -2809,7 +2812,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O19" s="6">
         <v>4607042430879</v>
@@ -2831,14 +2834,14 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF19" s="7">
         <v>1.1924000000000001E-2</v>
@@ -2872,14 +2875,14 @@
         <v>41</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>53</v>
@@ -2891,10 +2894,10 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -2913,14 +2916,14 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF20" s="7">
         <v>1.1924000000000001E-2</v>
@@ -2954,14 +2957,14 @@
         <v>41</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>53</v>
@@ -2973,10 +2976,10 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -2995,14 +2998,14 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF21" s="7">
         <v>1.1924000000000001E-2</v>
@@ -3036,14 +3039,14 @@
         <v>41</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>48</v>
@@ -3084,7 +3087,7 @@
         <v>20</v>
       </c>
       <c r="AM22" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN22" s="5">
         <v>300</v>
@@ -3104,14 +3107,14 @@
         <v>41</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>53</v>
@@ -3123,7 +3126,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O23" s="6">
         <v>4607174577787</v>
@@ -3145,14 +3148,14 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF23" s="7">
         <v>2.0892000000000001E-2</v>
@@ -3186,14 +3189,14 @@
         <v>41</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>53</v>
@@ -3205,7 +3208,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O24" s="6">
         <v>4650075420980</v>
@@ -3227,14 +3230,14 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF24" s="7">
         <v>7.4479999999999998E-3</v>
@@ -3268,14 +3271,14 @@
         <v>41</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>53</v>
@@ -3287,10 +3290,10 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -3309,14 +3312,14 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF25" s="7">
         <v>7.4479999999999998E-3</v>
@@ -3350,14 +3353,14 @@
         <v>41</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>53</v>
@@ -3369,10 +3372,10 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -3391,14 +3394,14 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF26" s="7">
         <v>7.4479999999999998E-3</v>
@@ -3432,14 +3435,14 @@
         <v>41</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>53</v>
@@ -3451,10 +3454,10 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O27" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -3473,14 +3476,14 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF27" s="7">
         <v>7.4479999999999998E-3</v>
@@ -3514,14 +3517,14 @@
         <v>41</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>53</v>
@@ -3533,10 +3536,10 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -3555,14 +3558,14 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF28" s="7">
         <v>7.4479999999999998E-3</v>
@@ -3596,14 +3599,14 @@
         <v>41</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>53</v>
@@ -3615,10 +3618,10 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -3637,14 +3640,14 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF29" s="7">
         <v>7.4479999999999998E-3</v>
@@ -3669,7 +3672,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>40</v>
@@ -3680,10 +3683,10 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>41</v>
@@ -3722,7 +3725,7 @@
         <v>310</v>
       </c>
       <c r="AM30" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AN30" s="5"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>40</v>
@@ -3742,10 +3745,10 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>41</v>
@@ -3795,7 +3798,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>40</v>
@@ -3804,17 +3807,17 @@
         <v>41</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -3825,7 +3828,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
@@ -3839,10 +3842,10 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE32" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="AE32" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="AF32" s="7">
         <v>0.08</v>
@@ -3850,7 +3853,7 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5">
@@ -3860,7 +3863,7 @@
         <v>26</v>
       </c>
       <c r="AM32" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN32" s="5">
         <v>311</v>
@@ -3871,7 +3874,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>40</v>
@@ -3880,17 +3883,17 @@
         <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5">
@@ -3899,23 +3902,23 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
@@ -3923,16 +3926,16 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF33" s="7"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5">
@@ -3951,7 +3954,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>40</v>
@@ -3960,17 +3963,17 @@
         <v>41</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5">
@@ -3979,23 +3982,23 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O34" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
@@ -4003,10 +4006,10 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF34" s="7"/>
       <c r="AG34" s="5"/>
@@ -4029,7 +4032,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>40</v>
@@ -4040,10 +4043,10 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>41</v>
@@ -4082,7 +4085,7 @@
         <v>312</v>
       </c>
       <c r="AM35" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN35" s="5">
         <v>310</v>
@@ -4093,7 +4096,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>40</v>
@@ -4102,17 +4105,17 @@
         <v>41</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5">
@@ -4122,13 +4125,13 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -4138,17 +4141,17 @@
         <v>56</v>
       </c>
       <c r="Y36" s="5" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF36" s="7">
         <v>0.04</v>
@@ -4156,10 +4159,10 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK36" s="5">
         <v>2</v>
@@ -4177,7 +4180,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>40</v>
@@ -4186,17 +4189,17 @@
         <v>41</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5">
@@ -4205,23 +4208,23 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O37" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
@@ -4229,10 +4232,10 @@
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE37" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="AE37" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="AF37" s="7">
         <v>0.04</v>
@@ -4240,10 +4243,10 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK37" s="5">
         <v>2</v>
@@ -4261,7 +4264,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>40</v>
@@ -4270,17 +4273,17 @@
         <v>41</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -4291,23 +4294,23 @@
         <v>15</v>
       </c>
       <c r="N38" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O38" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
@@ -4315,10 +4318,10 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF38" s="7">
         <v>0.04</v>
@@ -4326,10 +4329,10 @@
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AJ38" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK38" s="5">
         <v>2</v>
@@ -4347,7 +4350,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>40</v>
@@ -4358,10 +4361,10 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>41</v>
@@ -4400,7 +4403,7 @@
         <v>400</v>
       </c>
       <c r="AM39" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN39" s="5"/>
     </row>
@@ -4409,7 +4412,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>40</v>
@@ -4418,14 +4421,14 @@
         <v>41</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>53</v>
@@ -4437,10 +4440,10 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O40" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
@@ -4448,27 +4451,27 @@
         <v>54</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF40" s="7">
         <v>0.05</v>
@@ -4493,7 +4496,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>40</v>
@@ -4502,17 +4505,17 @@
         <v>41</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="I41" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5">
@@ -4525,7 +4528,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -4533,20 +4536,20 @@
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF41" s="7">
         <v>0.28000000000000003</v>
@@ -4562,7 +4565,7 @@
         <v>34</v>
       </c>
       <c r="AM41" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN41" s="5">
         <v>400</v>
@@ -4573,7 +4576,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>40</v>
@@ -4582,14 +4585,14 @@
         <v>41</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>53</v>
@@ -4601,10 +4604,10 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="O42" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
@@ -4619,20 +4622,20 @@
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF42" s="7"/>
       <c r="AG42" s="5"/>
@@ -4655,7 +4658,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>40</v>
@@ -4664,14 +4667,14 @@
         <v>41</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>53</v>
@@ -4683,13 +4686,13 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O43" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="P43" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5" t="s">
@@ -4703,26 +4706,26 @@
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y43" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE43" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF43" s="7"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5">
@@ -4741,7 +4744,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>40</v>
@@ -4750,17 +4753,17 @@
         <v>41</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="I44" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5">
@@ -4773,7 +4776,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
@@ -4781,10 +4784,10 @@
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y44" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
@@ -4792,7 +4795,7 @@
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF44" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4819,7 +4822,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>40</v>
@@ -4828,17 +4831,17 @@
         <v>41</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5">
@@ -4851,7 +4854,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
@@ -4859,20 +4862,20 @@
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y45" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE45" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF45" s="7"/>
       <c r="AG45" s="5"/>
@@ -4886,7 +4889,7 @@
         <v>769</v>
       </c>
       <c r="AM45" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AN45" s="5">
         <v>680</v>
@@ -4897,7 +4900,7 @@
         <v>57</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>40</v>
@@ -4906,16 +4909,16 @@
         <v>41</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>53</v>
@@ -4927,42 +4930,42 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R46" s="5" t="s">
         <v>54</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y46" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE46" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF46" s="7"/>
       <c r="AG46" s="5"/>
@@ -4985,7 +4988,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>40</v>
@@ -4994,16 +4997,16 @@
         <v>41</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="H47" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>53</v>
@@ -5015,13 +5018,13 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O47" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="O47" s="6" t="s">
+      <c r="P47" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5" t="s">
@@ -5035,26 +5038,26 @@
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y47" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE47" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF47" s="7"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ47" s="5"/>
       <c r="AK47" s="5">
@@ -5073,29 +5076,29 @@
         <v>59</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -5106,7 +5109,7 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -5130,7 +5133,7 @@
         <v>37</v>
       </c>
       <c r="AM48" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN48" s="5"/>
     </row>
@@ -5139,42 +5142,42 @@
         <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
@@ -5207,42 +5210,42 @@
         <v>61</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="I50" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
@@ -5275,44 +5278,44 @@
         <v>62</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I51" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="O51" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -5345,44 +5348,44 @@
         <v>63</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="I52" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
@@ -5406,7 +5409,7 @@
         <v>42</v>
       </c>
       <c r="AM52" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN52" s="5"/>
     </row>
@@ -5415,49 +5418,49 @@
         <v>64</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="J53" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
@@ -5483,27 +5486,27 @@
         <v>65</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I54" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -5514,7 +5517,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C62B2-435A-450A-8A89-0E2B2AF51908}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{835D9068-1A23-42CA-A262-53B32D01CE42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cinema!$A$1:$AO$54</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="249">
   <si>
     <t>Sorting</t>
   </si>
@@ -663,9 +663,6 @@
 771</t>
   </si>
   <si>
-    <t>Coke and meal: Image</t>
-  </si>
-  <si>
     <t>Juice and meal: Image</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
   </si>
   <si>
     <t>BRAND</t>
-  </si>
-  <si>
-    <t>Coke and meal: Food</t>
   </si>
   <si>
     <t>Juice and meal: Food</t>
@@ -805,6 +799,27 @@
   </si>
   <si>
     <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
 </sst>
 </file>
@@ -815,7 +830,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -838,16 +853,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -870,12 +898,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,6 +946,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1288,60 +1337,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="Q1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y42" sqref="Y42:Y47"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="4"/>
-    <col min="2" max="2" width="12.77734375" style="4"/>
-    <col min="3" max="3" width="11.5546875" style="4"/>
-    <col min="4" max="4" width="11.44140625" style="4"/>
-    <col min="5" max="5" width="16.33203125" style="4"/>
-    <col min="6" max="6" width="20.21875" style="4"/>
-    <col min="7" max="7" width="84.109375" style="4"/>
-    <col min="8" max="8" width="80.33203125" style="4"/>
-    <col min="9" max="9" width="43.88671875" style="4"/>
-    <col min="10" max="10" width="16.44140625" style="4"/>
-    <col min="11" max="11" width="9.33203125" style="4"/>
-    <col min="12" max="12" width="13.5546875" style="4"/>
-    <col min="13" max="13" width="14" style="4"/>
-    <col min="14" max="14" width="85.21875" style="4"/>
-    <col min="15" max="15" width="71.33203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="20" style="4"/>
-    <col min="17" max="17" width="11.33203125" style="4"/>
-    <col min="18" max="18" width="19.33203125" style="4"/>
-    <col min="19" max="19" width="13.88671875" style="4"/>
-    <col min="20" max="20" width="7.44140625" style="4"/>
-    <col min="21" max="21" width="14.6640625" style="4"/>
-    <col min="22" max="22" width="18.21875" style="4"/>
-    <col min="23" max="23" width="23" style="4"/>
-    <col min="24" max="24" width="22.5546875" style="4"/>
-    <col min="25" max="25" width="23.44140625" style="4"/>
-    <col min="26" max="26" width="20.6640625" style="4"/>
-    <col min="27" max="27" width="26.109375" style="4"/>
-    <col min="28" max="28" width="26.88671875" style="4"/>
-    <col min="29" max="29" width="16.33203125" style="4"/>
-    <col min="30" max="30" width="14" style="4"/>
-    <col min="31" max="31" width="17.33203125" style="4"/>
-    <col min="32" max="32" width="15.21875" style="4"/>
-    <col min="33" max="33" width="13.109375" style="4"/>
-    <col min="34" max="34" width="13.33203125" style="4"/>
-    <col min="35" max="35" width="63.33203125" style="4"/>
-    <col min="36" max="36" width="22.44140625" style="4"/>
-    <col min="37" max="37" width="7.88671875" style="4"/>
-    <col min="38" max="38" width="9.21875" style="4"/>
-    <col min="39" max="39" width="11.21875" style="4"/>
-    <col min="40" max="40" width="9.88671875" style="4"/>
-    <col min="41" max="1025" width="9.109375" style="4"/>
-    <col min="1026" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="10.28515625" style="4"/>
+    <col min="2" max="2" width="12.7109375" style="4"/>
+    <col min="3" max="3" width="11.5703125" style="4"/>
+    <col min="4" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="16.28515625" style="4"/>
+    <col min="6" max="6" width="84.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="80.28515625" style="4"/>
+    <col min="8" max="8" width="43.85546875" style="4"/>
+    <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="4"/>
+    <col min="12" max="12" width="9.28515625" style="4"/>
+    <col min="13" max="13" width="13.5703125" style="4"/>
+    <col min="14" max="14" width="14" style="4"/>
+    <col min="15" max="15" width="85.28515625" style="4"/>
+    <col min="16" max="16" width="71.28515625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="20" style="4"/>
+    <col min="18" max="18" width="11.28515625" style="4"/>
+    <col min="19" max="19" width="19.28515625" style="4"/>
+    <col min="20" max="20" width="13.85546875" style="4"/>
+    <col min="21" max="21" width="7.42578125" style="4"/>
+    <col min="22" max="22" width="14.7109375" style="4"/>
+    <col min="23" max="23" width="18.28515625" style="4"/>
+    <col min="24" max="24" width="23" style="4"/>
+    <col min="25" max="25" width="22.5703125" style="4"/>
+    <col min="26" max="26" width="23.42578125" style="4"/>
+    <col min="27" max="27" width="20.7109375" style="4"/>
+    <col min="28" max="28" width="26.140625" style="4"/>
+    <col min="29" max="29" width="26.85546875" style="4"/>
+    <col min="30" max="30" width="16.28515625" style="4"/>
+    <col min="31" max="31" width="14" style="4"/>
+    <col min="32" max="32" width="17.28515625" style="4"/>
+    <col min="33" max="33" width="15.28515625" style="4"/>
+    <col min="34" max="34" width="13.140625" style="4"/>
+    <col min="35" max="35" width="13.28515625" style="4"/>
+    <col min="36" max="36" width="63.28515625" style="4"/>
+    <col min="37" max="37" width="22.42578125" style="4"/>
+    <col min="38" max="38" width="7.85546875" style="4"/>
+    <col min="39" max="39" width="9.28515625" style="4"/>
+    <col min="40" max="40" width="11.28515625" style="4"/>
+    <col min="41" max="41" width="9.85546875" style="4"/>
+    <col min="42" max="1026" width="9.140625" style="4" customWidth="1"/>
+    <col min="1027" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,111 +1407,116 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1475,23 +1530,23 @@
         <v>41</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -1507,23 +1562,24 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="7"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
-      <c r="AK2" s="5">
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5">
         <v>1</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AM2" s="5">
         <v>300</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
     </row>
-    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1539,23 +1595,27 @@
       <c r="E3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="I3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>244</v>
+      </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -1570,28 +1630,29 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="5"/>
+      <c r="AG3" s="7"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
-      <c r="AK3" s="5">
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5">
         <v>2</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AM3" s="5">
         <v>1</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="AO3" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1607,73 +1668,74 @@
       <c r="E4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="G4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>54491472</v>
       </c>
-      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="5"/>
+      <c r="X4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="5" t="s">
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AG4" s="7">
         <v>4.0169999999999997E-2</v>
       </c>
-      <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="5">
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5">
         <v>3</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AM4" s="5">
         <v>2</v>
       </c>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="5">
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1689,73 +1751,74 @@
       <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="G5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>5449000131836</v>
       </c>
-      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="5"/>
+      <c r="X5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="5" t="s">
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AG5" s="7">
         <v>4.0169000000000003E-2</v>
       </c>
-      <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" s="5">
-        <v>3</v>
-      </c>
+      <c r="AK5" s="5"/>
       <c r="AL5" s="5">
         <v>3</v>
       </c>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="5">
+      <c r="AM5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1771,73 +1834,74 @@
       <c r="E6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="G6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>40822938</v>
       </c>
-      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="5"/>
+      <c r="S6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="5"/>
+      <c r="X6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AG6" s="7">
         <v>4.0146000000000001E-2</v>
       </c>
-      <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
-      <c r="AK6" s="5">
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5">
         <v>3</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AM6" s="5">
         <v>4</v>
       </c>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="5">
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1853,73 +1917,74 @@
       <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="G7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>54491069</v>
       </c>
-      <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="5"/>
+      <c r="S7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="5"/>
+      <c r="X7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="5" t="s">
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AG7" s="7">
         <v>4.0146000000000001E-2</v>
       </c>
-      <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-      <c r="AK7" s="5">
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5">
         <v>3</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AM7" s="5">
         <v>5</v>
       </c>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="5">
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1935,73 +2000,74 @@
       <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>42099697</v>
       </c>
-      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="5"/>
+      <c r="S8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="5"/>
+      <c r="X8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="5" t="s">
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AG8" s="7">
         <v>2.1691999999999999E-2</v>
       </c>
-      <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
-      <c r="AK8" s="5">
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5">
         <v>3</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AM8" s="5">
         <v>6</v>
       </c>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="5">
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2017,73 +2083,74 @@
       <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <v>5449000214744</v>
       </c>
-      <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="5"/>
+      <c r="S9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="5" t="s">
+      <c r="W9" s="5"/>
+      <c r="X9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="5" t="s">
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AG9" s="7">
         <v>2.1691999999999999E-2</v>
       </c>
-      <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
-      <c r="AK9" s="5">
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5">
         <v>3</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AM9" s="5">
         <v>7</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="5">
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2099,73 +2166,74 @@
       <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="G10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>5449000172228</v>
       </c>
-      <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="5"/>
+      <c r="S10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="5" t="s">
+      <c r="W10" s="5"/>
+      <c r="X10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="5" t="s">
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AG10" s="7">
         <v>2.1691999999999999E-2</v>
       </c>
-      <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
-      <c r="AK10" s="5">
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5">
         <v>3</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AM10" s="5">
         <v>8</v>
       </c>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="5">
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2181,73 +2249,74 @@
       <c r="E11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="P11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="5"/>
+      <c r="S11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="5"/>
+      <c r="X11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="5" t="s">
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF11" s="7">
+      <c r="AG11" s="7">
         <v>7.293E-3</v>
       </c>
-      <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
-      <c r="AK11" s="5">
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5">
         <v>3</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AM11" s="5">
         <v>9</v>
       </c>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="5">
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2263,23 +2332,27 @@
       <c r="E12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G12" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="I12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>245</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -2294,28 +2367,29 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="5" t="s">
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="5"/>
+      <c r="AG12" s="7"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
-      <c r="AK12" s="5">
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5">
         <v>2</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AM12" s="5">
         <v>10</v>
       </c>
-      <c r="AM12" s="8" t="s">
+      <c r="AN12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AO12" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2331,73 +2405,74 @@
       <c r="E13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="6">
+      <c r="P13" s="6">
         <v>5449000034335</v>
       </c>
-      <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="5"/>
+      <c r="S13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="5" t="s">
+      <c r="W13" s="5"/>
+      <c r="X13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="5" t="s">
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AG13" s="7">
         <v>2.0908E-2</v>
       </c>
-      <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
-      <c r="AK13" s="5">
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5">
         <v>3</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AM13" s="5">
         <v>11</v>
       </c>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="5">
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2413,73 +2488,74 @@
       <c r="E14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>90494406</v>
       </c>
-      <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="5"/>
+      <c r="X14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="5" t="s">
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AG14" s="7">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
-      <c r="AK14" s="5">
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5">
         <v>3</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AM14" s="5">
         <v>12</v>
       </c>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="5">
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2495,23 +2571,27 @@
       <c r="E15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="I15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -2526,28 +2606,29 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="5" t="s">
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="5"/>
+      <c r="AG15" s="7"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
-      <c r="AK15" s="5">
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5">
         <v>2</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AM15" s="5">
         <v>13</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AN15" s="6">
         <v>14</v>
       </c>
-      <c r="AN15" s="5">
+      <c r="AO15" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2563,73 +2644,74 @@
       <c r="E16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="G16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="5"/>
+      <c r="S16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="T16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="5" t="s">
+      <c r="W16" s="5"/>
+      <c r="X16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="5" t="s">
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AG16" s="7">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
-      <c r="AK16" s="5">
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5">
         <v>3</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AM16" s="5">
         <v>14</v>
       </c>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="5">
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2645,23 +2727,27 @@
       <c r="E17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G17" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="I17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -2676,28 +2762,29 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="5" t="s">
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="5"/>
+      <c r="AG17" s="7"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
-      <c r="AK17" s="5">
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5">
         <v>2</v>
       </c>
-      <c r="AL17" s="5">
+      <c r="AM17" s="5">
         <v>15</v>
       </c>
-      <c r="AM17" s="8" t="s">
+      <c r="AN17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AN17" s="5">
+      <c r="AO17" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2713,73 +2800,74 @@
       <c r="E18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="G18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="5"/>
+      <c r="S18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="5"/>
+      <c r="X18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="5" t="s">
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AG18" s="7">
         <v>2.0892000000000001E-2</v>
       </c>
-      <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
-      <c r="AK18" s="5">
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5">
         <v>3</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AM18" s="5">
         <v>16</v>
       </c>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="5">
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2795,73 +2883,74 @@
       <c r="E19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G19" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
         <v>1</v>
       </c>
-      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19" s="6">
         <v>4607042430879</v>
       </c>
-      <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="5"/>
+      <c r="S19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="T19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="5" t="s">
+      <c r="W19" s="5"/>
+      <c r="X19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="5" t="s">
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AG19" s="7">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
-      <c r="AK19" s="5">
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5">
         <v>3</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AM19" s="5">
         <v>17</v>
       </c>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="5">
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2877,73 +2966,74 @@
       <c r="E20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="G20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O20" s="6" t="s">
+      <c r="P20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="5"/>
+      <c r="S20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="T20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="5"/>
+      <c r="X20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="5" t="s">
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AG20" s="7">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
-      <c r="AK20" s="5">
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5">
         <v>3</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AM20" s="5">
         <v>18</v>
       </c>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="5">
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2959,73 +3049,74 @@
       <c r="E21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="G21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O21" s="6" t="s">
+      <c r="P21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="5"/>
+      <c r="S21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="T21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="5" t="s">
+      <c r="W21" s="5"/>
+      <c r="X21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AE21" s="5" t="s">
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF21" s="7">
+      <c r="AG21" s="7">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
-      <c r="AK21" s="5">
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5">
         <v>3</v>
       </c>
-      <c r="AL21" s="5">
+      <c r="AM21" s="5">
         <v>19</v>
       </c>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="5">
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3041,23 +3132,27 @@
       <c r="E22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>102</v>
       </c>
+      <c r="G22" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="H22" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="I22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>248</v>
+      </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -3072,28 +3167,29 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="5" t="s">
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="5"/>
+      <c r="AG22" s="7"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
-      <c r="AK22" s="5">
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5">
         <v>2</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AM22" s="5">
         <v>20</v>
       </c>
-      <c r="AM22" s="8" t="s">
+      <c r="AN22" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AN22" s="5">
+      <c r="AO22" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3109,73 +3205,74 @@
       <c r="E23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="G23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O23" s="6">
+      <c r="P23" s="6">
         <v>4607174577787</v>
       </c>
-      <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="5"/>
+      <c r="S23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="5"/>
+      <c r="X23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="5" t="s">
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF23" s="7">
+      <c r="AG23" s="7">
         <v>2.0892000000000001E-2</v>
       </c>
-      <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
-      <c r="AK23" s="5">
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5">
         <v>3</v>
       </c>
-      <c r="AL23" s="5">
+      <c r="AM23" s="5">
         <v>21</v>
       </c>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="5">
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3191,73 +3288,74 @@
       <c r="E24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="G24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="O24" s="6">
+      <c r="P24" s="6">
         <v>4650075420980</v>
       </c>
-      <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="5"/>
+      <c r="S24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="T24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="5" t="s">
+      <c r="W24" s="5"/>
+      <c r="X24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
-      <c r="AE24" s="5" t="s">
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF24" s="7">
+      <c r="AG24" s="7">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
-      <c r="AK24" s="5">
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5">
         <v>3</v>
       </c>
-      <c r="AL24" s="5">
+      <c r="AM24" s="5">
         <v>22</v>
       </c>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="5">
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3273,73 +3371,74 @@
       <c r="E25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="G25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="5"/>
+      <c r="S25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="T25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="5" t="s">
+      <c r="W25" s="5"/>
+      <c r="X25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="5" t="s">
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF25" s="7">
+      <c r="AG25" s="7">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
-      <c r="AK25" s="5">
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5">
         <v>3</v>
       </c>
-      <c r="AL25" s="5">
+      <c r="AM25" s="5">
         <v>23</v>
       </c>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="5">
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3355,73 +3454,74 @@
       <c r="E26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="G26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="O26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="5"/>
+      <c r="S26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="T26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="5" t="s">
+      <c r="W26" s="5"/>
+      <c r="X26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="5" t="s">
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF26" s="7">
+      <c r="AG26" s="7">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
-      <c r="AK26" s="5">
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5">
         <v>3</v>
       </c>
-      <c r="AL26" s="5">
+      <c r="AM26" s="5">
         <v>24</v>
       </c>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="5">
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3437,73 +3537,74 @@
       <c r="E27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="G27" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5">
         <v>1</v>
       </c>
-      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="P27" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="5"/>
+      <c r="S27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="T27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="5" t="s">
+      <c r="W27" s="5"/>
+      <c r="X27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="5" t="s">
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF27" s="7">
+      <c r="AG27" s="7">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
-      <c r="AK27" s="5">
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5">
         <v>3</v>
       </c>
-      <c r="AL27" s="5">
+      <c r="AM27" s="5">
         <v>925</v>
       </c>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="5">
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3519,73 +3620,74 @@
       <c r="E28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="G28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5">
-        <v>1</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="O28" s="6" t="s">
+      <c r="P28" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="5"/>
+      <c r="S28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="T28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="5" t="s">
+      <c r="W28" s="5"/>
+      <c r="X28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="5" t="s">
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF28" s="7">
+      <c r="AG28" s="7">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
-      <c r="AK28" s="5">
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5">
         <v>3</v>
       </c>
-      <c r="AL28" s="5">
+      <c r="AM28" s="5">
         <v>926</v>
       </c>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="5">
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3601,73 +3703,74 @@
       <c r="E29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="G29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="O29" s="6" t="s">
+      <c r="P29" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="5"/>
+      <c r="S29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="T29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="5" t="s">
+      <c r="W29" s="5"/>
+      <c r="X29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="5" t="s">
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF29" s="7">
+      <c r="AG29" s="7">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
-      <c r="AK29" s="5">
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5">
         <v>3</v>
       </c>
-      <c r="AL29" s="5">
+      <c r="AM29" s="5">
         <v>927</v>
       </c>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="5">
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>37</v>
       </c>
@@ -3681,23 +3784,23 @@
         <v>41</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="G30" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -3713,23 +3816,24 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="7"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
-      <c r="AK30" s="5">
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5">
         <v>1</v>
       </c>
-      <c r="AL30" s="5">
+      <c r="AM30" s="5">
         <v>310</v>
       </c>
-      <c r="AM30" s="8" t="s">
+      <c r="AN30" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
     </row>
-    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>38</v>
       </c>
@@ -3743,23 +3847,23 @@
         <v>41</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="G31" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -3775,25 +3879,26 @@
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="7"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
-      <c r="AK31" s="5">
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5">
         <v>1</v>
       </c>
-      <c r="AL31" s="5">
+      <c r="AM31" s="5">
         <v>311</v>
       </c>
-      <c r="AM31" s="6">
+      <c r="AN31" s="6">
         <v>26</v>
       </c>
-      <c r="AN31" s="5">
+      <c r="AO31" s="5">
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>39</v>
       </c>
@@ -3809,28 +3914,28 @@
       <c r="E32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="G32" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I32" s="5" t="s">
         <v>134</v>
       </c>
+      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="5"/>
+      <c r="S32" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
@@ -3841,35 +3946,36 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="5" t="s">
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE32" s="5" t="s">
+      <c r="AF32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AF32" s="7">
+      <c r="AG32" s="7">
         <v>0.08</v>
       </c>
-      <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
-      <c r="AI32" s="5" t="s">
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5">
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5">
         <v>2</v>
       </c>
-      <c r="AL32" s="5">
+      <c r="AM32" s="5">
         <v>26</v>
       </c>
-      <c r="AM32" s="8" t="s">
+      <c r="AN32" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AN32" s="5">
+      <c r="AO32" s="5">
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>40</v>
       </c>
@@ -3885,71 +3991,72 @@
       <c r="E33" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="G33" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="5" t="s">
         <v>142</v>
       </c>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5">
+      <c r="K33" s="5"/>
+      <c r="L33" s="5">
         <v>1</v>
       </c>
-      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="P33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-      <c r="S33" s="5" t="s">
+      <c r="S33" s="5"/>
+      <c r="T33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
-      <c r="X33" s="5" t="s">
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="5" t="s">
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE33" s="5" t="s">
+      <c r="AF33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="5"/>
+      <c r="AG33" s="7"/>
       <c r="AH33" s="5"/>
-      <c r="AI33" s="5" t="s">
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5">
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5">
         <v>3</v>
       </c>
-      <c r="AL33" s="5">
+      <c r="AM33" s="5">
         <v>27</v>
       </c>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="5">
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>41</v>
       </c>
@@ -3965,69 +4072,70 @@
       <c r="E34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="G34" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5">
         <v>0.01</v>
       </c>
-      <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="O34" s="6" t="s">
+      <c r="P34" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-      <c r="S34" s="5" t="s">
+      <c r="S34" s="5"/>
+      <c r="T34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="5" t="s">
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="5" t="s">
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE34" s="5" t="s">
+      <c r="AF34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="5"/>
+      <c r="AG34" s="7"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
-      <c r="AK34" s="5">
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5">
         <v>3</v>
       </c>
-      <c r="AL34" s="5">
+      <c r="AM34" s="5">
         <v>28</v>
       </c>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="5">
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>42</v>
       </c>
@@ -4041,23 +4149,23 @@
         <v>41</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="G35" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I35" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="6"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
@@ -4073,25 +4181,26 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="7"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
-      <c r="AK35" s="5">
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5">
         <v>1</v>
       </c>
-      <c r="AL35" s="5">
+      <c r="AM35" s="5">
         <v>312</v>
       </c>
-      <c r="AM35" s="8" t="s">
+      <c r="AN35" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AN35" s="5">
+      <c r="AO35" s="5">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43</v>
       </c>
@@ -4107,75 +4216,76 @@
       <c r="E36" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="G36" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5">
         <v>1</v>
       </c>
-      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="6" t="s">
+      <c r="O36" s="5"/>
+      <c r="P36" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="5" t="s">
+      <c r="S36" s="5"/>
+      <c r="T36" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
-      <c r="X36" s="5" t="s">
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Y36" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z36" s="5"/>
+      <c r="Z36" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="5" t="s">
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE36" s="5" t="s">
+      <c r="AF36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF36" s="7">
+      <c r="AG36" s="7">
         <v>0.04</v>
       </c>
-      <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
-      <c r="AI36" s="5" t="s">
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AJ36" s="5" t="s">
+      <c r="AK36" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AK36" s="5">
+      <c r="AL36" s="5">
         <v>2</v>
       </c>
-      <c r="AL36" s="5">
+      <c r="AM36" s="5">
         <v>29</v>
       </c>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="5">
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="5">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>44</v>
       </c>
@@ -4191,75 +4301,76 @@
       <c r="E37" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="G37" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I37" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5">
+      <c r="K37" s="5"/>
+      <c r="L37" s="5">
         <v>1</v>
       </c>
-      <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="O37" s="6" t="s">
+      <c r="P37" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="5" t="s">
+      <c r="S37" s="5"/>
+      <c r="T37" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="5" t="s">
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
-      <c r="AD37" s="5" t="s">
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE37" s="5" t="s">
+      <c r="AF37" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AF37" s="7">
+      <c r="AG37" s="7">
         <v>0.04</v>
       </c>
-      <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
-      <c r="AI37" s="5" t="s">
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AJ37" s="5" t="s">
+      <c r="AK37" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AK37" s="5">
+      <c r="AL37" s="5">
         <v>2</v>
       </c>
-      <c r="AL37" s="5">
+      <c r="AM37" s="5">
         <v>30</v>
       </c>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="5">
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="5">
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>45</v>
       </c>
@@ -4275,77 +4386,78 @@
       <c r="E38" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="G38" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I38" s="5" t="s">
         <v>168</v>
       </c>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="5">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5">
         <v>1</v>
       </c>
-      <c r="M38" s="5">
+      <c r="N38" s="5">
         <v>15</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="O38" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="P38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-      <c r="S38" s="5" t="s">
+      <c r="S38" s="5"/>
+      <c r="T38" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
-      <c r="X38" s="5" t="s">
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="5" t="s">
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE38" s="5" t="s">
+      <c r="AF38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF38" s="7">
+      <c r="AG38" s="7">
         <v>0.04</v>
       </c>
-      <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
-      <c r="AI38" s="5" t="s">
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AJ38" s="5" t="s">
+      <c r="AK38" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AK38" s="5">
+      <c r="AL38" s="5">
         <v>2</v>
       </c>
-      <c r="AL38" s="5">
+      <c r="AM38" s="5">
         <v>31</v>
       </c>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="5">
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="5">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>46</v>
       </c>
@@ -4359,23 +4471,23 @@
         <v>41</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="G39" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I39" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="6"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
@@ -4391,23 +4503,24 @@
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="7"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
-      <c r="AK39" s="5">
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5">
         <v>1</v>
       </c>
-      <c r="AL39" s="5">
+      <c r="AM39" s="5">
         <v>400</v>
       </c>
-      <c r="AM39" s="8" t="s">
+      <c r="AN39" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
     </row>
-    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>48</v>
       </c>
@@ -4423,75 +4536,76 @@
       <c r="E40" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="G40" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5">
+      <c r="K40" s="5"/>
+      <c r="L40" s="5">
         <v>4</v>
       </c>
-      <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="O40" s="6" t="s">
+      <c r="P40" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="5"/>
+      <c r="S40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S40" s="5" t="s">
+      <c r="T40" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="5" t="s">
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Y40" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z40" s="5"/>
+      <c r="Z40" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
-      <c r="AD40" s="5" t="s">
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE40" s="5" t="s">
+      <c r="AF40" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF40" s="7">
+      <c r="AG40" s="7">
         <v>0.05</v>
       </c>
-      <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
-      <c r="AK40" s="5">
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5">
         <v>2</v>
       </c>
-      <c r="AL40" s="5">
+      <c r="AM40" s="5">
         <v>33</v>
       </c>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="5">
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>49</v>
       </c>
@@ -4507,71 +4621,72 @@
       <c r="E41" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="G41" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5">
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5">
         <v>2</v>
       </c>
-      <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="6"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="5"/>
+      <c r="S41" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
-      <c r="X41" s="5" t="s">
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Y41" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z41" s="5"/>
+      <c r="Z41" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
-      <c r="AD41" s="5" t="s">
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE41" s="5" t="s">
+      <c r="AF41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF41" s="7">
+      <c r="AG41" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
-      <c r="AK41" s="5">
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5">
         <v>2</v>
       </c>
-      <c r="AL41" s="5">
+      <c r="AM41" s="5">
         <v>34</v>
       </c>
-      <c r="AM41" s="8" t="s">
+      <c r="AN41" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AN41" s="5">
+      <c r="AO41" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>50</v>
       </c>
@@ -4587,73 +4702,74 @@
       <c r="E42" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="G42" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I42" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="5">
+      <c r="K42" s="5"/>
+      <c r="L42" s="5">
         <v>1</v>
       </c>
-      <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="10" t="s">
+      <c r="N42" s="5"/>
+      <c r="O42" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="O42" s="9" t="s">
+      <c r="P42" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="5"/>
+      <c r="S42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="5" t="s">
+      <c r="T42" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="5" t="s">
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Y42" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z42" s="5"/>
+      <c r="Z42" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
-      <c r="AD42" s="5" t="s">
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE42" s="5" t="s">
+      <c r="AF42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="5"/>
+      <c r="AG42" s="7"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
-      <c r="AK42" s="5">
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5">
         <v>3</v>
       </c>
-      <c r="AL42" s="5">
+      <c r="AM42" s="5">
         <v>35</v>
       </c>
-      <c r="AM42" s="6"/>
-      <c r="AN42" s="5">
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>51</v>
       </c>
@@ -4669,77 +4785,78 @@
       <c r="E43" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="G43" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H43" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5">
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5">
         <v>1</v>
       </c>
-      <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="5"/>
+      <c r="O43" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="P43" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="Q43" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5" t="s">
+      <c r="R43" s="5"/>
+      <c r="S43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="5" t="s">
+      <c r="T43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
-      <c r="X43" s="5" t="s">
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Y43" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z43" s="5"/>
+      <c r="Z43" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
-      <c r="AD43" s="5" t="s">
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE43" s="5" t="s">
+      <c r="AF43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="5"/>
+      <c r="AG43" s="7"/>
       <c r="AH43" s="5"/>
-      <c r="AI43" s="5" t="s">
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5">
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5">
         <v>3</v>
       </c>
-      <c r="AL43" s="5">
+      <c r="AM43" s="5">
         <v>36</v>
       </c>
-      <c r="AM43" s="6"/>
-      <c r="AN43" s="5">
+      <c r="AN43" s="6"/>
+      <c r="AO43" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>52</v>
       </c>
@@ -4755,69 +4872,70 @@
       <c r="E44" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="G44" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H44" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5">
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5">
         <v>1</v>
       </c>
-      <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="5"/>
+      <c r="S44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="5" t="s">
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Y44" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z44" s="5"/>
+      <c r="Z44" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
-      <c r="AE44" s="5" t="s">
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF44" s="7">
+      <c r="AG44" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
-      <c r="AK44" s="5">
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5">
         <v>2</v>
       </c>
-      <c r="AL44" s="5">
+      <c r="AM44" s="5">
         <v>680</v>
       </c>
-      <c r="AM44" s="6">
+      <c r="AN44" s="6">
         <v>769</v>
       </c>
-      <c r="AN44" s="5">
+      <c r="AO44" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>56</v>
       </c>
@@ -4833,69 +4951,70 @@
       <c r="E45" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="G45" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I45" s="5" t="s">
         <v>197</v>
       </c>
+      <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="5">
+      <c r="K45" s="5"/>
+      <c r="L45" s="5">
         <v>2</v>
       </c>
-      <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="5" t="s">
+      <c r="R45" s="5"/>
+      <c r="S45" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
-      <c r="X45" s="5" t="s">
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Y45" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z45" s="5"/>
+      <c r="Z45" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
-      <c r="AD45" s="5" t="s">
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE45" s="5" t="s">
+      <c r="AF45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="5"/>
+      <c r="AG45" s="7"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
-      <c r="AK45" s="5">
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5">
         <v>3</v>
       </c>
-      <c r="AL45" s="5">
+      <c r="AM45" s="5">
         <v>769</v>
       </c>
-      <c r="AM45" s="8" t="s">
+      <c r="AN45" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="AN45" s="5">
+      <c r="AO45" s="5">
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>57</v>
       </c>
@@ -4911,79 +5030,78 @@
       <c r="E46" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="5" t="s">
         <v>200</v>
       </c>
       <c r="H46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5">
-        <v>1</v>
-      </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5" t="s">
+      <c r="P46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T46" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="O46" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="P46" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
-      <c r="X46" s="5" t="s">
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Y46" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z46" s="5"/>
+      <c r="Z46" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
-      <c r="AD46" s="5" t="s">
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE46" s="5" t="s">
+      <c r="AF46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="5"/>
+      <c r="AG46" s="7"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
-      <c r="AK46" s="5">
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5">
         <v>4</v>
       </c>
-      <c r="AL46" s="5">
+      <c r="AM46" s="5">
         <v>770</v>
       </c>
-      <c r="AM46" s="6"/>
-      <c r="AN46" s="5">
+      <c r="AN46" s="6"/>
+      <c r="AO46" s="5">
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>58</v>
       </c>
@@ -4999,79 +5117,78 @@
       <c r="E47" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="I47" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5">
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5">
         <v>1</v>
       </c>
-      <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="5"/>
+      <c r="O47" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O47" s="6" t="s">
+      <c r="P47" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="Q47" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="5"/>
+      <c r="S47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S47" s="5" t="s">
+      <c r="T47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
-      <c r="X47" s="5" t="s">
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Y47" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z47" s="5"/>
+      <c r="Z47" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
-      <c r="AD47" s="5" t="s">
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AE47" s="5" t="s">
+      <c r="AF47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="5"/>
+      <c r="AG47" s="7"/>
       <c r="AH47" s="5"/>
-      <c r="AI47" s="5" t="s">
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5">
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5">
         <v>4</v>
       </c>
-      <c r="AL47" s="5">
+      <c r="AM47" s="5">
         <v>771</v>
       </c>
-      <c r="AM47" s="6"/>
-      <c r="AN47" s="5">
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="5">
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>59</v>
       </c>
@@ -5082,36 +5199,36 @@
         <v>40</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="T48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
@@ -5123,21 +5240,22 @@
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="7"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
       <c r="AK48" s="5"/>
-      <c r="AL48" s="5">
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5">
         <v>37</v>
       </c>
-      <c r="AM48" s="8" t="s">
+      <c r="AN48" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
     </row>
-    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>60</v>
       </c>
@@ -5148,38 +5266,38 @@
         <v>40</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="P49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="T49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
@@ -5191,21 +5309,22 @@
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
-      <c r="AF49" s="7"/>
-      <c r="AG49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="7"/>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
       <c r="AK49" s="5"/>
-      <c r="AL49" s="5">
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5">
         <v>38</v>
       </c>
-      <c r="AM49" s="6">
+      <c r="AN49" s="6">
         <v>32</v>
       </c>
-      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
     </row>
-    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>61</v>
       </c>
@@ -5216,38 +5335,38 @@
         <v>40</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="G50" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K50" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-      <c r="O50" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="P50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="T50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
@@ -5259,21 +5378,22 @@
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="7"/>
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
       <c r="AK50" s="5"/>
-      <c r="AL50" s="5">
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5">
         <v>39</v>
       </c>
-      <c r="AM50" s="6">
+      <c r="AN50" s="6">
         <v>33</v>
       </c>
-      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
     </row>
-    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>62</v>
       </c>
@@ -5284,40 +5404,40 @@
         <v>40</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F51" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="G51" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K51" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="P51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="T51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
@@ -5329,21 +5449,22 @@
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="7"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
       <c r="AK51" s="5"/>
-      <c r="AL51" s="5">
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5">
         <v>40</v>
       </c>
-      <c r="AM51" s="6">
+      <c r="AN51" s="6">
         <v>34</v>
       </c>
-      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
     </row>
-    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>63</v>
       </c>
@@ -5354,40 +5475,40 @@
         <v>40</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="G52" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K52" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="P52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="T52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
@@ -5399,21 +5520,22 @@
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="7"/>
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
       <c r="AK52" s="5"/>
-      <c r="AL52" s="5">
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5">
         <v>42</v>
       </c>
-      <c r="AM52" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="AN52" s="5"/>
+      <c r="AN52" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO52" s="5"/>
     </row>
-    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>64</v>
       </c>
@@ -5424,64 +5546,65 @@
         <v>40</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="K53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-      <c r="O53" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="P53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-      <c r="S53" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="T53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="5" t="s">
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="7"/>
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
       <c r="AK53" s="5"/>
-      <c r="AL53" s="5">
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5">
         <v>43</v>
       </c>
-      <c r="AM53" s="6"/>
-      <c r="AN53" s="5"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="5"/>
     </row>
-    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>65</v>
       </c>
@@ -5492,34 +5615,34 @@
         <v>40</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="G54" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="T54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
@@ -5531,20 +5654,21 @@
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="7"/>
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
       <c r="AK54" s="5"/>
-      <c r="AL54" s="5">
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5">
         <v>401</v>
       </c>
-      <c r="AM54" s="6"/>
-      <c r="AN54" s="5"/>
+      <c r="AN54" s="6"/>
+      <c r="AO54" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{835D9068-1A23-42CA-A262-53B32D01CE42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64EE785-4B0F-467D-A867-02F73F04A3F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,14 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="249">
   <si>
     <t>Sorting</t>
   </si>
@@ -795,9 +801,6 @@
     <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
   </si>
   <si>
-    <t>Cash Zone, SS_Cash Zone - Canteen, QSR</t>
-  </si>
-  <si>
     <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
   <si>
@@ -820,6 +823,9 @@
   </si>
   <si>
     <t>Juices</t>
+  </si>
+  <si>
+    <t>Cash Zone, SS_Cash Zone - Canteen, QSR, Promo SSD Display IC</t>
   </si>
 </sst>
 </file>
@@ -870,8 +876,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -918,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,10 +954,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,57 +1350,57 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="4"/>
-    <col min="2" max="2" width="12.7109375" style="4"/>
-    <col min="3" max="3" width="11.5703125" style="4"/>
-    <col min="4" max="4" width="11.42578125" style="4"/>
-    <col min="5" max="5" width="16.28515625" style="4"/>
-    <col min="6" max="6" width="84.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="80.28515625" style="4"/>
-    <col min="8" max="8" width="43.85546875" style="4"/>
+    <col min="1" max="1" width="10.33203125" style="4"/>
+    <col min="2" max="2" width="12.6640625" style="4"/>
+    <col min="3" max="3" width="11.5546875" style="4"/>
+    <col min="4" max="4" width="11.44140625" style="4"/>
+    <col min="5" max="5" width="16.33203125" style="4"/>
+    <col min="6" max="6" width="84.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="80.33203125" style="4"/>
+    <col min="8" max="8" width="43.88671875" style="4"/>
     <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="4"/>
-    <col min="12" max="12" width="9.28515625" style="4"/>
-    <col min="13" max="13" width="13.5703125" style="4"/>
+    <col min="10" max="10" width="25.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="4"/>
+    <col min="12" max="12" width="9.33203125" style="4"/>
+    <col min="13" max="13" width="13.5546875" style="4"/>
     <col min="14" max="14" width="14" style="4"/>
-    <col min="15" max="15" width="85.28515625" style="4"/>
-    <col min="16" max="16" width="71.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="85.33203125" style="4"/>
+    <col min="16" max="16" width="71.33203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="20" style="4"/>
-    <col min="18" max="18" width="11.28515625" style="4"/>
-    <col min="19" max="19" width="19.28515625" style="4"/>
-    <col min="20" max="20" width="13.85546875" style="4"/>
-    <col min="21" max="21" width="7.42578125" style="4"/>
-    <col min="22" max="22" width="14.7109375" style="4"/>
-    <col min="23" max="23" width="18.28515625" style="4"/>
+    <col min="18" max="18" width="11.33203125" style="4"/>
+    <col min="19" max="19" width="19.33203125" style="4"/>
+    <col min="20" max="20" width="13.88671875" style="4"/>
+    <col min="21" max="21" width="7.44140625" style="4"/>
+    <col min="22" max="22" width="14.6640625" style="4"/>
+    <col min="23" max="23" width="18.33203125" style="4"/>
     <col min="24" max="24" width="23" style="4"/>
-    <col min="25" max="25" width="22.5703125" style="4"/>
-    <col min="26" max="26" width="23.42578125" style="4"/>
-    <col min="27" max="27" width="20.7109375" style="4"/>
-    <col min="28" max="28" width="26.140625" style="4"/>
-    <col min="29" max="29" width="26.85546875" style="4"/>
-    <col min="30" max="30" width="16.28515625" style="4"/>
+    <col min="25" max="25" width="22.5546875" style="4"/>
+    <col min="26" max="26" width="23.44140625" style="4"/>
+    <col min="27" max="27" width="20.6640625" style="4"/>
+    <col min="28" max="28" width="26.109375" style="4"/>
+    <col min="29" max="29" width="26.88671875" style="4"/>
+    <col min="30" max="30" width="16.33203125" style="4"/>
     <col min="31" max="31" width="14" style="4"/>
-    <col min="32" max="32" width="17.28515625" style="4"/>
-    <col min="33" max="33" width="15.28515625" style="4"/>
-    <col min="34" max="34" width="13.140625" style="4"/>
-    <col min="35" max="35" width="13.28515625" style="4"/>
-    <col min="36" max="36" width="63.28515625" style="4"/>
-    <col min="37" max="37" width="22.42578125" style="4"/>
-    <col min="38" max="38" width="7.85546875" style="4"/>
-    <col min="39" max="39" width="9.28515625" style="4"/>
-    <col min="40" max="40" width="11.28515625" style="4"/>
-    <col min="41" max="41" width="9.85546875" style="4"/>
-    <col min="42" max="1026" width="9.140625" style="4" customWidth="1"/>
-    <col min="1027" max="16384" width="8.85546875" style="4"/>
+    <col min="32" max="32" width="17.33203125" style="4"/>
+    <col min="33" max="33" width="15.33203125" style="4"/>
+    <col min="34" max="34" width="13.109375" style="4"/>
+    <col min="35" max="35" width="13.33203125" style="4"/>
+    <col min="36" max="36" width="63.33203125" style="4"/>
+    <col min="37" max="37" width="22.44140625" style="4"/>
+    <col min="38" max="38" width="7.88671875" style="4"/>
+    <col min="39" max="39" width="9.33203125" style="4"/>
+    <col min="40" max="40" width="11.33203125" style="4"/>
+    <col min="41" max="41" width="9.88671875" style="4"/>
+    <col min="42" max="1026" width="9.109375" style="4" customWidth="1"/>
+    <col min="1027" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,10 +1426,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1516,7 +1525,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1579,7 +1588,7 @@
       </c>
       <c r="AO2" s="5"/>
     </row>
-    <row r="3" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1608,7 +1617,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -1652,7 +1661,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1735,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2067,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2233,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2316,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2345,7 +2354,7 @@
         <v>42</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -2389,7 +2398,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2472,7 +2481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2555,7 +2564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2584,7 +2593,7 @@
         <v>42</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -2628,7 +2637,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2711,7 +2720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2740,7 +2749,7 @@
         <v>42</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -2784,7 +2793,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2950,7 +2959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3116,7 +3125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3145,7 +3154,7 @@
         <v>42</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -3189,7 +3198,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3272,7 +3281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3521,7 +3530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3604,7 +3613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3687,7 +3696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3770,7 +3779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>37</v>
       </c>
@@ -3833,7 +3842,7 @@
       </c>
       <c r="AO30" s="5"/>
     </row>
-    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>38</v>
       </c>
@@ -3898,7 +3907,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>39</v>
       </c>
@@ -3975,7 +3984,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>40</v>
       </c>
@@ -4056,7 +4065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>41</v>
       </c>
@@ -4135,7 +4144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>42</v>
       </c>
@@ -4200,7 +4209,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43</v>
       </c>
@@ -4285,7 +4294,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>44</v>
       </c>
@@ -4370,7 +4379,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>45</v>
       </c>
@@ -4457,7 +4466,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>46</v>
       </c>
@@ -4520,7 +4529,7 @@
       </c>
       <c r="AO39" s="5"/>
     </row>
-    <row r="40" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>48</v>
       </c>
@@ -4574,8 +4583,8 @@
       <c r="Y40" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Z40" s="5" t="s">
-        <v>240</v>
+      <c r="Z40" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
@@ -4605,7 +4614,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>49</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>175</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
@@ -4686,7 +4695,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>50</v>
       </c>
@@ -4741,7 +4750,7 @@
         <v>175</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
@@ -4769,7 +4778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>51</v>
       </c>
@@ -4826,7 +4835,7 @@
         <v>175</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
@@ -4856,7 +4865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>52</v>
       </c>
@@ -4905,7 +4914,7 @@
         <v>175</v>
       </c>
       <c r="Z44" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
@@ -4935,7 +4944,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>56</v>
       </c>
@@ -4984,7 +4993,7 @@
         <v>175</v>
       </c>
       <c r="Z45" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
@@ -5014,7 +5023,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>57</v>
       </c>
@@ -5073,7 +5082,7 @@
         <v>175</v>
       </c>
       <c r="Z46" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
@@ -5101,7 +5110,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>58</v>
       </c>
@@ -5158,7 +5167,7 @@
         <v>175</v>
       </c>
       <c r="Z47" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
@@ -5188,7 +5197,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>59</v>
       </c>
@@ -5255,7 +5264,7 @@
       </c>
       <c r="AO48" s="5"/>
     </row>
-    <row r="49" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>60</v>
       </c>
@@ -5324,7 +5333,7 @@
       </c>
       <c r="AO49" s="5"/>
     </row>
-    <row r="50" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>61</v>
       </c>
@@ -5393,7 +5402,7 @@
       </c>
       <c r="AO50" s="5"/>
     </row>
-    <row r="51" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>62</v>
       </c>
@@ -5464,7 +5473,7 @@
       </c>
       <c r="AO51" s="5"/>
     </row>
-    <row r="52" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>63</v>
       </c>
@@ -5535,7 +5544,7 @@
       </c>
       <c r="AO52" s="5"/>
     </row>
-    <row r="53" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>64</v>
       </c>
@@ -5604,7 +5613,7 @@
       <c r="AN53" s="6"/>
       <c r="AO53" s="5"/>
     </row>
-    <row r="54" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>65</v>
       </c>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46448CA0-8974-45E8-BBFF-6147AD204223}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cinema" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cinema" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AO$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Cinema!$A$1:$AO$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Cinema!$A$1:$AO$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Cinema!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,166 +31,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="248">
-  <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category KPI Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converted?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depends on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38010037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinema_Cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="250">
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>Sub locations to include</t>
+  </si>
+  <si>
+    <t>Sub locations to exclude</t>
+  </si>
+  <si>
+    <t>shelf_number</t>
+  </si>
+  <si>
+    <t>Converted?</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>depends on</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38010037</t>
+  </si>
+  <si>
+    <t>Cinema_Cap</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
+  </si>
+  <si>
+    <t>1
 10
 13
 15
 20</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>SSD</t>
   </si>
   <si>
     <t xml:space="preserve">Weighted Average </t>
@@ -202,131 +207,128 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Ванила - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L/Schweppes - Pomegranate - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 0.33л/Швеппс Гранат - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L, Schweppes - Pomegranate - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000064110, 5449000030856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11
+    <t>Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Вишня - 0.5л</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t>Schweppes - Bitter Lemon - 0.33L/Schweppes - Pomegranate - 0.33L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 0.33л/Швеппс Гранат - 0.33л</t>
+  </si>
+  <si>
+    <t>Schweppes - Bitter Lemon - 0.33L, Schweppes - Pomegranate - 0.33L</t>
+  </si>
+  <si>
+    <t>5449000064110, 5449000030856</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>11
 12</t>
   </si>
   <si>
-    <t xml:space="preserve">SmartWater Still - 0.6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смарт вода - 0.6л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Чая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice tea</t>
+    <t>SmartWater Still - 0.6L</t>
+  </si>
+  <si>
+    <t>Смарт вода - 0.6л</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000131768</t>
+  </si>
+  <si>
+    <t>Tea Availability</t>
+  </si>
+  <si>
+    <t>Представленность Чая</t>
+  </si>
+  <si>
+    <t>ice tea</t>
   </si>
   <si>
     <t xml:space="preserve">16
@@ -336,49 +338,49 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+    <t>Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve"> Fuze Mango-Camomile - 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000235947, 5449000189301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L/Fuze Peach-Rose - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л/Фьюз Персик - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000233615, 5449000189332, 5449000235770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice (JNSD) Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juices</t>
+    <t>Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000235947, 5449000189301</t>
+  </si>
+  <si>
+    <t>Fuze Green Strawberry-Raspberry - 0.5L/Fuze Peach-Rose - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Клубника-Малина - 0.5л/Фьюз Персик - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000233615, 5449000189332, 5449000235770</t>
+  </si>
+  <si>
+    <t>Juice (JNSD) Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
   <si>
     <t xml:space="preserve">21
@@ -391,153 +393,153 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075421024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Apple - 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075421000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Tropical - 0.45L/Pulpy - Guava-Passion Fruit - 0.45L/Pulpy - Watermelon-Strawberry - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Тропик - 0.45л/Палпи - Гуава-Маракуйя - 0.45л/Палпи - Арбуз-Клубника - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Tropical - 0.45L, Pulpy - Guava-Passion Fruit - 0.45L, Pulpy - Watermelon-Strawberry - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579729, 4650075423257, 4650075423233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38010022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311
+    <t>Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.3L</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>4650075421024</t>
+  </si>
+  <si>
+    <t>Rich - Apple - 0.3L</t>
+  </si>
+  <si>
+    <t>Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>4650075421000</t>
+  </si>
+  <si>
+    <t>Pulpy - Tropical - 0.45L/Pulpy - Guava-Passion Fruit - 0.45L/Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Тропик - 0.45л/Палпи - Гуава-Маракуйя - 0.45л/Палпи - Арбуз-Клубника - 0.45л</t>
+  </si>
+  <si>
+    <t>Pulpy - Tropical - 0.45L, Pulpy - Guava-Passion Fruit - 0.45L, Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t>4607174579729, 4650075423257, 4650075423233</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t>4607042430619</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t>4607042430565</t>
+  </si>
+  <si>
+    <t>RD38010022</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>311
 312</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Master Data attr15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27
+    <t>Coolers: Doors</t>
+  </si>
+  <si>
+    <t>Холодильник: Двери</t>
+  </si>
+  <si>
+    <t>STANDARD 22</t>
+  </si>
+  <si>
+    <t>Cooler: Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t>sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>Store Master Data attr15</t>
+  </si>
+  <si>
+    <t>27
 28</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of doors of filled Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings TCCC/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
+    <t>Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t>number of doors of filled Coolers</t>
+  </si>
+  <si>
+    <t>Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t>Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t>facings TCCC/40</t>
+  </si>
+  <si>
+    <t>Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
   </si>
   <si>
     <t xml:space="preserve">29
@@ -546,240 +548,234 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Max 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t>Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>NUM_SCENES</t>
+  </si>
+  <si>
+    <t>Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t>Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t>Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>Cooler: Max 15</t>
+  </si>
+  <si>
+    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t>number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t>Activations</t>
+  </si>
+  <si>
+    <t>Активации</t>
+  </si>
+  <si>
+    <t>33
 34
 680</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Zone, SS_Cash Zone - Canteen, QSR, Promo SSD Display IC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCCASIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35
+    <t>STANDARD 17</t>
+  </si>
+  <si>
+    <t>Impulse Activation</t>
+  </si>
+  <si>
+    <t>Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t>OCCASIONS</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Комбо</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>35
 36</t>
   </si>
   <si>
-    <t xml:space="preserve">Combo: Coca-Cola</t>
+    <t>Combo: Coca-Cola</t>
   </si>
   <si>
     <t xml:space="preserve">Комбо : Кока-Кола </t>
   </si>
   <si>
-    <t xml:space="preserve">Coke + Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбо : Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food should be near Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDART 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770
+    <t>Coke + Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo</t>
+  </si>
+  <si>
+    <t>50111111, 50111112, 50111113, 50111114, 5000006, 5000004, 5000005, 5000006, 5050570, 5000101</t>
+  </si>
+  <si>
+    <t>Combo: Food</t>
+  </si>
+  <si>
+    <t>Комбо : Еда</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
+  </si>
+  <si>
+    <t>IC Activation</t>
+  </si>
+  <si>
+    <t>Food should be near Image</t>
+  </si>
+  <si>
+    <t>STANDART 17</t>
+  </si>
+  <si>
+    <t>Combo other</t>
+  </si>
+  <si>
+    <t>Другие Комбо</t>
+  </si>
+  <si>
+    <t>Juice and meal</t>
+  </si>
+  <si>
+    <t>Сок и еда</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>770
 771</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice and meal: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich, Dobriy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH_PROD_MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH products present in Customer's menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed or Failed Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenuC1
+    <t>Juice and meal: Image</t>
+  </si>
+  <si>
+    <t>Сок и еда: Имидж</t>
+  </si>
+  <si>
+    <t>Rich, Dobriy</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Juice and meal: Food</t>
+  </si>
+  <si>
+    <t>Сок и еда: Еда</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>STANDARD 18</t>
+  </si>
+  <si>
+    <t>COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t>sum of atomic scores</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
+  </si>
+  <si>
+    <t>STANDARD 16</t>
+  </si>
+  <si>
+    <t>CCH_PROD_MENU</t>
+  </si>
+  <si>
+    <t>CCH products present in Customer's menu</t>
+  </si>
+  <si>
+    <t>Passed or Failed Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>MenuC1
 No_MenuC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH activation points in SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPU
+    <t>ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t>Number of CCH activation points in SSD</t>
+  </si>
+  <si>
+    <t>IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t xml:space="preserve">Local 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANY OTHER ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTMove
+    <t>Local 21</t>
+  </si>
+  <si>
+    <t>ANY OTHER ACTIVATION</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t>OTMove
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO
+    <t>PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t>Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t>EO
 No_O_A</t>
   </si>
   <si>
-    <t xml:space="preserve">29
+    <t>29
 30
 31
 32
@@ -787,43 +783,57 @@
 34</t>
   </si>
   <si>
-    <t xml:space="preserve">Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENE LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
+    <t>Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t>COOLER_DOORS</t>
+  </si>
+  <si>
+    <t>Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t>SCENE LEVEL</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler - Horeca</t>
+  </si>
+  <si>
+    <t>Cash Zone; SS_Cash Zone - Canteen, QSR; Promo SSD Display IC</t>
+  </si>
+  <si>
+    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -832,22 +842,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -861,137 +856,118 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1050,75 +1026,379 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AO54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="Y40" activeCellId="0" sqref="Y40:Y47"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="S1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="V1" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.3400809716599"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.2267206477733"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.4817813765182"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="90.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="86.3805668016194"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.1902834008097"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.5951417004049"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.93927125506073"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="14.5101214574899"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="14.9676113360324"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="91.8663967611336"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="76.7813765182186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.4817813765182"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.1133603238866"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.7935222672065"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="8"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="19.6518218623482"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.6801619433198"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.2226720647773"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.1376518218623"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.165991902834"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.1093117408907"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.9068825910931"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.4817813765182"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.9676113360324"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="18.6234817813765"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="16.4534412955466"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.0526315789474"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="68.0971659919028"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.45344129554656"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.93927125506073"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="12.1133603238866"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="10.6275303643725"/>
-    <col collapsed="false" hidden="false" max="1025" min="42" style="1" width="9.71255060728745"/>
+    <col min="1" max="1" width="11.109375" style="1"/>
+    <col min="2" max="2" width="13.5546875" style="1"/>
+    <col min="3" max="3" width="12.33203125" style="1"/>
+    <col min="4" max="4" width="12.21875" style="1"/>
+    <col min="5" max="5" width="17.44140625" style="1"/>
+    <col min="6" max="6" width="90.44140625" style="1"/>
+    <col min="7" max="7" width="86.33203125" style="1"/>
+    <col min="8" max="8" width="47.21875" style="1"/>
+    <col min="9" max="9" width="26.88671875" style="1"/>
+    <col min="10" max="10" width="27.44140625" style="1"/>
+    <col min="11" max="11" width="17.5546875" style="1"/>
+    <col min="12" max="12" width="9.88671875" style="1"/>
+    <col min="13" max="13" width="14.5546875" style="1"/>
+    <col min="14" max="14" width="15" style="1"/>
+    <col min="15" max="15" width="91.88671875" style="1"/>
+    <col min="16" max="16" width="76.77734375" style="1"/>
+    <col min="17" max="17" width="21.44140625" style="1"/>
+    <col min="18" max="18" width="12.109375" style="1"/>
+    <col min="19" max="19" width="20.77734375" style="1"/>
+    <col min="20" max="20" width="14.88671875" style="1"/>
+    <col min="21" max="21" width="8" style="1"/>
+    <col min="22" max="22" width="15.77734375" style="1"/>
+    <col min="23" max="23" width="19.6640625" style="1"/>
+    <col min="24" max="24" width="24.6640625" style="1"/>
+    <col min="25" max="25" width="24.21875" style="1"/>
+    <col min="26" max="26" width="83" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.109375" style="1"/>
+    <col min="28" max="28" width="28.109375" style="1"/>
+    <col min="29" max="29" width="28.88671875" style="1"/>
+    <col min="30" max="30" width="17.44140625" style="1"/>
+    <col min="31" max="31" width="15" style="1"/>
+    <col min="32" max="32" width="18.6640625" style="1"/>
+    <col min="33" max="33" width="16.44140625" style="1"/>
+    <col min="34" max="34" width="14" style="1"/>
+    <col min="35" max="35" width="14.33203125" style="1"/>
+    <col min="36" max="36" width="68.109375" style="1"/>
+    <col min="37" max="37" width="24.109375" style="1"/>
+    <col min="38" max="38" width="8.44140625" style="1"/>
+    <col min="39" max="39" width="9.88671875" style="1"/>
+    <col min="40" max="40" width="12.109375" style="1"/>
+    <col min="41" max="41" width="10.6640625" style="1"/>
+    <col min="42" max="1025" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1474,7 @@
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="13" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -1243,8 +1523,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1283,7 +1563,7 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="14"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -1295,10 +1575,10 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AL2" s="6" t="n">
+      <c r="AL2" s="6">
         <v>1</v>
       </c>
-      <c r="AM2" s="6" t="n">
+      <c r="AM2" s="6">
         <v>300</v>
       </c>
       <c r="AN2" s="9" t="s">
@@ -1306,8 +1586,8 @@
       </c>
       <c r="AO2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1352,7 +1632,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -1366,21 +1646,21 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
-      <c r="AL3" s="6" t="n">
+      <c r="AL3" s="6">
         <v>2</v>
       </c>
-      <c r="AM3" s="6" t="n">
+      <c r="AM3" s="6">
         <v>1</v>
       </c>
       <c r="AN3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AO3" s="6" t="n">
+      <c r="AO3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1407,7 +1687,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="6">
         <v>1</v>
       </c>
       <c r="M4" s="6"/>
@@ -1415,7 +1695,7 @@
       <c r="O4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="7" t="n">
+      <c r="P4" s="7">
         <v>54491472</v>
       </c>
       <c r="Q4" s="6"/>
@@ -1433,37 +1713,37 @@
         <v>59</v>
       </c>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG4" s="8" t="n">
-        <v>0.04017</v>
+        <v>60</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>4.0169999999999997E-2</v>
       </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="6" t="n">
+      <c r="AL4" s="6">
         <v>3</v>
       </c>
-      <c r="AM4" s="6" t="n">
+      <c r="AM4" s="6">
         <v>2</v>
       </c>
       <c r="AN4" s="7"/>
-      <c r="AO4" s="6" t="n">
+      <c r="AO4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1479,10 +1759,10 @@
         <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>56</v>
@@ -1490,15 +1770,15 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="6">
         <v>1</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="P5" s="7">
         <v>5449000131836</v>
       </c>
       <c r="Q5" s="6"/>
@@ -1516,37 +1796,37 @@
         <v>59</v>
       </c>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="Z5" s="14"/>
       <c r="AA5" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" s="8" t="n">
-        <v>0.040169</v>
+        <v>60</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>4.0169000000000003E-2</v>
       </c>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="6" t="n">
+      <c r="AL5" s="6">
         <v>3</v>
       </c>
-      <c r="AM5" s="6" t="n">
+      <c r="AM5" s="6">
         <v>3</v>
       </c>
       <c r="AN5" s="7"/>
-      <c r="AO5" s="6" t="n">
+      <c r="AO5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1562,10 +1842,10 @@
         <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>56</v>
@@ -1573,15 +1853,15 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="P6" s="7">
         <v>40822938</v>
       </c>
       <c r="Q6" s="6"/>
@@ -1599,37 +1879,37 @@
         <v>59</v>
       </c>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="Z6" s="14"/>
       <c r="AA6" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6" s="8" t="n">
-        <v>0.040146</v>
+        <v>60</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>4.0146000000000001E-2</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="6" t="n">
+      <c r="AL6" s="6">
         <v>3</v>
       </c>
-      <c r="AM6" s="6" t="n">
+      <c r="AM6" s="6">
         <v>4</v>
       </c>
       <c r="AN6" s="7"/>
-      <c r="AO6" s="6" t="n">
+      <c r="AO6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1645,10 +1925,10 @@
         <v>47</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>56</v>
@@ -1656,15 +1936,15 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="6">
         <v>1</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="7" t="n">
+        <v>65</v>
+      </c>
+      <c r="P7" s="7">
         <v>54491069</v>
       </c>
       <c r="Q7" s="6"/>
@@ -1682,37 +1962,37 @@
         <v>59</v>
       </c>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="Z7" s="14"/>
       <c r="AA7" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG7" s="8" t="n">
-        <v>0.040146</v>
+        <v>60</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>4.0146000000000001E-2</v>
       </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="6" t="n">
+      <c r="AL7" s="6">
         <v>3</v>
       </c>
-      <c r="AM7" s="6" t="n">
+      <c r="AM7" s="6">
         <v>5</v>
       </c>
       <c r="AN7" s="7"/>
-      <c r="AO7" s="6" t="n">
+      <c r="AO7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1728,10 +2008,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>56</v>
@@ -1739,15 +2019,15 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="6">
         <v>1</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="7" t="n">
+        <v>67</v>
+      </c>
+      <c r="P8" s="7">
         <v>42099697</v>
       </c>
       <c r="Q8" s="6"/>
@@ -1765,37 +2045,37 @@
         <v>59</v>
       </c>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="Z8" s="14"/>
       <c r="AA8" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8" s="8" t="n">
-        <v>0.021692</v>
+        <v>60</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>2.1691999999999999E-2</v>
       </c>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
-      <c r="AL8" s="6" t="n">
+      <c r="AL8" s="6">
         <v>3</v>
       </c>
-      <c r="AM8" s="6" t="n">
+      <c r="AM8" s="6">
         <v>6</v>
       </c>
       <c r="AN8" s="7"/>
-      <c r="AO8" s="6" t="n">
+      <c r="AO8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1811,10 +2091,10 @@
         <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>56</v>
@@ -1822,15 +2102,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>1</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="7" t="n">
+        <v>69</v>
+      </c>
+      <c r="P9" s="7">
         <v>5449000214744</v>
       </c>
       <c r="Q9" s="6"/>
@@ -1848,37 +2128,37 @@
         <v>59</v>
       </c>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG9" s="8" t="n">
-        <v>0.021692</v>
+        <v>60</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>2.1691999999999999E-2</v>
       </c>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="6" t="n">
+      <c r="AL9" s="6">
         <v>3</v>
       </c>
-      <c r="AM9" s="6" t="n">
+      <c r="AM9" s="6">
         <v>7</v>
       </c>
       <c r="AN9" s="7"/>
-      <c r="AO9" s="6" t="n">
+      <c r="AO9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1894,10 +2174,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>56</v>
@@ -1905,15 +2185,15 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="6">
         <v>1</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="7" t="n">
+        <v>71</v>
+      </c>
+      <c r="P10" s="7">
         <v>5449000172228</v>
       </c>
       <c r="Q10" s="6"/>
@@ -1931,37 +2211,37 @@
         <v>59</v>
       </c>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
+      <c r="Z10" s="14"/>
       <c r="AA10" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG10" s="8" t="n">
-        <v>0.021692</v>
+        <v>60</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>2.1691999999999999E-2</v>
       </c>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="6" t="n">
+      <c r="AL10" s="6">
         <v>3</v>
       </c>
-      <c r="AM10" s="6" t="n">
+      <c r="AM10" s="6">
         <v>8</v>
       </c>
       <c r="AN10" s="7"/>
-      <c r="AO10" s="6" t="n">
+      <c r="AO10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1977,10 +2257,10 @@
         <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>56</v>
@@ -1988,16 +2268,16 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="6">
         <v>1</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -2014,37 +2294,37 @@
         <v>59</v>
       </c>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
+      <c r="Z11" s="14"/>
       <c r="AA11" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG11" s="8" t="n">
-        <v>0.007293</v>
+        <v>60</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>7.293E-3</v>
       </c>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="6" t="n">
+      <c r="AL11" s="6">
         <v>3</v>
       </c>
-      <c r="AM11" s="6" t="n">
+      <c r="AM11" s="6">
         <v>9</v>
       </c>
       <c r="AN11" s="11"/>
-      <c r="AO11" s="6" t="n">
+      <c r="AO11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2057,13 +2337,13 @@
         <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>50</v>
@@ -2072,7 +2352,7 @@
         <v>44</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -2089,7 +2369,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
+      <c r="Z12" s="14"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
@@ -2103,21 +2383,21 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="6" t="n">
+      <c r="AL12" s="6">
         <v>2</v>
       </c>
-      <c r="AM12" s="6" t="n">
+      <c r="AM12" s="6">
         <v>10</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO12" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO12" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -2130,13 +2410,13 @@
         <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>56</v>
@@ -2144,15 +2424,15 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="6">
         <v>1</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="7" t="n">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7">
         <v>5449000034335</v>
       </c>
       <c r="Q13" s="6"/>
@@ -2170,37 +2450,37 @@
         <v>59</v>
       </c>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
+      <c r="Z13" s="14"/>
       <c r="AA13" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG13" s="8" t="n">
-        <v>0.020908</v>
+        <v>60</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>2.0908E-2</v>
       </c>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="6" t="n">
+      <c r="AL13" s="6">
         <v>3</v>
       </c>
-      <c r="AM13" s="6" t="n">
+      <c r="AM13" s="6">
         <v>11</v>
       </c>
       <c r="AN13" s="7"/>
-      <c r="AO13" s="6" t="n">
+      <c r="AO13" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2213,13 +2493,13 @@
         <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>56</v>
@@ -2227,15 +2507,15 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="6">
         <v>1</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="n">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7">
         <v>90494406</v>
       </c>
       <c r="Q14" s="6"/>
@@ -2253,37 +2533,37 @@
         <v>59</v>
       </c>
       <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
+      <c r="Z14" s="14"/>
       <c r="AA14" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG14" s="8" t="n">
-        <v>0.011924</v>
+        <v>60</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="6" t="n">
+      <c r="AL14" s="6">
         <v>3</v>
       </c>
-      <c r="AM14" s="6" t="n">
+      <c r="AM14" s="6">
         <v>12</v>
       </c>
       <c r="AN14" s="7"/>
-      <c r="AO14" s="6" t="n">
+      <c r="AO14" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2296,13 +2576,13 @@
         <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>50</v>
@@ -2311,7 +2591,7 @@
         <v>44</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -2328,7 +2608,7 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="Z15" s="14"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
@@ -2342,21 +2622,21 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="6" t="n">
+      <c r="AL15" s="6">
         <v>2</v>
       </c>
-      <c r="AM15" s="6" t="n">
+      <c r="AM15" s="6">
         <v>13</v>
       </c>
-      <c r="AN15" s="7" t="n">
+      <c r="AN15" s="7">
         <v>14</v>
       </c>
-      <c r="AO15" s="6" t="n">
+      <c r="AO15" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2369,13 +2649,13 @@
         <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>56</v>
@@ -2383,16 +2663,16 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>1</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -2409,37 +2689,37 @@
         <v>59</v>
       </c>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
+      <c r="Z16" s="14"/>
       <c r="AA16" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG16" s="8" t="n">
-        <v>0.011924</v>
+        <v>60</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="6" t="n">
+      <c r="AL16" s="6">
         <v>3</v>
       </c>
-      <c r="AM16" s="6" t="n">
+      <c r="AM16" s="6">
         <v>14</v>
       </c>
       <c r="AN16" s="7"/>
-      <c r="AO16" s="6" t="n">
+      <c r="AO16" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -2452,13 +2732,13 @@
         <v>43</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>50</v>
@@ -2467,7 +2747,7 @@
         <v>44</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -2484,7 +2764,7 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
+      <c r="Z17" s="14"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
@@ -2498,21 +2778,21 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="6" t="n">
+      <c r="AL17" s="6">
         <v>2</v>
       </c>
-      <c r="AM17" s="6" t="n">
+      <c r="AM17" s="6">
         <v>15</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO17" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AO17" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2525,13 +2805,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>56</v>
@@ -2539,16 +2819,16 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="6">
         <v>1</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -2565,37 +2845,37 @@
         <v>59</v>
       </c>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
+      <c r="Z18" s="14"/>
       <c r="AA18" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG18" s="8" t="n">
-        <v>0.020892</v>
+        <v>60</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>2.0892000000000001E-2</v>
       </c>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
-      <c r="AL18" s="6" t="n">
+      <c r="AL18" s="6">
         <v>3</v>
       </c>
-      <c r="AM18" s="6" t="n">
+      <c r="AM18" s="6">
         <v>16</v>
       </c>
       <c r="AN18" s="7"/>
-      <c r="AO18" s="6" t="n">
+      <c r="AO18" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2608,13 +2888,13 @@
         <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>56</v>
@@ -2622,15 +2902,15 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="6">
         <v>1</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="7" t="n">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7">
         <v>4607042430879</v>
       </c>
       <c r="Q19" s="6"/>
@@ -2648,37 +2928,37 @@
         <v>59</v>
       </c>
       <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
+      <c r="Z19" s="14"/>
       <c r="AA19" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG19" s="8" t="n">
-        <v>0.011924</v>
+        <v>60</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
-      <c r="AL19" s="6" t="n">
+      <c r="AL19" s="6">
         <v>3</v>
       </c>
-      <c r="AM19" s="6" t="n">
+      <c r="AM19" s="6">
         <v>17</v>
       </c>
       <c r="AN19" s="7"/>
-      <c r="AO19" s="6" t="n">
+      <c r="AO19" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2691,13 +2971,13 @@
         <v>43</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>56</v>
@@ -2705,16 +2985,16 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6" t="n">
+      <c r="L20" s="6">
         <v>1</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -2731,37 +3011,37 @@
         <v>59</v>
       </c>
       <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
+      <c r="Z20" s="14"/>
       <c r="AA20" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG20" s="8" t="n">
-        <v>0.011924</v>
+        <v>60</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
-      <c r="AL20" s="6" t="n">
+      <c r="AL20" s="6">
         <v>3</v>
       </c>
-      <c r="AM20" s="6" t="n">
+      <c r="AM20" s="6">
         <v>18</v>
       </c>
       <c r="AN20" s="7"/>
-      <c r="AO20" s="6" t="n">
+      <c r="AO20" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -2774,13 +3054,13 @@
         <v>43</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>56</v>
@@ -2788,16 +3068,16 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6" t="n">
+      <c r="L21" s="6">
         <v>1</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2814,37 +3094,37 @@
         <v>59</v>
       </c>
       <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
+      <c r="Z21" s="14"/>
       <c r="AA21" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG21" s="8" t="n">
-        <v>0.011924</v>
+        <v>60</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>1.1924000000000001E-2</v>
       </c>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
-      <c r="AL21" s="6" t="n">
+      <c r="AL21" s="6">
         <v>3</v>
       </c>
-      <c r="AM21" s="6" t="n">
+      <c r="AM21" s="6">
         <v>19</v>
       </c>
       <c r="AN21" s="7"/>
-      <c r="AO21" s="6" t="n">
+      <c r="AO21" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+    <row r="22" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -2857,13 +3137,13 @@
         <v>43</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>50</v>
@@ -2872,7 +3152,7 @@
         <v>44</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -2889,7 +3169,7 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
+      <c r="Z22" s="14"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
@@ -2903,21 +3183,21 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
-      <c r="AL22" s="6" t="n">
+      <c r="AL22" s="6">
         <v>2</v>
       </c>
-      <c r="AM22" s="6" t="n">
+      <c r="AM22" s="6">
         <v>20</v>
       </c>
       <c r="AN22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO22" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="AO22" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+    <row r="23" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -2930,13 +3210,13 @@
         <v>43</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>56</v>
@@ -2944,15 +3224,15 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="6" t="n">
+      <c r="L23" s="6">
         <v>1</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P23" s="7" t="n">
+        <v>112</v>
+      </c>
+      <c r="P23" s="7">
         <v>4607174577787</v>
       </c>
       <c r="Q23" s="6"/>
@@ -2970,37 +3250,37 @@
         <v>59</v>
       </c>
       <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
+      <c r="Z23" s="14"/>
       <c r="AA23" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG23" s="8" t="n">
-        <v>0.020892</v>
+        <v>60</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>2.0892000000000001E-2</v>
       </c>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
-      <c r="AL23" s="6" t="n">
+      <c r="AL23" s="6">
         <v>3</v>
       </c>
-      <c r="AM23" s="6" t="n">
+      <c r="AM23" s="6">
         <v>21</v>
       </c>
       <c r="AN23" s="7"/>
-      <c r="AO23" s="6" t="n">
+      <c r="AO23" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+    <row r="24" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3013,13 +3293,13 @@
         <v>43</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>56</v>
@@ -3027,15 +3307,15 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="6" t="n">
+      <c r="L24" s="6">
         <v>1</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="P24" s="7" t="n">
+        <v>114</v>
+      </c>
+      <c r="P24" s="7">
         <v>4650075420980</v>
       </c>
       <c r="Q24" s="6"/>
@@ -3053,37 +3333,37 @@
         <v>59</v>
       </c>
       <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
+      <c r="Z24" s="14"/>
       <c r="AA24" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG24" s="8" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
-      <c r="AL24" s="6" t="n">
+      <c r="AL24" s="6">
         <v>3</v>
       </c>
-      <c r="AM24" s="6" t="n">
+      <c r="AM24" s="6">
         <v>22</v>
       </c>
       <c r="AN24" s="7"/>
-      <c r="AO24" s="6" t="n">
+      <c r="AO24" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+    <row r="25" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -3096,13 +3376,13 @@
         <v>43</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>56</v>
@@ -3110,16 +3390,16 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6" t="n">
+      <c r="L25" s="6">
         <v>1</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -3136,37 +3416,37 @@
         <v>59</v>
       </c>
       <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
+      <c r="Z25" s="14"/>
       <c r="AA25" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG25" s="8" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
-      <c r="AL25" s="6" t="n">
+      <c r="AL25" s="6">
         <v>3</v>
       </c>
-      <c r="AM25" s="6" t="n">
+      <c r="AM25" s="6">
         <v>23</v>
       </c>
       <c r="AN25" s="7"/>
-      <c r="AO25" s="6" t="n">
+      <c r="AO25" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+    <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3179,13 +3459,13 @@
         <v>43</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>56</v>
@@ -3193,16 +3473,16 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="6" t="n">
+      <c r="L26" s="6">
         <v>1</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -3219,37 +3499,37 @@
         <v>59</v>
       </c>
       <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG26" s="8" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
-      <c r="AL26" s="6" t="n">
+      <c r="AL26" s="6">
         <v>3</v>
       </c>
-      <c r="AM26" s="6" t="n">
+      <c r="AM26" s="6">
         <v>24</v>
       </c>
       <c r="AN26" s="7"/>
-      <c r="AO26" s="6" t="n">
+      <c r="AO26" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3262,13 +3542,13 @@
         <v>43</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>56</v>
@@ -3276,16 +3556,16 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="6" t="n">
+      <c r="L27" s="6">
         <v>1</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
@@ -3302,37 +3582,37 @@
         <v>59</v>
       </c>
       <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG27" s="8" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
-      <c r="AL27" s="6" t="n">
+      <c r="AL27" s="6">
         <v>3</v>
       </c>
-      <c r="AM27" s="6" t="n">
+      <c r="AM27" s="6">
         <v>925</v>
       </c>
       <c r="AN27" s="7"/>
-      <c r="AO27" s="6" t="n">
+      <c r="AO27" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3345,13 +3625,13 @@
         <v>43</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>56</v>
@@ -3359,16 +3639,16 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="6" t="n">
+      <c r="L28" s="6">
         <v>1</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -3385,37 +3665,37 @@
         <v>59</v>
       </c>
       <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
+      <c r="Z28" s="14"/>
       <c r="AA28" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG28" s="8" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
-      <c r="AL28" s="6" t="n">
+      <c r="AL28" s="6">
         <v>3</v>
       </c>
-      <c r="AM28" s="6" t="n">
+      <c r="AM28" s="6">
         <v>926</v>
       </c>
       <c r="AN28" s="7"/>
-      <c r="AO28" s="6" t="n">
+      <c r="AO28" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3428,13 +3708,13 @@
         <v>43</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>56</v>
@@ -3442,16 +3722,16 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="6" t="n">
+      <c r="L29" s="6">
         <v>1</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -3468,41 +3748,41 @@
         <v>59</v>
       </c>
       <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
+      <c r="Z29" s="14"/>
       <c r="AA29" s="6" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG29" s="8" t="n">
-        <v>0.007448</v>
+        <v>60</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>7.4479999999999998E-3</v>
       </c>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
-      <c r="AL29" s="6" t="n">
+      <c r="AL29" s="6">
         <v>3</v>
       </c>
-      <c r="AM29" s="6" t="n">
+      <c r="AM29" s="6">
         <v>927</v>
       </c>
       <c r="AN29" s="7"/>
-      <c r="AO29" s="6" t="n">
+      <c r="AO29" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>37</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>42</v>
@@ -3512,10 +3792,10 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>43</v>
@@ -3537,7 +3817,7 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
+      <c r="Z30" s="14"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
@@ -3549,23 +3829,23 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
-      <c r="AL30" s="6" t="n">
+      <c r="AL30" s="6">
         <v>1</v>
       </c>
-      <c r="AM30" s="6" t="n">
+      <c r="AM30" s="6">
         <v>310</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AO30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>42</v>
@@ -3575,10 +3855,10 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>43</v>
@@ -3600,7 +3880,7 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
+      <c r="Z31" s="14"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
@@ -3612,25 +3892,25 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
-      <c r="AL31" s="6" t="n">
+      <c r="AL31" s="6">
         <v>1</v>
       </c>
-      <c r="AM31" s="6" t="n">
+      <c r="AM31" s="6">
         <v>311</v>
       </c>
-      <c r="AN31" s="7" t="n">
+      <c r="AN31" s="7">
         <v>26</v>
       </c>
-      <c r="AO31" s="6" t="n">
+      <c r="AO31" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>42</v>
@@ -3639,16 +3919,16 @@
         <v>43</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -3661,7 +3941,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -3669,45 +3949,45 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
+      <c r="Z32" s="14"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AF32" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG32" s="8" t="n">
+      <c r="AG32" s="8">
         <v>0.08</v>
       </c>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="6">
+        <v>26</v>
+      </c>
+      <c r="AN32" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM32" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN32" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO32" s="6" t="n">
+      <c r="AO32" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+    <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>42</v>
@@ -3716,79 +3996,79 @@
         <v>43</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="6" t="n">
+      <c r="L33" s="6">
         <v>1</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z33" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="Z33" s="14"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG33" s="8"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK33" s="6"/>
-      <c r="AL33" s="6" t="n">
+      <c r="AL33" s="6">
         <v>3</v>
       </c>
-      <c r="AM33" s="6" t="n">
+      <c r="AM33" s="6">
         <v>27</v>
       </c>
       <c r="AN33" s="7"/>
-      <c r="AO33" s="6" t="n">
+      <c r="AO33" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+    <row r="34" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>41</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>42</v>
@@ -3797,77 +4077,77 @@
         <v>43</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="6" t="n">
+      <c r="L34" s="6">
         <v>0.01</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z34" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="Z34" s="14"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
       <c r="AE34" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG34" s="8"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
-      <c r="AL34" s="6" t="n">
+      <c r="AL34" s="6">
         <v>3</v>
       </c>
-      <c r="AM34" s="6" t="n">
+      <c r="AM34" s="6">
         <v>28</v>
       </c>
       <c r="AN34" s="7"/>
-      <c r="AO34" s="6" t="n">
+      <c r="AO34" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+    <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>42</v>
@@ -3877,10 +4157,10 @@
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>43</v>
@@ -3902,7 +4182,7 @@
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
+      <c r="Z35" s="14"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
@@ -3914,25 +4194,25 @@
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
-      <c r="AL35" s="6" t="n">
+      <c r="AL35" s="6">
         <v>1</v>
       </c>
-      <c r="AM35" s="6" t="n">
+      <c r="AM35" s="6">
         <v>312</v>
       </c>
       <c r="AN35" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO35" s="6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AO35" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+    <row r="36" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>43</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>42</v>
@@ -3941,81 +4221,81 @@
         <v>43</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="6" t="n">
+      <c r="L36" s="6">
         <v>1</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="6" t="s">
-        <v>169</v>
+      <c r="Z36" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG36" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG36" s="8">
         <v>0.04</v>
       </c>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AK36" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL36" s="6" t="n">
+        <v>147</v>
+      </c>
+      <c r="AL36" s="6">
         <v>2</v>
       </c>
-      <c r="AM36" s="6" t="n">
+      <c r="AM36" s="6">
         <v>29</v>
       </c>
       <c r="AN36" s="7"/>
-      <c r="AO36" s="6" t="n">
+      <c r="AO36" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
+    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>44</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>42</v>
@@ -4024,83 +4304,83 @@
         <v>43</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="6" t="n">
+      <c r="L37" s="6">
         <v>1</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z37" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="Z37" s="14"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
       <c r="AE37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF37" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AF37" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG37" s="8" t="n">
+      <c r="AG37" s="8">
         <v>0.04</v>
       </c>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AK37" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL37" s="6" t="n">
+        <v>147</v>
+      </c>
+      <c r="AL37" s="6">
         <v>2</v>
       </c>
-      <c r="AM37" s="6" t="n">
+      <c r="AM37" s="6">
         <v>30</v>
       </c>
       <c r="AN37" s="7"/>
-      <c r="AO37" s="6" t="n">
+      <c r="AO37" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>45</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>42</v>
@@ -4109,85 +4389,85 @@
         <v>43</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="6" t="n">
+      <c r="M38" s="6">
         <v>1</v>
       </c>
-      <c r="N38" s="6" t="n">
+      <c r="N38" s="6">
         <v>15</v>
       </c>
       <c r="O38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z38" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="Z38" s="14"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG38" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG38" s="8">
         <v>0.04</v>
       </c>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AK38" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL38" s="6" t="n">
+        <v>147</v>
+      </c>
+      <c r="AL38" s="6">
         <v>2</v>
       </c>
-      <c r="AM38" s="6" t="n">
+      <c r="AM38" s="6">
         <v>31</v>
       </c>
       <c r="AN38" s="7"/>
-      <c r="AO38" s="6" t="n">
+      <c r="AO38" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+    <row r="39" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>42</v>
@@ -4197,10 +4477,10 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>43</v>
@@ -4222,7 +4502,7 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
+      <c r="Z39" s="14"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
@@ -4234,23 +4514,23 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
-      <c r="AL39" s="6" t="n">
+      <c r="AL39" s="6">
         <v>1</v>
       </c>
-      <c r="AM39" s="6" t="n">
+      <c r="AM39" s="6">
         <v>400</v>
       </c>
       <c r="AN39" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AO39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+    <row r="40" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>42</v>
@@ -4259,13 +4539,13 @@
         <v>43</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>56</v>
@@ -4273,16 +4553,16 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="6" t="n">
+      <c r="L40" s="6">
         <v>4</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -4290,50 +4570,50 @@
         <v>57</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
-      <c r="Z40" s="13" t="s">
-        <v>184</v>
+      <c r="Z40" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG40" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG40" s="8">
         <v>0.05</v>
       </c>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
-      <c r="AL40" s="6" t="n">
+      <c r="AL40" s="6">
         <v>2</v>
       </c>
-      <c r="AM40" s="6" t="n">
+      <c r="AM40" s="6">
         <v>33</v>
       </c>
       <c r="AN40" s="7"/>
-      <c r="AO40" s="6" t="n">
+      <c r="AO40" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+    <row r="41" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>49</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>42</v>
@@ -4342,21 +4622,21 @@
         <v>43</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="6" t="n">
+      <c r="L41" s="6">
         <v>2</v>
       </c>
       <c r="M41" s="6"/>
@@ -4366,7 +4646,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
@@ -4374,45 +4654,45 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
-      <c r="Z41" s="6" t="s">
-        <v>190</v>
+      <c r="Z41" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG41" s="8" t="n">
-        <v>0.28</v>
+        <v>60</v>
+      </c>
+      <c r="AG41" s="8">
+        <v>0.28000000000000003</v>
       </c>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
-      <c r="AL41" s="6" t="n">
+      <c r="AL41" s="6">
         <v>2</v>
       </c>
-      <c r="AM41" s="6" t="n">
+      <c r="AM41" s="6">
         <v>34</v>
       </c>
       <c r="AN41" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="AO41" s="6" t="n">
+        <v>188</v>
+      </c>
+      <c r="AO41" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+    <row r="42" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>50</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>42</v>
@@ -4421,13 +4701,13 @@
         <v>43</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>56</v>
@@ -4435,16 +4715,16 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="6" t="n">
+      <c r="L42" s="6">
         <v>1</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -4459,41 +4739,41 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
-      <c r="Z42" s="6" t="s">
-        <v>190</v>
+      <c r="Z42" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG42" s="8"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
-      <c r="AL42" s="6" t="n">
+      <c r="AL42" s="6">
         <v>3</v>
       </c>
-      <c r="AM42" s="6" t="n">
+      <c r="AM42" s="6">
         <v>35</v>
       </c>
       <c r="AN42" s="7"/>
-      <c r="AO42" s="6" t="n">
+      <c r="AO42" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
+    <row r="43" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>51</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>42</v>
@@ -4502,13 +4782,13 @@
         <v>43</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>56</v>
@@ -4516,19 +4796,19 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="6" t="n">
+      <c r="L43" s="6">
         <v>1</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R43" s="6"/>
       <c r="S43" s="6" t="s">
@@ -4542,43 +4822,43 @@
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
-      <c r="Z43" s="6" t="s">
-        <v>190</v>
+      <c r="Z43" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF43" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG43" s="8"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AK43" s="6"/>
-      <c r="AL43" s="6" t="n">
+      <c r="AL43" s="6">
         <v>3</v>
       </c>
-      <c r="AM43" s="6" t="n">
+      <c r="AM43" s="6">
         <v>36</v>
       </c>
       <c r="AN43" s="7"/>
-      <c r="AO43" s="6" t="n">
+      <c r="AO43" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
+    <row r="44" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>52</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>42</v>
@@ -4587,21 +4867,21 @@
         <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="6" t="n">
+      <c r="L44" s="6">
         <v>1</v>
       </c>
       <c r="M44" s="6"/>
@@ -4611,7 +4891,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
@@ -4619,8 +4899,8 @@
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
-      <c r="Z44" s="6" t="s">
-        <v>190</v>
+      <c r="Z44" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
@@ -4628,34 +4908,34 @@
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
       <c r="AF44" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG44" s="8" t="n">
-        <v>0.07</v>
+        <v>60</v>
+      </c>
+      <c r="AG44" s="8">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
-      <c r="AL44" s="6" t="n">
+      <c r="AL44" s="6">
         <v>2</v>
       </c>
-      <c r="AM44" s="6" t="n">
+      <c r="AM44" s="6">
         <v>680</v>
       </c>
-      <c r="AN44" s="7" t="n">
+      <c r="AN44" s="7">
         <v>769</v>
       </c>
-      <c r="AO44" s="6" t="n">
+      <c r="AO44" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
+    <row r="45" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>56</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>42</v>
@@ -4664,21 +4944,21 @@
         <v>43</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="6" t="n">
+      <c r="L45" s="6">
         <v>2</v>
       </c>
       <c r="M45" s="6"/>
@@ -4688,7 +4968,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
@@ -4696,43 +4976,43 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
-      <c r="Z45" s="6" t="s">
-        <v>190</v>
+      <c r="Z45" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF45" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG45" s="8"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
-      <c r="AL45" s="6" t="n">
+      <c r="AL45" s="6">
         <v>3</v>
       </c>
-      <c r="AM45" s="6" t="n">
+      <c r="AM45" s="6">
         <v>769</v>
       </c>
       <c r="AN45" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO45" s="6" t="n">
+        <v>205</v>
+      </c>
+      <c r="AO45" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+    <row r="46" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>57</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>42</v>
@@ -4741,13 +5021,13 @@
         <v>43</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>56</v>
@@ -4755,69 +5035,69 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="6" t="n">
+      <c r="L46" s="6">
         <v>1</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S46" s="6" t="s">
         <v>57</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
-      <c r="Z46" s="6" t="s">
-        <v>190</v>
+      <c r="Z46" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF46" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG46" s="8"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="6"/>
-      <c r="AL46" s="6" t="n">
+      <c r="AL46" s="6">
         <v>4</v>
       </c>
-      <c r="AM46" s="6" t="n">
+      <c r="AM46" s="6">
         <v>770</v>
       </c>
       <c r="AN46" s="7"/>
-      <c r="AO46" s="6" t="n">
+      <c r="AO46" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
+    <row r="47" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>58</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>42</v>
@@ -4826,13 +5106,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>56</v>
@@ -4840,19 +5120,19 @@
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="6" t="n">
+      <c r="L47" s="6">
         <v>1</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R47" s="6"/>
       <c r="S47" s="6" t="s">
@@ -4866,66 +5146,66 @@
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
-      <c r="Z47" s="6" t="s">
-        <v>190</v>
+      <c r="Z47" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG47" s="8"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AK47" s="6"/>
-      <c r="AL47" s="6" t="n">
+      <c r="AL47" s="6">
         <v>4</v>
       </c>
-      <c r="AM47" s="6" t="n">
+      <c r="AM47" s="6">
         <v>771</v>
       </c>
       <c r="AN47" s="7"/>
-      <c r="AO47" s="6" t="n">
+      <c r="AO47" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
+    <row r="48" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>59</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -4936,14 +5216,14 @@
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
+      <c r="Z48" s="14"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
@@ -4956,63 +5236,63 @@
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
       <c r="AL48" s="6"/>
-      <c r="AM48" s="6" t="n">
+      <c r="AM48" s="6">
         <v>37</v>
       </c>
       <c r="AN48" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
+    <row r="49" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>60</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
+      <c r="Z49" s="14"/>
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
@@ -5025,63 +5305,63 @@
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
       <c r="AL49" s="6"/>
-      <c r="AM49" s="6" t="n">
+      <c r="AM49" s="6">
         <v>38</v>
       </c>
-      <c r="AN49" s="7" t="n">
+      <c r="AN49" s="7">
         <v>32</v>
       </c>
       <c r="AO49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
+    <row r="50" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
         <v>61</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
+      <c r="Z50" s="14"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
@@ -5094,65 +5374,65 @@
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
       <c r="AL50" s="6"/>
-      <c r="AM50" s="6" t="n">
+      <c r="AM50" s="6">
         <v>39</v>
       </c>
-      <c r="AN50" s="7" t="n">
+      <c r="AN50" s="7">
         <v>33</v>
       </c>
       <c r="AO50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
+    <row r="51" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>62</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
+      <c r="Z51" s="14"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
@@ -5165,65 +5445,65 @@
       <c r="AJ51" s="6"/>
       <c r="AK51" s="6"/>
       <c r="AL51" s="6"/>
-      <c r="AM51" s="6" t="n">
+      <c r="AM51" s="6">
         <v>40</v>
       </c>
-      <c r="AN51" s="7" t="n">
+      <c r="AN51" s="7">
         <v>34</v>
       </c>
       <c r="AO51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
+    <row r="52" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
         <v>63</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
+      <c r="Z52" s="14"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
@@ -5236,65 +5516,65 @@
       <c r="AJ52" s="6"/>
       <c r="AK52" s="6"/>
       <c r="AL52" s="6"/>
-      <c r="AM52" s="6" t="n">
+      <c r="AM52" s="6">
         <v>42</v>
       </c>
       <c r="AN52" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AO52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
+    <row r="53" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
         <v>64</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z53" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="Z53" s="14"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
@@ -5307,39 +5587,39 @@
       <c r="AJ53" s="6"/>
       <c r="AK53" s="6"/>
       <c r="AL53" s="6"/>
-      <c r="AM53" s="6" t="n">
+      <c r="AM53" s="6">
         <v>43</v>
       </c>
       <c r="AN53" s="7"/>
       <c r="AO53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
+    <row r="54" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
         <v>65</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -5350,14 +5630,14 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
+      <c r="Z54" s="14"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
@@ -5370,21 +5650,15 @@
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6"/>
       <c r="AL54" s="6"/>
-      <c r="AM54" s="6" t="n">
+      <c r="AM54" s="6">
         <v>401</v>
       </c>
       <c r="AN54" s="7"/>
       <c r="AO54" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AO54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46448CA0-8974-45E8-BBFF-6147AD204223}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1660681-E781-41E5-9C2B-CD6DB3BBA05C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="248">
   <si>
     <t>Sorting</t>
   </si>
@@ -625,9 +625,6 @@
     <t>AND</t>
   </si>
   <si>
-    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
-  </si>
-  <si>
     <t>35
 36</t>
   </si>
@@ -819,10 +816,7 @@
     <t>Cash Zone; SS_Cash Zone - Canteen, QSR; Promo SSD Display IC</t>
   </si>
   <si>
-    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
-  </si>
-  <si>
-    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
+    <t>Combo1; Combo2; Combo3; Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1340,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="S1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="Z49" sqref="Z49"/>
+      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41:Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1715,7 +1709,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
@@ -1798,7 +1792,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
@@ -1881,7 +1875,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
@@ -1964,7 +1958,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
@@ -2047,7 +2041,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
@@ -2130,7 +2124,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
@@ -2213,7 +2207,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
@@ -2296,7 +2290,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
@@ -2452,7 +2446,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
@@ -2535,7 +2529,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
@@ -2691,7 +2685,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
@@ -2847,7 +2841,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
@@ -2930,7 +2924,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
@@ -3013,7 +3007,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
@@ -3096,7 +3090,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
@@ -3252,7 +3246,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
@@ -3335,7 +3329,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
@@ -3418,7 +3412,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
@@ -3501,7 +3495,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
@@ -3584,7 +3578,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
@@ -3667,7 +3661,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
@@ -3750,7 +3744,7 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
@@ -4256,7 +4250,7 @@
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
@@ -4578,7 +4572,7 @@
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
@@ -4655,7 +4649,7 @@
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
@@ -4681,7 +4675,7 @@
         <v>34</v>
       </c>
       <c r="AN41" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AO41" s="6">
         <v>400</v>
@@ -4704,10 +4698,10 @@
         <v>182</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>56</v>
@@ -4721,10 +4715,10 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="P42" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -4740,7 +4734,7 @@
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
@@ -4785,10 +4779,10 @@
         <v>182</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>56</v>
@@ -4802,13 +4796,13 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="R43" s="6"/>
       <c r="S43" s="6" t="s">
@@ -4823,7 +4817,7 @@
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
@@ -4839,7 +4833,7 @@
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AK43" s="6"/>
       <c r="AL43" s="6">
@@ -4867,13 +4861,13 @@
         <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>185</v>
@@ -4900,7 +4894,7 @@
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
@@ -4947,13 +4941,13 @@
         <v>182</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -4977,7 +4971,7 @@
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
@@ -5001,7 +4995,7 @@
         <v>769</v>
       </c>
       <c r="AN45" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO45" s="6">
         <v>680</v>
@@ -5024,10 +5018,10 @@
         <v>182</v>
       </c>
       <c r="F46" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>56</v>
@@ -5041,22 +5035,22 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S46" s="6" t="s">
         <v>57</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
@@ -5064,7 +5058,7 @@
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
@@ -5109,10 +5103,10 @@
         <v>182</v>
       </c>
       <c r="F47" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>56</v>
@@ -5126,13 +5120,13 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="R47" s="6"/>
       <c r="S47" s="6" t="s">
@@ -5147,7 +5141,7 @@
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
@@ -5163,7 +5157,7 @@
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AK47" s="6"/>
       <c r="AL47" s="6">
@@ -5188,24 +5182,24 @@
         <v>42</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -5216,7 +5210,7 @@
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
@@ -5255,37 +5249,37 @@
         <v>42</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
@@ -5324,37 +5318,37 @@
         <v>42</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>179</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="H50" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
@@ -5393,39 +5387,39 @@
         <v>42</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="P51" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="P51" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
@@ -5464,39 +5458,39 @@
         <v>42</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>182</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="H52" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
@@ -5520,7 +5514,7 @@
         <v>42</v>
       </c>
       <c r="AN52" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AO52" s="6"/>
     </row>
@@ -5535,37 +5529,37 @@
         <v>42</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
@@ -5604,22 +5598,22 @@
         <v>42</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="H54" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -5630,7 +5624,7 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
